--- a/Design/타워 기획 .xlsx
+++ b/Design/타워 기획 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428FE4CF-DACD-4031-A89F-7FA29B8D3C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5560BF-CB3E-4B54-AE05-AA29CA4CA4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="285">
   <si>
     <t>타워 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1178,6 +1178,14 @@
   </si>
   <si>
     <t>미사일로 범위 공격을 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드 스탯 설명 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1862,10 +1870,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1880,10 +1993,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1892,123 +2014,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3131,7 +3139,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3142,24 +3150,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="I1" s="41" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
@@ -3267,13 +3275,13 @@
       <c r="A7" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="6" t="s">
         <v>265</v>
       </c>
@@ -3398,7 +3406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F164C607-0E5A-46EA-AF33-69DD52063EBB}">
   <dimension ref="A1:Z301"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3452,10 +3462,10 @@
         <v>195</v>
       </c>
       <c r="P3" s="51"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -3851,10 +3861,10 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="55" t="s">
+      <c r="O20" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="P20" s="57"/>
+      <c r="P20" s="59"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -3877,16 +3887,16 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="55" t="s">
+      <c r="O21" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="55" t="s">
+      <c r="P21" s="59"/>
+      <c r="Q21" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="59"/>
       <c r="U21" s="38" t="s">
         <v>199</v>
       </c>
@@ -3908,16 +3918,16 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="55" t="b">
+      <c r="O22" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="55" t="s">
+      <c r="P22" s="59"/>
+      <c r="Q22" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="57"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="59"/>
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3935,16 +3945,16 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="55" t="b">
+      <c r="O23" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="55" t="s">
+      <c r="P23" s="59"/>
+      <c r="Q23" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="57"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="59"/>
       <c r="U23" s="38" t="s">
         <v>200</v>
       </c>
@@ -4664,10 +4674,10 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="55" t="s">
+      <c r="S54" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="T54" s="57"/>
+      <c r="T54" s="59"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
@@ -5448,7 +5458,7 @@
       <c r="A88" t="s">
         <v>138</v>
       </c>
-      <c r="D88" s="76"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="8" t="s">
         <v>87</v>
       </c>
@@ -5475,10 +5485,10 @@
         <v>140</v>
       </c>
       <c r="D89" s="51"/>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="G89" s="57"/>
+      <c r="G89" s="59"/>
       <c r="H89" s="51" t="s">
         <v>133</v>
       </c>
@@ -5504,316 +5514,316 @@
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A90" s="62" t="s">
+      <c r="A90" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="62"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="51" t="s">
         <v>127</v>
       </c>
       <c r="D90" s="51"/>
-      <c r="F90" s="66" t="s">
+      <c r="F90" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="G90" s="67"/>
-      <c r="H90" s="61" t="s">
+      <c r="G90" s="62"/>
+      <c r="H90" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="61"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="61"/>
-      <c r="P90" s="61"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="61"/>
-      <c r="S90" s="61"/>
-      <c r="T90" s="61"/>
-      <c r="U90" s="61"/>
-      <c r="V90" s="61"/>
-      <c r="W90" s="61"/>
-      <c r="X90" s="61"/>
-      <c r="Y90" s="61"/>
-      <c r="Z90" s="63"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="53"/>
+      <c r="L90" s="53"/>
+      <c r="M90" s="53"/>
+      <c r="N90" s="53"/>
+      <c r="O90" s="53"/>
+      <c r="P90" s="53"/>
+      <c r="Q90" s="53"/>
+      <c r="R90" s="53"/>
+      <c r="S90" s="53"/>
+      <c r="T90" s="53"/>
+      <c r="U90" s="53"/>
+      <c r="V90" s="53"/>
+      <c r="W90" s="53"/>
+      <c r="X90" s="53"/>
+      <c r="Y90" s="53"/>
+      <c r="Z90" s="65"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A91" s="70">
+      <c r="A91" s="67">
         <v>0</v>
       </c>
-      <c r="B91" s="71"/>
+      <c r="B91" s="68"/>
       <c r="C91" s="51" t="s">
         <v>141</v>
       </c>
       <c r="D91" s="51"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="61" t="s">
+      <c r="F91" s="63"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-      <c r="L91" s="61"/>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="61"/>
-      <c r="P91" s="61"/>
-      <c r="Q91" s="61"/>
-      <c r="R91" s="61"/>
-      <c r="S91" s="61"/>
-      <c r="T91" s="61"/>
-      <c r="U91" s="61"/>
-      <c r="V91" s="61"/>
-      <c r="W91" s="61"/>
-      <c r="X91" s="61"/>
-      <c r="Y91" s="61"/>
-      <c r="Z91" s="64"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="53"/>
+      <c r="L91" s="53"/>
+      <c r="M91" s="53"/>
+      <c r="N91" s="53"/>
+      <c r="O91" s="53"/>
+      <c r="P91" s="53"/>
+      <c r="Q91" s="53"/>
+      <c r="R91" s="53"/>
+      <c r="S91" s="53"/>
+      <c r="T91" s="53"/>
+      <c r="U91" s="53"/>
+      <c r="V91" s="53"/>
+      <c r="W91" s="53"/>
+      <c r="X91" s="53"/>
+      <c r="Y91" s="53"/>
+      <c r="Z91" s="66"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A92" s="70">
+      <c r="A92" s="67">
         <v>1</v>
       </c>
-      <c r="B92" s="71"/>
+      <c r="B92" s="68"/>
       <c r="C92" s="51" t="s">
         <v>142</v>
       </c>
       <c r="D92" s="51"/>
-      <c r="F92" s="61" t="s">
+      <c r="F92" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61" t="s">
+      <c r="G92" s="53"/>
+      <c r="H92" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-      <c r="L92" s="61"/>
-      <c r="M92" s="61"/>
-      <c r="N92" s="61"/>
-      <c r="O92" s="61"/>
-      <c r="P92" s="61"/>
-      <c r="Q92" s="61"/>
-      <c r="R92" s="61"/>
-      <c r="S92" s="61"/>
-      <c r="T92" s="61"/>
-      <c r="U92" s="61"/>
-      <c r="V92" s="61"/>
-      <c r="W92" s="61"/>
-      <c r="X92" s="61"/>
-      <c r="Y92" s="61"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="53"/>
+      <c r="L92" s="53"/>
+      <c r="M92" s="53"/>
+      <c r="N92" s="53"/>
+      <c r="O92" s="53"/>
+      <c r="P92" s="53"/>
+      <c r="Q92" s="53"/>
+      <c r="R92" s="53"/>
+      <c r="S92" s="53"/>
+      <c r="T92" s="53"/>
+      <c r="U92" s="53"/>
+      <c r="V92" s="53"/>
+      <c r="W92" s="53"/>
+      <c r="X92" s="53"/>
+      <c r="Y92" s="53"/>
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A93" s="70">
+      <c r="A93" s="67">
         <v>2</v>
       </c>
-      <c r="B93" s="71"/>
+      <c r="B93" s="68"/>
       <c r="C93" s="51" t="s">
         <v>143</v>
       </c>
       <c r="D93" s="51"/>
-      <c r="F93" s="61" t="s">
+      <c r="F93" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61" t="s">
+      <c r="G93" s="53"/>
+      <c r="H93" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="I93" s="61"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="61"/>
-      <c r="M93" s="61"/>
-      <c r="N93" s="61"/>
-      <c r="O93" s="61"/>
-      <c r="P93" s="61"/>
-      <c r="Q93" s="61"/>
-      <c r="R93" s="61"/>
-      <c r="S93" s="61"/>
-      <c r="T93" s="61"/>
-      <c r="U93" s="61"/>
-      <c r="V93" s="61"/>
-      <c r="W93" s="61"/>
-      <c r="X93" s="61"/>
-      <c r="Y93" s="61"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="53"/>
+      <c r="L93" s="53"/>
+      <c r="M93" s="53"/>
+      <c r="N93" s="53"/>
+      <c r="O93" s="53"/>
+      <c r="P93" s="53"/>
+      <c r="Q93" s="53"/>
+      <c r="R93" s="53"/>
+      <c r="S93" s="53"/>
+      <c r="T93" s="53"/>
+      <c r="U93" s="53"/>
+      <c r="V93" s="53"/>
+      <c r="W93" s="53"/>
+      <c r="X93" s="53"/>
+      <c r="Y93" s="53"/>
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A94" s="70">
+      <c r="A94" s="67">
         <v>3</v>
       </c>
-      <c r="B94" s="71"/>
+      <c r="B94" s="68"/>
       <c r="C94" s="51" t="s">
         <v>144</v>
       </c>
       <c r="D94" s="51"/>
-      <c r="F94" s="61" t="s">
+      <c r="F94" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61" t="s">
+      <c r="G94" s="53"/>
+      <c r="H94" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="I94" s="61"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="61"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="61"/>
-      <c r="O94" s="61"/>
-      <c r="P94" s="61"/>
-      <c r="Q94" s="61"/>
-      <c r="R94" s="61"/>
-      <c r="S94" s="61"/>
-      <c r="T94" s="61"/>
-      <c r="U94" s="61"/>
-      <c r="V94" s="61"/>
-      <c r="W94" s="61"/>
-      <c r="X94" s="61"/>
-      <c r="Y94" s="61"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="53"/>
+      <c r="L94" s="53"/>
+      <c r="M94" s="53"/>
+      <c r="N94" s="53"/>
+      <c r="O94" s="53"/>
+      <c r="P94" s="53"/>
+      <c r="Q94" s="53"/>
+      <c r="R94" s="53"/>
+      <c r="S94" s="53"/>
+      <c r="T94" s="53"/>
+      <c r="U94" s="53"/>
+      <c r="V94" s="53"/>
+      <c r="W94" s="53"/>
+      <c r="X94" s="53"/>
+      <c r="Y94" s="53"/>
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A95" s="70">
+      <c r="A95" s="67">
         <v>4</v>
       </c>
-      <c r="B95" s="71"/>
+      <c r="B95" s="68"/>
       <c r="C95" s="51" t="s">
         <v>145</v>
       </c>
       <c r="D95" s="51"/>
-      <c r="F95" s="61" t="s">
+      <c r="F95" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61" t="s">
+      <c r="G95" s="53"/>
+      <c r="H95" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="I95" s="61"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="61"/>
-      <c r="L95" s="61"/>
-      <c r="M95" s="61"/>
-      <c r="N95" s="61"/>
-      <c r="O95" s="61"/>
-      <c r="P95" s="61"/>
-      <c r="Q95" s="61"/>
-      <c r="R95" s="61"/>
-      <c r="S95" s="61"/>
-      <c r="T95" s="61"/>
-      <c r="U95" s="61"/>
-      <c r="V95" s="61"/>
-      <c r="W95" s="61"/>
-      <c r="X95" s="61"/>
-      <c r="Y95" s="61"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="53"/>
+      <c r="M95" s="53"/>
+      <c r="N95" s="53"/>
+      <c r="O95" s="53"/>
+      <c r="P95" s="53"/>
+      <c r="Q95" s="53"/>
+      <c r="R95" s="53"/>
+      <c r="S95" s="53"/>
+      <c r="T95" s="53"/>
+      <c r="U95" s="53"/>
+      <c r="V95" s="53"/>
+      <c r="W95" s="53"/>
+      <c r="X95" s="53"/>
+      <c r="Y95" s="53"/>
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A96" s="70">
+      <c r="A96" s="67">
         <v>5</v>
       </c>
-      <c r="B96" s="71"/>
+      <c r="B96" s="68"/>
       <c r="C96" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D96" s="51"/>
-      <c r="F96" s="61" t="s">
+      <c r="F96" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="G96" s="61"/>
-      <c r="H96" s="65" t="s">
+      <c r="G96" s="53"/>
+      <c r="H96" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65"/>
-      <c r="P96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="65"/>
-      <c r="S96" s="65"/>
-      <c r="T96" s="65"/>
-      <c r="U96" s="65"/>
-      <c r="V96" s="65"/>
-      <c r="W96" s="65"/>
-      <c r="X96" s="65"/>
-      <c r="Y96" s="65"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
+      <c r="O96" s="69"/>
+      <c r="P96" s="69"/>
+      <c r="Q96" s="69"/>
+      <c r="R96" s="69"/>
+      <c r="S96" s="69"/>
+      <c r="T96" s="69"/>
+      <c r="U96" s="69"/>
+      <c r="V96" s="69"/>
+      <c r="W96" s="69"/>
+      <c r="X96" s="69"/>
+      <c r="Y96" s="69"/>
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="70">
+      <c r="A97" s="67">
         <v>6</v>
       </c>
-      <c r="B97" s="71"/>
+      <c r="B97" s="68"/>
       <c r="C97" s="51" t="s">
         <v>147</v>
       </c>
       <c r="D97" s="51"/>
-      <c r="F97" s="61" t="s">
+      <c r="F97" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="G97" s="61"/>
-      <c r="H97" s="65" t="s">
+      <c r="G97" s="53"/>
+      <c r="H97" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65"/>
-      <c r="L97" s="65"/>
-      <c r="M97" s="65"/>
-      <c r="N97" s="65"/>
-      <c r="O97" s="65"/>
-      <c r="P97" s="65"/>
-      <c r="Q97" s="65"/>
-      <c r="R97" s="65"/>
-      <c r="S97" s="65"/>
-      <c r="T97" s="65"/>
-      <c r="U97" s="65"/>
-      <c r="V97" s="65"/>
-      <c r="W97" s="65"/>
-      <c r="X97" s="65"/>
-      <c r="Y97" s="65"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="69"/>
+      <c r="K97" s="69"/>
+      <c r="L97" s="69"/>
+      <c r="M97" s="69"/>
+      <c r="N97" s="69"/>
+      <c r="O97" s="69"/>
+      <c r="P97" s="69"/>
+      <c r="Q97" s="69"/>
+      <c r="R97" s="69"/>
+      <c r="S97" s="69"/>
+      <c r="T97" s="69"/>
+      <c r="U97" s="69"/>
+      <c r="V97" s="69"/>
+      <c r="W97" s="69"/>
+      <c r="X97" s="69"/>
+      <c r="Y97" s="69"/>
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" s="70">
+      <c r="A98" s="67">
         <v>7</v>
       </c>
-      <c r="B98" s="71"/>
+      <c r="B98" s="68"/>
       <c r="C98" s="51" t="s">
         <v>148</v>
       </c>
       <c r="D98" s="51"/>
-      <c r="F98" s="61" t="s">
+      <c r="F98" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="G98" s="61"/>
-      <c r="H98" s="65" t="s">
+      <c r="G98" s="53"/>
+      <c r="H98" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="65"/>
-      <c r="L98" s="65"/>
-      <c r="M98" s="65"/>
-      <c r="N98" s="65"/>
-      <c r="O98" s="65"/>
-      <c r="P98" s="65"/>
-      <c r="Q98" s="65"/>
-      <c r="R98" s="65"/>
-      <c r="S98" s="65"/>
-      <c r="T98" s="65"/>
-      <c r="U98" s="65"/>
-      <c r="V98" s="65"/>
-      <c r="W98" s="65"/>
-      <c r="X98" s="65"/>
-      <c r="Y98" s="65"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
+      <c r="N98" s="69"/>
+      <c r="O98" s="69"/>
+      <c r="P98" s="69"/>
+      <c r="Q98" s="69"/>
+      <c r="R98" s="69"/>
+      <c r="S98" s="69"/>
+      <c r="T98" s="69"/>
+      <c r="U98" s="69"/>
+      <c r="V98" s="69"/>
+      <c r="W98" s="69"/>
+      <c r="X98" s="69"/>
+      <c r="Y98" s="69"/>
       <c r="Z98" s="1"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
@@ -6456,10 +6466,10 @@
       <c r="T127" s="8"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A128" s="62" t="s">
+      <c r="A128" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="62"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="51" t="s">
         <v>127</v>
       </c>
@@ -6487,10 +6497,10 @@
       <c r="T128" s="8"/>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A129" s="62">
+      <c r="A129" s="52">
         <v>0</v>
       </c>
-      <c r="B129" s="62"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="51" t="s">
         <v>159</v>
       </c>
@@ -6516,10 +6526,10 @@
       <c r="T129" s="8"/>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A130" s="62">
+      <c r="A130" s="52">
         <v>1</v>
       </c>
-      <c r="B130" s="62"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="51" t="s">
         <v>160</v>
       </c>
@@ -6545,10 +6555,10 @@
       <c r="T130" s="8"/>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A131" s="62">
+      <c r="A131" s="52">
         <v>2</v>
       </c>
-      <c r="B131" s="62"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="51" t="s">
         <v>161</v>
       </c>
@@ -6574,10 +6584,10 @@
       <c r="T131" s="8"/>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A132" s="62">
+      <c r="A132" s="52">
         <v>3</v>
       </c>
-      <c r="B132" s="62"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="51" t="s">
         <v>119</v>
       </c>
@@ -6644,10 +6654,10 @@
       <c r="T135" s="8"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A136" s="62" t="s">
+      <c r="A136" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B136" s="62"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="51" t="s">
         <v>127</v>
       </c>
@@ -6669,82 +6679,82 @@
       <c r="P136" s="51"/>
       <c r="Q136" s="51"/>
       <c r="R136" s="51"/>
-      <c r="S136" s="55" t="s">
+      <c r="S136" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="T136" s="56"/>
-      <c r="U136" s="56"/>
-      <c r="V136" s="57"/>
+      <c r="T136" s="60"/>
+      <c r="U136" s="60"/>
+      <c r="V136" s="59"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A137" s="62">
+      <c r="A137" s="52">
         <v>0</v>
       </c>
-      <c r="B137" s="62"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="51" t="s">
         <v>128</v>
       </c>
       <c r="D137" s="51"/>
-      <c r="F137" s="72" t="s">
+      <c r="F137" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="G137" s="73"/>
-      <c r="H137" s="61" t="s">
+      <c r="G137" s="71"/>
+      <c r="H137" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="I137" s="61"/>
-      <c r="J137" s="61"/>
-      <c r="K137" s="61"/>
-      <c r="L137" s="61"/>
-      <c r="M137" s="61"/>
-      <c r="N137" s="61"/>
-      <c r="O137" s="61"/>
-      <c r="P137" s="61"/>
-      <c r="Q137" s="61"/>
-      <c r="R137" s="61"/>
-      <c r="S137" s="55" t="s">
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="53"/>
+      <c r="M137" s="53"/>
+      <c r="N137" s="53"/>
+      <c r="O137" s="53"/>
+      <c r="P137" s="53"/>
+      <c r="Q137" s="53"/>
+      <c r="R137" s="53"/>
+      <c r="S137" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="T137" s="56"/>
-      <c r="U137" s="56"/>
-      <c r="V137" s="57"/>
+      <c r="T137" s="60"/>
+      <c r="U137" s="60"/>
+      <c r="V137" s="59"/>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A138" s="62">
+      <c r="A138" s="52">
         <v>1</v>
       </c>
-      <c r="B138" s="62"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D138" s="51"/>
-      <c r="F138" s="72" t="s">
+      <c r="F138" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="G138" s="73"/>
-      <c r="H138" s="61" t="s">
+      <c r="G138" s="71"/>
+      <c r="H138" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="I138" s="61"/>
-      <c r="J138" s="61"/>
-      <c r="K138" s="61"/>
-      <c r="L138" s="61"/>
-      <c r="M138" s="61"/>
-      <c r="N138" s="61"/>
-      <c r="O138" s="61"/>
-      <c r="P138" s="61"/>
-      <c r="Q138" s="61"/>
-      <c r="R138" s="61"/>
-      <c r="S138" s="55"/>
-      <c r="T138" s="56"/>
-      <c r="U138" s="56"/>
-      <c r="V138" s="57"/>
+      <c r="I138" s="53"/>
+      <c r="J138" s="53"/>
+      <c r="K138" s="53"/>
+      <c r="L138" s="53"/>
+      <c r="M138" s="53"/>
+      <c r="N138" s="53"/>
+      <c r="O138" s="53"/>
+      <c r="P138" s="53"/>
+      <c r="Q138" s="53"/>
+      <c r="R138" s="53"/>
+      <c r="S138" s="58"/>
+      <c r="T138" s="60"/>
+      <c r="U138" s="60"/>
+      <c r="V138" s="59"/>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A139" s="62">
+      <c r="A139" s="52">
         <v>2</v>
       </c>
-      <c r="B139" s="62"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="51" t="s">
         <v>130</v>
       </c>
@@ -6753,29 +6763,29 @@
         <v>130</v>
       </c>
       <c r="G139" s="39"/>
-      <c r="H139" s="61" t="s">
+      <c r="H139" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I139" s="61"/>
-      <c r="J139" s="61"/>
-      <c r="K139" s="61"/>
-      <c r="L139" s="61"/>
-      <c r="M139" s="61"/>
-      <c r="N139" s="61"/>
-      <c r="O139" s="61"/>
-      <c r="P139" s="61"/>
-      <c r="Q139" s="61"/>
-      <c r="R139" s="61"/>
-      <c r="S139" s="55"/>
-      <c r="T139" s="56"/>
-      <c r="U139" s="56"/>
-      <c r="V139" s="57"/>
+      <c r="I139" s="53"/>
+      <c r="J139" s="53"/>
+      <c r="K139" s="53"/>
+      <c r="L139" s="53"/>
+      <c r="M139" s="53"/>
+      <c r="N139" s="53"/>
+      <c r="O139" s="53"/>
+      <c r="P139" s="53"/>
+      <c r="Q139" s="53"/>
+      <c r="R139" s="53"/>
+      <c r="S139" s="58"/>
+      <c r="T139" s="60"/>
+      <c r="U139" s="60"/>
+      <c r="V139" s="59"/>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A140" s="62">
+      <c r="A140" s="52">
         <v>3</v>
       </c>
-      <c r="B140" s="62"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="51" t="s">
         <v>131</v>
       </c>
@@ -6784,23 +6794,23 @@
         <v>131</v>
       </c>
       <c r="G140" s="39"/>
-      <c r="H140" s="61" t="s">
+      <c r="H140" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I140" s="61"/>
-      <c r="J140" s="61"/>
-      <c r="K140" s="61"/>
-      <c r="L140" s="61"/>
-      <c r="M140" s="61"/>
-      <c r="N140" s="61"/>
-      <c r="O140" s="61"/>
-      <c r="P140" s="61"/>
-      <c r="Q140" s="61"/>
-      <c r="R140" s="61"/>
-      <c r="S140" s="55"/>
-      <c r="T140" s="56"/>
-      <c r="U140" s="56"/>
-      <c r="V140" s="57"/>
+      <c r="I140" s="53"/>
+      <c r="J140" s="53"/>
+      <c r="K140" s="53"/>
+      <c r="L140" s="53"/>
+      <c r="M140" s="53"/>
+      <c r="N140" s="53"/>
+      <c r="O140" s="53"/>
+      <c r="P140" s="53"/>
+      <c r="Q140" s="53"/>
+      <c r="R140" s="53"/>
+      <c r="S140" s="58"/>
+      <c r="T140" s="60"/>
+      <c r="U140" s="60"/>
+      <c r="V140" s="59"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
@@ -6848,10 +6858,10 @@
       <c r="T143" s="8"/>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A144" s="62" t="s">
+      <c r="A144" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B144" s="62"/>
+      <c r="B144" s="52"/>
       <c r="C144" s="51" t="s">
         <v>127</v>
       </c>
@@ -6879,10 +6889,10 @@
       <c r="T144" s="8"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="62">
+      <c r="A145" s="52">
         <v>0</v>
       </c>
-      <c r="B145" s="62"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="51" t="s">
         <v>159</v>
       </c>
@@ -6908,10 +6918,10 @@
       <c r="T145" s="8"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A146" s="62">
+      <c r="A146" s="52">
         <v>1</v>
       </c>
-      <c r="B146" s="62"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="51" t="s">
         <v>160</v>
       </c>
@@ -6937,10 +6947,10 @@
       <c r="T146" s="8"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A147" s="62">
+      <c r="A147" s="52">
         <v>2</v>
       </c>
-      <c r="B147" s="62"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="51" t="s">
         <v>161</v>
       </c>
@@ -6966,10 +6976,10 @@
       <c r="T147" s="8"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="62">
+      <c r="A148" s="52">
         <v>3</v>
       </c>
-      <c r="B148" s="62"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="51" t="s">
         <v>119</v>
       </c>
@@ -7015,10 +7025,10 @@
       <c r="D151" s="51"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="62" t="s">
+      <c r="A152" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B152" s="62"/>
+      <c r="B152" s="52"/>
       <c r="C152" s="51" t="s">
         <v>127</v>
       </c>
@@ -7037,10 +7047,10 @@
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="62">
+      <c r="A153" s="52">
         <v>0</v>
       </c>
-      <c r="B153" s="62"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="51" t="s">
         <v>169</v>
       </c>
@@ -7048,19 +7058,19 @@
       <c r="F153" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="G153" s="61" t="s">
+      <c r="G153" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="H153" s="61"/>
-      <c r="I153" s="61"/>
-      <c r="J153" s="61"/>
+      <c r="H153" s="53"/>
+      <c r="I153" s="53"/>
+      <c r="J153" s="53"/>
       <c r="K153" s="1"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="62">
+      <c r="A154" s="52">
         <v>1</v>
       </c>
-      <c r="B154" s="62"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="51" t="s">
         <v>170</v>
       </c>
@@ -7068,19 +7078,19 @@
       <c r="F154" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="G154" s="61" t="s">
+      <c r="G154" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="H154" s="61"/>
-      <c r="I154" s="61"/>
-      <c r="J154" s="61"/>
+      <c r="H154" s="53"/>
+      <c r="I154" s="53"/>
+      <c r="J154" s="53"/>
       <c r="K154" s="1"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="62">
+      <c r="A155" s="52">
         <v>2</v>
       </c>
-      <c r="B155" s="62"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="51" t="s">
         <v>171</v>
       </c>
@@ -7088,12 +7098,12 @@
       <c r="F155" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="G155" s="61" t="s">
+      <c r="G155" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="H155" s="61"/>
-      <c r="I155" s="61"/>
-      <c r="J155" s="61"/>
+      <c r="H155" s="53"/>
+      <c r="I155" s="53"/>
+      <c r="J155" s="53"/>
       <c r="K155" s="1"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
@@ -7519,10 +7529,10 @@
       <c r="Z283" s="8"/>
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A284" s="46"/>
-      <c r="B284" s="46"/>
-      <c r="C284" s="46"/>
-      <c r="D284" s="46"/>
+      <c r="A284" s="54"/>
+      <c r="B284" s="54"/>
+      <c r="C284" s="54"/>
+      <c r="D284" s="54"/>
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
       <c r="G284" s="8"/>
@@ -7547,24 +7557,24 @@
       <c r="Z284" s="8"/>
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A285" s="77"/>
-      <c r="B285" s="77"/>
-      <c r="C285" s="46"/>
-      <c r="D285" s="46"/>
+      <c r="A285" s="57"/>
+      <c r="B285" s="57"/>
+      <c r="C285" s="54"/>
+      <c r="D285" s="54"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="46"/>
-      <c r="G285" s="46"/>
-      <c r="H285" s="46"/>
-      <c r="I285" s="46"/>
-      <c r="J285" s="46"/>
-      <c r="K285" s="46"/>
-      <c r="L285" s="46"/>
-      <c r="M285" s="46"/>
-      <c r="N285" s="46"/>
-      <c r="O285" s="46"/>
-      <c r="P285" s="46"/>
-      <c r="Q285" s="46"/>
-      <c r="R285" s="46"/>
+      <c r="F285" s="54"/>
+      <c r="G285" s="54"/>
+      <c r="H285" s="54"/>
+      <c r="I285" s="54"/>
+      <c r="J285" s="54"/>
+      <c r="K285" s="54"/>
+      <c r="L285" s="54"/>
+      <c r="M285" s="54"/>
+      <c r="N285" s="54"/>
+      <c r="O285" s="54"/>
+      <c r="P285" s="54"/>
+      <c r="Q285" s="54"/>
+      <c r="R285" s="54"/>
       <c r="S285" s="37"/>
       <c r="T285" s="8"/>
       <c r="U285" s="8"/>
@@ -7575,24 +7585,24 @@
       <c r="Z285" s="8"/>
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A286" s="77"/>
-      <c r="B286" s="77"/>
-      <c r="C286" s="46"/>
-      <c r="D286" s="46"/>
+      <c r="A286" s="57"/>
+      <c r="B286" s="57"/>
+      <c r="C286" s="54"/>
+      <c r="D286" s="54"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="78"/>
-      <c r="G286" s="78"/>
-      <c r="H286" s="78"/>
-      <c r="I286" s="78"/>
-      <c r="J286" s="78"/>
-      <c r="K286" s="78"/>
-      <c r="L286" s="78"/>
-      <c r="M286" s="78"/>
-      <c r="N286" s="78"/>
-      <c r="O286" s="78"/>
-      <c r="P286" s="78"/>
-      <c r="Q286" s="78"/>
-      <c r="R286" s="78"/>
+      <c r="F286" s="56"/>
+      <c r="G286" s="56"/>
+      <c r="H286" s="56"/>
+      <c r="I286" s="56"/>
+      <c r="J286" s="56"/>
+      <c r="K286" s="56"/>
+      <c r="L286" s="56"/>
+      <c r="M286" s="56"/>
+      <c r="N286" s="56"/>
+      <c r="O286" s="56"/>
+      <c r="P286" s="56"/>
+      <c r="Q286" s="56"/>
+      <c r="R286" s="56"/>
       <c r="S286" s="8"/>
       <c r="T286" s="8"/>
       <c r="U286" s="8"/>
@@ -7603,24 +7613,24 @@
       <c r="Z286" s="8"/>
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A287" s="77"/>
-      <c r="B287" s="77"/>
-      <c r="C287" s="46"/>
-      <c r="D287" s="46"/>
+      <c r="A287" s="57"/>
+      <c r="B287" s="57"/>
+      <c r="C287" s="54"/>
+      <c r="D287" s="54"/>
       <c r="E287" s="8"/>
-      <c r="F287" s="78"/>
-      <c r="G287" s="78"/>
-      <c r="H287" s="78"/>
-      <c r="I287" s="78"/>
-      <c r="J287" s="78"/>
-      <c r="K287" s="78"/>
-      <c r="L287" s="78"/>
-      <c r="M287" s="78"/>
-      <c r="N287" s="78"/>
-      <c r="O287" s="78"/>
-      <c r="P287" s="78"/>
-      <c r="Q287" s="78"/>
-      <c r="R287" s="78"/>
+      <c r="F287" s="56"/>
+      <c r="G287" s="56"/>
+      <c r="H287" s="56"/>
+      <c r="I287" s="56"/>
+      <c r="J287" s="56"/>
+      <c r="K287" s="56"/>
+      <c r="L287" s="56"/>
+      <c r="M287" s="56"/>
+      <c r="N287" s="56"/>
+      <c r="O287" s="56"/>
+      <c r="P287" s="56"/>
+      <c r="Q287" s="56"/>
+      <c r="R287" s="56"/>
       <c r="S287" s="8"/>
       <c r="T287" s="8"/>
       <c r="U287" s="8"/>
@@ -7631,24 +7641,24 @@
       <c r="Z287" s="8"/>
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A288" s="77"/>
-      <c r="B288" s="77"/>
-      <c r="C288" s="46"/>
-      <c r="D288" s="46"/>
+      <c r="A288" s="57"/>
+      <c r="B288" s="57"/>
+      <c r="C288" s="54"/>
+      <c r="D288" s="54"/>
       <c r="E288" s="8"/>
-      <c r="F288" s="79"/>
-      <c r="G288" s="79"/>
-      <c r="H288" s="78"/>
-      <c r="I288" s="78"/>
-      <c r="J288" s="78"/>
-      <c r="K288" s="78"/>
-      <c r="L288" s="78"/>
-      <c r="M288" s="78"/>
-      <c r="N288" s="78"/>
-      <c r="O288" s="78"/>
-      <c r="P288" s="78"/>
-      <c r="Q288" s="78"/>
-      <c r="R288" s="78"/>
+      <c r="F288" s="42"/>
+      <c r="G288" s="42"/>
+      <c r="H288" s="56"/>
+      <c r="I288" s="56"/>
+      <c r="J288" s="56"/>
+      <c r="K288" s="56"/>
+      <c r="L288" s="56"/>
+      <c r="M288" s="56"/>
+      <c r="N288" s="56"/>
+      <c r="O288" s="56"/>
+      <c r="P288" s="56"/>
+      <c r="Q288" s="56"/>
+      <c r="R288" s="56"/>
       <c r="S288" s="8"/>
       <c r="T288" s="8"/>
       <c r="U288" s="8"/>
@@ -7659,24 +7669,24 @@
       <c r="Z288" s="8"/>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A289" s="77"/>
-      <c r="B289" s="77"/>
-      <c r="C289" s="46"/>
-      <c r="D289" s="46"/>
+      <c r="A289" s="57"/>
+      <c r="B289" s="57"/>
+      <c r="C289" s="54"/>
+      <c r="D289" s="54"/>
       <c r="E289" s="8"/>
-      <c r="F289" s="79"/>
-      <c r="G289" s="79"/>
-      <c r="H289" s="78"/>
-      <c r="I289" s="78"/>
-      <c r="J289" s="78"/>
-      <c r="K289" s="78"/>
-      <c r="L289" s="78"/>
-      <c r="M289" s="78"/>
-      <c r="N289" s="78"/>
-      <c r="O289" s="78"/>
-      <c r="P289" s="78"/>
-      <c r="Q289" s="78"/>
-      <c r="R289" s="78"/>
+      <c r="F289" s="42"/>
+      <c r="G289" s="42"/>
+      <c r="H289" s="56"/>
+      <c r="I289" s="56"/>
+      <c r="J289" s="56"/>
+      <c r="K289" s="56"/>
+      <c r="L289" s="56"/>
+      <c r="M289" s="56"/>
+      <c r="N289" s="56"/>
+      <c r="O289" s="56"/>
+      <c r="P289" s="56"/>
+      <c r="Q289" s="56"/>
+      <c r="R289" s="56"/>
       <c r="S289" s="8"/>
       <c r="T289" s="8"/>
       <c r="U289" s="8"/>
@@ -7743,283 +7753,283 @@
       <c r="Z291" s="8"/>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A292" s="46"/>
-      <c r="B292" s="46"/>
-      <c r="C292" s="46"/>
-      <c r="D292" s="46"/>
+      <c r="A292" s="54"/>
+      <c r="B292" s="54"/>
+      <c r="C292" s="54"/>
+      <c r="D292" s="54"/>
       <c r="E292" s="8"/>
-      <c r="F292" s="46"/>
-      <c r="G292" s="46"/>
-      <c r="H292" s="46"/>
-      <c r="I292" s="46"/>
-      <c r="J292" s="46"/>
-      <c r="K292" s="46"/>
-      <c r="L292" s="46"/>
-      <c r="M292" s="46"/>
-      <c r="N292" s="46"/>
-      <c r="O292" s="46"/>
-      <c r="P292" s="46"/>
-      <c r="Q292" s="46"/>
-      <c r="R292" s="46"/>
-      <c r="S292" s="46"/>
-      <c r="T292" s="46"/>
-      <c r="U292" s="46"/>
-      <c r="V292" s="46"/>
-      <c r="W292" s="46"/>
-      <c r="X292" s="46"/>
-      <c r="Y292" s="46"/>
+      <c r="F292" s="54"/>
+      <c r="G292" s="54"/>
+      <c r="H292" s="54"/>
+      <c r="I292" s="54"/>
+      <c r="J292" s="54"/>
+      <c r="K292" s="54"/>
+      <c r="L292" s="54"/>
+      <c r="M292" s="54"/>
+      <c r="N292" s="54"/>
+      <c r="O292" s="54"/>
+      <c r="P292" s="54"/>
+      <c r="Q292" s="54"/>
+      <c r="R292" s="54"/>
+      <c r="S292" s="54"/>
+      <c r="T292" s="54"/>
+      <c r="U292" s="54"/>
+      <c r="V292" s="54"/>
+      <c r="W292" s="54"/>
+      <c r="X292" s="54"/>
+      <c r="Y292" s="54"/>
       <c r="Z292" s="37"/>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A293" s="77"/>
-      <c r="B293" s="77"/>
-      <c r="C293" s="46"/>
-      <c r="D293" s="46"/>
+      <c r="A293" s="57"/>
+      <c r="B293" s="57"/>
+      <c r="C293" s="54"/>
+      <c r="D293" s="54"/>
       <c r="E293" s="8"/>
-      <c r="F293" s="78"/>
-      <c r="G293" s="78"/>
-      <c r="H293" s="78"/>
-      <c r="I293" s="78"/>
-      <c r="J293" s="78"/>
-      <c r="K293" s="78"/>
-      <c r="L293" s="78"/>
-      <c r="M293" s="78"/>
-      <c r="N293" s="78"/>
-      <c r="O293" s="78"/>
-      <c r="P293" s="78"/>
-      <c r="Q293" s="78"/>
-      <c r="R293" s="78"/>
-      <c r="S293" s="78"/>
-      <c r="T293" s="78"/>
-      <c r="U293" s="78"/>
-      <c r="V293" s="78"/>
-      <c r="W293" s="78"/>
-      <c r="X293" s="78"/>
-      <c r="Y293" s="78"/>
-      <c r="Z293" s="46"/>
+      <c r="F293" s="56"/>
+      <c r="G293" s="56"/>
+      <c r="H293" s="56"/>
+      <c r="I293" s="56"/>
+      <c r="J293" s="56"/>
+      <c r="K293" s="56"/>
+      <c r="L293" s="56"/>
+      <c r="M293" s="56"/>
+      <c r="N293" s="56"/>
+      <c r="O293" s="56"/>
+      <c r="P293" s="56"/>
+      <c r="Q293" s="56"/>
+      <c r="R293" s="56"/>
+      <c r="S293" s="56"/>
+      <c r="T293" s="56"/>
+      <c r="U293" s="56"/>
+      <c r="V293" s="56"/>
+      <c r="W293" s="56"/>
+      <c r="X293" s="56"/>
+      <c r="Y293" s="56"/>
+      <c r="Z293" s="54"/>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A294" s="77"/>
-      <c r="B294" s="77"/>
-      <c r="C294" s="46"/>
-      <c r="D294" s="46"/>
+      <c r="A294" s="57"/>
+      <c r="B294" s="57"/>
+      <c r="C294" s="54"/>
+      <c r="D294" s="54"/>
       <c r="E294" s="8"/>
-      <c r="F294" s="78"/>
-      <c r="G294" s="78"/>
-      <c r="H294" s="78"/>
-      <c r="I294" s="78"/>
-      <c r="J294" s="78"/>
-      <c r="K294" s="78"/>
-      <c r="L294" s="78"/>
-      <c r="M294" s="78"/>
-      <c r="N294" s="78"/>
-      <c r="O294" s="78"/>
-      <c r="P294" s="78"/>
-      <c r="Q294" s="78"/>
-      <c r="R294" s="78"/>
-      <c r="S294" s="78"/>
-      <c r="T294" s="78"/>
-      <c r="U294" s="78"/>
-      <c r="V294" s="78"/>
-      <c r="W294" s="78"/>
-      <c r="X294" s="78"/>
-      <c r="Y294" s="78"/>
-      <c r="Z294" s="46"/>
+      <c r="F294" s="56"/>
+      <c r="G294" s="56"/>
+      <c r="H294" s="56"/>
+      <c r="I294" s="56"/>
+      <c r="J294" s="56"/>
+      <c r="K294" s="56"/>
+      <c r="L294" s="56"/>
+      <c r="M294" s="56"/>
+      <c r="N294" s="56"/>
+      <c r="O294" s="56"/>
+      <c r="P294" s="56"/>
+      <c r="Q294" s="56"/>
+      <c r="R294" s="56"/>
+      <c r="S294" s="56"/>
+      <c r="T294" s="56"/>
+      <c r="U294" s="56"/>
+      <c r="V294" s="56"/>
+      <c r="W294" s="56"/>
+      <c r="X294" s="56"/>
+      <c r="Y294" s="56"/>
+      <c r="Z294" s="54"/>
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A295" s="77"/>
-      <c r="B295" s="77"/>
-      <c r="C295" s="46"/>
-      <c r="D295" s="46"/>
+      <c r="A295" s="57"/>
+      <c r="B295" s="57"/>
+      <c r="C295" s="54"/>
+      <c r="D295" s="54"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="78"/>
-      <c r="G295" s="78"/>
-      <c r="H295" s="78"/>
-      <c r="I295" s="78"/>
-      <c r="J295" s="78"/>
-      <c r="K295" s="78"/>
-      <c r="L295" s="78"/>
-      <c r="M295" s="78"/>
-      <c r="N295" s="78"/>
-      <c r="O295" s="78"/>
-      <c r="P295" s="78"/>
-      <c r="Q295" s="78"/>
-      <c r="R295" s="78"/>
-      <c r="S295" s="78"/>
-      <c r="T295" s="78"/>
-      <c r="U295" s="78"/>
-      <c r="V295" s="78"/>
-      <c r="W295" s="78"/>
-      <c r="X295" s="78"/>
-      <c r="Y295" s="78"/>
+      <c r="F295" s="56"/>
+      <c r="G295" s="56"/>
+      <c r="H295" s="56"/>
+      <c r="I295" s="56"/>
+      <c r="J295" s="56"/>
+      <c r="K295" s="56"/>
+      <c r="L295" s="56"/>
+      <c r="M295" s="56"/>
+      <c r="N295" s="56"/>
+      <c r="O295" s="56"/>
+      <c r="P295" s="56"/>
+      <c r="Q295" s="56"/>
+      <c r="R295" s="56"/>
+      <c r="S295" s="56"/>
+      <c r="T295" s="56"/>
+      <c r="U295" s="56"/>
+      <c r="V295" s="56"/>
+      <c r="W295" s="56"/>
+      <c r="X295" s="56"/>
+      <c r="Y295" s="56"/>
       <c r="Z295" s="8"/>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A296" s="77"/>
-      <c r="B296" s="77"/>
-      <c r="C296" s="46"/>
-      <c r="D296" s="46"/>
+      <c r="A296" s="57"/>
+      <c r="B296" s="57"/>
+      <c r="C296" s="54"/>
+      <c r="D296" s="54"/>
       <c r="E296" s="8"/>
-      <c r="F296" s="78"/>
-      <c r="G296" s="78"/>
-      <c r="H296" s="78"/>
-      <c r="I296" s="78"/>
-      <c r="J296" s="78"/>
-      <c r="K296" s="78"/>
-      <c r="L296" s="78"/>
-      <c r="M296" s="78"/>
-      <c r="N296" s="78"/>
-      <c r="O296" s="78"/>
-      <c r="P296" s="78"/>
-      <c r="Q296" s="78"/>
-      <c r="R296" s="78"/>
-      <c r="S296" s="78"/>
-      <c r="T296" s="78"/>
-      <c r="U296" s="78"/>
-      <c r="V296" s="78"/>
-      <c r="W296" s="78"/>
-      <c r="X296" s="78"/>
-      <c r="Y296" s="78"/>
+      <c r="F296" s="56"/>
+      <c r="G296" s="56"/>
+      <c r="H296" s="56"/>
+      <c r="I296" s="56"/>
+      <c r="J296" s="56"/>
+      <c r="K296" s="56"/>
+      <c r="L296" s="56"/>
+      <c r="M296" s="56"/>
+      <c r="N296" s="56"/>
+      <c r="O296" s="56"/>
+      <c r="P296" s="56"/>
+      <c r="Q296" s="56"/>
+      <c r="R296" s="56"/>
+      <c r="S296" s="56"/>
+      <c r="T296" s="56"/>
+      <c r="U296" s="56"/>
+      <c r="V296" s="56"/>
+      <c r="W296" s="56"/>
+      <c r="X296" s="56"/>
+      <c r="Y296" s="56"/>
       <c r="Z296" s="8"/>
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A297" s="77"/>
-      <c r="B297" s="77"/>
-      <c r="C297" s="46"/>
-      <c r="D297" s="46"/>
+      <c r="A297" s="57"/>
+      <c r="B297" s="57"/>
+      <c r="C297" s="54"/>
+      <c r="D297" s="54"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="78"/>
-      <c r="G297" s="78"/>
-      <c r="H297" s="78"/>
-      <c r="I297" s="78"/>
-      <c r="J297" s="78"/>
-      <c r="K297" s="78"/>
-      <c r="L297" s="78"/>
-      <c r="M297" s="78"/>
-      <c r="N297" s="78"/>
-      <c r="O297" s="78"/>
-      <c r="P297" s="78"/>
-      <c r="Q297" s="78"/>
-      <c r="R297" s="78"/>
-      <c r="S297" s="78"/>
-      <c r="T297" s="78"/>
-      <c r="U297" s="78"/>
-      <c r="V297" s="78"/>
-      <c r="W297" s="78"/>
-      <c r="X297" s="78"/>
-      <c r="Y297" s="78"/>
+      <c r="F297" s="56"/>
+      <c r="G297" s="56"/>
+      <c r="H297" s="56"/>
+      <c r="I297" s="56"/>
+      <c r="J297" s="56"/>
+      <c r="K297" s="56"/>
+      <c r="L297" s="56"/>
+      <c r="M297" s="56"/>
+      <c r="N297" s="56"/>
+      <c r="O297" s="56"/>
+      <c r="P297" s="56"/>
+      <c r="Q297" s="56"/>
+      <c r="R297" s="56"/>
+      <c r="S297" s="56"/>
+      <c r="T297" s="56"/>
+      <c r="U297" s="56"/>
+      <c r="V297" s="56"/>
+      <c r="W297" s="56"/>
+      <c r="X297" s="56"/>
+      <c r="Y297" s="56"/>
       <c r="Z297" s="8"/>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A298" s="77"/>
-      <c r="B298" s="77"/>
-      <c r="C298" s="46"/>
-      <c r="D298" s="46"/>
+      <c r="A298" s="57"/>
+      <c r="B298" s="57"/>
+      <c r="C298" s="54"/>
+      <c r="D298" s="54"/>
       <c r="E298" s="8"/>
-      <c r="F298" s="78"/>
-      <c r="G298" s="78"/>
-      <c r="H298" s="78"/>
-      <c r="I298" s="78"/>
-      <c r="J298" s="78"/>
-      <c r="K298" s="78"/>
-      <c r="L298" s="78"/>
-      <c r="M298" s="78"/>
-      <c r="N298" s="78"/>
-      <c r="O298" s="78"/>
-      <c r="P298" s="78"/>
-      <c r="Q298" s="78"/>
-      <c r="R298" s="78"/>
-      <c r="S298" s="78"/>
-      <c r="T298" s="78"/>
-      <c r="U298" s="78"/>
-      <c r="V298" s="78"/>
-      <c r="W298" s="78"/>
-      <c r="X298" s="78"/>
-      <c r="Y298" s="78"/>
+      <c r="F298" s="56"/>
+      <c r="G298" s="56"/>
+      <c r="H298" s="56"/>
+      <c r="I298" s="56"/>
+      <c r="J298" s="56"/>
+      <c r="K298" s="56"/>
+      <c r="L298" s="56"/>
+      <c r="M298" s="56"/>
+      <c r="N298" s="56"/>
+      <c r="O298" s="56"/>
+      <c r="P298" s="56"/>
+      <c r="Q298" s="56"/>
+      <c r="R298" s="56"/>
+      <c r="S298" s="56"/>
+      <c r="T298" s="56"/>
+      <c r="U298" s="56"/>
+      <c r="V298" s="56"/>
+      <c r="W298" s="56"/>
+      <c r="X298" s="56"/>
+      <c r="Y298" s="56"/>
       <c r="Z298" s="8"/>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A299" s="77"/>
-      <c r="B299" s="77"/>
-      <c r="C299" s="46"/>
-      <c r="D299" s="46"/>
+      <c r="A299" s="57"/>
+      <c r="B299" s="57"/>
+      <c r="C299" s="54"/>
+      <c r="D299" s="54"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="78"/>
-      <c r="G299" s="78"/>
-      <c r="H299" s="80"/>
-      <c r="I299" s="80"/>
-      <c r="J299" s="80"/>
-      <c r="K299" s="80"/>
-      <c r="L299" s="80"/>
-      <c r="M299" s="80"/>
-      <c r="N299" s="80"/>
-      <c r="O299" s="80"/>
-      <c r="P299" s="80"/>
-      <c r="Q299" s="80"/>
-      <c r="R299" s="80"/>
-      <c r="S299" s="80"/>
-      <c r="T299" s="80"/>
-      <c r="U299" s="80"/>
-      <c r="V299" s="80"/>
-      <c r="W299" s="80"/>
-      <c r="X299" s="80"/>
-      <c r="Y299" s="80"/>
+      <c r="F299" s="56"/>
+      <c r="G299" s="56"/>
+      <c r="H299" s="55"/>
+      <c r="I299" s="55"/>
+      <c r="J299" s="55"/>
+      <c r="K299" s="55"/>
+      <c r="L299" s="55"/>
+      <c r="M299" s="55"/>
+      <c r="N299" s="55"/>
+      <c r="O299" s="55"/>
+      <c r="P299" s="55"/>
+      <c r="Q299" s="55"/>
+      <c r="R299" s="55"/>
+      <c r="S299" s="55"/>
+      <c r="T299" s="55"/>
+      <c r="U299" s="55"/>
+      <c r="V299" s="55"/>
+      <c r="W299" s="55"/>
+      <c r="X299" s="55"/>
+      <c r="Y299" s="55"/>
       <c r="Z299" s="8"/>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A300" s="77"/>
-      <c r="B300" s="77"/>
-      <c r="C300" s="46"/>
-      <c r="D300" s="46"/>
+      <c r="A300" s="57"/>
+      <c r="B300" s="57"/>
+      <c r="C300" s="54"/>
+      <c r="D300" s="54"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="78"/>
-      <c r="G300" s="78"/>
-      <c r="H300" s="80"/>
-      <c r="I300" s="80"/>
-      <c r="J300" s="80"/>
-      <c r="K300" s="80"/>
-      <c r="L300" s="80"/>
-      <c r="M300" s="80"/>
-      <c r="N300" s="80"/>
-      <c r="O300" s="80"/>
-      <c r="P300" s="80"/>
-      <c r="Q300" s="80"/>
-      <c r="R300" s="80"/>
-      <c r="S300" s="80"/>
-      <c r="T300" s="80"/>
-      <c r="U300" s="80"/>
-      <c r="V300" s="80"/>
-      <c r="W300" s="80"/>
-      <c r="X300" s="80"/>
-      <c r="Y300" s="80"/>
+      <c r="F300" s="56"/>
+      <c r="G300" s="56"/>
+      <c r="H300" s="55"/>
+      <c r="I300" s="55"/>
+      <c r="J300" s="55"/>
+      <c r="K300" s="55"/>
+      <c r="L300" s="55"/>
+      <c r="M300" s="55"/>
+      <c r="N300" s="55"/>
+      <c r="O300" s="55"/>
+      <c r="P300" s="55"/>
+      <c r="Q300" s="55"/>
+      <c r="R300" s="55"/>
+      <c r="S300" s="55"/>
+      <c r="T300" s="55"/>
+      <c r="U300" s="55"/>
+      <c r="V300" s="55"/>
+      <c r="W300" s="55"/>
+      <c r="X300" s="55"/>
+      <c r="Y300" s="55"/>
       <c r="Z300" s="8"/>
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A301" s="77"/>
-      <c r="B301" s="77"/>
-      <c r="C301" s="46"/>
-      <c r="D301" s="46"/>
+      <c r="A301" s="57"/>
+      <c r="B301" s="57"/>
+      <c r="C301" s="54"/>
+      <c r="D301" s="54"/>
       <c r="E301" s="8"/>
-      <c r="F301" s="78"/>
-      <c r="G301" s="78"/>
-      <c r="H301" s="80"/>
-      <c r="I301" s="80"/>
-      <c r="J301" s="80"/>
-      <c r="K301" s="80"/>
-      <c r="L301" s="80"/>
-      <c r="M301" s="80"/>
-      <c r="N301" s="80"/>
-      <c r="O301" s="80"/>
-      <c r="P301" s="80"/>
-      <c r="Q301" s="80"/>
-      <c r="R301" s="80"/>
-      <c r="S301" s="80"/>
-      <c r="T301" s="80"/>
-      <c r="U301" s="80"/>
-      <c r="V301" s="80"/>
-      <c r="W301" s="80"/>
-      <c r="X301" s="80"/>
-      <c r="Y301" s="80"/>
+      <c r="F301" s="56"/>
+      <c r="G301" s="56"/>
+      <c r="H301" s="55"/>
+      <c r="I301" s="55"/>
+      <c r="J301" s="55"/>
+      <c r="K301" s="55"/>
+      <c r="L301" s="55"/>
+      <c r="M301" s="55"/>
+      <c r="N301" s="55"/>
+      <c r="O301" s="55"/>
+      <c r="P301" s="55"/>
+      <c r="Q301" s="55"/>
+      <c r="R301" s="55"/>
+      <c r="S301" s="55"/>
+      <c r="T301" s="55"/>
+      <c r="U301" s="55"/>
+      <c r="V301" s="55"/>
+      <c r="W301" s="55"/>
+      <c r="X301" s="55"/>
+      <c r="Y301" s="55"/>
       <c r="Z301" s="8"/>
     </row>
   </sheetData>
@@ -8137,20 +8147,6 @@
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="C292:D292"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="C286:D286"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="C289:D289"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="C284:D284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="C285:D285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A287:B287"/>
     <mergeCell ref="C301:D301"/>
     <mergeCell ref="A293:B293"/>
     <mergeCell ref="C293:D293"/>
@@ -8175,6 +8171,12 @@
     <mergeCell ref="F286:G286"/>
     <mergeCell ref="F287:G287"/>
     <mergeCell ref="H300:Y300"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="C286:D286"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="C289:D289"/>
+    <mergeCell ref="C285:D285"/>
     <mergeCell ref="H301:Y301"/>
     <mergeCell ref="F292:G292"/>
     <mergeCell ref="F293:G294"/>
@@ -8198,6 +8200,7 @@
     <mergeCell ref="F297:G297"/>
     <mergeCell ref="F298:G298"/>
     <mergeCell ref="F299:G299"/>
+    <mergeCell ref="F144:G144"/>
     <mergeCell ref="Z293:Z294"/>
     <mergeCell ref="A153:B153"/>
     <mergeCell ref="A154:B154"/>
@@ -8210,7 +8213,22 @@
     <mergeCell ref="F146:G146"/>
     <mergeCell ref="F147:G147"/>
     <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="N148:P148"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="C284:D284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="G155:J155"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="G152:J152"/>
+    <mergeCell ref="G153:J153"/>
+    <mergeCell ref="G154:J154"/>
     <mergeCell ref="H144:M144"/>
     <mergeCell ref="H145:M145"/>
     <mergeCell ref="H146:M146"/>
@@ -8220,16 +8238,6 @@
     <mergeCell ref="C146:D146"/>
     <mergeCell ref="C147:D147"/>
     <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="G155:J155"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="G152:J152"/>
-    <mergeCell ref="G153:J153"/>
-    <mergeCell ref="G154:J154"/>
-    <mergeCell ref="N148:P148"/>
     <mergeCell ref="N144:P144"/>
     <mergeCell ref="A145:B145"/>
     <mergeCell ref="A146:B146"/>
@@ -8238,6 +8246,8 @@
     <mergeCell ref="N145:P145"/>
     <mergeCell ref="N146:P146"/>
     <mergeCell ref="N147:P147"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8250,67 +8260,67 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:W48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="52" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="76"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
@@ -8321,21 +8331,21 @@
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="59"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -8351,163 +8361,163 @@
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="55" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="74"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="72"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="32">
         <v>3</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="55" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="55" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="74"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="72"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="32">
         <v>4</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="55" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="55" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="74"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="72"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="85" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="86"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="84"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="87" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="87"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -8515,23 +8525,23 @@
       <c r="W9" s="33"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -8539,23 +8549,23 @@
       <c r="W10" s="33"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -8563,23 +8573,23 @@
       <c r="W11" s="33"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -8587,23 +8597,23 @@
       <c r="W12" s="33"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -8611,23 +8621,23 @@
       <c r="W13" s="33"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -8635,23 +8645,23 @@
       <c r="W14" s="33"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -8662,26 +8672,26 @@
       <c r="B16" s="32">
         <v>5</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="55" t="s">
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="59"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -8692,26 +8702,26 @@
       <c r="B17" s="32">
         <v>6</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="55" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="57"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="59"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -8722,26 +8732,26 @@
       <c r="B18" s="32">
         <v>7</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="81" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="83"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="45"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -8782,32 +8792,32 @@
       <c r="F22" t="s">
         <v>227</v>
       </c>
-      <c r="S22" s="55" t="s">
+      <c r="S22" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="74"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="72"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="44"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -8815,23 +8825,23 @@
       <c r="W23" s="33"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="81"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -8839,23 +8849,23 @@
       <c r="W24" s="33"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="47"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="81"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -8863,23 +8873,23 @@
       <c r="W25" s="33"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="47"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="81"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -8887,23 +8897,23 @@
       <c r="W26" s="33"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="47"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="81"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -8911,23 +8921,23 @@
       <c r="W27" s="33"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="81"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -8935,23 +8945,23 @@
       <c r="W28" s="33"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="47"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="81"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -8959,23 +8969,23 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="81"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -8983,23 +8993,23 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="81"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -9007,23 +9017,23 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="47"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="81"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -9034,101 +9044,101 @@
       <c r="B33" s="32">
         <v>8</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="55" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="55" t="s">
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="74"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="72"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="32">
         <v>9</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="55" t="s">
+      <c r="D34" s="60"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="55" t="s">
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="74"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="72"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="79"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -9136,23 +9146,23 @@
       <c r="W36" s="33"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="47"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="81"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -9160,23 +9170,23 @@
       <c r="W37" s="33"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="47"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="81"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -9184,23 +9194,23 @@
       <c r="W38" s="33"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="47"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="81"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -9208,23 +9218,23 @@
       <c r="W39" s="33"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="47"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="81"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -9232,23 +9242,23 @@
       <c r="W40" s="33"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="47"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="81"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -9256,23 +9266,23 @@
       <c r="W41" s="33"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="47"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="81"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -9280,23 +9290,23 @@
       <c r="W42" s="33"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="47"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="81"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -9304,23 +9314,23 @@
       <c r="W43" s="33"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="47"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="81"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -9328,23 +9338,23 @@
       <c r="W44" s="33"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="47"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="81"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -9352,23 +9362,23 @@
       <c r="W45" s="33"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="47"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="81"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -9376,23 +9386,23 @@
       <c r="W46" s="33"/>
     </row>
     <row r="47" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="47"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="81"/>
       <c r="S47" s="34"/>
       <c r="T47" s="34"/>
       <c r="U47" s="34"/>
@@ -9559,180 +9569,180 @@
       <c r="B7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="30">
         <v>22</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="30">
         <v>23</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="30">
         <v>24</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="30">
         <v>25</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <v>26</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="30">
         <v>27</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="30">
         <v>28</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="30">
         <v>29</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
         <v>30</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="30">
         <v>31</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="30">
         <v>1</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="30">
         <v>2</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="30">
         <v>3</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="30">
         <v>4</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="30">
         <v>5</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="30">
         <v>6</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="30">
         <v>7</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
         <v>8</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -9763,20 +9773,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91169CA6-6A40-463A-A1F2-C9406B6F6D6B}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C13"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>175</v>
       </c>
@@ -9822,8 +9837,11 @@
       <c r="U3" s="38" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>126</v>
       </c>
@@ -9868,7 +9886,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>0</v>
       </c>
@@ -9915,7 +9933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -9962,7 +9980,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -10009,8 +10027,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="88">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
         <v>3</v>
       </c>
       <c r="B8" s="51" t="s">
@@ -10045,7 +10063,7 @@
         <v>238</v>
       </c>
       <c r="Q8" s="51"/>
-      <c r="R8" s="88">
+      <c r="R8" s="46">
         <v>3</v>
       </c>
       <c r="S8" s="51">
@@ -10056,8 +10074,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="88">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="46">
         <v>4</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -10092,7 +10110,7 @@
         <v>245</v>
       </c>
       <c r="Q9" s="51"/>
-      <c r="R9" s="88">
+      <c r="R9" s="46">
         <v>3</v>
       </c>
       <c r="S9" s="51">
@@ -10103,8 +10121,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="88">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
         <v>5</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -10139,7 +10157,7 @@
         <v>249</v>
       </c>
       <c r="Q10" s="51"/>
-      <c r="R10" s="88">
+      <c r="R10" s="46">
         <v>3</v>
       </c>
       <c r="S10" s="51">
@@ -10150,8 +10168,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="88">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="46">
         <v>6</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -10186,7 +10204,7 @@
         <v>252</v>
       </c>
       <c r="Q11" s="51"/>
-      <c r="R11" s="88">
+      <c r="R11" s="46">
         <v>4</v>
       </c>
       <c r="S11" s="51">
@@ -10197,8 +10215,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="88">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="46">
         <v>7</v>
       </c>
       <c r="B12" s="51" t="s">
@@ -10244,8 +10262,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="88">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="46">
         <v>8</v>
       </c>
       <c r="B13" s="51" t="s">
@@ -10280,14 +10298,14 @@
         <v>255</v>
       </c>
       <c r="Q13" s="51"/>
-      <c r="R13" s="88">
+      <c r="R13" s="46">
         <v>4</v>
       </c>
       <c r="S13" s="51">
         <v>100</v>
       </c>
       <c r="T13" s="51"/>
-      <c r="U13" s="88">
+      <c r="U13" s="46">
         <v>300</v>
       </c>
     </row>
@@ -10317,6 +10335,14 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -10325,14 +10351,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="L8:M8"/>
@@ -10352,6 +10370,7 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="S8:T8"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
@@ -10363,7 +10382,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="J6:K6"/>
@@ -10372,12 +10390,6 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
@@ -10387,6 +10399,12 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -10402,8 +10420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D81E1C5-F527-4F77-86A5-03607ECAB533}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Design/타워 기획 .xlsx
+++ b/Design/타워 기획 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5560BF-CB3E-4B54-AE05-AA29CA4CA4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C9722-9055-4ED0-B988-85A7D5E8C686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="284">
   <si>
     <t>타워 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,22 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타워의 공격력 x {0.01x(100-방어력)} 만큼 대상에게 데미지를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력에 타워의 공격력 x 1.2 x{0.01x(100-방어력)} 만큼 대상에게 데미지를 준다, 방어구에는 기본 알고리즘과 같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어구에 타워의 공격력 x 1.2 x{0.01x(100-방어력)}만큼 대상에게 데미지를 준다, 체력에는 기본 알고리즘과 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타워의 공격력만큼 대상에게 데미지를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 타워의 상호작용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1181,11 +1165,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스피드 스탯 설명 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체속도</t>
+    <t>타워의 AttackStat 만큼 몬스터에게 데미지를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력에 타워의 AttackStat x 1.2 만큼 대상에게 데미지를 준다, 방어구에는 기본 알고리즘과 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구에 타워의 AttackStat x 1.2만큼 대상에게 데미지를 준다, 체력에는 기본 알고리즘과 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워의 Attackstat 만큼 몬스터에게 데미지를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 스탯 변경으로 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3139,7 +3135,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3179,7 +3175,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N2" s="11"/>
     </row>
@@ -3251,17 +3247,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="23" t="s">
@@ -3273,17 +3269,17 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="23" t="s">
@@ -3331,7 +3327,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J12" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -3340,7 +3336,7 @@
     </row>
     <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J13" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -3350,32 +3346,32 @@
     <row r="14" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3406,15 +3402,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F164C607-0E5A-46EA-AF33-69DD52063EBB}">
   <dimension ref="A1:Z301"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="T143" sqref="T143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -3459,7 +3455,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P3" s="51"/>
       <c r="Q3" s="40"/>
@@ -3485,17 +3481,17 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P4" s="51"/>
       <c r="Q4" s="51" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R4" s="51"/>
       <c r="S4" s="51"/>
       <c r="T4" s="51"/>
       <c r="U4" s="38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -3518,7 +3514,7 @@
       </c>
       <c r="P5" s="51"/>
       <c r="Q5" s="51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R5" s="51"/>
       <c r="S5" s="51"/>
@@ -3545,7 +3541,7 @@
       </c>
       <c r="P6" s="51"/>
       <c r="Q6" s="51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R6" s="51"/>
       <c r="S6" s="51"/>
@@ -3862,7 +3858,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="58" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P20" s="59"/>
       <c r="Q20" s="8"/>
@@ -3888,17 +3884,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="58" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R21" s="60"/>
       <c r="S21" s="60"/>
       <c r="T21" s="59"/>
       <c r="U21" s="38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3923,7 +3919,7 @@
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="58" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R22" s="60"/>
       <c r="S22" s="60"/>
@@ -3950,13 +3946,13 @@
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="58" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R23" s="60"/>
       <c r="S23" s="60"/>
       <c r="T23" s="59"/>
       <c r="U23" s="38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -4675,7 +4671,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="58" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="T54" s="59"/>
     </row>
@@ -4699,18 +4695,18 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T55" s="51"/>
       <c r="U55" s="51" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V55" s="51"/>
       <c r="W55" s="51"/>
       <c r="X55" s="51"/>
       <c r="Y55" s="51"/>
       <c r="Z55" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
@@ -4739,7 +4735,7 @@
       </c>
       <c r="T56" s="51"/>
       <c r="U56" s="51" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V56" s="51"/>
       <c r="W56" s="51"/>
@@ -4773,14 +4769,14 @@
       </c>
       <c r="T57" s="51"/>
       <c r="U57" s="51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="V57" s="51"/>
       <c r="W57" s="51"/>
       <c r="X57" s="51"/>
       <c r="Y57" s="51"/>
       <c r="Z57" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
@@ -5456,7 +5452,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="8" t="s">
@@ -5478,11 +5474,11 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B89" s="51"/>
       <c r="C89" s="51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D89" s="51"/>
       <c r="F89" s="58" t="s">
@@ -5523,11 +5519,11 @@
       </c>
       <c r="D90" s="51"/>
       <c r="F90" s="61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G90" s="62"/>
       <c r="H90" s="53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I90" s="53"/>
       <c r="J90" s="53"/>
@@ -5554,13 +5550,13 @@
       </c>
       <c r="B91" s="68"/>
       <c r="C91" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D91" s="51"/>
       <c r="F91" s="63"/>
       <c r="G91" s="64"/>
       <c r="H91" s="53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I91" s="53"/>
       <c r="J91" s="53"/>
@@ -5587,15 +5583,15 @@
       </c>
       <c r="B92" s="68"/>
       <c r="C92" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D92" s="51"/>
       <c r="F92" s="53" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G92" s="53"/>
       <c r="H92" s="53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I92" s="53"/>
       <c r="J92" s="53"/>
@@ -5622,15 +5618,15 @@
       </c>
       <c r="B93" s="68"/>
       <c r="C93" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D93" s="51"/>
       <c r="F93" s="53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G93" s="53"/>
       <c r="H93" s="53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I93" s="53"/>
       <c r="J93" s="53"/>
@@ -5657,15 +5653,15 @@
       </c>
       <c r="B94" s="68"/>
       <c r="C94" s="51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D94" s="51"/>
       <c r="F94" s="53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G94" s="53"/>
       <c r="H94" s="53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I94" s="53"/>
       <c r="J94" s="53"/>
@@ -5692,15 +5688,15 @@
       </c>
       <c r="B95" s="68"/>
       <c r="C95" s="51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D95" s="51"/>
       <c r="F95" s="53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G95" s="53"/>
       <c r="H95" s="53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I95" s="53"/>
       <c r="J95" s="53"/>
@@ -5727,15 +5723,15 @@
       </c>
       <c r="B96" s="68"/>
       <c r="C96" s="51" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D96" s="51"/>
       <c r="F96" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G96" s="53"/>
       <c r="H96" s="69" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I96" s="69"/>
       <c r="J96" s="69"/>
@@ -5762,15 +5758,15 @@
       </c>
       <c r="B97" s="68"/>
       <c r="C97" s="51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D97" s="51"/>
       <c r="F97" s="53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G97" s="53"/>
       <c r="H97" s="69" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I97" s="69"/>
       <c r="J97" s="69"/>
@@ -5797,15 +5793,15 @@
       </c>
       <c r="B98" s="68"/>
       <c r="C98" s="51" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D98" s="51"/>
       <c r="F98" s="53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G98" s="53"/>
       <c r="H98" s="69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I98" s="69"/>
       <c r="J98" s="69"/>
@@ -5828,7 +5824,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -5994,7 +5990,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -6444,7 +6440,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
@@ -6453,11 +6449,11 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B127" s="51"/>
       <c r="C127" s="51" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D127" s="51"/>
       <c r="Q127" s="8"/>
@@ -6502,15 +6498,15 @@
       </c>
       <c r="B129" s="52"/>
       <c r="C129" s="51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D129" s="51"/>
       <c r="F129" s="51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G129" s="51"/>
       <c r="H129" s="51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I129" s="51"/>
       <c r="J129" s="51"/>
@@ -6531,15 +6527,15 @@
       </c>
       <c r="B130" s="52"/>
       <c r="C130" s="51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D130" s="51"/>
       <c r="F130" s="51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G130" s="51"/>
       <c r="H130" s="51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I130" s="51"/>
       <c r="J130" s="51"/>
@@ -6560,15 +6556,15 @@
       </c>
       <c r="B131" s="52"/>
       <c r="C131" s="51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D131" s="51"/>
       <c r="F131" s="51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G131" s="51"/>
       <c r="H131" s="51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I131" s="51"/>
       <c r="J131" s="51"/>
@@ -6597,7 +6593,7 @@
       </c>
       <c r="G132" s="51"/>
       <c r="H132" s="51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I132" s="51"/>
       <c r="J132" s="51"/>
@@ -6605,7 +6601,7 @@
       <c r="L132" s="51"/>
       <c r="M132" s="51"/>
       <c r="N132" s="51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O132" s="51"/>
       <c r="P132" s="51"/>
@@ -6638,7 +6634,7 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="T134" s="8"/>
     </row>
@@ -6700,7 +6696,7 @@
       </c>
       <c r="G137" s="71"/>
       <c r="H137" s="53" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="I137" s="53"/>
       <c r="J137" s="53"/>
@@ -6713,7 +6709,7 @@
       <c r="Q137" s="53"/>
       <c r="R137" s="53"/>
       <c r="S137" s="58" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T137" s="60"/>
       <c r="U137" s="60"/>
@@ -6733,7 +6729,7 @@
       </c>
       <c r="G138" s="71"/>
       <c r="H138" s="53" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="I138" s="53"/>
       <c r="J138" s="53"/>
@@ -6764,7 +6760,7 @@
       </c>
       <c r="G139" s="39"/>
       <c r="H139" s="53" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="I139" s="53"/>
       <c r="J139" s="53"/>
@@ -6795,7 +6791,7 @@
       </c>
       <c r="G140" s="39"/>
       <c r="H140" s="53" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="I140" s="53"/>
       <c r="J140" s="53"/>
@@ -6836,7 +6832,7 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
@@ -6845,11 +6841,11 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B143" s="51"/>
       <c r="C143" s="51" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143" s="51"/>
       <c r="Q143" s="8"/>
@@ -6894,15 +6890,15 @@
       </c>
       <c r="B145" s="52"/>
       <c r="C145" s="51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D145" s="51"/>
       <c r="F145" s="51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G145" s="51"/>
       <c r="H145" s="51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I145" s="51"/>
       <c r="J145" s="51"/>
@@ -6923,15 +6919,15 @@
       </c>
       <c r="B146" s="52"/>
       <c r="C146" s="51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D146" s="51"/>
       <c r="F146" s="51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G146" s="51"/>
       <c r="H146" s="51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I146" s="51"/>
       <c r="J146" s="51"/>
@@ -6952,22 +6948,24 @@
       </c>
       <c r="B147" s="52"/>
       <c r="C147" s="51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D147" s="51"/>
       <c r="F147" s="51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G147" s="51"/>
       <c r="H147" s="51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I147" s="51"/>
       <c r="J147" s="51"/>
       <c r="K147" s="51"/>
       <c r="L147" s="51"/>
       <c r="M147" s="51"/>
-      <c r="N147" s="51"/>
+      <c r="N147" s="51" t="s">
+        <v>283</v>
+      </c>
       <c r="O147" s="51"/>
       <c r="P147" s="51"/>
       <c r="Q147" s="8"/>
@@ -6989,7 +6987,7 @@
       </c>
       <c r="G148" s="51"/>
       <c r="H148" s="51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I148" s="51"/>
       <c r="J148" s="51"/>
@@ -6997,7 +6995,7 @@
       <c r="L148" s="51"/>
       <c r="M148" s="51"/>
       <c r="N148" s="51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O148" s="51"/>
       <c r="P148" s="51"/>
@@ -7011,16 +7009,16 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B151" s="51"/>
       <c r="C151" s="51" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D151" s="51"/>
     </row>
@@ -7052,14 +7050,14 @@
       </c>
       <c r="B153" s="52"/>
       <c r="C153" s="51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D153" s="51"/>
       <c r="F153" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G153" s="53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H153" s="53"/>
       <c r="I153" s="53"/>
@@ -7072,14 +7070,14 @@
       </c>
       <c r="B154" s="52"/>
       <c r="C154" s="51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D154" s="51"/>
       <c r="F154" s="36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G154" s="53" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H154" s="53"/>
       <c r="I154" s="53"/>
@@ -7092,14 +7090,14 @@
       </c>
       <c r="B155" s="52"/>
       <c r="C155" s="51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D155" s="51"/>
       <c r="F155" s="36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G155" s="53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H155" s="53"/>
       <c r="I155" s="53"/>
@@ -7108,32 +7106,32 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.3">
@@ -8260,8 +8258,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:W48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:R4"/>
+    <sheetView showGridLines="0" topLeftCell="B12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8332,7 +8330,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
       <c r="F3" s="58" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
@@ -8362,7 +8360,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="58" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
@@ -8377,7 +8375,7 @@
       <c r="Q4" s="60"/>
       <c r="R4" s="59"/>
       <c r="S4" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="T4" s="60"/>
       <c r="U4" s="60"/>
@@ -8394,7 +8392,7 @@
       <c r="D5" s="60"/>
       <c r="E5" s="59"/>
       <c r="F5" s="58" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
@@ -8409,7 +8407,7 @@
       <c r="Q5" s="60"/>
       <c r="R5" s="59"/>
       <c r="S5" s="58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T5" s="60"/>
       <c r="U5" s="60"/>
@@ -8426,7 +8424,7 @@
       <c r="D6" s="60"/>
       <c r="E6" s="59"/>
       <c r="F6" s="58" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G6" s="60"/>
       <c r="H6" s="60"/>
@@ -8441,7 +8439,7 @@
       <c r="Q6" s="60"/>
       <c r="R6" s="59"/>
       <c r="S6" s="58" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T6" s="60"/>
       <c r="U6" s="60"/>
@@ -8467,7 +8465,7 @@
       <c r="Q7" s="78"/>
       <c r="R7" s="78"/>
       <c r="S7" s="82" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T7" s="83"/>
       <c r="U7" s="83"/>
@@ -8493,7 +8491,7 @@
       <c r="Q8" s="54"/>
       <c r="R8" s="54"/>
       <c r="S8" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="T8" s="86"/>
       <c r="U8" s="86"/>
@@ -8678,7 +8676,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="59"/>
       <c r="F16" s="58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
@@ -8708,7 +8706,7 @@
       <c r="D17" s="60"/>
       <c r="E17" s="59"/>
       <c r="F17" s="58" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
@@ -8760,7 +8758,7 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -8770,7 +8768,7 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -8780,7 +8778,7 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -8790,10 +8788,10 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="S22" s="58" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T22" s="60"/>
       <c r="U22" s="60"/>
@@ -9065,7 +9063,7 @@
       <c r="Q33" s="60"/>
       <c r="R33" s="59"/>
       <c r="S33" s="58" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T33" s="60"/>
       <c r="U33" s="60"/>
@@ -9082,7 +9080,7 @@
       <c r="D34" s="60"/>
       <c r="E34" s="59"/>
       <c r="F34" s="58" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
@@ -9097,7 +9095,7 @@
       <c r="Q34" s="60"/>
       <c r="R34" s="59"/>
       <c r="S34" s="58" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T34" s="60"/>
       <c r="U34" s="60"/>
@@ -9106,7 +9104,7 @@
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F35" s="78" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G35" s="78"/>
       <c r="H35" s="78"/>
@@ -9773,30 +9771,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91169CA6-6A40-463A-A1F2-C9406B6F6D6B}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="B5" sqref="B5:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
@@ -9804,44 +9797,41 @@
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G3" s="51"/>
       <c r="H3" s="51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q3" s="51"/>
       <c r="R3" s="38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="S3" s="51" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="T3" s="51"/>
       <c r="U3" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="V3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>126</v>
       </c>
@@ -9866,27 +9856,27 @@
       </c>
       <c r="K4" s="51"/>
       <c r="L4" s="51" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M4" s="51"/>
       <c r="N4" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="T4" s="51"/>
       <c r="U4" s="38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>0</v>
       </c>
@@ -9911,15 +9901,15 @@
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="51" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M5" s="51"/>
       <c r="N5" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="51"/>
       <c r="R5" s="38">
@@ -9933,12 +9923,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>1</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="51">
@@ -9954,11 +9944,11 @@
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M6" s="51"/>
       <c r="N6" s="51">
@@ -9966,7 +9956,7 @@
       </c>
       <c r="O6" s="51"/>
       <c r="P6" s="51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="51"/>
       <c r="R6" s="38">
@@ -9980,12 +9970,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>2</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="51">
@@ -10001,11 +9991,11 @@
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M7" s="51"/>
       <c r="N7" s="51">
@@ -10013,7 +10003,7 @@
       </c>
       <c r="O7" s="51"/>
       <c r="P7" s="51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="51"/>
       <c r="R7" s="38">
@@ -10027,12 +10017,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="46">
         <v>3</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="51">
@@ -10052,15 +10042,15 @@
       </c>
       <c r="K8" s="51"/>
       <c r="L8" s="51" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M8" s="51"/>
       <c r="N8" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O8" s="51"/>
       <c r="P8" s="51" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="51"/>
       <c r="R8" s="46">
@@ -10074,12 +10064,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>4</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="51">
@@ -10095,11 +10085,11 @@
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K9" s="51"/>
       <c r="L9" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M9" s="51"/>
       <c r="N9" s="51">
@@ -10107,7 +10097,7 @@
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="51" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q9" s="51"/>
       <c r="R9" s="46">
@@ -10121,12 +10111,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>5</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="51">
@@ -10142,11 +10132,11 @@
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M10" s="51"/>
       <c r="N10" s="51">
@@ -10154,7 +10144,7 @@
       </c>
       <c r="O10" s="51"/>
       <c r="P10" s="51" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="51"/>
       <c r="R10" s="46">
@@ -10168,12 +10158,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>6</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="51">
@@ -10193,7 +10183,7 @@
       </c>
       <c r="K11" s="51"/>
       <c r="L11" s="51" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M11" s="51"/>
       <c r="N11" s="51">
@@ -10201,7 +10191,7 @@
       </c>
       <c r="O11" s="51"/>
       <c r="P11" s="51" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="51"/>
       <c r="R11" s="46">
@@ -10215,12 +10205,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="46">
         <v>7</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="51">
@@ -10236,38 +10226,38 @@
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K12" s="51"/>
       <c r="L12" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M12" s="51"/>
       <c r="N12" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O12" s="51"/>
       <c r="P12" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="51"/>
       <c r="R12" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S12" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T12" s="51"/>
       <c r="U12" s="38">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="46">
         <v>8</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="51">
@@ -10287,7 +10277,7 @@
       </c>
       <c r="K13" s="51"/>
       <c r="L13" s="51" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M13" s="51"/>
       <c r="N13" s="51">
@@ -10295,7 +10285,7 @@
       </c>
       <c r="O13" s="51"/>
       <c r="P13" s="51" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="51"/>
       <c r="R13" s="46">
@@ -10421,35 +10411,35 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10458,79 +10448,79 @@
       </c>
       <c r="B7" s="51"/>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B8" s="51"/>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B9" s="51"/>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B10" s="51"/>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B11" s="51"/>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B12" s="51"/>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B13" s="51"/>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B14" s="51"/>
       <c r="D14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B15" s="51"/>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Design/타워 기획 .xlsx
+++ b/Design/타워 기획 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62986060-EDC7-44AD-9535-73A3C5359F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EB603-F6D9-4325-A9A4-B205BB759D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="1140" windowWidth="21645" windowHeight="11850" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="271">
   <si>
     <t>타워 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,14 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackPropertyID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackPropertyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,10 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TypeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,6 +1073,66 @@
   </si>
   <si>
     <t>22.8.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canbuild(bool) : 타워 위에 설치할 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected(bool) : 타워가 선택되어 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseOn(bool) : 버튼 위에 마우스가 올려져 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로에 설치해서 일회성 기믹을 실행함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로에만 설치 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpecializationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라인기물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackAttackSpecializationName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerTypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1636,7 +1684,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1775,6 +1823,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1811,6 +1866,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1819,6 +1880,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1831,12 +1898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1886,6 +1947,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3070,7 +3140,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3080,24 +3150,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
@@ -3171,17 +3241,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="23"/>
@@ -3191,17 +3261,17 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="23"/>
@@ -3211,17 +3281,17 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+        <v>217</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="23"/>
@@ -3231,17 +3301,17 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+        <v>242</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="23"/>
@@ -3251,17 +3321,17 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="8"/>
@@ -3292,12 +3362,12 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.3">
@@ -3327,17 +3397,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F164C607-0E5A-46EA-AF33-69DD52063EBB}">
-  <dimension ref="A1:AD162"/>
+  <dimension ref="A1:AD259"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView showGridLines="0" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -3390,10 +3460,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" s="53"/>
+      <c r="O3" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="56"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
@@ -3419,18 +3489,18 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
+      <c r="O4" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
       <c r="U4" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V4" s="8"/>
       <c r="AC4" s="13"/>
@@ -3450,16 +3520,16 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="53" t="b">
+      <c r="O5" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
       <c r="U5" s="1"/>
       <c r="V5" s="8"/>
       <c r="AC5" s="13"/>
@@ -3479,16 +3549,16 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="53" t="b">
+      <c r="O6" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="1"/>
       <c r="V6" s="8"/>
       <c r="AC6" s="13"/>
@@ -3724,7 +3794,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3847,10 +3917,10 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="P20" s="57"/>
+      <c r="O20" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="60"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -3874,18 +3944,18 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
+      <c r="O21" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="60"/>
       <c r="U21" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AC21" s="13"/>
     </row>
@@ -3906,16 +3976,16 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="55" t="b">
+      <c r="O22" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="57"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
       <c r="U22" s="1"/>
       <c r="AC22" s="13"/>
     </row>
@@ -3934,18 +4004,18 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="55" t="b">
+      <c r="O23" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="57"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="60"/>
       <c r="U23" s="32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AC23" s="13"/>
     </row>
@@ -4560,7 +4630,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4585,7 +4655,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4610,7 +4680,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M51" s="8"/>
       <c r="N51" s="38"/>
@@ -4624,7 +4694,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -4758,7 +4828,7 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4781,7 +4851,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4802,7 +4872,7 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4907,10 +4977,10 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
-      <c r="O68" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="P68" s="57"/>
+      <c r="O68" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="P68" s="60"/>
       <c r="AC68" s="13"/>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
@@ -4930,19 +5000,19 @@
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
+      <c r="O69" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
       <c r="V69" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AC69" s="13"/>
     </row>
@@ -4961,17 +5031,17 @@
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="53" t="b">
+      <c r="O70" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="R70" s="53"/>
-      <c r="S70" s="53"/>
-      <c r="T70" s="53"/>
-      <c r="U70" s="53"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
       <c r="V70" s="1"/>
       <c r="W70" s="39"/>
       <c r="X70" s="39"/>
@@ -4999,19 +5069,19 @@
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
-      <c r="O71" s="53" t="b">
+      <c r="O71" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="R71" s="53"/>
-      <c r="S71" s="53"/>
-      <c r="T71" s="53"/>
-      <c r="U71" s="53"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
       <c r="V71" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AC71" s="13"/>
     </row>
@@ -5090,7 +5160,7 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
@@ -5098,327 +5168,327 @@
       <c r="AC75" s="13"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A76" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="53"/>
-      <c r="F76" s="55" t="s">
+      <c r="A76" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G76" s="57"/>
-      <c r="H76" s="53" t="s">
+      <c r="B76" s="56"/>
+      <c r="C76" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="53"/>
-      <c r="S76" s="53"/>
-      <c r="T76" s="53"/>
-      <c r="U76" s="53"/>
-      <c r="V76" s="53"/>
-      <c r="W76" s="53"/>
-      <c r="X76" s="53"/>
-      <c r="Y76" s="53"/>
+      <c r="D76" s="56"/>
+      <c r="F76" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="60"/>
+      <c r="H76" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
+      <c r="W76" s="56"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="56"/>
       <c r="Z76" s="32" t="s">
         <v>90</v>
       </c>
       <c r="AC76" s="13"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A77" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="52"/>
-      <c r="C77" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="53"/>
-      <c r="F77" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" s="64"/>
-      <c r="H77" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="54"/>
-      <c r="W77" s="54"/>
-      <c r="X77" s="54"/>
-      <c r="Y77" s="54"/>
-      <c r="Z77" s="67"/>
+      <c r="A77" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="55"/>
+      <c r="C77" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="56"/>
+      <c r="F77" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" s="71"/>
+      <c r="H77" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="57"/>
+      <c r="S77" s="57"/>
+      <c r="T77" s="57"/>
+      <c r="U77" s="57"/>
+      <c r="V77" s="57"/>
+      <c r="W77" s="57"/>
+      <c r="X77" s="57"/>
+      <c r="Y77" s="57"/>
+      <c r="Z77" s="68"/>
       <c r="AC77" s="13"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A78" s="60">
-        <v>0</v>
-      </c>
-      <c r="B78" s="61"/>
-      <c r="C78" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="53"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
-      <c r="V78" s="54"/>
-      <c r="W78" s="54"/>
-      <c r="X78" s="54"/>
-      <c r="Y78" s="54"/>
-      <c r="Z78" s="68"/>
+      <c r="A78" s="65">
+        <v>1</v>
+      </c>
+      <c r="B78" s="66"/>
+      <c r="C78" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="56"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
+      <c r="W78" s="57"/>
+      <c r="X78" s="57"/>
+      <c r="Y78" s="57"/>
+      <c r="Z78" s="69"/>
       <c r="AC78" s="13"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A79" s="60">
-        <v>1</v>
-      </c>
-      <c r="B79" s="61"/>
-      <c r="C79" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="53"/>
-      <c r="F79" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="54"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="54"/>
-      <c r="U79" s="54"/>
-      <c r="V79" s="54"/>
-      <c r="W79" s="54"/>
-      <c r="X79" s="54"/>
-      <c r="Y79" s="54"/>
+      <c r="A79" s="65">
+        <v>2</v>
+      </c>
+      <c r="B79" s="66"/>
+      <c r="C79" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="56"/>
+      <c r="F79" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
+      <c r="W79" s="57"/>
+      <c r="X79" s="57"/>
+      <c r="Y79" s="57"/>
       <c r="Z79" s="1"/>
       <c r="AC79" s="13"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A80" s="60">
-        <v>2</v>
-      </c>
-      <c r="B80" s="61"/>
-      <c r="C80" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="53"/>
-      <c r="F80" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="54"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="54"/>
-      <c r="S80" s="54"/>
-      <c r="T80" s="54"/>
-      <c r="U80" s="54"/>
-      <c r="V80" s="54"/>
-      <c r="W80" s="54"/>
-      <c r="X80" s="54"/>
-      <c r="Y80" s="54"/>
+      <c r="A80" s="65">
+        <v>3</v>
+      </c>
+      <c r="B80" s="66"/>
+      <c r="C80" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="56"/>
+      <c r="F80" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57"/>
+      <c r="S80" s="57"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="57"/>
+      <c r="V80" s="57"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="57"/>
+      <c r="Y80" s="57"/>
       <c r="Z80" s="1"/>
       <c r="AC80" s="13"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A81" s="60">
-        <v>3</v>
-      </c>
-      <c r="B81" s="61"/>
-      <c r="C81" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="53"/>
-      <c r="F81" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="54"/>
-      <c r="T81" s="54"/>
-      <c r="U81" s="54"/>
-      <c r="V81" s="54"/>
-      <c r="W81" s="54"/>
-      <c r="X81" s="54"/>
-      <c r="Y81" s="54"/>
+      <c r="A81" s="65">
+        <v>4</v>
+      </c>
+      <c r="B81" s="66"/>
+      <c r="C81" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="56"/>
+      <c r="F81" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="57"/>
+      <c r="T81" s="57"/>
+      <c r="U81" s="57"/>
+      <c r="V81" s="57"/>
+      <c r="W81" s="57"/>
+      <c r="X81" s="57"/>
+      <c r="Y81" s="57"/>
       <c r="Z81" s="1"/>
       <c r="AC81" s="13"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A82" s="60">
-        <v>4</v>
-      </c>
-      <c r="B82" s="61"/>
-      <c r="C82" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="53"/>
-      <c r="F82" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="54"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="54"/>
-      <c r="T82" s="54"/>
-      <c r="U82" s="54"/>
-      <c r="V82" s="54"/>
-      <c r="W82" s="54"/>
-      <c r="X82" s="54"/>
-      <c r="Y82" s="54"/>
+      <c r="A82" s="65">
+        <v>5</v>
+      </c>
+      <c r="B82" s="66"/>
+      <c r="C82" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="56"/>
+      <c r="F82" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57"/>
+      <c r="S82" s="57"/>
+      <c r="T82" s="57"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="57"/>
+      <c r="W82" s="57"/>
+      <c r="X82" s="57"/>
+      <c r="Y82" s="57"/>
       <c r="Z82" s="1"/>
       <c r="AC82" s="13"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A83" s="60">
-        <v>5</v>
-      </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="53"/>
-      <c r="F83" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" s="54"/>
-      <c r="H83" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-      <c r="R83" s="62"/>
-      <c r="S83" s="62"/>
-      <c r="T83" s="62"/>
-      <c r="U83" s="62"/>
-      <c r="V83" s="62"/>
-      <c r="W83" s="62"/>
-      <c r="X83" s="62"/>
-      <c r="Y83" s="62"/>
+      <c r="A83" s="65">
+        <v>6</v>
+      </c>
+      <c r="B83" s="66"/>
+      <c r="C83" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="56"/>
+      <c r="F83" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83" s="57"/>
+      <c r="H83" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
+      <c r="Q83" s="67"/>
+      <c r="R83" s="67"/>
+      <c r="S83" s="67"/>
+      <c r="T83" s="67"/>
+      <c r="U83" s="67"/>
+      <c r="V83" s="67"/>
+      <c r="W83" s="67"/>
+      <c r="X83" s="67"/>
+      <c r="Y83" s="67"/>
       <c r="Z83" s="1"/>
       <c r="AC83" s="13"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A84" s="60">
-        <v>6</v>
-      </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="53"/>
+      <c r="A84" s="65">
+        <v>7</v>
+      </c>
+      <c r="B84" s="66"/>
+      <c r="C84" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="56"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="G84" s="54"/>
-      <c r="H84" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="62"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="62"/>
-      <c r="S84" s="62"/>
-      <c r="T84" s="62"/>
-      <c r="U84" s="62"/>
-      <c r="V84" s="62"/>
-      <c r="W84" s="62"/>
-      <c r="X84" s="62"/>
-      <c r="Y84" s="62"/>
+      <c r="F84" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="57"/>
+      <c r="H84" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+      <c r="P84" s="67"/>
+      <c r="Q84" s="67"/>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="67"/>
+      <c r="X84" s="67"/>
+      <c r="Y84" s="67"/>
       <c r="Z84" s="1"/>
       <c r="AC84" s="13"/>
     </row>
@@ -5427,7 +5497,7 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -5578,7 +5648,7 @@
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="18"/>
       <c r="B92" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
@@ -5610,7 +5680,7 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -5761,7 +5831,7 @@
     <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="12"/>
       <c r="B99" s="44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -6085,7 +6155,7 @@
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
@@ -6094,14 +6164,14 @@
       <c r="AC113" s="13"/>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A114" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="53"/>
-      <c r="C114" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D114" s="53"/>
+      <c r="A114" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" s="56"/>
+      <c r="C114" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="56"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
@@ -6109,31 +6179,31 @@
       <c r="AC114" s="13"/>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A115" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B115" s="52"/>
-      <c r="C115" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" s="53"/>
-      <c r="F115" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G115" s="53"/>
-      <c r="H115" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="I115" s="53"/>
-      <c r="J115" s="53"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="53"/>
-      <c r="M115" s="53"/>
-      <c r="N115" s="53" t="s">
+      <c r="A115" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="55"/>
+      <c r="C115" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D115" s="56"/>
+      <c r="F115" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G115" s="56"/>
+      <c r="H115" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I115" s="56"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="O115" s="53"/>
-      <c r="P115" s="53"/>
+      <c r="O115" s="56"/>
+      <c r="P115" s="56"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
@@ -6141,31 +6211,31 @@
       <c r="AC115" s="13"/>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A116" s="52">
-        <v>0</v>
-      </c>
-      <c r="B116" s="52"/>
-      <c r="C116" s="53" t="s">
+      <c r="A116" s="55">
+        <v>1</v>
+      </c>
+      <c r="B116" s="55"/>
+      <c r="C116" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="56"/>
+      <c r="F116" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="53"/>
-      <c r="F116" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="53"/>
-      <c r="M116" s="53"/>
-      <c r="N116" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="O116" s="53"/>
-      <c r="P116" s="53"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="O116" s="56"/>
+      <c r="P116" s="56"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
@@ -6173,29 +6243,29 @@
       <c r="AC116" s="13"/>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A117" s="52">
-        <v>1</v>
-      </c>
-      <c r="B117" s="52"/>
-      <c r="C117" s="53" t="s">
+      <c r="A117" s="55">
+        <v>2</v>
+      </c>
+      <c r="B117" s="55"/>
+      <c r="C117" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="56"/>
+      <c r="F117" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="G117" s="56"/>
+      <c r="H117" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D117" s="53"/>
-      <c r="F117" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="53"/>
-      <c r="M117" s="53"/>
-      <c r="N117" s="53"/>
-      <c r="O117" s="53"/>
-      <c r="P117" s="53"/>
+      <c r="I117" s="56"/>
+      <c r="J117" s="56"/>
+      <c r="K117" s="56"/>
+      <c r="L117" s="56"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="56"/>
+      <c r="O117" s="56"/>
+      <c r="P117" s="56"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
@@ -6203,31 +6273,31 @@
       <c r="AC117" s="13"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A118" s="52">
-        <v>2</v>
-      </c>
-      <c r="B118" s="52"/>
-      <c r="C118" s="53" t="s">
+      <c r="A118" s="55">
+        <v>3</v>
+      </c>
+      <c r="B118" s="55"/>
+      <c r="C118" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="56"/>
+      <c r="F118" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="G118" s="56"/>
+      <c r="H118" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="53"/>
-      <c r="F118" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="53"/>
-      <c r="M118" s="53"/>
-      <c r="N118" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="O118" s="53"/>
-      <c r="P118" s="53"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
@@ -6235,31 +6305,31 @@
       <c r="AC118" s="13"/>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A119" s="52">
-        <v>3</v>
-      </c>
-      <c r="B119" s="52"/>
-      <c r="C119" s="53" t="s">
+      <c r="A119" s="55">
+        <v>4</v>
+      </c>
+      <c r="B119" s="55"/>
+      <c r="C119" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D119" s="53"/>
-      <c r="F119" s="53" t="s">
+      <c r="D119" s="56"/>
+      <c r="F119" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="53"/>
-      <c r="M119" s="53"/>
-      <c r="N119" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="O119" s="53"/>
-      <c r="P119" s="53"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="I119" s="56"/>
+      <c r="J119" s="56"/>
+      <c r="K119" s="56"/>
+      <c r="L119" s="56"/>
+      <c r="M119" s="56"/>
+      <c r="N119" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="O119" s="56"/>
+      <c r="P119" s="56"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
@@ -6267,369 +6337,377 @@
       <c r="AC119" s="13"/>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A120" s="12"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="A120" s="65">
+        <v>5</v>
+      </c>
+      <c r="B120" s="66"/>
+      <c r="C120" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" s="56"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
+      <c r="F120" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="G120" s="56"/>
+      <c r="H120" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="I120" s="56"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="O120" s="56"/>
+      <c r="P120" s="56"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
       <c r="T120" s="8"/>
       <c r="AC120" s="13"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>156</v>
-      </c>
-      <c r="T121" s="8"/>
-      <c r="AC121" s="13"/>
-    </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A122" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122" s="53"/>
-      <c r="C122" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D122" s="53"/>
+      <c r="A122" t="s">
+        <v>153</v>
+      </c>
       <c r="T122" s="8"/>
       <c r="AC122" s="13"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B123" s="64"/>
+      <c r="C123" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="D123" s="95"/>
+      <c r="E123" s="96"/>
+      <c r="T123" s="8"/>
+      <c r="AC123" s="13"/>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A124" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="55"/>
+      <c r="C124" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="69"/>
+      <c r="F124" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G124" s="56"/>
+      <c r="H124" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I124" s="56"/>
+      <c r="J124" s="56"/>
+      <c r="K124" s="56"/>
+      <c r="L124" s="56"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="56"/>
+      <c r="P124" s="56"/>
+      <c r="Q124" s="56"/>
+      <c r="R124" s="56"/>
+      <c r="S124" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="T124" s="59"/>
+      <c r="U124" s="59"/>
+      <c r="V124" s="60"/>
+      <c r="AC124" s="13"/>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A125" s="55">
+        <v>1</v>
+      </c>
+      <c r="B125" s="55"/>
+      <c r="C125" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="53" t="s">
+      <c r="D125" s="56"/>
+      <c r="F125" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G125" s="62"/>
+      <c r="H125" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
+      <c r="L125" s="57"/>
+      <c r="M125" s="57"/>
+      <c r="N125" s="57"/>
+      <c r="O125" s="57"/>
+      <c r="P125" s="57"/>
+      <c r="Q125" s="57"/>
+      <c r="R125" s="57"/>
+      <c r="S125" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="T125" s="59"/>
+      <c r="U125" s="59"/>
+      <c r="V125" s="60"/>
+      <c r="AC125" s="13"/>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A126" s="55">
+        <v>2</v>
+      </c>
+      <c r="B126" s="55"/>
+      <c r="C126" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D123" s="53"/>
-      <c r="F123" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="53"/>
-      <c r="M123" s="53"/>
-      <c r="N123" s="53"/>
-      <c r="O123" s="53"/>
-      <c r="P123" s="53"/>
-      <c r="Q123" s="53"/>
-      <c r="R123" s="53"/>
-      <c r="S123" s="55" t="s">
+      <c r="D126" s="56"/>
+      <c r="F126" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G126" s="62"/>
+      <c r="H126" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
+      <c r="L126" s="57"/>
+      <c r="M126" s="57"/>
+      <c r="N126" s="57"/>
+      <c r="O126" s="57"/>
+      <c r="P126" s="57"/>
+      <c r="Q126" s="57"/>
+      <c r="R126" s="57"/>
+      <c r="S126" s="58"/>
+      <c r="T126" s="59"/>
+      <c r="U126" s="59"/>
+      <c r="V126" s="60"/>
+      <c r="AC126" s="13"/>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A127" s="55">
+        <v>3</v>
+      </c>
+      <c r="B127" s="55"/>
+      <c r="C127" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="56"/>
+      <c r="F127" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G127" s="33"/>
+      <c r="H127" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="I127" s="57"/>
+      <c r="J127" s="57"/>
+      <c r="K127" s="57"/>
+      <c r="L127" s="57"/>
+      <c r="M127" s="57"/>
+      <c r="N127" s="57"/>
+      <c r="O127" s="57"/>
+      <c r="P127" s="57"/>
+      <c r="Q127" s="57"/>
+      <c r="R127" s="57"/>
+      <c r="S127" s="58"/>
+      <c r="T127" s="59"/>
+      <c r="U127" s="59"/>
+      <c r="V127" s="60"/>
+      <c r="AC127" s="13"/>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A128" s="55">
+        <v>4</v>
+      </c>
+      <c r="B128" s="55"/>
+      <c r="C128" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" s="56"/>
+      <c r="F128" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G128" s="33"/>
+      <c r="H128" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="I128" s="57"/>
+      <c r="J128" s="57"/>
+      <c r="K128" s="57"/>
+      <c r="L128" s="57"/>
+      <c r="M128" s="57"/>
+      <c r="N128" s="57"/>
+      <c r="O128" s="57"/>
+      <c r="P128" s="57"/>
+      <c r="Q128" s="57"/>
+      <c r="R128" s="57"/>
+      <c r="S128" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="T128" s="59"/>
+      <c r="U128" s="59"/>
+      <c r="V128" s="60"/>
+      <c r="AC128" s="13"/>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T129" s="8"/>
+      <c r="AC129" s="13"/>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC130" s="13"/>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A131" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B131" s="56"/>
+      <c r="C131" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D131" s="56"/>
+      <c r="AC131" s="13"/>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A132" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="55"/>
+      <c r="C132" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="56"/>
+      <c r="F132" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G132" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="H132" s="56"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="56"/>
+      <c r="K132" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T123" s="56"/>
-      <c r="U123" s="56"/>
-      <c r="V123" s="57"/>
-      <c r="AC123" s="13"/>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A124" s="52">
-        <v>0</v>
-      </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="53"/>
-      <c r="F124" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="G124" s="59"/>
-      <c r="H124" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="54"/>
-      <c r="M124" s="54"/>
-      <c r="N124" s="54"/>
-      <c r="O124" s="54"/>
-      <c r="P124" s="54"/>
-      <c r="Q124" s="54"/>
-      <c r="R124" s="54"/>
-      <c r="S124" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="T124" s="56"/>
-      <c r="U124" s="56"/>
-      <c r="V124" s="57"/>
-      <c r="AC124" s="13"/>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A125" s="52">
+      <c r="AC132" s="13"/>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A133" s="55">
         <v>1</v>
       </c>
-      <c r="B125" s="52"/>
-      <c r="C125" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125" s="53"/>
-      <c r="F125" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G125" s="59"/>
-      <c r="H125" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="54"/>
-      <c r="M125" s="54"/>
-      <c r="N125" s="54"/>
-      <c r="O125" s="54"/>
-      <c r="P125" s="54"/>
-      <c r="Q125" s="54"/>
-      <c r="R125" s="54"/>
-      <c r="S125" s="55"/>
-      <c r="T125" s="56"/>
-      <c r="U125" s="56"/>
-      <c r="V125" s="57"/>
-      <c r="AC125" s="13"/>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A126" s="52">
-        <v>2</v>
-      </c>
-      <c r="B126" s="52"/>
-      <c r="C126" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D126" s="53"/>
-      <c r="F126" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G126" s="33"/>
-      <c r="H126" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="54"/>
-      <c r="M126" s="54"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="54"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="54"/>
-      <c r="R126" s="54"/>
-      <c r="S126" s="55"/>
-      <c r="T126" s="56"/>
-      <c r="U126" s="56"/>
-      <c r="V126" s="57"/>
-      <c r="AC126" s="13"/>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A127" s="52">
-        <v>3</v>
-      </c>
-      <c r="B127" s="52"/>
-      <c r="C127" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D127" s="53"/>
-      <c r="F127" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G127" s="33"/>
-      <c r="H127" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="54"/>
-      <c r="M127" s="54"/>
-      <c r="N127" s="54"/>
-      <c r="O127" s="54"/>
-      <c r="P127" s="54"/>
-      <c r="Q127" s="54"/>
-      <c r="R127" s="54"/>
-      <c r="S127" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="T127" s="56"/>
-      <c r="U127" s="56"/>
-      <c r="V127" s="57"/>
-      <c r="AC127" s="13"/>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="T128" s="8"/>
-      <c r="AC128" s="13"/>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC129" s="13"/>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A130" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="53"/>
-      <c r="C130" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D130" s="53"/>
-      <c r="AC130" s="13"/>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A131" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B131" s="52"/>
-      <c r="C131" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D131" s="53"/>
-      <c r="F131" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G131" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC131" s="13"/>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A132" s="52">
-        <v>0</v>
-      </c>
-      <c r="B132" s="52"/>
-      <c r="C132" s="53" t="s">
+      <c r="B133" s="55"/>
+      <c r="C133" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="56"/>
+      <c r="F133" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G133" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D132" s="53"/>
-      <c r="F132" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G132" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="1"/>
-      <c r="AC132" s="13"/>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A133" s="52">
-        <v>1</v>
-      </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="53"/>
-      <c r="F133" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G133" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="57"/>
       <c r="K133" s="1"/>
       <c r="AC133" s="13"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A134" s="52">
+      <c r="A134" s="55">
         <v>2</v>
       </c>
-      <c r="B134" s="52"/>
-      <c r="C134" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="D134" s="53"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" s="56"/>
       <c r="F134" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G134" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
+        <v>128</v>
+      </c>
+      <c r="G134" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
       <c r="K134" s="1"/>
       <c r="AC134" s="13"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A135" s="55">
+        <v>3</v>
+      </c>
+      <c r="B135" s="55"/>
+      <c r="C135" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="56"/>
+      <c r="F135" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G135" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="1"/>
       <c r="AC135" s="13"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>207</v>
-      </c>
       <c r="AC136" s="13"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AC137" s="13"/>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="AC138" s="13"/>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
       <c r="AC139" s="13"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>178</v>
-      </c>
       <c r="AC140" s="13"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="AC141" s="13"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="AC142" s="13"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="AC143" s="13"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>209</v>
+      </c>
       <c r="AC144" s="13"/>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.3">
@@ -6641,109 +6719,325 @@
     <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="AC147" s="13"/>
     </row>
-    <row r="148" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-      <c r="K148" s="14"/>
-      <c r="L148" s="14"/>
-      <c r="M148" s="14"/>
-      <c r="N148" s="14"/>
-      <c r="O148" s="14"/>
-      <c r="P148" s="14"/>
-      <c r="Q148" s="14"/>
-      <c r="R148" s="14"/>
-      <c r="S148" s="14"/>
-      <c r="T148" s="14"/>
-      <c r="U148" s="14"/>
-      <c r="V148" s="14"/>
-      <c r="W148" s="14"/>
-      <c r="X148" s="14"/>
-      <c r="Y148" s="14"/>
-      <c r="Z148" s="14"/>
-      <c r="AA148" s="14"/>
-      <c r="AB148" s="14"/>
-      <c r="AC148" s="15"/>
-    </row>
-    <row r="149" spans="1:29" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>257</v>
-      </c>
-    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC148" s="13"/>
+    </row>
+    <row r="149" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+      <c r="R149" s="14"/>
+      <c r="S149" s="14"/>
+      <c r="T149" s="14"/>
+      <c r="U149" s="14"/>
+      <c r="V149" s="14"/>
+      <c r="W149" s="14"/>
+      <c r="X149" s="14"/>
+      <c r="Y149" s="14"/>
+      <c r="Z149" s="14"/>
+      <c r="AA149" s="14"/>
+      <c r="AB149" s="14"/>
+      <c r="AC149" s="15"/>
+    </row>
+    <row r="150" spans="1:29" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>202</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>249</v>
-      </c>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B165" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C165" s="49">
+        <v>0</v>
+      </c>
+      <c r="D165" s="49">
+        <v>1</v>
+      </c>
+      <c r="E165" s="49">
+        <v>300</v>
+      </c>
+      <c r="F165" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G165" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H165" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="I165" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="J165" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="K165" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="L165" s="49">
+        <v>2</v>
+      </c>
+      <c r="M165" s="49">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B166" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C166" s="49">
+        <v>0</v>
+      </c>
+      <c r="D166" s="49">
+        <v>0</v>
+      </c>
+      <c r="E166" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="F166" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G166" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H166" s="49">
+        <v>1000</v>
+      </c>
+      <c r="I166" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J166" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="K166" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="L166" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="M166" s="49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B167" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C167" s="48">
+        <v>5</v>
+      </c>
+      <c r="D167" s="48">
+        <v>1</v>
+      </c>
+      <c r="E167" s="48">
+        <v>0</v>
+      </c>
+      <c r="F167" s="48">
+        <v>0</v>
+      </c>
+      <c r="G167" s="48">
+        <v>0</v>
+      </c>
+      <c r="H167" s="48">
+        <v>0</v>
+      </c>
+      <c r="I167" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="J167" s="48">
+        <v>0</v>
+      </c>
+      <c r="K167" s="48">
+        <v>0</v>
+      </c>
+      <c r="L167" s="48">
+        <v>0</v>
+      </c>
+      <c r="M167" s="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" s="50"/>
+      <c r="B169" s="50"/>
+      <c r="C169" s="50"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" s="48"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" s="48"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="50"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="50"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" s="50"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="50"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="50"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="50"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C255" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C256" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C257" s="44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="8"/>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="G131:J131"/>
+  <mergeCells count="128">
+    <mergeCell ref="C132:D132"/>
     <mergeCell ref="G132:J132"/>
     <mergeCell ref="G133:J133"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="G134:J134"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="A135:B135"/>
     <mergeCell ref="C133:D133"/>
     <mergeCell ref="C134:D134"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="G134:J134"/>
-    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C135:D135"/>
     <mergeCell ref="A131:B131"/>
+    <mergeCell ref="G135:J135"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="O5:P5"/>
@@ -6828,31 +7122,36 @@
     <mergeCell ref="F119:G119"/>
     <mergeCell ref="H119:M119"/>
     <mergeCell ref="N119:P119"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:R123"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="H127:R127"/>
-    <mergeCell ref="S124:V124"/>
-    <mergeCell ref="S125:V125"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="S123:V123"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="C124:D124"/>
     <mergeCell ref="F124:G124"/>
     <mergeCell ref="H124:R124"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="H120:M120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="H128:R128"/>
+    <mergeCell ref="S125:V125"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="S128:V128"/>
+    <mergeCell ref="S124:V124"/>
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="F125:G125"/>
     <mergeCell ref="H125:R125"/>
     <mergeCell ref="A126:B126"/>
     <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:G126"/>
     <mergeCell ref="H126:R126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="H127:R127"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6872,85 +7171,85 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
     </row>
     <row r="2" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="79" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="86"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -6961,168 +7260,168 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
+      <c r="C6" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -7130,23 +7429,23 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -7154,23 +7453,23 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -7178,23 +7477,23 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -7202,23 +7501,23 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -7226,23 +7525,23 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -7250,23 +7549,23 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -7277,90 +7576,90 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53" t="s">
+      <c r="C16" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
+      <c r="C17" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>7</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="57"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -7368,25 +7667,25 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="60"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -7394,25 +7693,25 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="57"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="60"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -7420,25 +7719,25 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="57"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="60"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -7446,51 +7745,51 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -7498,23 +7797,23 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -7522,23 +7821,23 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -7546,23 +7845,23 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -7570,23 +7869,23 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -7594,23 +7893,23 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -7618,23 +7917,23 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -7642,23 +7941,23 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -7666,23 +7965,23 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -7690,23 +7989,23 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -7717,86 +8016,86 @@
       <c r="B33" s="1">
         <v>8</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53" t="s">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>9</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -7804,23 +8103,23 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -7828,23 +8127,23 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -7852,23 +8151,23 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -7876,23 +8175,23 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -7900,23 +8199,23 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -7924,23 +8223,23 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -7948,23 +8247,23 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -7972,23 +8271,23 @@
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -7996,23 +8295,23 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -8020,23 +8319,23 @@
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -8044,23 +8343,23 @@
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -8068,23 +8367,23 @@
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -8095,26 +8394,26 @@
       <c r="B48" s="1">
         <v>10</v>
       </c>
-      <c r="C48" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
+      <c r="C48" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -8122,25 +8421,25 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -8148,23 +8447,23 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -8172,23 +8471,23 @@
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -8196,23 +8495,23 @@
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -8220,23 +8519,23 @@
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -8244,23 +8543,23 @@
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -8268,23 +8567,23 @@
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -8292,23 +8591,23 @@
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -8316,23 +8615,23 @@
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -8340,23 +8639,23 @@
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="53"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -8364,23 +8663,23 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="56"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -8388,23 +8687,23 @@
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -8412,23 +8711,23 @@
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -8436,23 +8735,23 @@
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -8463,26 +8762,26 @@
       <c r="B63" s="1">
         <v>11</v>
       </c>
-      <c r="C63" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
+      <c r="C63" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -8490,25 +8789,25 @@
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B64" s="70"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="53"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -8516,25 +8815,25 @@
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="72"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
+      <c r="O65" s="76"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="77"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
@@ -8542,25 +8841,25 @@
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="53"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -8568,44 +8867,44 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B67" s="76"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -8613,23 +8912,23 @@
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
@@ -8637,23 +8936,23 @@
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
@@ -8661,23 +8960,23 @@
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="53"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -8685,23 +8984,23 @@
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="53"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
@@ -8709,23 +9008,23 @@
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="56"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="56"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
@@ -8733,23 +9032,23 @@
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="53"/>
-      <c r="Q74" s="53"/>
-      <c r="R74" s="53"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
@@ -8757,23 +9056,23 @@
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="53"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
@@ -8781,23 +9080,23 @@
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="53"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
@@ -8805,23 +9104,23 @@
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="53"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
@@ -8829,23 +9128,23 @@
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="53"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
@@ -8853,23 +9152,23 @@
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="56"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="56"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
@@ -8877,23 +9176,23 @@
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="53"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="53"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
@@ -8901,23 +9200,23 @@
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="53"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="53"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
@@ -8925,23 +9224,23 @@
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="53"/>
-      <c r="O82" s="53"/>
-      <c r="P82" s="53"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="53"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -8949,23 +9248,23 @@
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="53"/>
-      <c r="P83" s="53"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="53"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -8973,23 +9272,23 @@
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="53"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -8997,23 +9296,23 @@
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="53"/>
-      <c r="Q85" s="53"/>
-      <c r="R85" s="53"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -9024,26 +9323,26 @@
       <c r="B86" s="1">
         <v>12</v>
       </c>
-      <c r="C86" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53" t="s">
+      <c r="C86" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="53"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
@@ -9051,25 +9350,25 @@
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B87" s="70"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="53"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -9077,25 +9376,25 @@
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B88" s="73"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="53"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -9103,25 +9402,25 @@
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B89" s="76"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="57"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="60"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
@@ -9129,23 +9428,23 @@
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B90" s="73"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="74"/>
-      <c r="K90" s="74"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="74"/>
-      <c r="N90" s="74"/>
-      <c r="O90" s="74"/>
-      <c r="P90" s="74"/>
-      <c r="Q90" s="74"/>
-      <c r="R90" s="75"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="79"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="79"/>
+      <c r="O90" s="79"/>
+      <c r="P90" s="79"/>
+      <c r="Q90" s="79"/>
+      <c r="R90" s="80"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -9153,23 +9452,23 @@
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B91" s="73"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="74"/>
-      <c r="H91" s="74"/>
-      <c r="I91" s="74"/>
-      <c r="J91" s="74"/>
-      <c r="K91" s="74"/>
-      <c r="L91" s="74"/>
-      <c r="M91" s="74"/>
-      <c r="N91" s="74"/>
-      <c r="O91" s="74"/>
-      <c r="P91" s="74"/>
-      <c r="Q91" s="74"/>
-      <c r="R91" s="75"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="79"/>
+      <c r="O91" s="79"/>
+      <c r="P91" s="79"/>
+      <c r="Q91" s="79"/>
+      <c r="R91" s="80"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
@@ -9177,23 +9476,23 @@
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B92" s="73"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="74"/>
-      <c r="O92" s="74"/>
-      <c r="P92" s="74"/>
-      <c r="Q92" s="74"/>
-      <c r="R92" s="75"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="79"/>
+      <c r="I92" s="79"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="79"/>
+      <c r="M92" s="79"/>
+      <c r="N92" s="79"/>
+      <c r="O92" s="79"/>
+      <c r="P92" s="79"/>
+      <c r="Q92" s="79"/>
+      <c r="R92" s="80"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
@@ -9201,23 +9500,23 @@
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B93" s="73"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="74"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="74"/>
-      <c r="L93" s="74"/>
-      <c r="M93" s="74"/>
-      <c r="N93" s="74"/>
-      <c r="O93" s="74"/>
-      <c r="P93" s="74"/>
-      <c r="Q93" s="74"/>
-      <c r="R93" s="75"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="79"/>
+      <c r="M93" s="79"/>
+      <c r="N93" s="79"/>
+      <c r="O93" s="79"/>
+      <c r="P93" s="79"/>
+      <c r="Q93" s="79"/>
+      <c r="R93" s="80"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -9225,23 +9524,23 @@
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B94" s="73"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="74"/>
-      <c r="H94" s="74"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="74"/>
-      <c r="L94" s="74"/>
-      <c r="M94" s="74"/>
-      <c r="N94" s="74"/>
-      <c r="O94" s="74"/>
-      <c r="P94" s="74"/>
-      <c r="Q94" s="74"/>
-      <c r="R94" s="75"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="79"/>
+      <c r="I94" s="79"/>
+      <c r="J94" s="79"/>
+      <c r="K94" s="79"/>
+      <c r="L94" s="79"/>
+      <c r="M94" s="79"/>
+      <c r="N94" s="79"/>
+      <c r="O94" s="79"/>
+      <c r="P94" s="79"/>
+      <c r="Q94" s="79"/>
+      <c r="R94" s="80"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
@@ -9249,23 +9548,23 @@
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B95" s="73"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="74"/>
-      <c r="H95" s="74"/>
-      <c r="I95" s="74"/>
-      <c r="J95" s="74"/>
-      <c r="K95" s="74"/>
-      <c r="L95" s="74"/>
-      <c r="M95" s="74"/>
-      <c r="N95" s="74"/>
-      <c r="O95" s="74"/>
-      <c r="P95" s="74"/>
-      <c r="Q95" s="74"/>
-      <c r="R95" s="75"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
+      <c r="H95" s="79"/>
+      <c r="I95" s="79"/>
+      <c r="J95" s="79"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="79"/>
+      <c r="M95" s="79"/>
+      <c r="N95" s="79"/>
+      <c r="O95" s="79"/>
+      <c r="P95" s="79"/>
+      <c r="Q95" s="79"/>
+      <c r="R95" s="80"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
@@ -9273,23 +9572,23 @@
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B96" s="73"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="74"/>
-      <c r="M96" s="74"/>
-      <c r="N96" s="74"/>
-      <c r="O96" s="74"/>
-      <c r="P96" s="74"/>
-      <c r="Q96" s="74"/>
-      <c r="R96" s="75"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="79"/>
+      <c r="I96" s="79"/>
+      <c r="J96" s="79"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="79"/>
+      <c r="M96" s="79"/>
+      <c r="N96" s="79"/>
+      <c r="O96" s="79"/>
+      <c r="P96" s="79"/>
+      <c r="Q96" s="79"/>
+      <c r="R96" s="80"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
@@ -9297,23 +9596,23 @@
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B97" s="73"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-      <c r="P97" s="74"/>
-      <c r="Q97" s="74"/>
-      <c r="R97" s="75"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="79"/>
+      <c r="H97" s="79"/>
+      <c r="I97" s="79"/>
+      <c r="J97" s="79"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="79"/>
+      <c r="M97" s="79"/>
+      <c r="N97" s="79"/>
+      <c r="O97" s="79"/>
+      <c r="P97" s="79"/>
+      <c r="Q97" s="79"/>
+      <c r="R97" s="80"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
@@ -9321,23 +9620,23 @@
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B98" s="73"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="74"/>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
-      <c r="J98" s="74"/>
-      <c r="K98" s="74"/>
-      <c r="L98" s="74"/>
-      <c r="M98" s="74"/>
-      <c r="N98" s="74"/>
-      <c r="O98" s="74"/>
-      <c r="P98" s="74"/>
-      <c r="Q98" s="74"/>
-      <c r="R98" s="75"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="79"/>
+      <c r="H98" s="79"/>
+      <c r="I98" s="79"/>
+      <c r="J98" s="79"/>
+      <c r="K98" s="79"/>
+      <c r="L98" s="79"/>
+      <c r="M98" s="79"/>
+      <c r="N98" s="79"/>
+      <c r="O98" s="79"/>
+      <c r="P98" s="79"/>
+      <c r="Q98" s="79"/>
+      <c r="R98" s="80"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
@@ -9345,23 +9644,23 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B99" s="73"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="74"/>
-      <c r="K99" s="74"/>
-      <c r="L99" s="74"/>
-      <c r="M99" s="74"/>
-      <c r="N99" s="74"/>
-      <c r="O99" s="74"/>
-      <c r="P99" s="74"/>
-      <c r="Q99" s="74"/>
-      <c r="R99" s="75"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="79"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="79"/>
+      <c r="P99" s="79"/>
+      <c r="Q99" s="79"/>
+      <c r="R99" s="80"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
@@ -9369,23 +9668,23 @@
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B100" s="73"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
-      <c r="P100" s="74"/>
-      <c r="Q100" s="74"/>
-      <c r="R100" s="75"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="79"/>
+      <c r="H100" s="79"/>
+      <c r="I100" s="79"/>
+      <c r="J100" s="79"/>
+      <c r="K100" s="79"/>
+      <c r="L100" s="79"/>
+      <c r="M100" s="79"/>
+      <c r="N100" s="79"/>
+      <c r="O100" s="79"/>
+      <c r="P100" s="79"/>
+      <c r="Q100" s="79"/>
+      <c r="R100" s="80"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
@@ -9393,23 +9692,23 @@
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B101" s="73"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
-      <c r="P101" s="74"/>
-      <c r="Q101" s="74"/>
-      <c r="R101" s="75"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="79"/>
+      <c r="G101" s="79"/>
+      <c r="H101" s="79"/>
+      <c r="I101" s="79"/>
+      <c r="J101" s="79"/>
+      <c r="K101" s="79"/>
+      <c r="L101" s="79"/>
+      <c r="M101" s="79"/>
+      <c r="N101" s="79"/>
+      <c r="O101" s="79"/>
+      <c r="P101" s="79"/>
+      <c r="Q101" s="79"/>
+      <c r="R101" s="80"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
@@ -9417,23 +9716,23 @@
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B102" s="73"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="75"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="79"/>
+      <c r="K102" s="79"/>
+      <c r="L102" s="79"/>
+      <c r="M102" s="79"/>
+      <c r="N102" s="79"/>
+      <c r="O102" s="79"/>
+      <c r="P102" s="79"/>
+      <c r="Q102" s="79"/>
+      <c r="R102" s="80"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
@@ -9441,23 +9740,23 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B103" s="73"/>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="74"/>
-      <c r="O103" s="74"/>
-      <c r="P103" s="74"/>
-      <c r="Q103" s="74"/>
-      <c r="R103" s="75"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="79"/>
+      <c r="K103" s="79"/>
+      <c r="L103" s="79"/>
+      <c r="M103" s="79"/>
+      <c r="N103" s="79"/>
+      <c r="O103" s="79"/>
+      <c r="P103" s="79"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="80"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
@@ -9465,23 +9764,23 @@
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B104" s="73"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
-      <c r="L104" s="74"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="74"/>
-      <c r="O104" s="74"/>
-      <c r="P104" s="74"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="75"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="79"/>
+      <c r="L104" s="79"/>
+      <c r="M104" s="79"/>
+      <c r="N104" s="79"/>
+      <c r="O104" s="79"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="80"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -9489,23 +9788,23 @@
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B105" s="73"/>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="74"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="74"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="75"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="79"/>
+      <c r="J105" s="79"/>
+      <c r="K105" s="79"/>
+      <c r="L105" s="79"/>
+      <c r="M105" s="79"/>
+      <c r="N105" s="79"/>
+      <c r="O105" s="79"/>
+      <c r="P105" s="79"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="80"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
@@ -9513,23 +9812,23 @@
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B106" s="73"/>
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74"/>
-      <c r="L106" s="74"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="74"/>
-      <c r="O106" s="74"/>
-      <c r="P106" s="74"/>
-      <c r="Q106" s="74"/>
-      <c r="R106" s="75"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="79"/>
+      <c r="L106" s="79"/>
+      <c r="M106" s="79"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="79"/>
+      <c r="P106" s="79"/>
+      <c r="Q106" s="79"/>
+      <c r="R106" s="80"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
@@ -9537,23 +9836,23 @@
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B107" s="73"/>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
-      <c r="L107" s="74"/>
-      <c r="M107" s="74"/>
-      <c r="N107" s="74"/>
-      <c r="O107" s="74"/>
-      <c r="P107" s="74"/>
-      <c r="Q107" s="74"/>
-      <c r="R107" s="75"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="79"/>
+      <c r="K107" s="79"/>
+      <c r="L107" s="79"/>
+      <c r="M107" s="79"/>
+      <c r="N107" s="79"/>
+      <c r="O107" s="79"/>
+      <c r="P107" s="79"/>
+      <c r="Q107" s="79"/>
+      <c r="R107" s="80"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
@@ -9561,23 +9860,23 @@
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B108" s="73"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
-      <c r="L108" s="74"/>
-      <c r="M108" s="74"/>
-      <c r="N108" s="74"/>
-      <c r="O108" s="74"/>
-      <c r="P108" s="74"/>
-      <c r="Q108" s="74"/>
-      <c r="R108" s="75"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="79"/>
+      <c r="I108" s="79"/>
+      <c r="J108" s="79"/>
+      <c r="K108" s="79"/>
+      <c r="L108" s="79"/>
+      <c r="M108" s="79"/>
+      <c r="N108" s="79"/>
+      <c r="O108" s="79"/>
+      <c r="P108" s="79"/>
+      <c r="Q108" s="79"/>
+      <c r="R108" s="80"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
@@ -9585,23 +9884,23 @@
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B109" s="73"/>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="74"/>
-      <c r="Q109" s="74"/>
-      <c r="R109" s="75"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
+      <c r="M109" s="79"/>
+      <c r="N109" s="79"/>
+      <c r="O109" s="79"/>
+      <c r="P109" s="79"/>
+      <c r="Q109" s="79"/>
+      <c r="R109" s="80"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
@@ -9609,23 +9908,23 @@
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B110" s="73"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="74"/>
-      <c r="K110" s="74"/>
-      <c r="L110" s="74"/>
-      <c r="M110" s="74"/>
-      <c r="N110" s="74"/>
-      <c r="O110" s="74"/>
-      <c r="P110" s="74"/>
-      <c r="Q110" s="74"/>
-      <c r="R110" s="75"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="79"/>
+      <c r="I110" s="79"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="79"/>
+      <c r="L110" s="79"/>
+      <c r="M110" s="79"/>
+      <c r="N110" s="79"/>
+      <c r="O110" s="79"/>
+      <c r="P110" s="79"/>
+      <c r="Q110" s="79"/>
+      <c r="R110" s="80"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
@@ -9633,23 +9932,23 @@
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B111" s="76"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="77"/>
-      <c r="L111" s="77"/>
-      <c r="M111" s="77"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="77"/>
-      <c r="Q111" s="77"/>
-      <c r="R111" s="78"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="82"/>
+      <c r="D111" s="82"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="82"/>
+      <c r="H111" s="82"/>
+      <c r="I111" s="82"/>
+      <c r="J111" s="82"/>
+      <c r="K111" s="82"/>
+      <c r="L111" s="82"/>
+      <c r="M111" s="82"/>
+      <c r="N111" s="82"/>
+      <c r="O111" s="82"/>
+      <c r="P111" s="82"/>
+      <c r="Q111" s="82"/>
+      <c r="R111" s="83"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
@@ -9660,69 +9959,68 @@
       <c r="B112" s="1">
         <v>13</v>
       </c>
-      <c r="C112" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="D112" s="53"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="G112" s="53"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="53"/>
-      <c r="L112" s="53"/>
-      <c r="M112" s="53"/>
-      <c r="N112" s="53"/>
-      <c r="O112" s="53"/>
-      <c r="P112" s="53"/>
-      <c r="Q112" s="53"/>
-      <c r="R112" s="53"/>
-      <c r="S112" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="T112" s="56"/>
-      <c r="U112" s="56"/>
-      <c r="V112" s="56"/>
-      <c r="W112" s="57"/>
+      <c r="C112" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="G112" s="56"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="56"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="56"/>
+      <c r="L112" s="56"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="56"/>
+      <c r="P112" s="56"/>
+      <c r="Q112" s="56"/>
+      <c r="R112" s="56"/>
+      <c r="S112" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="T112" s="59"/>
+      <c r="U112" s="59"/>
+      <c r="V112" s="59"/>
+      <c r="W112" s="60"/>
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>14</v>
       </c>
-      <c r="C113" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="G113" s="53"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="53"/>
-      <c r="M113" s="53"/>
-      <c r="N113" s="53"/>
-      <c r="O113" s="53"/>
-      <c r="P113" s="53"/>
-      <c r="Q113" s="53"/>
-      <c r="R113" s="53"/>
-      <c r="S113" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="T113" s="56"/>
-      <c r="U113" s="56"/>
-      <c r="V113" s="56"/>
-      <c r="W113" s="57"/>
+      <c r="C113" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="56"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="G113" s="56"/>
+      <c r="H113" s="56"/>
+      <c r="I113" s="56"/>
+      <c r="J113" s="56"/>
+      <c r="K113" s="56"/>
+      <c r="L113" s="56"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="56"/>
+      <c r="O113" s="56"/>
+      <c r="P113" s="56"/>
+      <c r="Q113" s="56"/>
+      <c r="R113" s="56"/>
+      <c r="S113" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="T113" s="59"/>
+      <c r="U113" s="59"/>
+      <c r="V113" s="59"/>
+      <c r="W113" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="F20:R20"/>
     <mergeCell ref="F21:R21"/>
     <mergeCell ref="F22:R22"/>
     <mergeCell ref="S112:W112"/>
@@ -9769,6 +10067,7 @@
     <mergeCell ref="B19:E22"/>
     <mergeCell ref="F18:R18"/>
     <mergeCell ref="F19:R19"/>
+    <mergeCell ref="F20:R20"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="S7:W7"/>
     <mergeCell ref="F6:R6"/>
@@ -9858,7 +10157,7 @@
         <v>28</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
@@ -9918,14 +10217,14 @@
         <v>11</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K6" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="13"/>
@@ -9934,12 +10233,12 @@
       <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
       <c r="K7" s="12"/>
       <c r="L7" s="8"/>
       <c r="M7" s="13"/>
@@ -9948,14 +10247,14 @@
       <c r="B8" s="27">
         <v>22</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
       <c r="K8" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="13"/>
@@ -9964,12 +10263,12 @@
       <c r="B9" s="27">
         <v>23</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
       <c r="K9" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="13"/>
@@ -9978,12 +10277,12 @@
       <c r="B10" s="27">
         <v>24</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
       <c r="K10" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
@@ -9992,142 +10291,142 @@
       <c r="B11" s="27">
         <v>25</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="27">
         <v>26</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
         <v>27</v>
       </c>
-      <c r="C13" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
+      <c r="C13" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <v>28</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>29</v>
       </c>
-      <c r="C15" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
+      <c r="C15" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="27">
         <v>30</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <v>31</v>
       </c>
-      <c r="C17" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
+      <c r="C17" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="27">
         <v>1</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="27">
         <v>2</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="27">
         <v>3</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="27">
         <v>4</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="27">
         <v>5</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="27">
         <v>6</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <v>7</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="27">
         <v>8</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/Design/타워 기획 .xlsx
+++ b/Design/타워 기획 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F09DA9-9154-4761-9CF6-ABA6B4FC99C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876AD11-DE77-4B8E-A45D-3174CA58DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="303">
   <si>
     <t>타워 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,12 +153,6 @@
   <si>
     <t>1.설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치할 수 있으면 타워 아래 크기 표시가 초록색</t>
-  </si>
-  <si>
-    <t>설치할 수 없는 지형이면 아래 크기가 빨간색</t>
   </si>
   <si>
     <t>2. 선택</t>
@@ -1249,6 +1243,26 @@
   </si>
   <si>
     <t>3. 개발일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일이 빨갛게? 장애물이 있다면 장애물을 덮는지? 아니면 타워가 빨갛게?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치할 수 없는 지형이면 타워가 투명도가 있는 빨간색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치할 수 있으면 타워가 투명도가 있는 초록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.9.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2094,7 +2108,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2248,6 +2262,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2258,7 +2323,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2269,10 +2340,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2281,21 +2361,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2323,34 +2388,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
@@ -2359,130 +2499,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2508,123 +2525,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>39497</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2307121" cy="1589278"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD87D498-5AD6-4AA6-BC84-AE502EA3A20F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7734299" y="1506347"/>
-          <a:ext cx="2307121" cy="1589278"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>422414</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>401707</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190087</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="rectole0000000000">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAD0A64-3DF6-4AAD-A197-5056E9E8CCB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1108214" y="923512"/>
-          <a:ext cx="2036693" cy="1800225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -2645,7 +2545,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2706,7 +2606,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2762,7 +2662,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2818,7 +2718,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2879,7 +2779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2940,7 +2840,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2979,7 +2879,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3035,7 +2935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3069,6 +2969,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466808</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F82282-A7F6-0090-5E75-C0032B98A573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7515226" y="1371600"/>
+          <a:ext cx="1866982" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46664045-0A21-4DEF-C6AC-C02F5CDAAF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2876550" y="1552575"/>
+          <a:ext cx="1590675" cy="1290983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3744,7 +3766,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3755,35 +3777,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="129" t="s">
-        <v>298</v>
-      </c>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
+      <c r="J2" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3800,12 +3822,12 @@
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="131"/>
-      <c r="K3" s="126" t="s">
-        <v>289</v>
-      </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -3822,12 +3844,12 @@
       <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="131"/>
-      <c r="K4" s="127" t="s">
-        <v>290</v>
-      </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3844,169 +3866,182 @@
       <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="131"/>
-      <c r="K5" s="127" t="s">
-        <v>291</v>
-      </c>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="127" t="s">
-        <v>292</v>
-      </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
+        <v>128</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>159</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="127" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
+        <v>158</v>
+      </c>
+      <c r="J7" s="65"/>
+      <c r="K7" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="131"/>
-      <c r="K8" s="127" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J10" s="132"/>
-      <c r="K10" s="128" t="s">
-        <v>296</v>
-      </c>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
+        <v>213</v>
+      </c>
+      <c r="J10" s="66"/>
+      <c r="K10" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="J11" s="133" t="s">
-        <v>297</v>
-      </c>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
+        <v>221</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J12" s="134" t="s">
-        <v>299</v>
-      </c>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
+        <v>286</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="J13" s="17"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -4021,12 +4056,12 @@
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I25" s="37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4049,15 +4084,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F532FDB2-D334-4368-8C60-9EB45443F42D}">
   <dimension ref="A1:AC192"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76:AA76"/>
+    <sheetView showGridLines="0" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -4087,7 +4122,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -4105,7 +4140,7 @@
     </row>
     <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4169,10 +4204,10 @@
       <c r="O9" s="8"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="S9" s="56"/>
+      <c r="R9" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="S9" s="74"/>
       <c r="T9" s="28"/>
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
@@ -4195,18 +4230,18 @@
       <c r="O10" s="8"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
+      <c r="R10" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
       <c r="X10" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -4225,16 +4260,16 @@
       <c r="O11" s="8"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="56" t="b">
+      <c r="R11" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -4253,16 +4288,16 @@
       <c r="O12" s="8"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="56" t="b">
+      <c r="R12" s="74" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
@@ -4291,7 +4326,6 @@
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="45"/>
-      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4314,13 +4348,17 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="45"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -4336,9 +4374,7 @@
     </row>
     <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="8"/>
-      <c r="D16" s="47" t="s">
-        <v>29</v>
-      </c>
+      <c r="D16" s="47"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -4346,9 +4382,7 @@
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="48" t="s">
-        <v>30</v>
-      </c>
+      <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -4362,7 +4396,9 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -4386,7 +4422,7 @@
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -4411,7 +4447,7 @@
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -4436,7 +4472,7 @@
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C21" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -4461,7 +4497,7 @@
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -4499,10 +4535,10 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="R23" s="56"/>
+      <c r="Q23" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="R23" s="74"/>
       <c r="S23" s="28"/>
       <c r="T23" s="29"/>
       <c r="U23" s="29"/>
@@ -4514,7 +4550,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -4526,18 +4562,18 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
+      <c r="Q24" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
       <c r="W24" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.3">
@@ -4545,7 +4581,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -4557,16 +4593,16 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="56" t="b">
+      <c r="Q25" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.3">
@@ -4584,18 +4620,18 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="56" t="b">
+      <c r="Q26" s="74" t="b">
         <v>0</v>
       </c>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56" t="s">
+      <c r="R26" s="74"/>
+      <c r="S26" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="39" t="s">
         <v>141</v>
-      </c>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="39" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.3">
@@ -4628,7 +4664,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -4701,7 +4737,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4726,7 +4762,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -4820,7 +4856,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -4830,7 +4866,7 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -4854,7 +4890,7 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -4878,7 +4914,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -4900,7 +4936,7 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -5029,7 +5065,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
@@ -5175,7 +5211,7 @@
     </row>
     <row r="51" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="3:29" x14ac:dyDescent="0.3">
@@ -5409,7 +5445,7 @@
     <row r="64" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D64" s="47"/>
       <c r="E64" s="48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F64" s="48"/>
       <c r="G64" s="48"/>
@@ -5421,7 +5457,7 @@
       <c r="M64" s="48"/>
       <c r="N64" s="48"/>
       <c r="O64" s="48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P64" s="48"/>
       <c r="Q64" s="48"/>
@@ -5431,12 +5467,12 @@
     </row>
     <row r="66" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C68" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -5474,331 +5510,331 @@
     </row>
     <row r="70" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
       <c r="T70" s="8"/>
     </row>
     <row r="71" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="74"/>
+      <c r="H71" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="78"/>
+      <c r="J71" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="74"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="74"/>
+      <c r="S71" s="74"/>
+      <c r="T71" s="74"/>
+      <c r="U71" s="74"/>
+      <c r="V71" s="74"/>
+      <c r="W71" s="74"/>
+      <c r="X71" s="74"/>
+      <c r="Y71" s="74"/>
+      <c r="Z71" s="74"/>
+      <c r="AA71" s="74"/>
+      <c r="AB71" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C72" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="75"/>
+      <c r="E72" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="74"/>
+      <c r="H72" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56" t="s">
+      <c r="I72" s="90"/>
+      <c r="J72" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="73"/>
+      <c r="V72" s="73"/>
+      <c r="W72" s="73"/>
+      <c r="X72" s="73"/>
+      <c r="Y72" s="73"/>
+      <c r="Z72" s="73"/>
+      <c r="AA72" s="73"/>
+      <c r="AB72" s="93"/>
+    </row>
+    <row r="73" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C73" s="86">
+        <v>1</v>
+      </c>
+      <c r="D73" s="87"/>
+      <c r="E73" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="74"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+      <c r="V73" s="73"/>
+      <c r="W73" s="73"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="73"/>
+      <c r="AA73" s="73"/>
+      <c r="AB73" s="94"/>
+    </row>
+    <row r="74" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C74" s="86">
+        <v>2</v>
+      </c>
+      <c r="D74" s="87"/>
+      <c r="E74" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="56"/>
-      <c r="H71" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="I71" s="59"/>
-      <c r="J71" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="56"/>
-      <c r="Z71" s="56"/>
-      <c r="AA71" s="56"/>
-      <c r="AB71" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C72" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="F72" s="56"/>
-      <c r="H72" s="72" t="s">
+      <c r="F74" s="74"/>
+      <c r="H74" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
+      <c r="V74" s="73"/>
+      <c r="W74" s="73"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="73"/>
+      <c r="Z74" s="73"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="1"/>
+    </row>
+    <row r="75" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C75" s="86">
+        <v>3</v>
+      </c>
+      <c r="D75" s="87"/>
+      <c r="E75" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="I72" s="73"/>
-      <c r="J72" s="61" t="s">
+      <c r="F75" s="74"/>
+      <c r="H75" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="61"/>
-      <c r="Y72" s="61"/>
-      <c r="Z72" s="61"/>
-      <c r="AA72" s="61"/>
-      <c r="AB72" s="76"/>
-    </row>
-    <row r="73" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C73" s="69">
-        <v>1</v>
-      </c>
-      <c r="D73" s="70"/>
-      <c r="E73" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F73" s="56"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
-      <c r="S73" s="61"/>
-      <c r="T73" s="61"/>
-      <c r="U73" s="61"/>
-      <c r="V73" s="61"/>
-      <c r="W73" s="61"/>
-      <c r="X73" s="61"/>
-      <c r="Y73" s="61"/>
-      <c r="Z73" s="61"/>
-      <c r="AA73" s="61"/>
-      <c r="AB73" s="77"/>
-    </row>
-    <row r="74" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C74" s="69">
-        <v>2</v>
-      </c>
-      <c r="D74" s="70"/>
-      <c r="E74" s="56" t="s">
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="73"/>
+      <c r="W75" s="73"/>
+      <c r="X75" s="73"/>
+      <c r="Y75" s="73"/>
+      <c r="Z75" s="73"/>
+      <c r="AA75" s="73"/>
+      <c r="AB75" s="1"/>
+    </row>
+    <row r="76" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C76" s="86">
+        <v>4</v>
+      </c>
+      <c r="D76" s="87"/>
+      <c r="E76" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="F74" s="56"/>
-      <c r="H74" s="61" t="s">
+      <c r="F76" s="74"/>
+      <c r="H76" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="I74" s="61"/>
-      <c r="J74" s="61" t="s">
+      <c r="I76" s="73"/>
+      <c r="J76" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="K74" s="61"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="61"/>
-      <c r="U74" s="61"/>
-      <c r="V74" s="61"/>
-      <c r="W74" s="61"/>
-      <c r="X74" s="61"/>
-      <c r="Y74" s="61"/>
-      <c r="Z74" s="61"/>
-      <c r="AA74" s="61"/>
-      <c r="AB74" s="1"/>
-    </row>
-    <row r="75" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C75" s="69">
-        <v>3</v>
-      </c>
-      <c r="D75" s="70"/>
-      <c r="E75" s="56" t="s">
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73"/>
+      <c r="U76" s="73"/>
+      <c r="V76" s="73"/>
+      <c r="W76" s="73"/>
+      <c r="X76" s="73"/>
+      <c r="Y76" s="73"/>
+      <c r="Z76" s="73"/>
+      <c r="AA76" s="73"/>
+      <c r="AB76" s="1"/>
+    </row>
+    <row r="77" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C77" s="86">
+        <v>5</v>
+      </c>
+      <c r="D77" s="87"/>
+      <c r="E77" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="F75" s="56"/>
-      <c r="H75" s="61" t="s">
+      <c r="F77" s="74"/>
+      <c r="H77" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61" t="s">
+      <c r="I77" s="73"/>
+      <c r="J77" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="61"/>
-      <c r="S75" s="61"/>
-      <c r="T75" s="61"/>
-      <c r="U75" s="61"/>
-      <c r="V75" s="61"/>
-      <c r="W75" s="61"/>
-      <c r="X75" s="61"/>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="61"/>
-      <c r="AB75" s="1"/>
-    </row>
-    <row r="76" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C76" s="69">
-        <v>4</v>
-      </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="56" t="s">
+      <c r="K77" s="73"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="73"/>
+      <c r="N77" s="73"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
+      <c r="U77" s="73"/>
+      <c r="V77" s="73"/>
+      <c r="W77" s="73"/>
+      <c r="X77" s="73"/>
+      <c r="Y77" s="73"/>
+      <c r="Z77" s="73"/>
+      <c r="AA77" s="73"/>
+      <c r="AB77" s="1"/>
+    </row>
+    <row r="78" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C78" s="86">
+        <v>6</v>
+      </c>
+      <c r="D78" s="87"/>
+      <c r="E78" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="56"/>
-      <c r="H76" s="61" t="s">
+      <c r="F78" s="74"/>
+      <c r="H78" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61" t="s">
+      <c r="I78" s="73"/>
+      <c r="J78" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="61"/>
-      <c r="S76" s="61"/>
-      <c r="T76" s="61"/>
-      <c r="U76" s="61"/>
-      <c r="V76" s="61"/>
-      <c r="W76" s="61"/>
-      <c r="X76" s="61"/>
-      <c r="Y76" s="61"/>
-      <c r="Z76" s="61"/>
-      <c r="AA76" s="61"/>
-      <c r="AB76" s="1"/>
-    </row>
-    <row r="77" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C77" s="69">
-        <v>5</v>
-      </c>
-      <c r="D77" s="70"/>
-      <c r="E77" s="56" t="s">
+      <c r="K78" s="88"/>
+      <c r="L78" s="88"/>
+      <c r="M78" s="88"/>
+      <c r="N78" s="88"/>
+      <c r="O78" s="88"/>
+      <c r="P78" s="88"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="88"/>
+      <c r="S78" s="88"/>
+      <c r="T78" s="88"/>
+      <c r="U78" s="88"/>
+      <c r="V78" s="88"/>
+      <c r="W78" s="88"/>
+      <c r="X78" s="88"/>
+      <c r="Y78" s="88"/>
+      <c r="Z78" s="88"/>
+      <c r="AA78" s="88"/>
+      <c r="AB78" s="1"/>
+    </row>
+    <row r="79" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C79" s="86">
+        <v>7</v>
+      </c>
+      <c r="D79" s="87"/>
+      <c r="E79" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="F77" s="56"/>
-      <c r="H77" s="61" t="s">
+      <c r="F79" s="74"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="61"/>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="61"/>
-      <c r="S77" s="61"/>
-      <c r="T77" s="61"/>
-      <c r="U77" s="61"/>
-      <c r="V77" s="61"/>
-      <c r="W77" s="61"/>
-      <c r="X77" s="61"/>
-      <c r="Y77" s="61"/>
-      <c r="Z77" s="61"/>
-      <c r="AA77" s="61"/>
-      <c r="AB77" s="1"/>
-    </row>
-    <row r="78" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C78" s="69">
-        <v>6</v>
-      </c>
-      <c r="D78" s="70"/>
-      <c r="E78" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="56"/>
-      <c r="H78" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="I78" s="61"/>
-      <c r="J78" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="71"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="71"/>
-      <c r="T78" s="71"/>
-      <c r="U78" s="71"/>
-      <c r="V78" s="71"/>
-      <c r="W78" s="71"/>
-      <c r="X78" s="71"/>
-      <c r="Y78" s="71"/>
-      <c r="Z78" s="71"/>
-      <c r="AA78" s="71"/>
-      <c r="AB78" s="1"/>
-    </row>
-    <row r="79" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C79" s="69">
-        <v>7</v>
-      </c>
-      <c r="D79" s="70"/>
-      <c r="E79" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" s="56"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="I79" s="61"/>
-      <c r="J79" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
-      <c r="V79" s="71"/>
-      <c r="W79" s="71"/>
-      <c r="X79" s="71"/>
-      <c r="Y79" s="71"/>
-      <c r="Z79" s="71"/>
-      <c r="AA79" s="71"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="K79" s="88"/>
+      <c r="L79" s="88"/>
+      <c r="M79" s="88"/>
+      <c r="N79" s="88"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="88"/>
+      <c r="Q79" s="88"/>
+      <c r="R79" s="88"/>
+      <c r="S79" s="88"/>
+      <c r="T79" s="88"/>
+      <c r="U79" s="88"/>
+      <c r="V79" s="88"/>
+      <c r="W79" s="88"/>
+      <c r="X79" s="88"/>
+      <c r="Y79" s="88"/>
+      <c r="Z79" s="88"/>
+      <c r="AA79" s="88"/>
       <c r="AB79" s="1"/>
     </row>
     <row r="81" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C81" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -5817,7 +5853,7 @@
     </row>
     <row r="82" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C82" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O82" s="8"/>
       <c r="P82" s="32"/>
@@ -5825,7 +5861,7 @@
     </row>
     <row r="83" spans="3:29" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -5850,7 +5886,7 @@
     </row>
     <row r="86" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C86" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -5870,7 +5906,7 @@
     <row r="87" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -5889,7 +5925,7 @@
     <row r="88" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C88" s="8"/>
       <c r="D88" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -5908,7 +5944,7 @@
     <row r="89" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C89" s="8"/>
       <c r="D89" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -5927,7 +5963,7 @@
     <row r="90" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C90" s="8"/>
       <c r="D90" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -5946,10 +5982,10 @@
     <row r="91" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C92" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K92" s="42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L92" s="43"/>
       <c r="M92" s="43"/>
@@ -5960,14 +5996,14 @@
       <c r="R92" s="43"/>
       <c r="S92" s="43"/>
       <c r="T92" s="44"/>
-      <c r="V92" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="W92" s="59"/>
+      <c r="V92" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="W92" s="78"/>
     </row>
     <row r="93" spans="3:29" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K93" s="45"/>
       <c r="L93" s="8"/>
@@ -5979,24 +6015,24 @@
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="46"/>
-      <c r="V93" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="W93" s="56"/>
-      <c r="X93" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y93" s="56"/>
-      <c r="Z93" s="56"/>
-      <c r="AA93" s="56"/>
-      <c r="AB93" s="56"/>
+      <c r="V93" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="W93" s="74"/>
+      <c r="X93" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y93" s="74"/>
+      <c r="Z93" s="74"/>
+      <c r="AA93" s="74"/>
+      <c r="AB93" s="74"/>
       <c r="AC93" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="3:29" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K94" s="45"/>
       <c r="L94" s="8"/>
@@ -6010,22 +6046,22 @@
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="46"/>
-      <c r="V94" s="56" t="b">
+      <c r="V94" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="W94" s="56"/>
-      <c r="X94" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y94" s="56"/>
-      <c r="Z94" s="56"/>
-      <c r="AA94" s="56"/>
-      <c r="AB94" s="56"/>
+      <c r="W94" s="74"/>
+      <c r="X94" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y94" s="74"/>
+      <c r="Z94" s="74"/>
+      <c r="AA94" s="74"/>
+      <c r="AB94" s="74"/>
       <c r="AC94" s="1"/>
     </row>
     <row r="95" spans="3:29" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K95" s="45"/>
       <c r="L95" s="8"/>
@@ -6039,19 +6075,19 @@
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
       <c r="T95" s="46"/>
-      <c r="V95" s="56" t="b">
+      <c r="V95" s="74" t="b">
         <v>0</v>
       </c>
-      <c r="W95" s="56"/>
-      <c r="X95" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y95" s="56"/>
-      <c r="Z95" s="56"/>
-      <c r="AA95" s="56"/>
-      <c r="AB95" s="56"/>
+      <c r="W95" s="74"/>
+      <c r="X95" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y95" s="74"/>
+      <c r="Z95" s="74"/>
+      <c r="AA95" s="74"/>
+      <c r="AB95" s="74"/>
       <c r="AC95" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="3:29" x14ac:dyDescent="0.3">
@@ -6082,7 +6118,7 @@
     </row>
     <row r="99" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C99" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -6100,7 +6136,7 @@
     <row r="100" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C100" s="8"/>
       <c r="D100" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -6117,7 +6153,7 @@
     <row r="101" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C101" s="8"/>
       <c r="D101" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -6134,7 +6170,7 @@
     <row r="102" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -6151,7 +6187,7 @@
     <row r="103" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
@@ -6168,7 +6204,7 @@
     <row r="104" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C104" s="8"/>
       <c r="D104" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
@@ -6185,7 +6221,7 @@
     <row r="105" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C105" s="8"/>
       <c r="D105" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -6201,7 +6237,7 @@
     </row>
     <row r="107" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C107" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -6220,7 +6256,7 @@
     <row r="108" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C108" s="8"/>
       <c r="D108" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -6242,7 +6278,7 @@
     <row r="110" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C110" s="8"/>
       <c r="D110" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E110" s="43"/>
       <c r="F110" s="43"/>
@@ -6267,7 +6303,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -6291,7 +6327,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
@@ -6329,7 +6365,7 @@
     </row>
     <row r="118" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C118" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -6346,7 +6382,7 @@
     </row>
     <row r="119" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C119" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -6364,7 +6400,7 @@
     <row r="120" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -6381,7 +6417,7 @@
     <row r="121" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -6412,7 +6448,7 @@
     <row r="123" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -6428,7 +6464,7 @@
     <row r="124" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C124" s="8"/>
       <c r="D124" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
@@ -6458,7 +6494,7 @@
     <row r="126" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C126" s="8"/>
       <c r="D126" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -6472,12 +6508,12 @@
     </row>
     <row r="127" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D127" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C129" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -6558,7 +6594,7 @@
     <row r="133" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C133" s="8"/>
       <c r="D133" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -6578,7 +6614,7 @@
     <row r="134" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C134" s="8"/>
       <c r="D134" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -6598,7 +6634,7 @@
     <row r="135" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C135" s="8"/>
       <c r="D135" s="41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E135" s="41"/>
       <c r="F135" s="41"/>
@@ -6618,7 +6654,7 @@
     <row r="136" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C136" s="8"/>
       <c r="D136" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
@@ -6637,221 +6673,221 @@
     </row>
     <row r="138" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C145" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="V145" s="8"/>
+    </row>
+    <row r="146" spans="3:25" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C146" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D146" s="85"/>
+      <c r="E146" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="V145" s="8"/>
-    </row>
-    <row r="146" spans="3:25" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C146" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="D146" s="63"/>
-      <c r="E146" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="F146" s="65"/>
-      <c r="G146" s="66"/>
+      <c r="F146" s="80"/>
+      <c r="G146" s="81"/>
       <c r="V146" s="8"/>
     </row>
     <row r="147" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C147" s="60" t="s">
+      <c r="C147" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D147" s="75"/>
+      <c r="E147" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="F147" s="77"/>
+      <c r="G147" s="78"/>
+      <c r="I147" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="J147" s="74"/>
+      <c r="K147" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="L147" s="74"/>
+      <c r="M147" s="74"/>
+      <c r="N147" s="74"/>
+      <c r="O147" s="74"/>
+      <c r="P147" s="74"/>
+      <c r="Q147" s="74"/>
+      <c r="R147" s="74"/>
+      <c r="S147" s="74"/>
+      <c r="T147" s="74"/>
+      <c r="U147" s="74"/>
+      <c r="V147" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="W147" s="77"/>
+      <c r="X147" s="77"/>
+      <c r="Y147" s="78"/>
+    </row>
+    <row r="148" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C148" s="75">
+        <v>1</v>
+      </c>
+      <c r="D148" s="75"/>
+      <c r="E148" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D147" s="60"/>
-      <c r="E147" s="57" t="s">
+      <c r="F148" s="77"/>
+      <c r="G148" s="78"/>
+      <c r="I148" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="J148" s="83"/>
+      <c r="K148" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="L148" s="73"/>
+      <c r="M148" s="73"/>
+      <c r="N148" s="73"/>
+      <c r="O148" s="73"/>
+      <c r="P148" s="73"/>
+      <c r="Q148" s="73"/>
+      <c r="R148" s="73"/>
+      <c r="S148" s="73"/>
+      <c r="T148" s="73"/>
+      <c r="U148" s="73"/>
+      <c r="V148" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="W148" s="77"/>
+      <c r="X148" s="77"/>
+      <c r="Y148" s="78"/>
+    </row>
+    <row r="149" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C149" s="75">
+        <v>2</v>
+      </c>
+      <c r="D149" s="75"/>
+      <c r="E149" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="F147" s="58"/>
-      <c r="G147" s="59"/>
-      <c r="I147" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="J147" s="56"/>
-      <c r="K147" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="L147" s="56"/>
-      <c r="M147" s="56"/>
-      <c r="N147" s="56"/>
-      <c r="O147" s="56"/>
-      <c r="P147" s="56"/>
-      <c r="Q147" s="56"/>
-      <c r="R147" s="56"/>
-      <c r="S147" s="56"/>
-      <c r="T147" s="56"/>
-      <c r="U147" s="56"/>
-      <c r="V147" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="W147" s="58"/>
-      <c r="X147" s="58"/>
-      <c r="Y147" s="59"/>
-    </row>
-    <row r="148" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C148" s="60">
-        <v>1</v>
-      </c>
-      <c r="D148" s="60"/>
-      <c r="E148" s="57" t="s">
+      <c r="F149" s="77"/>
+      <c r="G149" s="78"/>
+      <c r="I149" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="J149" s="83"/>
+      <c r="K149" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="L149" s="73"/>
+      <c r="M149" s="73"/>
+      <c r="N149" s="73"/>
+      <c r="O149" s="73"/>
+      <c r="P149" s="73"/>
+      <c r="Q149" s="73"/>
+      <c r="R149" s="73"/>
+      <c r="S149" s="73"/>
+      <c r="T149" s="73"/>
+      <c r="U149" s="73"/>
+      <c r="V149" s="76"/>
+      <c r="W149" s="77"/>
+      <c r="X149" s="77"/>
+      <c r="Y149" s="78"/>
+    </row>
+    <row r="150" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C150" s="75">
+        <v>3</v>
+      </c>
+      <c r="D150" s="75"/>
+      <c r="E150" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="F148" s="58"/>
-      <c r="G148" s="59"/>
-      <c r="I148" s="67" t="s">
+      <c r="F150" s="77"/>
+      <c r="G150" s="78"/>
+      <c r="I150" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="J148" s="68"/>
-      <c r="K148" s="61" t="s">
+      <c r="J150" s="27"/>
+      <c r="K150" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="L148" s="61"/>
-      <c r="M148" s="61"/>
-      <c r="N148" s="61"/>
-      <c r="O148" s="61"/>
-      <c r="P148" s="61"/>
-      <c r="Q148" s="61"/>
-      <c r="R148" s="61"/>
-      <c r="S148" s="61"/>
-      <c r="T148" s="61"/>
-      <c r="U148" s="61"/>
-      <c r="V148" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="W148" s="58"/>
-      <c r="X148" s="58"/>
-      <c r="Y148" s="59"/>
-    </row>
-    <row r="149" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C149" s="60">
-        <v>2</v>
-      </c>
-      <c r="D149" s="60"/>
-      <c r="E149" s="57" t="s">
+      <c r="L150" s="73"/>
+      <c r="M150" s="73"/>
+      <c r="N150" s="73"/>
+      <c r="O150" s="73"/>
+      <c r="P150" s="73"/>
+      <c r="Q150" s="73"/>
+      <c r="R150" s="73"/>
+      <c r="S150" s="73"/>
+      <c r="T150" s="73"/>
+      <c r="U150" s="73"/>
+      <c r="V150" s="76"/>
+      <c r="W150" s="77"/>
+      <c r="X150" s="77"/>
+      <c r="Y150" s="78"/>
+    </row>
+    <row r="151" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C151" s="75">
+        <v>4</v>
+      </c>
+      <c r="D151" s="75"/>
+      <c r="E151" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="F149" s="58"/>
-      <c r="G149" s="59"/>
-      <c r="I149" s="67" t="s">
+      <c r="F151" s="77"/>
+      <c r="G151" s="78"/>
+      <c r="I151" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="J149" s="68"/>
-      <c r="K149" s="61" t="s">
+      <c r="J151" s="27"/>
+      <c r="K151" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="L149" s="61"/>
-      <c r="M149" s="61"/>
-      <c r="N149" s="61"/>
-      <c r="O149" s="61"/>
-      <c r="P149" s="61"/>
-      <c r="Q149" s="61"/>
-      <c r="R149" s="61"/>
-      <c r="S149" s="61"/>
-      <c r="T149" s="61"/>
-      <c r="U149" s="61"/>
-      <c r="V149" s="57"/>
-      <c r="W149" s="58"/>
-      <c r="X149" s="58"/>
-      <c r="Y149" s="59"/>
-    </row>
-    <row r="150" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C150" s="60">
-        <v>3</v>
-      </c>
-      <c r="D150" s="60"/>
-      <c r="E150" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F150" s="58"/>
-      <c r="G150" s="59"/>
-      <c r="I150" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J150" s="27"/>
-      <c r="K150" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="L150" s="61"/>
-      <c r="M150" s="61"/>
-      <c r="N150" s="61"/>
-      <c r="O150" s="61"/>
-      <c r="P150" s="61"/>
-      <c r="Q150" s="61"/>
-      <c r="R150" s="61"/>
-      <c r="S150" s="61"/>
-      <c r="T150" s="61"/>
-      <c r="U150" s="61"/>
-      <c r="V150" s="57"/>
-      <c r="W150" s="58"/>
-      <c r="X150" s="58"/>
-      <c r="Y150" s="59"/>
-    </row>
-    <row r="151" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C151" s="60">
-        <v>4</v>
-      </c>
-      <c r="D151" s="60"/>
-      <c r="E151" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F151" s="58"/>
-      <c r="G151" s="59"/>
-      <c r="I151" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J151" s="27"/>
-      <c r="K151" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="L151" s="61"/>
-      <c r="M151" s="61"/>
-      <c r="N151" s="61"/>
-      <c r="O151" s="61"/>
-      <c r="P151" s="61"/>
-      <c r="Q151" s="61"/>
-      <c r="R151" s="61"/>
-      <c r="S151" s="61"/>
-      <c r="T151" s="61"/>
-      <c r="U151" s="61"/>
-      <c r="V151" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="W151" s="58"/>
-      <c r="X151" s="58"/>
-      <c r="Y151" s="59"/>
+      <c r="L151" s="73"/>
+      <c r="M151" s="73"/>
+      <c r="N151" s="73"/>
+      <c r="O151" s="73"/>
+      <c r="P151" s="73"/>
+      <c r="Q151" s="73"/>
+      <c r="R151" s="73"/>
+      <c r="S151" s="73"/>
+      <c r="T151" s="73"/>
+      <c r="U151" s="73"/>
+      <c r="V151" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="W151" s="77"/>
+      <c r="X151" s="77"/>
+      <c r="Y151" s="78"/>
     </row>
     <row r="152" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C152" s="51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D152" s="51"/>
       <c r="E152" s="51"/>
@@ -6864,241 +6900,241 @@
     </row>
     <row r="154" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C154" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C155" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D155" s="56"/>
-      <c r="E155" s="56" t="s">
+      <c r="C155" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F155" s="74"/>
+    </row>
+    <row r="156" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C156" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156" s="75"/>
+      <c r="E156" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F156" s="74"/>
+      <c r="H156" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="I156" s="74"/>
+      <c r="J156" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="K156" s="74"/>
+      <c r="L156" s="74"/>
+      <c r="M156" s="74"/>
+      <c r="N156" s="74"/>
+      <c r="O156" s="74"/>
+      <c r="P156" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q156" s="74"/>
+      <c r="R156" s="74"/>
+      <c r="S156" s="74"/>
+      <c r="T156" s="74"/>
+      <c r="U156" s="74"/>
+    </row>
+    <row r="157" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C157" s="75">
+        <v>1</v>
+      </c>
+      <c r="D157" s="75"/>
+      <c r="E157" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F157" s="74"/>
+      <c r="H157" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="I157" s="74"/>
+      <c r="J157" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="K157" s="74"/>
+      <c r="L157" s="74"/>
+      <c r="M157" s="74"/>
+      <c r="N157" s="74"/>
+      <c r="O157" s="74"/>
+      <c r="P157" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q157" s="74"/>
+      <c r="R157" s="74"/>
+      <c r="S157" s="74"/>
+      <c r="T157" s="74"/>
+      <c r="U157" s="74"/>
+    </row>
+    <row r="158" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C158" s="75">
+        <v>2</v>
+      </c>
+      <c r="D158" s="75"/>
+      <c r="E158" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="F158" s="78"/>
+      <c r="H158" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="I158" s="74"/>
+      <c r="J158" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="K158" s="77"/>
+      <c r="L158" s="77"/>
+      <c r="M158" s="77"/>
+      <c r="N158" s="77"/>
+      <c r="O158" s="78"/>
+      <c r="P158" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q158" s="74"/>
+      <c r="R158" s="74"/>
+      <c r="S158" s="74"/>
+      <c r="T158" s="74"/>
+      <c r="U158" s="74"/>
+    </row>
+    <row r="159" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C159" s="75">
+        <v>3</v>
+      </c>
+      <c r="D159" s="75"/>
+      <c r="E159" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="F155" s="56"/>
-    </row>
-    <row r="156" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C156" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D156" s="60"/>
-      <c r="E156" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="F156" s="56"/>
-      <c r="H156" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="I156" s="56"/>
-      <c r="J156" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="K156" s="56"/>
-      <c r="L156" s="56"/>
-      <c r="M156" s="56"/>
-      <c r="N156" s="56"/>
-      <c r="O156" s="56"/>
-      <c r="P156" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q156" s="56"/>
-      <c r="R156" s="56"/>
-      <c r="S156" s="56"/>
-      <c r="T156" s="56"/>
-      <c r="U156" s="56"/>
-    </row>
-    <row r="157" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C157" s="60">
-        <v>1</v>
-      </c>
-      <c r="D157" s="60"/>
-      <c r="E157" s="56" t="s">
+      <c r="F159" s="74"/>
+      <c r="H159" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="I159" s="74"/>
+      <c r="J159" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="K159" s="74"/>
+      <c r="L159" s="74"/>
+      <c r="M159" s="74"/>
+      <c r="N159" s="74"/>
+      <c r="O159" s="74"/>
+      <c r="P159" s="74"/>
+      <c r="Q159" s="74"/>
+      <c r="R159" s="74"/>
+      <c r="S159" s="74"/>
+      <c r="T159" s="74"/>
+      <c r="U159" s="74"/>
+    </row>
+    <row r="160" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C160" s="75">
+        <v>4</v>
+      </c>
+      <c r="D160" s="75"/>
+      <c r="E160" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F157" s="56"/>
-      <c r="H157" s="56" t="s">
+      <c r="F160" s="74"/>
+      <c r="H160" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="I157" s="56"/>
-      <c r="J157" s="56" t="s">
+      <c r="I160" s="74"/>
+      <c r="J160" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="K157" s="56"/>
-      <c r="L157" s="56"/>
-      <c r="M157" s="56"/>
-      <c r="N157" s="56"/>
-      <c r="O157" s="56"/>
-      <c r="P157" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q157" s="56"/>
-      <c r="R157" s="56"/>
-      <c r="S157" s="56"/>
-      <c r="T157" s="56"/>
-      <c r="U157" s="56"/>
-    </row>
-    <row r="158" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C158" s="60">
-        <v>2</v>
-      </c>
-      <c r="D158" s="60"/>
-      <c r="E158" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="F158" s="59"/>
-      <c r="H158" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="I158" s="56"/>
-      <c r="J158" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="K158" s="58"/>
-      <c r="L158" s="58"/>
-      <c r="M158" s="58"/>
-      <c r="N158" s="58"/>
-      <c r="O158" s="59"/>
-      <c r="P158" s="56" t="s">
+      <c r="K160" s="74"/>
+      <c r="L160" s="74"/>
+      <c r="M160" s="74"/>
+      <c r="N160" s="74"/>
+      <c r="O160" s="74"/>
+      <c r="P160" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="Q158" s="56"/>
-      <c r="R158" s="56"/>
-      <c r="S158" s="56"/>
-      <c r="T158" s="56"/>
-      <c r="U158" s="56"/>
-    </row>
-    <row r="159" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C159" s="60">
-        <v>3</v>
-      </c>
-      <c r="D159" s="60"/>
-      <c r="E159" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F159" s="56"/>
-      <c r="H159" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="I159" s="56"/>
-      <c r="J159" s="56" t="s">
+      <c r="Q160" s="74"/>
+      <c r="R160" s="74"/>
+      <c r="S160" s="74"/>
+      <c r="T160" s="74"/>
+      <c r="U160" s="74"/>
+    </row>
+    <row r="161" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C161" s="75">
+        <v>5</v>
+      </c>
+      <c r="D161" s="75"/>
+      <c r="E161" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F161" s="74"/>
+      <c r="H161" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="I161" s="74"/>
+      <c r="J161" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="K159" s="56"/>
-      <c r="L159" s="56"/>
-      <c r="M159" s="56"/>
-      <c r="N159" s="56"/>
-      <c r="O159" s="56"/>
-      <c r="P159" s="56"/>
-      <c r="Q159" s="56"/>
-      <c r="R159" s="56"/>
-      <c r="S159" s="56"/>
-      <c r="T159" s="56"/>
-      <c r="U159" s="56"/>
-    </row>
-    <row r="160" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C160" s="60">
-        <v>4</v>
-      </c>
-      <c r="D160" s="60"/>
-      <c r="E160" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F160" s="56"/>
-      <c r="H160" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="I160" s="56"/>
-      <c r="J160" s="56" t="s">
+      <c r="K161" s="74"/>
+      <c r="L161" s="74"/>
+      <c r="M161" s="74"/>
+      <c r="N161" s="74"/>
+      <c r="O161" s="74"/>
+      <c r="P161" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="K160" s="56"/>
-      <c r="L160" s="56"/>
-      <c r="M160" s="56"/>
-      <c r="N160" s="56"/>
-      <c r="O160" s="56"/>
-      <c r="P160" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q160" s="56"/>
-      <c r="R160" s="56"/>
-      <c r="S160" s="56"/>
-      <c r="T160" s="56"/>
-      <c r="U160" s="56"/>
-    </row>
-    <row r="161" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C161" s="60">
-        <v>5</v>
-      </c>
-      <c r="D161" s="60"/>
-      <c r="E161" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="F161" s="56"/>
-      <c r="H161" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="I161" s="56"/>
-      <c r="J161" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="K161" s="56"/>
-      <c r="L161" s="56"/>
-      <c r="M161" s="56"/>
-      <c r="N161" s="56"/>
-      <c r="O161" s="56"/>
-      <c r="P161" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q161" s="56"/>
-      <c r="R161" s="56"/>
-      <c r="S161" s="56"/>
-      <c r="T161" s="56"/>
-      <c r="U161" s="56"/>
+      <c r="Q161" s="74"/>
+      <c r="R161" s="74"/>
+      <c r="S161" s="74"/>
+      <c r="T161" s="74"/>
+      <c r="U161" s="74"/>
     </row>
     <row r="162" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C162" s="60">
+      <c r="C162" s="75">
         <v>6</v>
       </c>
-      <c r="D162" s="60"/>
-      <c r="E162" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F162" s="56"/>
+      <c r="D162" s="75"/>
+      <c r="E162" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="F162" s="74"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="I162" s="56"/>
-      <c r="J162" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="K162" s="56"/>
-      <c r="L162" s="56"/>
-      <c r="M162" s="56"/>
-      <c r="N162" s="56"/>
-      <c r="O162" s="56"/>
-      <c r="P162" s="56" t="s">
+      <c r="H162" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="Q162" s="56"/>
-      <c r="R162" s="56"/>
-      <c r="S162" s="56"/>
-      <c r="T162" s="56"/>
-      <c r="U162" s="56"/>
+      <c r="I162" s="74"/>
+      <c r="J162" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="K162" s="74"/>
+      <c r="L162" s="74"/>
+      <c r="M162" s="74"/>
+      <c r="N162" s="74"/>
+      <c r="O162" s="74"/>
+      <c r="P162" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q162" s="74"/>
+      <c r="R162" s="74"/>
+      <c r="S162" s="74"/>
+      <c r="T162" s="74"/>
+      <c r="U162" s="74"/>
     </row>
     <row r="164" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="165" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C166" s="52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D166" s="38"/>
       <c r="E166" s="38"/>
@@ -7115,27 +7151,27 @@
     </row>
     <row r="167" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C172" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D172" s="40"/>
       <c r="E172" s="40"/>
@@ -7153,7 +7189,7 @@
     <row r="173" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C173" s="40"/>
       <c r="D173" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
@@ -7169,149 +7205,149 @@
     </row>
     <row r="174" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="177" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C177" s="51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="178" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C178" s="56" t="s">
+      <c r="C178" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D178" s="74"/>
+      <c r="E178" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F178" s="74"/>
+    </row>
+    <row r="179" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C179" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D179" s="75"/>
+      <c r="E179" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F179" s="74"/>
+      <c r="H179" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I179" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="J179" s="74"/>
+      <c r="K179" s="74"/>
+      <c r="L179" s="74"/>
+      <c r="M179" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C180" s="75">
+        <v>1</v>
+      </c>
+      <c r="D180" s="75"/>
+      <c r="E180" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="D178" s="56"/>
-      <c r="E178" s="56" t="s">
+      <c r="F180" s="74"/>
+      <c r="H180" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I180" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="J180" s="73"/>
+      <c r="K180" s="73"/>
+      <c r="L180" s="73"/>
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C181" s="75">
+        <v>2</v>
+      </c>
+      <c r="D181" s="75"/>
+      <c r="E181" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="F178" s="56"/>
-    </row>
-    <row r="179" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C179" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D179" s="60"/>
-      <c r="E179" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="F179" s="56"/>
-      <c r="H179" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I179" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="J179" s="56"/>
-      <c r="K179" s="56"/>
-      <c r="L179" s="56"/>
-      <c r="M179" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="180" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C180" s="60">
-        <v>1</v>
-      </c>
-      <c r="D180" s="60"/>
-      <c r="E180" s="56" t="s">
+      <c r="F181" s="74"/>
+      <c r="H181" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I181" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="J181" s="73"/>
+      <c r="K181" s="73"/>
+      <c r="L181" s="73"/>
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C182" s="75">
+        <v>3</v>
+      </c>
+      <c r="D182" s="75"/>
+      <c r="E182" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="F180" s="56"/>
-      <c r="H180" s="25" t="s">
+      <c r="F182" s="74"/>
+      <c r="H182" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I180" s="61" t="s">
+      <c r="I182" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="J180" s="61"/>
-      <c r="K180" s="61"/>
-      <c r="L180" s="61"/>
-      <c r="M180" s="1"/>
-    </row>
-    <row r="181" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C181" s="60">
-        <v>2</v>
-      </c>
-      <c r="D181" s="60"/>
-      <c r="E181" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="F181" s="56"/>
-      <c r="H181" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I181" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="J181" s="61"/>
-      <c r="K181" s="61"/>
-      <c r="L181" s="61"/>
-      <c r="M181" s="1"/>
-    </row>
-    <row r="182" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C182" s="60">
-        <v>3</v>
-      </c>
-      <c r="D182" s="60"/>
-      <c r="E182" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="F182" s="56"/>
-      <c r="H182" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="I182" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="J182" s="61"/>
-      <c r="K182" s="61"/>
-      <c r="L182" s="61"/>
+      <c r="J182" s="73"/>
+      <c r="K182" s="73"/>
+      <c r="L182" s="73"/>
       <c r="M182" s="1"/>
     </row>
     <row r="184" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C184" s="51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="185" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="188" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C188" s="51" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7406,6 +7442,15 @@
     <mergeCell ref="I181:L181"/>
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="C181:D181"/>
+    <mergeCell ref="P161:U161"/>
+    <mergeCell ref="P162:U162"/>
+    <mergeCell ref="P156:U156"/>
+    <mergeCell ref="P157:U157"/>
+    <mergeCell ref="P158:U158"/>
+    <mergeCell ref="P160:U160"/>
+    <mergeCell ref="P159:U159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:O159"/>
     <mergeCell ref="C182:D182"/>
     <mergeCell ref="E180:F180"/>
     <mergeCell ref="E181:F181"/>
@@ -7415,6 +7460,7 @@
     <mergeCell ref="E150:G150"/>
     <mergeCell ref="E151:G151"/>
     <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E159:F159"/>
     <mergeCell ref="I182:L182"/>
     <mergeCell ref="E178:F178"/>
     <mergeCell ref="C179:D179"/>
@@ -7426,17 +7472,10 @@
     <mergeCell ref="E155:F155"/>
     <mergeCell ref="C156:D156"/>
     <mergeCell ref="E156:F156"/>
-    <mergeCell ref="P161:U161"/>
-    <mergeCell ref="P162:U162"/>
-    <mergeCell ref="P156:U156"/>
     <mergeCell ref="J158:O158"/>
     <mergeCell ref="C158:D158"/>
     <mergeCell ref="E158:F158"/>
     <mergeCell ref="H158:I158"/>
-    <mergeCell ref="P157:U157"/>
-    <mergeCell ref="P158:U158"/>
-    <mergeCell ref="P160:U160"/>
-    <mergeCell ref="P159:U159"/>
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="J156:O156"/>
     <mergeCell ref="C157:D157"/>
@@ -7446,9 +7485,6 @@
     <mergeCell ref="H162:I162"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:O159"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7461,92 +7497,92 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:W116"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S115" sqref="S115:W115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
+      <c r="B1" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
     </row>
     <row r="2" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="86"/>
+      <c r="C2" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="116"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="117"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
+      <c r="C3" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -7557,191 +7593,191 @@
       <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="97"/>
+      <c r="C4" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="111"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="97"/>
+      <c r="C5" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="111"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="97"/>
+      <c r="C6" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="111"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="101"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="98"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="93" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="110"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="100"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="114"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="99"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="97"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="111"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="99"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="96"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -7749,23 +7785,23 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="99"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="96"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="55"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -7773,23 +7809,23 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="99"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="96"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="55"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -7797,23 +7833,23 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="99"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="96"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="55"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -7821,23 +7857,23 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="99"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="96"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="55"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -7845,140 +7881,140 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="99"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="96"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="55"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="24"/>
     </row>
     <row r="16" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="117"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="96"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="55"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="24"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="110">
+      <c r="B17" s="58">
         <v>5</v>
       </c>
-      <c r="C17" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="97"/>
+      <c r="C17" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="111"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="23">
         <v>6</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="97"/>
+      <c r="C18" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="111"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="23">
         <v>7</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="59"/>
+      <c r="C19" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="78"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -7986,25 +8022,25 @@
       <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="101"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="59"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="78"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -8012,25 +8048,25 @@
       <c r="W20" s="24"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="102"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="59"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="78"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -8038,25 +8074,25 @@
       <c r="W21" s="24"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="102"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="59"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="78"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -8064,52 +8100,52 @@
       <c r="W22" s="24"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="102"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="97"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="119" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="111"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="116"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="55"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -8117,23 +8153,23 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="99"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="96"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="55"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -8141,23 +8177,23 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="99"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="96"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="55"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -8165,23 +8201,23 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="99"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="96"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="55"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -8189,23 +8225,23 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="99"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="96"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="55"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -8213,23 +8249,23 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="99"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="96"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="55"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -8237,23 +8273,23 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="99"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="96"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="55"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -8261,23 +8297,23 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="99"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="96"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="55"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -8285,136 +8321,136 @@
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="99"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="96"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="55"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="24"/>
     </row>
     <row r="33" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="117"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="115"/>
-      <c r="S33" s="96"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="55"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="24"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="110">
+      <c r="B34" s="58">
         <v>8</v>
       </c>
-      <c r="C34" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="97"/>
+      <c r="C34" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="111"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="23">
         <v>9</v>
       </c>
-      <c r="C35" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="97"/>
+      <c r="C35" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="111"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="101"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -8422,25 +8458,25 @@
       <c r="W36" s="24"/>
     </row>
     <row r="37" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="102"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="81"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="119" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="106"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -8448,24 +8484,24 @@
       <c r="W37" s="24"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="116"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="55"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -8473,23 +8509,23 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="99"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="96"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="55"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -8497,23 +8533,23 @@
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="99"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="96"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="55"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -8521,23 +8557,23 @@
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="99"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="96"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="55"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -8545,23 +8581,23 @@
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="99"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="96"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="55"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -8569,23 +8605,23 @@
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="99"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="96"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="55"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -8593,23 +8629,23 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="99"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="96"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="55"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
@@ -8617,23 +8653,23 @@
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="99"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="96"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="100"/>
+      <c r="S45" s="55"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
@@ -8641,23 +8677,23 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="99"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="96"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="55"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -8665,23 +8701,23 @@
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="99"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="113"/>
-      <c r="S47" s="96"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="55"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -8689,76 +8725,76 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="99"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="96"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="55"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="24"/>
     </row>
     <row r="49" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="117"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="115"/>
-      <c r="S49" s="96"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="55"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="24"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B50" s="110">
+      <c r="B50" s="58">
         <v>10</v>
       </c>
-      <c r="C50" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="77"/>
+      <c r="C50" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -8766,25 +8802,25 @@
       <c r="W50" s="24"/>
     </row>
     <row r="51" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="101"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="76"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -8792,24 +8828,24 @@
       <c r="W51" s="24"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B52" s="116"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="111"/>
-      <c r="M52" s="111"/>
-      <c r="N52" s="111"/>
-      <c r="O52" s="111"/>
-      <c r="P52" s="111"/>
-      <c r="Q52" s="111"/>
-      <c r="R52" s="112"/>
-      <c r="S52" s="96"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="97"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="98"/>
+      <c r="S52" s="55"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
@@ -8817,23 +8853,23 @@
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="99"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="113"/>
-      <c r="S53" s="96"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="55"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
@@ -8841,23 +8877,23 @@
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="99"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="113"/>
-      <c r="S54" s="96"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="100"/>
+      <c r="S54" s="55"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
@@ -8865,23 +8901,23 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="99"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="113"/>
-      <c r="S55" s="96"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="100"/>
+      <c r="S55" s="55"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
@@ -8889,23 +8925,23 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="99"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="113"/>
-      <c r="S56" s="96"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="55"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -8913,23 +8949,23 @@
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="99"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="113"/>
-      <c r="S57" s="96"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="100"/>
+      <c r="S57" s="55"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -8937,23 +8973,23 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="99"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="113"/>
-      <c r="S58" s="96"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="100"/>
+      <c r="S58" s="55"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -8961,23 +8997,23 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="99"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="113"/>
-      <c r="S59" s="96"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="55"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -8985,23 +9021,23 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B60" s="99"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="113"/>
-      <c r="S60" s="96"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="100"/>
+      <c r="S60" s="55"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -9009,23 +9045,23 @@
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B61" s="99"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="113"/>
-      <c r="S61" s="96"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="100"/>
+      <c r="S61" s="55"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -9033,23 +9069,23 @@
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B62" s="99"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="113"/>
-      <c r="S62" s="96"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="74"/>
+      <c r="P62" s="74"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="55"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -9057,76 +9093,76 @@
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B63" s="99"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="113"/>
-      <c r="S63" s="96"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="74"/>
+      <c r="Q63" s="74"/>
+      <c r="R63" s="100"/>
+      <c r="S63" s="55"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="24"/>
     </row>
     <row r="64" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="117"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="114"/>
-      <c r="L64" s="114"/>
-      <c r="M64" s="114"/>
-      <c r="N64" s="114"/>
-      <c r="O64" s="114"/>
-      <c r="P64" s="114"/>
-      <c r="Q64" s="114"/>
-      <c r="R64" s="115"/>
-      <c r="S64" s="96"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="102"/>
+      <c r="M64" s="102"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="102"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="55"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="24"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="110">
+      <c r="B65" s="58">
         <v>11</v>
       </c>
-      <c r="C65" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="77"/>
+      <c r="C65" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="94"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65" s="94"/>
+      <c r="H65" s="94"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="94"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="94"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="94"/>
+      <c r="O65" s="94"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
@@ -9134,25 +9170,25 @@
       <c r="W65" s="24"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B66" s="101"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="74"/>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="74"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -9160,53 +9196,53 @@
       <c r="W66" s="24"/>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B67" s="102"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="80"/>
-      <c r="P67" s="80"/>
-      <c r="Q67" s="80"/>
-      <c r="R67" s="81"/>
-      <c r="S67" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="T67" s="58"/>
-      <c r="U67" s="58"/>
-      <c r="V67" s="58"/>
-      <c r="W67" s="98"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105"/>
+      <c r="L67" s="105"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="105"/>
+      <c r="O67" s="105"/>
+      <c r="P67" s="105"/>
+      <c r="Q67" s="105"/>
+      <c r="R67" s="106"/>
+      <c r="S67" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="T67" s="77"/>
+      <c r="U67" s="77"/>
+      <c r="V67" s="77"/>
+      <c r="W67" s="110"/>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B68" s="102"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="74"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -9214,50 +9250,50 @@
       <c r="W68" s="24"/>
     </row>
     <row r="69" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="102"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="76"/>
-      <c r="S69" s="94"/>
-      <c r="T69" s="95"/>
-      <c r="U69" s="95"/>
-      <c r="V69" s="95"/>
-      <c r="W69" s="103"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="93"/>
+      <c r="M69" s="93"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="93"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="93"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="56"/>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B70" s="116"/>
-      <c r="C70" s="111"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="111"/>
-      <c r="M70" s="111"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="112"/>
-      <c r="S70" s="96"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="97"/>
+      <c r="M70" s="97"/>
+      <c r="N70" s="97"/>
+      <c r="O70" s="97"/>
+      <c r="P70" s="97"/>
+      <c r="Q70" s="97"/>
+      <c r="R70" s="98"/>
+      <c r="S70" s="55"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
@@ -9265,23 +9301,23 @@
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B71" s="99"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="113"/>
-      <c r="S71" s="96"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="74"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="100"/>
+      <c r="S71" s="55"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
@@ -9289,23 +9325,23 @@
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B72" s="99"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="113"/>
-      <c r="S72" s="96"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="74"/>
+      <c r="P72" s="74"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="100"/>
+      <c r="S72" s="55"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
@@ -9313,23 +9349,23 @@
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B73" s="99"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="56"/>
-      <c r="R73" s="113"/>
-      <c r="S73" s="96"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="100"/>
+      <c r="S73" s="55"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
@@ -9337,23 +9373,23 @@
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B74" s="99"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="56"/>
-      <c r="R74" s="113"/>
-      <c r="S74" s="96"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
+      <c r="Q74" s="74"/>
+      <c r="R74" s="100"/>
+      <c r="S74" s="55"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
@@ -9361,23 +9397,23 @@
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B75" s="99"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="56"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="56"/>
-      <c r="R75" s="113"/>
-      <c r="S75" s="96"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="74"/>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="74"/>
+      <c r="R75" s="100"/>
+      <c r="S75" s="55"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
@@ -9385,23 +9421,23 @@
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B76" s="99"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="56"/>
-      <c r="R76" s="113"/>
-      <c r="S76" s="96"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="74"/>
+      <c r="P76" s="74"/>
+      <c r="Q76" s="74"/>
+      <c r="R76" s="100"/>
+      <c r="S76" s="55"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
@@ -9409,23 +9445,23 @@
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B77" s="99"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="113"/>
-      <c r="S77" s="96"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="100"/>
+      <c r="S77" s="55"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
@@ -9433,23 +9469,23 @@
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B78" s="99"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="113"/>
-      <c r="S78" s="96"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="100"/>
+      <c r="S78" s="55"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
@@ -9457,23 +9493,23 @@
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B79" s="99"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="56"/>
-      <c r="R79" s="113"/>
-      <c r="S79" s="96"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="100"/>
+      <c r="S79" s="55"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
@@ -9481,23 +9517,23 @@
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B80" s="99"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="113"/>
-      <c r="S80" s="96"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="74"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="74"/>
+      <c r="P80" s="74"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="100"/>
+      <c r="S80" s="55"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
@@ -9505,23 +9541,23 @@
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B81" s="99"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="113"/>
-      <c r="S81" s="96"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="74"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="74"/>
+      <c r="P81" s="74"/>
+      <c r="Q81" s="74"/>
+      <c r="R81" s="100"/>
+      <c r="S81" s="55"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
@@ -9529,23 +9565,23 @@
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B82" s="99"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="113"/>
-      <c r="S82" s="96"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="74"/>
+      <c r="P82" s="74"/>
+      <c r="Q82" s="74"/>
+      <c r="R82" s="100"/>
+      <c r="S82" s="55"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
@@ -9553,23 +9589,23 @@
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B83" s="99"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="113"/>
-      <c r="S83" s="96"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="74"/>
+      <c r="Q83" s="74"/>
+      <c r="R83" s="100"/>
+      <c r="S83" s="55"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
@@ -9577,23 +9613,23 @@
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B84" s="99"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="113"/>
-      <c r="S84" s="96"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="100"/>
+      <c r="S84" s="55"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
@@ -9601,23 +9637,23 @@
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B85" s="99"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="113"/>
-      <c r="S85" s="96"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="74"/>
+      <c r="P85" s="74"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="100"/>
+      <c r="S85" s="55"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
@@ -9625,76 +9661,76 @@
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B86" s="99"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="113"/>
-      <c r="S86" s="96"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+      <c r="Q86" s="74"/>
+      <c r="R86" s="100"/>
+      <c r="S86" s="55"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="24"/>
     </row>
     <row r="87" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="117"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="114"/>
-      <c r="O87" s="114"/>
-      <c r="P87" s="114"/>
-      <c r="Q87" s="114"/>
-      <c r="R87" s="115"/>
-      <c r="S87" s="96"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="102"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="102"/>
+      <c r="J87" s="102"/>
+      <c r="K87" s="102"/>
+      <c r="L87" s="102"/>
+      <c r="M87" s="102"/>
+      <c r="N87" s="102"/>
+      <c r="O87" s="102"/>
+      <c r="P87" s="102"/>
+      <c r="Q87" s="102"/>
+      <c r="R87" s="103"/>
+      <c r="S87" s="55"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="24"/>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B88" s="110">
+      <c r="B88" s="58">
         <v>12</v>
       </c>
-      <c r="C88" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-      <c r="N88" s="77"/>
-      <c r="O88" s="77"/>
-      <c r="P88" s="77"/>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
+      <c r="C88" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" s="94"/>
+      <c r="E88" s="94"/>
+      <c r="F88" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="G88" s="94"/>
+      <c r="H88" s="94"/>
+      <c r="I88" s="94"/>
+      <c r="J88" s="94"/>
+      <c r="K88" s="94"/>
+      <c r="L88" s="94"/>
+      <c r="M88" s="94"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="94"/>
+      <c r="P88" s="94"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -9702,25 +9738,25 @@
       <c r="W88" s="24"/>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B89" s="101"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="106"/>
+      <c r="F89" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="74"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="74"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
@@ -9728,25 +9764,25 @@
       <c r="W89" s="24"/>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B90" s="102"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="56"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="56"/>
-      <c r="R90" s="56"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="74"/>
+      <c r="O90" s="74"/>
+      <c r="P90" s="74"/>
+      <c r="Q90" s="74"/>
+      <c r="R90" s="74"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -9754,25 +9790,25 @@
       <c r="W90" s="24"/>
     </row>
     <row r="91" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="102"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="G91" s="80"/>
-      <c r="H91" s="80"/>
-      <c r="I91" s="80"/>
-      <c r="J91" s="80"/>
-      <c r="K91" s="80"/>
-      <c r="L91" s="80"/>
-      <c r="M91" s="80"/>
-      <c r="N91" s="80"/>
-      <c r="O91" s="80"/>
-      <c r="P91" s="80"/>
-      <c r="Q91" s="80"/>
-      <c r="R91" s="81"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="105"/>
+      <c r="K91" s="105"/>
+      <c r="L91" s="105"/>
+      <c r="M91" s="105"/>
+      <c r="N91" s="105"/>
+      <c r="O91" s="105"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="105"/>
+      <c r="R91" s="106"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
@@ -9780,608 +9816,603 @@
       <c r="W91" s="24"/>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B92" s="118"/>
-      <c r="C92" s="119"/>
-      <c r="D92" s="119"/>
-      <c r="E92" s="119"/>
-      <c r="F92" s="119"/>
-      <c r="G92" s="119"/>
-      <c r="H92" s="119"/>
-      <c r="I92" s="119"/>
-      <c r="J92" s="119"/>
-      <c r="K92" s="119"/>
-      <c r="L92" s="119"/>
-      <c r="M92" s="119"/>
-      <c r="N92" s="119"/>
-      <c r="O92" s="119"/>
-      <c r="P92" s="119"/>
-      <c r="Q92" s="119"/>
-      <c r="R92" s="120"/>
-      <c r="S92" s="96"/>
+      <c r="B92" s="123"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="124"/>
+      <c r="J92" s="124"/>
+      <c r="K92" s="124"/>
+      <c r="L92" s="124"/>
+      <c r="M92" s="124"/>
+      <c r="N92" s="124"/>
+      <c r="O92" s="124"/>
+      <c r="P92" s="124"/>
+      <c r="Q92" s="124"/>
+      <c r="R92" s="125"/>
+      <c r="S92" s="55"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="24"/>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B93" s="102"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="82"/>
-      <c r="K93" s="82"/>
-      <c r="L93" s="82"/>
-      <c r="M93" s="82"/>
-      <c r="N93" s="82"/>
-      <c r="O93" s="82"/>
-      <c r="P93" s="82"/>
-      <c r="Q93" s="82"/>
-      <c r="R93" s="121"/>
-      <c r="S93" s="96"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="108"/>
+      <c r="F93" s="108"/>
+      <c r="G93" s="108"/>
+      <c r="H93" s="108"/>
+      <c r="I93" s="108"/>
+      <c r="J93" s="108"/>
+      <c r="K93" s="108"/>
+      <c r="L93" s="108"/>
+      <c r="M93" s="108"/>
+      <c r="N93" s="108"/>
+      <c r="O93" s="108"/>
+      <c r="P93" s="108"/>
+      <c r="Q93" s="108"/>
+      <c r="R93" s="126"/>
+      <c r="S93" s="55"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="24"/>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B94" s="102"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="82"/>
-      <c r="L94" s="82"/>
-      <c r="M94" s="82"/>
-      <c r="N94" s="82"/>
-      <c r="O94" s="82"/>
-      <c r="P94" s="82"/>
-      <c r="Q94" s="82"/>
-      <c r="R94" s="121"/>
-      <c r="S94" s="96"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="108"/>
+      <c r="I94" s="108"/>
+      <c r="J94" s="108"/>
+      <c r="K94" s="108"/>
+      <c r="L94" s="108"/>
+      <c r="M94" s="108"/>
+      <c r="N94" s="108"/>
+      <c r="O94" s="108"/>
+      <c r="P94" s="108"/>
+      <c r="Q94" s="108"/>
+      <c r="R94" s="126"/>
+      <c r="S94" s="55"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="24"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B95" s="102"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
-      <c r="J95" s="82"/>
-      <c r="K95" s="82"/>
-      <c r="L95" s="82"/>
-      <c r="M95" s="82"/>
-      <c r="N95" s="82"/>
-      <c r="O95" s="82"/>
-      <c r="P95" s="82"/>
-      <c r="Q95" s="82"/>
-      <c r="R95" s="121"/>
-      <c r="S95" s="96"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="108"/>
+      <c r="D95" s="108"/>
+      <c r="E95" s="108"/>
+      <c r="F95" s="108"/>
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
+      <c r="I95" s="108"/>
+      <c r="J95" s="108"/>
+      <c r="K95" s="108"/>
+      <c r="L95" s="108"/>
+      <c r="M95" s="108"/>
+      <c r="N95" s="108"/>
+      <c r="O95" s="108"/>
+      <c r="P95" s="108"/>
+      <c r="Q95" s="108"/>
+      <c r="R95" s="126"/>
+      <c r="S95" s="55"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="24"/>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B96" s="102"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
-      <c r="N96" s="82"/>
-      <c r="O96" s="82"/>
-      <c r="P96" s="82"/>
-      <c r="Q96" s="82"/>
-      <c r="R96" s="121"/>
-      <c r="S96" s="96"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="108"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="108"/>
+      <c r="F96" s="108"/>
+      <c r="G96" s="108"/>
+      <c r="H96" s="108"/>
+      <c r="I96" s="108"/>
+      <c r="J96" s="108"/>
+      <c r="K96" s="108"/>
+      <c r="L96" s="108"/>
+      <c r="M96" s="108"/>
+      <c r="N96" s="108"/>
+      <c r="O96" s="108"/>
+      <c r="P96" s="108"/>
+      <c r="Q96" s="108"/>
+      <c r="R96" s="126"/>
+      <c r="S96" s="55"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="24"/>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B97" s="102"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="82"/>
-      <c r="H97" s="82"/>
-      <c r="I97" s="82"/>
-      <c r="J97" s="82"/>
-      <c r="K97" s="82"/>
-      <c r="L97" s="82"/>
-      <c r="M97" s="82"/>
-      <c r="N97" s="82"/>
-      <c r="O97" s="82"/>
-      <c r="P97" s="82"/>
-      <c r="Q97" s="82"/>
-      <c r="R97" s="121"/>
-      <c r="S97" s="96"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="108"/>
+      <c r="D97" s="108"/>
+      <c r="E97" s="108"/>
+      <c r="F97" s="108"/>
+      <c r="G97" s="108"/>
+      <c r="H97" s="108"/>
+      <c r="I97" s="108"/>
+      <c r="J97" s="108"/>
+      <c r="K97" s="108"/>
+      <c r="L97" s="108"/>
+      <c r="M97" s="108"/>
+      <c r="N97" s="108"/>
+      <c r="O97" s="108"/>
+      <c r="P97" s="108"/>
+      <c r="Q97" s="108"/>
+      <c r="R97" s="126"/>
+      <c r="S97" s="55"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="24"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B98" s="102"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="82"/>
-      <c r="K98" s="82"/>
-      <c r="L98" s="82"/>
-      <c r="M98" s="82"/>
-      <c r="N98" s="82"/>
-      <c r="O98" s="82"/>
-      <c r="P98" s="82"/>
-      <c r="Q98" s="82"/>
-      <c r="R98" s="121"/>
-      <c r="S98" s="96"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="108"/>
+      <c r="F98" s="108"/>
+      <c r="G98" s="108"/>
+      <c r="H98" s="108"/>
+      <c r="I98" s="108"/>
+      <c r="J98" s="108"/>
+      <c r="K98" s="108"/>
+      <c r="L98" s="108"/>
+      <c r="M98" s="108"/>
+      <c r="N98" s="108"/>
+      <c r="O98" s="108"/>
+      <c r="P98" s="108"/>
+      <c r="Q98" s="108"/>
+      <c r="R98" s="126"/>
+      <c r="S98" s="55"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="24"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B99" s="102"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="82"/>
-      <c r="H99" s="82"/>
-      <c r="I99" s="82"/>
-      <c r="J99" s="82"/>
-      <c r="K99" s="82"/>
-      <c r="L99" s="82"/>
-      <c r="M99" s="82"/>
-      <c r="N99" s="82"/>
-      <c r="O99" s="82"/>
-      <c r="P99" s="82"/>
-      <c r="Q99" s="82"/>
-      <c r="R99" s="121"/>
-      <c r="S99" s="96"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="108"/>
+      <c r="K99" s="108"/>
+      <c r="L99" s="108"/>
+      <c r="M99" s="108"/>
+      <c r="N99" s="108"/>
+      <c r="O99" s="108"/>
+      <c r="P99" s="108"/>
+      <c r="Q99" s="108"/>
+      <c r="R99" s="126"/>
+      <c r="S99" s="55"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="24"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B100" s="102"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="82"/>
-      <c r="H100" s="82"/>
-      <c r="I100" s="82"/>
-      <c r="J100" s="82"/>
-      <c r="K100" s="82"/>
-      <c r="L100" s="82"/>
-      <c r="M100" s="82"/>
-      <c r="N100" s="82"/>
-      <c r="O100" s="82"/>
-      <c r="P100" s="82"/>
-      <c r="Q100" s="82"/>
-      <c r="R100" s="121"/>
-      <c r="S100" s="96"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="108"/>
+      <c r="J100" s="108"/>
+      <c r="K100" s="108"/>
+      <c r="L100" s="108"/>
+      <c r="M100" s="108"/>
+      <c r="N100" s="108"/>
+      <c r="O100" s="108"/>
+      <c r="P100" s="108"/>
+      <c r="Q100" s="108"/>
+      <c r="R100" s="126"/>
+      <c r="S100" s="55"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="24"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B101" s="102"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="82"/>
-      <c r="F101" s="82"/>
-      <c r="G101" s="82"/>
-      <c r="H101" s="82"/>
-      <c r="I101" s="82"/>
-      <c r="J101" s="82"/>
-      <c r="K101" s="82"/>
-      <c r="L101" s="82"/>
-      <c r="M101" s="82"/>
-      <c r="N101" s="82"/>
-      <c r="O101" s="82"/>
-      <c r="P101" s="82"/>
-      <c r="Q101" s="82"/>
-      <c r="R101" s="121"/>
-      <c r="S101" s="96"/>
+      <c r="B101" s="107"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="108"/>
+      <c r="K101" s="108"/>
+      <c r="L101" s="108"/>
+      <c r="M101" s="108"/>
+      <c r="N101" s="108"/>
+      <c r="O101" s="108"/>
+      <c r="P101" s="108"/>
+      <c r="Q101" s="108"/>
+      <c r="R101" s="126"/>
+      <c r="S101" s="55"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="24"/>
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B102" s="102"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="82"/>
-      <c r="L102" s="82"/>
-      <c r="M102" s="82"/>
-      <c r="N102" s="82"/>
-      <c r="O102" s="82"/>
-      <c r="P102" s="82"/>
-      <c r="Q102" s="82"/>
-      <c r="R102" s="121"/>
-      <c r="S102" s="96"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="108"/>
+      <c r="D102" s="108"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
+      <c r="H102" s="108"/>
+      <c r="I102" s="108"/>
+      <c r="J102" s="108"/>
+      <c r="K102" s="108"/>
+      <c r="L102" s="108"/>
+      <c r="M102" s="108"/>
+      <c r="N102" s="108"/>
+      <c r="O102" s="108"/>
+      <c r="P102" s="108"/>
+      <c r="Q102" s="108"/>
+      <c r="R102" s="126"/>
+      <c r="S102" s="55"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="24"/>
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B103" s="102"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="82"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="82"/>
-      <c r="I103" s="82"/>
-      <c r="J103" s="82"/>
-      <c r="K103" s="82"/>
-      <c r="L103" s="82"/>
-      <c r="M103" s="82"/>
-      <c r="N103" s="82"/>
-      <c r="O103" s="82"/>
-      <c r="P103" s="82"/>
-      <c r="Q103" s="82"/>
-      <c r="R103" s="121"/>
-      <c r="S103" s="96"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
+      <c r="I103" s="108"/>
+      <c r="J103" s="108"/>
+      <c r="K103" s="108"/>
+      <c r="L103" s="108"/>
+      <c r="M103" s="108"/>
+      <c r="N103" s="108"/>
+      <c r="O103" s="108"/>
+      <c r="P103" s="108"/>
+      <c r="Q103" s="108"/>
+      <c r="R103" s="126"/>
+      <c r="S103" s="55"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="24"/>
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B104" s="102"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="H104" s="82"/>
-      <c r="I104" s="82"/>
-      <c r="J104" s="82"/>
-      <c r="K104" s="82"/>
-      <c r="L104" s="82"/>
-      <c r="M104" s="82"/>
-      <c r="N104" s="82"/>
-      <c r="O104" s="82"/>
-      <c r="P104" s="82"/>
-      <c r="Q104" s="82"/>
-      <c r="R104" s="121"/>
-      <c r="S104" s="96"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="108"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="108"/>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108"/>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="126"/>
+      <c r="S104" s="55"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
       <c r="W104" s="24"/>
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B105" s="102"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
-      <c r="P105" s="82"/>
-      <c r="Q105" s="82"/>
-      <c r="R105" s="121"/>
-      <c r="S105" s="96"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="108"/>
+      <c r="I105" s="108"/>
+      <c r="J105" s="108"/>
+      <c r="K105" s="108"/>
+      <c r="L105" s="108"/>
+      <c r="M105" s="108"/>
+      <c r="N105" s="108"/>
+      <c r="O105" s="108"/>
+      <c r="P105" s="108"/>
+      <c r="Q105" s="108"/>
+      <c r="R105" s="126"/>
+      <c r="S105" s="55"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
       <c r="W105" s="24"/>
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B106" s="102"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="82"/>
-      <c r="K106" s="82"/>
-      <c r="L106" s="82"/>
-      <c r="M106" s="82"/>
-      <c r="N106" s="82"/>
-      <c r="O106" s="82"/>
-      <c r="P106" s="82"/>
-      <c r="Q106" s="82"/>
-      <c r="R106" s="121"/>
-      <c r="S106" s="96"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="108"/>
+      <c r="J106" s="108"/>
+      <c r="K106" s="108"/>
+      <c r="L106" s="108"/>
+      <c r="M106" s="108"/>
+      <c r="N106" s="108"/>
+      <c r="O106" s="108"/>
+      <c r="P106" s="108"/>
+      <c r="Q106" s="108"/>
+      <c r="R106" s="126"/>
+      <c r="S106" s="55"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="24"/>
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B107" s="102"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-      <c r="L107" s="82"/>
-      <c r="M107" s="82"/>
-      <c r="N107" s="82"/>
-      <c r="O107" s="82"/>
-      <c r="P107" s="82"/>
-      <c r="Q107" s="82"/>
-      <c r="R107" s="121"/>
-      <c r="S107" s="96"/>
+      <c r="B107" s="107"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="108"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="108"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="108"/>
+      <c r="K107" s="108"/>
+      <c r="L107" s="108"/>
+      <c r="M107" s="108"/>
+      <c r="N107" s="108"/>
+      <c r="O107" s="108"/>
+      <c r="P107" s="108"/>
+      <c r="Q107" s="108"/>
+      <c r="R107" s="126"/>
+      <c r="S107" s="55"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
       <c r="W107" s="24"/>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B108" s="102"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="82"/>
-      <c r="H108" s="82"/>
-      <c r="I108" s="82"/>
-      <c r="J108" s="82"/>
-      <c r="K108" s="82"/>
-      <c r="L108" s="82"/>
-      <c r="M108" s="82"/>
-      <c r="N108" s="82"/>
-      <c r="O108" s="82"/>
-      <c r="P108" s="82"/>
-      <c r="Q108" s="82"/>
-      <c r="R108" s="121"/>
-      <c r="S108" s="96"/>
+      <c r="B108" s="107"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="108"/>
+      <c r="E108" s="108"/>
+      <c r="F108" s="108"/>
+      <c r="G108" s="108"/>
+      <c r="H108" s="108"/>
+      <c r="I108" s="108"/>
+      <c r="J108" s="108"/>
+      <c r="K108" s="108"/>
+      <c r="L108" s="108"/>
+      <c r="M108" s="108"/>
+      <c r="N108" s="108"/>
+      <c r="O108" s="108"/>
+      <c r="P108" s="108"/>
+      <c r="Q108" s="108"/>
+      <c r="R108" s="126"/>
+      <c r="S108" s="55"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
       <c r="W108" s="24"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B109" s="102"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="82"/>
-      <c r="I109" s="82"/>
-      <c r="J109" s="82"/>
-      <c r="K109" s="82"/>
-      <c r="L109" s="82"/>
-      <c r="M109" s="82"/>
-      <c r="N109" s="82"/>
-      <c r="O109" s="82"/>
-      <c r="P109" s="82"/>
-      <c r="Q109" s="82"/>
-      <c r="R109" s="121"/>
-      <c r="S109" s="96"/>
+      <c r="B109" s="107"/>
+      <c r="C109" s="108"/>
+      <c r="D109" s="108"/>
+      <c r="E109" s="108"/>
+      <c r="F109" s="108"/>
+      <c r="G109" s="108"/>
+      <c r="H109" s="108"/>
+      <c r="I109" s="108"/>
+      <c r="J109" s="108"/>
+      <c r="K109" s="108"/>
+      <c r="L109" s="108"/>
+      <c r="M109" s="108"/>
+      <c r="N109" s="108"/>
+      <c r="O109" s="108"/>
+      <c r="P109" s="108"/>
+      <c r="Q109" s="108"/>
+      <c r="R109" s="126"/>
+      <c r="S109" s="55"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
       <c r="W109" s="24"/>
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B110" s="102"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-      <c r="L110" s="82"/>
-      <c r="M110" s="82"/>
-      <c r="N110" s="82"/>
-      <c r="O110" s="82"/>
-      <c r="P110" s="82"/>
-      <c r="Q110" s="82"/>
-      <c r="R110" s="121"/>
-      <c r="S110" s="96"/>
+      <c r="B110" s="107"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="108"/>
+      <c r="E110" s="108"/>
+      <c r="F110" s="108"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="108"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="108"/>
+      <c r="K110" s="108"/>
+      <c r="L110" s="108"/>
+      <c r="M110" s="108"/>
+      <c r="N110" s="108"/>
+      <c r="O110" s="108"/>
+      <c r="P110" s="108"/>
+      <c r="Q110" s="108"/>
+      <c r="R110" s="126"/>
+      <c r="S110" s="55"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="24"/>
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B111" s="102"/>
-      <c r="C111" s="82"/>
-      <c r="D111" s="82"/>
-      <c r="E111" s="82"/>
-      <c r="F111" s="82"/>
-      <c r="G111" s="82"/>
-      <c r="H111" s="82"/>
-      <c r="I111" s="82"/>
-      <c r="J111" s="82"/>
-      <c r="K111" s="82"/>
-      <c r="L111" s="82"/>
-      <c r="M111" s="82"/>
-      <c r="N111" s="82"/>
-      <c r="O111" s="82"/>
-      <c r="P111" s="82"/>
-      <c r="Q111" s="82"/>
-      <c r="R111" s="121"/>
-      <c r="S111" s="96"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="108"/>
+      <c r="L111" s="108"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="108"/>
+      <c r="O111" s="108"/>
+      <c r="P111" s="108"/>
+      <c r="Q111" s="108"/>
+      <c r="R111" s="126"/>
+      <c r="S111" s="55"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
       <c r="W111" s="24"/>
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B112" s="102"/>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="82"/>
-      <c r="I112" s="82"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
-      <c r="L112" s="82"/>
-      <c r="M112" s="82"/>
-      <c r="N112" s="82"/>
-      <c r="O112" s="82"/>
-      <c r="P112" s="82"/>
-      <c r="Q112" s="82"/>
-      <c r="R112" s="121"/>
-      <c r="S112" s="96"/>
+      <c r="B112" s="107"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="108"/>
+      <c r="E112" s="108"/>
+      <c r="F112" s="108"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="108"/>
+      <c r="I112" s="108"/>
+      <c r="J112" s="108"/>
+      <c r="K112" s="108"/>
+      <c r="L112" s="108"/>
+      <c r="M112" s="108"/>
+      <c r="N112" s="108"/>
+      <c r="O112" s="108"/>
+      <c r="P112" s="108"/>
+      <c r="Q112" s="108"/>
+      <c r="R112" s="126"/>
+      <c r="S112" s="55"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
       <c r="W112" s="24"/>
     </row>
     <row r="113" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="122"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="123"/>
-      <c r="G113" s="123"/>
-      <c r="H113" s="123"/>
-      <c r="I113" s="123"/>
-      <c r="J113" s="123"/>
-      <c r="K113" s="123"/>
-      <c r="L113" s="123"/>
-      <c r="M113" s="123"/>
-      <c r="N113" s="123"/>
-      <c r="O113" s="123"/>
-      <c r="P113" s="123"/>
-      <c r="Q113" s="123"/>
-      <c r="R113" s="124"/>
-      <c r="S113" s="96"/>
+      <c r="B113" s="127"/>
+      <c r="C113" s="128"/>
+      <c r="D113" s="128"/>
+      <c r="E113" s="128"/>
+      <c r="F113" s="128"/>
+      <c r="G113" s="128"/>
+      <c r="H113" s="128"/>
+      <c r="I113" s="128"/>
+      <c r="J113" s="128"/>
+      <c r="K113" s="128"/>
+      <c r="L113" s="128"/>
+      <c r="M113" s="128"/>
+      <c r="N113" s="128"/>
+      <c r="O113" s="128"/>
+      <c r="P113" s="128"/>
+      <c r="Q113" s="128"/>
+      <c r="R113" s="129"/>
+      <c r="S113" s="55"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
       <c r="W113" s="24"/>
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B114" s="110">
+      <c r="B114" s="58">
         <v>13</v>
       </c>
-      <c r="C114" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="77"/>
-      <c r="L114" s="77"/>
-      <c r="M114" s="77"/>
-      <c r="N114" s="77"/>
-      <c r="O114" s="77"/>
-      <c r="P114" s="77"/>
-      <c r="Q114" s="77"/>
-      <c r="R114" s="77"/>
-      <c r="S114" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="T114" s="58"/>
-      <c r="U114" s="58"/>
-      <c r="V114" s="58"/>
-      <c r="W114" s="98"/>
+      <c r="C114" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" s="94"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="G114" s="94"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="94"/>
+      <c r="K114" s="94"/>
+      <c r="L114" s="94"/>
+      <c r="M114" s="94"/>
+      <c r="N114" s="94"/>
+      <c r="O114" s="94"/>
+      <c r="P114" s="94"/>
+      <c r="Q114" s="94"/>
+      <c r="R114" s="94"/>
+      <c r="S114" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="110"/>
     </row>
     <row r="115" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="104">
+      <c r="B115" s="57">
         <v>14</v>
       </c>
-      <c r="C115" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="D115" s="105"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="105" t="s">
-        <v>271</v>
-      </c>
-      <c r="G115" s="105"/>
-      <c r="H115" s="105"/>
-      <c r="I115" s="105"/>
-      <c r="J115" s="105"/>
-      <c r="K115" s="105"/>
-      <c r="L115" s="105"/>
-      <c r="M115" s="105"/>
-      <c r="N115" s="105"/>
-      <c r="O115" s="105"/>
-      <c r="P115" s="105"/>
-      <c r="Q115" s="105"/>
-      <c r="R115" s="105"/>
-      <c r="S115" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="T115" s="107"/>
-      <c r="U115" s="107"/>
-      <c r="V115" s="107"/>
-      <c r="W115" s="108"/>
+      <c r="C115" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="G115" s="95"/>
+      <c r="H115" s="95"/>
+      <c r="I115" s="95"/>
+      <c r="J115" s="95"/>
+      <c r="K115" s="95"/>
+      <c r="L115" s="95"/>
+      <c r="M115" s="95"/>
+      <c r="N115" s="95"/>
+      <c r="O115" s="95"/>
+      <c r="P115" s="95"/>
+      <c r="Q115" s="95"/>
+      <c r="R115" s="95"/>
+      <c r="S115" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="T115" s="121"/>
+      <c r="U115" s="121"/>
+      <c r="V115" s="121"/>
+      <c r="W115" s="122"/>
     </row>
     <row r="116" spans="2:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F67:R67"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="F36:R36"/>
-    <mergeCell ref="F37:R37"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S34:W34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F34:R34"/>
+    <mergeCell ref="F35:R35"/>
     <mergeCell ref="S35:W35"/>
     <mergeCell ref="F23:R23"/>
     <mergeCell ref="S114:W114"/>
@@ -10397,6 +10428,7 @@
     <mergeCell ref="F66:R66"/>
     <mergeCell ref="F69:R69"/>
     <mergeCell ref="F68:R68"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
@@ -10410,6 +10442,20 @@
     <mergeCell ref="F4:R4"/>
     <mergeCell ref="F3:R3"/>
     <mergeCell ref="F2:R2"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="B8:R16"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S67:W67"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="F114:R114"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="S8:W8"/>
     <mergeCell ref="S18:W18"/>
     <mergeCell ref="B20:E23"/>
     <mergeCell ref="F19:R19"/>
@@ -10418,35 +10464,25 @@
     <mergeCell ref="F22:R22"/>
     <mergeCell ref="F18:R18"/>
     <mergeCell ref="S23:W23"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="B8:R16"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="S34:W34"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="F115:R115"/>
+    <mergeCell ref="B70:R87"/>
+    <mergeCell ref="B66:E69"/>
+    <mergeCell ref="B24:R33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F67:R67"/>
+    <mergeCell ref="F36:R36"/>
+    <mergeCell ref="F37:R37"/>
+    <mergeCell ref="B36:E37"/>
     <mergeCell ref="B52:R64"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="F50:R50"/>
     <mergeCell ref="F51:R51"/>
     <mergeCell ref="B38:R49"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F34:R34"/>
-    <mergeCell ref="F35:R35"/>
-    <mergeCell ref="B24:R33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="S67:W67"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F114:R114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="F115:R115"/>
-    <mergeCell ref="B70:R87"/>
-    <mergeCell ref="B66:E69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10468,30 +10504,30 @@
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="18">
         <v>22</v>
@@ -10515,14 +10551,14 @@
         <v>28</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="18">
         <v>29</v>
@@ -10551,7 +10587,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="18">
         <v>5</v>
@@ -10575,14 +10611,14 @@
         <v>11</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K6" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="13"/>
@@ -10591,12 +10627,12 @@
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="132"/>
       <c r="K7" s="12"/>
       <c r="L7" s="8"/>
       <c r="M7" s="13"/>
@@ -10605,14 +10641,14 @@
       <c r="B8" s="21">
         <v>22</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
+      <c r="C8" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="132"/>
       <c r="K8" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="13"/>
@@ -10621,12 +10657,12 @@
       <c r="B9" s="21">
         <v>23</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
       <c r="K9" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="13"/>
@@ -10635,12 +10671,12 @@
       <c r="B10" s="21">
         <v>24</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
       <c r="K10" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
@@ -10649,142 +10685,142 @@
       <c r="B11" s="21">
         <v>25</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>26</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>27</v>
       </c>
-      <c r="C13" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="C13" s="130" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="21">
         <v>28</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>29</v>
       </c>
-      <c r="C15" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
+      <c r="C15" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="21">
         <v>30</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>31</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
+      <c r="C17" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
         <v>1</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="21">
         <v>2</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="21">
         <v>3</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="21">
         <v>4</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="21">
         <v>5</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="21">
         <v>6</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="21">
         <v>7</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="21">
         <v>8</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/Design/타워 기획 .xlsx
+++ b/Design/타워 기획 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C7C3B-CB9F-4CBE-B376-24B7613A49C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FBFF91-6BA9-47D5-B767-73B19746C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
+    <workbookView xWindow="-4530" yWindow="4500" windowWidth="23880" windowHeight="15390" activeTab="1" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="270">
   <si>
     <t>타워 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1114,10 +1114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택 취소는 타워가 설치되지 않은 평지, 자원타일, 몬스터가 없는 공격로를 클릭하면 취소됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터테이블 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1127,6 +1123,13 @@
   </si>
   <si>
     <t>타워 선택, 업그레이드, 이동 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(실제 화면에 보이는 것을 기준으로 판정)</t>
+  </si>
+  <si>
+    <t>선택 취소는 타워가 설치되지 않은 평지, 자원타일, 공격로 클릭하면 취소됨(내용 보강)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,7 +1311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1740,10 +1743,52 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1752,13 +1797,33 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1767,11 +1832,24 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1779,10 +1857,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1792,10 +1870,10 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1807,137 +1885,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1950,7 +1901,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2008,9 +1959,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2077,24 +2025,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2146,153 +2079,156 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3013,13 +2949,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>74544</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>207064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>169214</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3074,13 +3010,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>223631</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>64442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3135,13 +3071,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>69468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>364435</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>9712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3196,14 +3132,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>621195</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>192050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>208721</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>42654</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>42653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3560,46 +3496,46 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.75" style="9" customWidth="1"/>
     <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="I1" s="64" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-    </row>
-    <row r="2" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+    </row>
+    <row r="2" spans="1:15" ht="17.25" thickTop="1">
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3613,15 +3549,15 @@
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="51" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -3635,15 +3571,15 @@
       <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="52" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -3657,15 +3593,15 @@
       <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="52" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
@@ -3679,81 +3615,81 @@
       <c r="G6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="52" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="52" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="52" t="s">
+      <c r="J8" s="50"/>
+      <c r="K8" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="52" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>162</v>
       </c>
@@ -3767,15 +3703,15 @@
       <c r="G10" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="53" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>166</v>
       </c>
@@ -3789,15 +3725,15 @@
       <c r="G11" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="17.25" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>220</v>
       </c>
@@ -3811,25 +3747,25 @@
       <c r="G12" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="17.25" thickTop="1">
       <c r="A13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="6" t="s">
         <v>238</v>
       </c>
@@ -3839,19 +3775,19 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="28"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9">
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="27"/>
+    </row>
+    <row r="24" spans="9:9">
       <c r="I24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="28" t="s">
+    <row r="25" spans="9:9">
+      <c r="I25" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3875,18 +3811,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F532FDB2-D334-4368-8C60-9EB45443F42D}">
   <dimension ref="A1:BC194"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="N185" sqref="N185"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
@@ -3911,7 +3847,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
@@ -3929,7 +3865,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="17.25" thickBot="1">
       <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
@@ -3947,25 +3883,25 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="C7" s="8"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="C8" s="13"/>
-      <c r="D8" s="36"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -3977,11 +3913,11 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="37"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="C9" s="8"/>
-      <c r="D9" s="36"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -3993,21 +3929,21 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="37"/>
+      <c r="P9" s="36"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="67" t="s">
         <v>97</v>
       </c>
       <c r="S9" s="67"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T9" s="21"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="C10" s="8"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -4019,7 +3955,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="37"/>
+      <c r="P10" s="36"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="67" t="s">
         <v>93</v>
@@ -4031,13 +3967,13 @@
       <c r="U10" s="67"/>
       <c r="V10" s="67"/>
       <c r="W10" s="67"/>
-      <c r="X10" s="30" t="s">
+      <c r="X10" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="C11" s="8"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -4049,7 +3985,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="37"/>
+      <c r="P11" s="36"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="67" t="b">
         <v>1</v>
@@ -4063,9 +3999,9 @@
       <c r="W11" s="67"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="C12" s="8"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -4077,7 +4013,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="37"/>
+      <c r="P12" s="36"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="67" t="b">
         <v>0</v>
@@ -4091,9 +4027,9 @@
       <c r="W12" s="67"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="C13" s="8"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -4105,7 +4041,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="37"/>
+      <c r="P13" s="36"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -4114,9 +4050,9 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="C14" s="8"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4127,7 +4063,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="37"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -4136,9 +4072,9 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="C15" s="8"/>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="8" t="s">
         <v>236</v>
       </c>
@@ -4154,7 +4090,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="37"/>
+      <c r="P15" s="36"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -4163,21 +4099,21 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="17.25" thickBot="1">
       <c r="C16" s="8"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -4186,7 +4122,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:23">
       <c r="C17" s="8" t="s">
         <v>234</v>
       </c>
@@ -4211,7 +4147,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:23">
       <c r="C18" s="8" t="s">
         <v>140</v>
       </c>
@@ -4236,7 +4172,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:23">
       <c r="C19" s="8" t="s">
         <v>32</v>
       </c>
@@ -4261,7 +4197,7 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:23">
       <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4222,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:23">
       <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
@@ -4311,11 +4247,13 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:23">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4330,13 +4268,13 @@
         <v>98</v>
       </c>
       <c r="R23" s="67"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="S23" s="21"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" spans="3:23">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -4363,11 +4301,11 @@
       <c r="T24" s="67"/>
       <c r="U24" s="67"/>
       <c r="V24" s="67"/>
-      <c r="W24" s="30" t="s">
+      <c r="W24" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:23">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -4396,7 +4334,7 @@
       <c r="V25" s="67"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:23">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -4421,11 +4359,11 @@
       <c r="T26" s="67"/>
       <c r="U26" s="67"/>
       <c r="V26" s="67"/>
-      <c r="W26" s="30" t="s">
+      <c r="W26" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:23">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -4448,7 +4386,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:23">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -4473,7 +4411,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:23">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -4496,7 +4434,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:23">
       <c r="C30" s="8" t="s">
         <v>2</v>
       </c>
@@ -4521,7 +4459,7 @@
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:23">
       <c r="C31" s="8" t="s">
         <v>3</v>
       </c>
@@ -4548,7 +4486,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:23">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -4573,7 +4511,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:29" ht="17.25" thickBot="1">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -4598,28 +4536,28 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-    </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D35" s="36"/>
+    <row r="34" spans="3:29">
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="34"/>
+    </row>
+    <row r="35" spans="3:29">
+      <c r="D35" s="35"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -4638,10 +4576,10 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
-      <c r="U35" s="37"/>
-    </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D36" s="36"/>
+      <c r="U35" s="36"/>
+    </row>
+    <row r="36" spans="3:29">
+      <c r="D36" s="35"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4662,10 +4600,10 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
-      <c r="U36" s="37"/>
-    </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D37" s="36"/>
+      <c r="U36" s="36"/>
+    </row>
+    <row r="37" spans="3:29">
+      <c r="D37" s="35"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -4686,10 +4624,10 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
-      <c r="U37" s="37"/>
-    </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D38" s="36"/>
+      <c r="U37" s="36"/>
+    </row>
+    <row r="38" spans="3:29">
+      <c r="D38" s="35"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4710,10 +4648,10 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="37"/>
-    </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D39" s="36"/>
+      <c r="U38" s="36"/>
+    </row>
+    <row r="39" spans="3:29">
+      <c r="D39" s="35"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -4732,10 +4670,10 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
-      <c r="U39" s="37"/>
-    </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D40" s="36"/>
+      <c r="U39" s="36"/>
+    </row>
+    <row r="40" spans="3:29">
+      <c r="D40" s="35"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4752,7 +4690,7 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
-      <c r="U40" s="37"/>
+      <c r="U40" s="36"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
@@ -4760,8 +4698,8 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D41" s="36"/>
+    <row r="41" spans="3:29">
+      <c r="D41" s="35"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4778,11 +4716,11 @@
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
-      <c r="U41" s="37"/>
+      <c r="U41" s="36"/>
       <c r="X41" s="8"/>
     </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D42" s="36"/>
+    <row r="42" spans="3:29">
+      <c r="D42" s="35"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -4799,11 +4737,11 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
-      <c r="U42" s="37"/>
+      <c r="U42" s="36"/>
       <c r="X42" s="8"/>
     </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D43" s="36"/>
+    <row r="43" spans="3:29">
+      <c r="D43" s="35"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4820,11 +4758,11 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="37"/>
+      <c r="U43" s="36"/>
       <c r="X43" s="8"/>
     </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D44" s="36"/>
+    <row r="44" spans="3:29">
+      <c r="D44" s="35"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -4841,11 +4779,11 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
-      <c r="U44" s="37"/>
+      <c r="U44" s="36"/>
       <c r="X44" s="8"/>
     </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D45" s="36"/>
+    <row r="45" spans="3:29">
+      <c r="D45" s="35"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4864,7 +4802,7 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
-      <c r="U45" s="37"/>
+      <c r="U45" s="36"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
@@ -4872,25 +4810,25 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="40"/>
+    <row r="46" spans="3:29" ht="17.25" thickBot="1">
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="39"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
@@ -4898,7 +4836,7 @@
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
     </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:29">
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -4915,7 +4853,7 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:29">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -4944,7 +4882,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:29">
       <c r="C49" s="8" t="s">
         <v>12</v>
       </c>
@@ -4974,7 +4912,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:29">
       <c r="C50" s="8" t="s">
         <v>7</v>
       </c>
@@ -5000,32 +4938,32 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:29" ht="17.25" thickBot="1">
       <c r="C51" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="35"/>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D53" s="36"/>
+    <row r="52" spans="3:29">
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34"/>
+    </row>
+    <row r="53" spans="3:29">
+      <c r="D53" s="35"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -5041,10 +4979,10 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
-      <c r="T53" s="37"/>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D54" s="36"/>
+      <c r="T53" s="36"/>
+    </row>
+    <row r="54" spans="3:29">
+      <c r="D54" s="35"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -5060,10 +4998,10 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
-      <c r="T54" s="37"/>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D55" s="36"/>
+      <c r="T54" s="36"/>
+    </row>
+    <row r="55" spans="3:29">
+      <c r="D55" s="35"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -5079,10 +5017,10 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
-      <c r="T55" s="37"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D56" s="36"/>
+      <c r="T55" s="36"/>
+    </row>
+    <row r="56" spans="3:29">
+      <c r="D56" s="35"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -5098,10 +5036,10 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
-      <c r="T56" s="37"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D57" s="36"/>
+      <c r="T56" s="36"/>
+    </row>
+    <row r="57" spans="3:29">
+      <c r="D57" s="35"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -5117,10 +5055,10 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
-      <c r="T57" s="37"/>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D58" s="36"/>
+      <c r="T57" s="36"/>
+    </row>
+    <row r="58" spans="3:29">
+      <c r="D58" s="35"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -5136,10 +5074,10 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
-      <c r="T58" s="37"/>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D59" s="36"/>
+      <c r="T58" s="36"/>
+    </row>
+    <row r="59" spans="3:29">
+      <c r="D59" s="35"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -5155,10 +5093,10 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
-      <c r="T59" s="37"/>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D60" s="36"/>
+      <c r="T59" s="36"/>
+    </row>
+    <row r="60" spans="3:29">
+      <c r="D60" s="35"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -5174,10 +5112,10 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
-      <c r="T60" s="37"/>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D61" s="36"/>
+      <c r="T60" s="36"/>
+    </row>
+    <row r="61" spans="3:29">
+      <c r="D61" s="35"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -5193,10 +5131,10 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
-      <c r="T61" s="37"/>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D62" s="36"/>
+      <c r="T61" s="36"/>
+    </row>
+    <row r="62" spans="3:29">
+      <c r="D62" s="35"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -5212,10 +5150,10 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
-      <c r="T62" s="37"/>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="D63" s="36"/>
+      <c r="T62" s="36"/>
+    </row>
+    <row r="63" spans="3:29">
+      <c r="D63" s="35"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -5231,42 +5169,42 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
-      <c r="T63" s="37"/>
-    </row>
-    <row r="64" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="38"/>
-      <c r="E64" s="39" t="s">
+      <c r="T63" s="36"/>
+    </row>
+    <row r="64" spans="3:29" ht="17.25" thickBot="1">
+      <c r="D64" s="37"/>
+      <c r="E64" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39" t="s">
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="40"/>
-    </row>
-    <row r="66" spans="3:55" x14ac:dyDescent="0.3">
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="39"/>
+    </row>
+    <row r="66" spans="3:55">
       <c r="C66" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:55">
       <c r="C67" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="3:55" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="3:55">
       <c r="C69" s="8" t="s">
         <v>122</v>
       </c>
@@ -5286,7 +5224,7 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:55">
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -5304,7 +5242,7 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
     </row>
-    <row r="71" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:55">
       <c r="C71" t="s">
         <v>135</v>
       </c>
@@ -5312,197 +5250,197 @@
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:55">
       <c r="C72" t="s">
         <v>258</v>
       </c>
-      <c r="AD72" s="70"/>
-      <c r="AE72" s="70"/>
-      <c r="AF72" s="70"/>
-      <c r="AG72" s="70"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
+      <c r="AF72" s="61"/>
+      <c r="AG72" s="61"/>
       <c r="AH72" s="8"/>
-      <c r="AI72" s="70"/>
-      <c r="AJ72" s="70"/>
-      <c r="AK72" s="70"/>
-      <c r="AL72" s="70"/>
-      <c r="AM72" s="70"/>
-      <c r="AN72" s="70"/>
-      <c r="AO72" s="70"/>
-      <c r="AP72" s="70"/>
-      <c r="AQ72" s="70"/>
-      <c r="AR72" s="70"/>
-      <c r="AS72" s="70"/>
-      <c r="AT72" s="70"/>
-      <c r="AU72" s="70"/>
-      <c r="AV72" s="70"/>
-      <c r="AW72" s="70"/>
-      <c r="AX72" s="70"/>
-      <c r="AY72" s="70"/>
-      <c r="AZ72" s="70"/>
-      <c r="BA72" s="70"/>
-      <c r="BB72" s="70"/>
-      <c r="BC72" s="62"/>
-    </row>
-    <row r="73" spans="3:55" x14ac:dyDescent="0.3">
+      <c r="AI72" s="61"/>
+      <c r="AJ72" s="61"/>
+      <c r="AK72" s="61"/>
+      <c r="AL72" s="61"/>
+      <c r="AM72" s="61"/>
+      <c r="AN72" s="61"/>
+      <c r="AO72" s="61"/>
+      <c r="AP72" s="61"/>
+      <c r="AQ72" s="61"/>
+      <c r="AR72" s="61"/>
+      <c r="AS72" s="61"/>
+      <c r="AT72" s="61"/>
+      <c r="AU72" s="61"/>
+      <c r="AV72" s="61"/>
+      <c r="AW72" s="61"/>
+      <c r="AX72" s="61"/>
+      <c r="AY72" s="61"/>
+      <c r="AZ72" s="61"/>
+      <c r="BA72" s="61"/>
+      <c r="BB72" s="61"/>
+      <c r="BC72" s="56"/>
+    </row>
+    <row r="73" spans="3:55">
       <c r="C73" t="s">
         <v>259</v>
       </c>
-      <c r="AD73" s="69"/>
-      <c r="AE73" s="69"/>
-      <c r="AF73" s="70"/>
-      <c r="AG73" s="70"/>
+      <c r="AD73" s="62"/>
+      <c r="AE73" s="62"/>
+      <c r="AF73" s="61"/>
+      <c r="AG73" s="61"/>
       <c r="AH73" s="8"/>
-      <c r="AI73" s="68"/>
-      <c r="AJ73" s="68"/>
-      <c r="AK73" s="68"/>
-      <c r="AL73" s="68"/>
-      <c r="AM73" s="68"/>
-      <c r="AN73" s="68"/>
-      <c r="AO73" s="68"/>
-      <c r="AP73" s="68"/>
-      <c r="AQ73" s="68"/>
-      <c r="AR73" s="68"/>
-      <c r="AS73" s="68"/>
-      <c r="AT73" s="68"/>
-      <c r="AU73" s="68"/>
-      <c r="AV73" s="68"/>
-      <c r="AW73" s="68"/>
-      <c r="AX73" s="68"/>
-      <c r="AY73" s="68"/>
-      <c r="AZ73" s="68"/>
-      <c r="BA73" s="68"/>
-      <c r="BB73" s="68"/>
-      <c r="BC73" s="70"/>
-    </row>
-    <row r="74" spans="3:55" x14ac:dyDescent="0.3">
+      <c r="AI73" s="66"/>
+      <c r="AJ73" s="66"/>
+      <c r="AK73" s="66"/>
+      <c r="AL73" s="66"/>
+      <c r="AM73" s="66"/>
+      <c r="AN73" s="66"/>
+      <c r="AO73" s="66"/>
+      <c r="AP73" s="66"/>
+      <c r="AQ73" s="66"/>
+      <c r="AR73" s="66"/>
+      <c r="AS73" s="66"/>
+      <c r="AT73" s="66"/>
+      <c r="AU73" s="66"/>
+      <c r="AV73" s="66"/>
+      <c r="AW73" s="66"/>
+      <c r="AX73" s="66"/>
+      <c r="AY73" s="66"/>
+      <c r="AZ73" s="66"/>
+      <c r="BA73" s="66"/>
+      <c r="BB73" s="66"/>
+      <c r="BC73" s="61"/>
+    </row>
+    <row r="74" spans="3:55">
       <c r="C74" t="s">
         <v>260</v>
       </c>
-      <c r="AD74" s="69"/>
-      <c r="AE74" s="69"/>
-      <c r="AF74" s="70"/>
-      <c r="AG74" s="70"/>
+      <c r="AD74" s="62"/>
+      <c r="AE74" s="62"/>
+      <c r="AF74" s="61"/>
+      <c r="AG74" s="61"/>
       <c r="AH74" s="8"/>
-      <c r="AI74" s="68"/>
-      <c r="AJ74" s="68"/>
-      <c r="AK74" s="68"/>
-      <c r="AL74" s="68"/>
-      <c r="AM74" s="68"/>
-      <c r="AN74" s="68"/>
-      <c r="AO74" s="68"/>
-      <c r="AP74" s="68"/>
-      <c r="AQ74" s="68"/>
-      <c r="AR74" s="68"/>
-      <c r="AS74" s="68"/>
-      <c r="AT74" s="68"/>
-      <c r="AU74" s="68"/>
-      <c r="AV74" s="68"/>
-      <c r="AW74" s="68"/>
-      <c r="AX74" s="68"/>
-      <c r="AY74" s="68"/>
-      <c r="AZ74" s="68"/>
-      <c r="BA74" s="68"/>
-      <c r="BB74" s="68"/>
-      <c r="BC74" s="70"/>
-    </row>
-    <row r="75" spans="3:55" x14ac:dyDescent="0.3">
+      <c r="AI74" s="66"/>
+      <c r="AJ74" s="66"/>
+      <c r="AK74" s="66"/>
+      <c r="AL74" s="66"/>
+      <c r="AM74" s="66"/>
+      <c r="AN74" s="66"/>
+      <c r="AO74" s="66"/>
+      <c r="AP74" s="66"/>
+      <c r="AQ74" s="66"/>
+      <c r="AR74" s="66"/>
+      <c r="AS74" s="66"/>
+      <c r="AT74" s="66"/>
+      <c r="AU74" s="66"/>
+      <c r="AV74" s="66"/>
+      <c r="AW74" s="66"/>
+      <c r="AX74" s="66"/>
+      <c r="AY74" s="66"/>
+      <c r="AZ74" s="66"/>
+      <c r="BA74" s="66"/>
+      <c r="BB74" s="66"/>
+      <c r="BC74" s="61"/>
+    </row>
+    <row r="75" spans="3:55">
       <c r="C75" t="s">
         <v>261</v>
       </c>
-      <c r="AD75" s="69"/>
-      <c r="AE75" s="69"/>
-      <c r="AF75" s="70"/>
-      <c r="AG75" s="70"/>
+      <c r="AD75" s="62"/>
+      <c r="AE75" s="62"/>
+      <c r="AF75" s="61"/>
+      <c r="AG75" s="61"/>
       <c r="AH75" s="8"/>
-      <c r="AI75" s="68"/>
-      <c r="AJ75" s="68"/>
-      <c r="AK75" s="68"/>
-      <c r="AL75" s="68"/>
-      <c r="AM75" s="68"/>
-      <c r="AN75" s="68"/>
-      <c r="AO75" s="68"/>
-      <c r="AP75" s="68"/>
-      <c r="AQ75" s="68"/>
-      <c r="AR75" s="68"/>
-      <c r="AS75" s="68"/>
-      <c r="AT75" s="68"/>
-      <c r="AU75" s="68"/>
-      <c r="AV75" s="68"/>
-      <c r="AW75" s="68"/>
-      <c r="AX75" s="68"/>
-      <c r="AY75" s="68"/>
-      <c r="AZ75" s="68"/>
-      <c r="BA75" s="68"/>
-      <c r="BB75" s="68"/>
+      <c r="AI75" s="66"/>
+      <c r="AJ75" s="66"/>
+      <c r="AK75" s="66"/>
+      <c r="AL75" s="66"/>
+      <c r="AM75" s="66"/>
+      <c r="AN75" s="66"/>
+      <c r="AO75" s="66"/>
+      <c r="AP75" s="66"/>
+      <c r="AQ75" s="66"/>
+      <c r="AR75" s="66"/>
+      <c r="AS75" s="66"/>
+      <c r="AT75" s="66"/>
+      <c r="AU75" s="66"/>
+      <c r="AV75" s="66"/>
+      <c r="AW75" s="66"/>
+      <c r="AX75" s="66"/>
+      <c r="AY75" s="66"/>
+      <c r="AZ75" s="66"/>
+      <c r="BA75" s="66"/>
+      <c r="BB75" s="66"/>
       <c r="BC75" s="8"/>
     </row>
-    <row r="76" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:55">
       <c r="C76" t="s">
         <v>262</v>
       </c>
-      <c r="AD76" s="69"/>
-      <c r="AE76" s="69"/>
-      <c r="AF76" s="70"/>
-      <c r="AG76" s="70"/>
+      <c r="AD76" s="62"/>
+      <c r="AE76" s="62"/>
+      <c r="AF76" s="61"/>
+      <c r="AG76" s="61"/>
       <c r="AH76" s="8"/>
-      <c r="AI76" s="68"/>
-      <c r="AJ76" s="68"/>
-      <c r="AK76" s="68"/>
-      <c r="AL76" s="68"/>
-      <c r="AM76" s="68"/>
-      <c r="AN76" s="68"/>
-      <c r="AO76" s="68"/>
-      <c r="AP76" s="68"/>
-      <c r="AQ76" s="68"/>
-      <c r="AR76" s="68"/>
-      <c r="AS76" s="68"/>
-      <c r="AT76" s="68"/>
-      <c r="AU76" s="68"/>
-      <c r="AV76" s="68"/>
-      <c r="AW76" s="68"/>
-      <c r="AX76" s="68"/>
-      <c r="AY76" s="68"/>
-      <c r="AZ76" s="68"/>
-      <c r="BA76" s="68"/>
-      <c r="BB76" s="68"/>
+      <c r="AI76" s="66"/>
+      <c r="AJ76" s="66"/>
+      <c r="AK76" s="66"/>
+      <c r="AL76" s="66"/>
+      <c r="AM76" s="66"/>
+      <c r="AN76" s="66"/>
+      <c r="AO76" s="66"/>
+      <c r="AP76" s="66"/>
+      <c r="AQ76" s="66"/>
+      <c r="AR76" s="66"/>
+      <c r="AS76" s="66"/>
+      <c r="AT76" s="66"/>
+      <c r="AU76" s="66"/>
+      <c r="AV76" s="66"/>
+      <c r="AW76" s="66"/>
+      <c r="AX76" s="66"/>
+      <c r="AY76" s="66"/>
+      <c r="AZ76" s="66"/>
+      <c r="BA76" s="66"/>
+      <c r="BB76" s="66"/>
       <c r="BC76" s="8"/>
     </row>
-    <row r="77" spans="3:55" x14ac:dyDescent="0.3">
-      <c r="AD77" s="69"/>
-      <c r="AE77" s="69"/>
-      <c r="AF77" s="70"/>
-      <c r="AG77" s="70"/>
+    <row r="77" spans="3:55">
+      <c r="AD77" s="62"/>
+      <c r="AE77" s="62"/>
+      <c r="AF77" s="61"/>
+      <c r="AG77" s="61"/>
       <c r="AH77" s="8"/>
-      <c r="AI77" s="68"/>
-      <c r="AJ77" s="68"/>
-      <c r="AK77" s="71"/>
-      <c r="AL77" s="71"/>
-      <c r="AM77" s="71"/>
-      <c r="AN77" s="71"/>
-      <c r="AO77" s="71"/>
-      <c r="AP77" s="71"/>
-      <c r="AQ77" s="71"/>
-      <c r="AR77" s="71"/>
-      <c r="AS77" s="71"/>
-      <c r="AT77" s="71"/>
-      <c r="AU77" s="71"/>
-      <c r="AV77" s="71"/>
-      <c r="AW77" s="71"/>
-      <c r="AX77" s="71"/>
-      <c r="AY77" s="71"/>
-      <c r="AZ77" s="71"/>
-      <c r="BA77" s="71"/>
-      <c r="BB77" s="71"/>
+      <c r="AI77" s="66"/>
+      <c r="AJ77" s="66"/>
+      <c r="AK77" s="70"/>
+      <c r="AL77" s="70"/>
+      <c r="AM77" s="70"/>
+      <c r="AN77" s="70"/>
+      <c r="AO77" s="70"/>
+      <c r="AP77" s="70"/>
+      <c r="AQ77" s="70"/>
+      <c r="AR77" s="70"/>
+      <c r="AS77" s="70"/>
+      <c r="AT77" s="70"/>
+      <c r="AU77" s="70"/>
+      <c r="AV77" s="70"/>
+      <c r="AW77" s="70"/>
+      <c r="AX77" s="70"/>
+      <c r="AY77" s="70"/>
+      <c r="AZ77" s="70"/>
+      <c r="BA77" s="70"/>
+      <c r="BB77" s="70"/>
       <c r="BC77" s="8"/>
     </row>
-    <row r="78" spans="3:55" x14ac:dyDescent="0.3">
-      <c r="C78" s="27" t="s">
+    <row r="78" spans="3:55">
+      <c r="C78" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="3:55" x14ac:dyDescent="0.3">
-      <c r="C79" s="27" t="s">
+    <row r="79" spans="3:55">
+      <c r="C79" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E79" s="8"/>
@@ -5519,15 +5457,15 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:55">
       <c r="D80" t="s">
         <v>125</v>
       </c>
       <c r="O80" s="8"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+    </row>
+    <row r="81" spans="3:29">
       <c r="D81" t="s">
         <v>11</v>
       </c>
@@ -5536,7 +5474,7 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:29">
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -5549,7 +5487,7 @@
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
     </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:29">
       <c r="C83" s="8" t="s">
         <v>51</v>
       </c>
@@ -5568,7 +5506,7 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:29">
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
         <v>52</v>
@@ -5587,7 +5525,7 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:29">
       <c r="C85" s="8"/>
       <c r="D85" s="8" t="s">
         <v>53</v>
@@ -5606,7 +5544,7 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:29">
       <c r="C86" s="8"/>
       <c r="D86" s="8" t="s">
         <v>54</v>
@@ -5625,7 +5563,7 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
     </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:29">
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
         <v>55</v>
@@ -5644,33 +5582,33 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
     </row>
-    <row r="88" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:29" ht="17.25" thickBot="1"/>
+    <row r="89" spans="3:29">
       <c r="C89" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K89" s="33" t="s">
+      <c r="K89" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="35"/>
-      <c r="V89" s="72" t="s">
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="34"/>
+      <c r="V89" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="W89" s="73"/>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="W89" s="69"/>
+    </row>
+    <row r="90" spans="3:29">
       <c r="D90" t="s">
         <v>160</v>
       </c>
-      <c r="K90" s="36"/>
+      <c r="K90" s="35"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -5679,7 +5617,7 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
-      <c r="T90" s="37"/>
+      <c r="T90" s="36"/>
       <c r="V90" s="67" t="s">
         <v>93</v>
       </c>
@@ -5695,11 +5633,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:29">
       <c r="D91" t="s">
         <v>113</v>
       </c>
-      <c r="K91" s="36"/>
+      <c r="K91" s="35"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="8" t="s">
@@ -5710,7 +5648,7 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
-      <c r="T91" s="37"/>
+      <c r="T91" s="36"/>
       <c r="V91" s="67" t="b">
         <v>1</v>
       </c>
@@ -5724,11 +5662,11 @@
       <c r="AB91" s="67"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:29">
       <c r="D92" t="s">
         <v>133</v>
       </c>
-      <c r="K92" s="36"/>
+      <c r="K92" s="35"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
       <c r="N92" s="8" t="s">
@@ -5739,7 +5677,7 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
-      <c r="T92" s="37"/>
+      <c r="T92" s="36"/>
       <c r="V92" s="67" t="b">
         <v>0</v>
       </c>
@@ -5755,8 +5693,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="K93" s="36"/>
+    <row r="93" spans="3:29">
+      <c r="K93" s="35"/>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
       <c r="N93" s="8" t="s">
@@ -5767,22 +5705,22 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
-      <c r="T93" s="37"/>
-    </row>
-    <row r="94" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K94" s="38"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="39"/>
-      <c r="T94" s="40"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C96" s="41" t="s">
+      <c r="T93" s="36"/>
+    </row>
+    <row r="94" spans="3:29" ht="17.25" thickBot="1">
+      <c r="K94" s="37"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="39"/>
+    </row>
+    <row r="96" spans="3:29">
+      <c r="C96" s="40" t="s">
         <v>106</v>
       </c>
       <c r="D96" s="8"/>
@@ -5798,7 +5736,7 @@
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16">
       <c r="C97" s="8"/>
       <c r="D97" s="8" t="s">
         <v>175</v>
@@ -5815,7 +5753,7 @@
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:16">
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
         <v>57</v>
@@ -5832,7 +5770,7 @@
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:16">
       <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
         <v>58</v>
@@ -5849,7 +5787,7 @@
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:16">
       <c r="C100" s="8"/>
       <c r="D100" s="8" t="s">
         <v>59</v>
@@ -5866,7 +5804,7 @@
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16">
       <c r="C101" s="8"/>
       <c r="D101" s="8" t="s">
         <v>60</v>
@@ -5883,7 +5821,7 @@
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16">
       <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
         <v>141</v>
@@ -5900,7 +5838,7 @@
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:16">
       <c r="C104" s="8" t="s">
         <v>132</v>
       </c>
@@ -5918,7 +5856,7 @@
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
     </row>
-    <row r="105" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:16">
       <c r="C105" s="8"/>
       <c r="D105" s="8" t="s">
         <v>176</v>
@@ -5930,7 +5868,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:16" ht="17.25" thickBot="1">
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5940,31 +5878,31 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="107" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:16">
       <c r="C107" s="8"/>
-      <c r="D107" s="33" t="s">
+      <c r="D107" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="35"/>
-    </row>
-    <row r="108" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="34"/>
+    </row>
+    <row r="108" spans="3:16">
       <c r="C108" s="8"/>
-      <c r="D108" s="36"/>
+      <c r="D108" s="35"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="37"/>
-    </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J108" s="36"/>
+    </row>
+    <row r="109" spans="3:16">
       <c r="C109" s="8"/>
-      <c r="D109" s="36"/>
+      <c r="D109" s="35"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8" t="s">
@@ -5972,11 +5910,11 @@
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="37"/>
-    </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J109" s="36"/>
+    </row>
+    <row r="110" spans="3:16">
       <c r="C110" s="8"/>
-      <c r="D110" s="36"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8" t="s">
@@ -5984,11 +5922,11 @@
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
-      <c r="J110" s="37"/>
-    </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J110" s="36"/>
+    </row>
+    <row r="111" spans="3:16">
       <c r="C111" s="8"/>
-      <c r="D111" s="36"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8" t="s">
@@ -5996,29 +5934,29 @@
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
-      <c r="J111" s="37"/>
-    </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J111" s="36"/>
+    </row>
+    <row r="112" spans="3:16">
       <c r="C112" s="8"/>
-      <c r="D112" s="36"/>
+      <c r="D112" s="35"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="37"/>
-    </row>
-    <row r="113" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J112" s="36"/>
+    </row>
+    <row r="113" spans="3:18" ht="17.25" thickBot="1">
       <c r="C113" s="8"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="40"/>
-    </row>
-    <row r="114" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D113" s="37"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="38"/>
+      <c r="J113" s="39"/>
+    </row>
+    <row r="114" spans="3:18">
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -6028,7 +5966,7 @@
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
     </row>
-    <row r="115" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:18">
       <c r="C115" s="8" t="s">
         <v>177</v>
       </c>
@@ -6045,7 +5983,7 @@
       <c r="N115" s="8"/>
       <c r="Q115" s="8"/>
     </row>
-    <row r="116" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:18">
       <c r="C116" s="8" t="s">
         <v>56</v>
       </c>
@@ -6062,7 +6000,7 @@
       <c r="N116" s="8"/>
       <c r="Q116" s="8"/>
     </row>
-    <row r="117" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:18">
       <c r="C117" s="8"/>
       <c r="D117" s="8" t="s">
         <v>85</v>
@@ -6079,7 +6017,7 @@
       <c r="N117" s="8"/>
       <c r="Q117" s="8"/>
     </row>
-    <row r="118" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:18">
       <c r="C118" s="8"/>
       <c r="D118" s="8" t="s">
         <v>183</v>
@@ -6096,7 +6034,7 @@
       <c r="N118" s="8"/>
       <c r="Q118" s="8"/>
     </row>
-    <row r="119" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:18">
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -6110,7 +6048,7 @@
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:18">
       <c r="C120" s="8"/>
       <c r="D120" s="8" t="s">
         <v>86</v>
@@ -6126,9 +6064,9 @@
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:18">
       <c r="C121" s="8"/>
-      <c r="D121" s="27" t="s">
+      <c r="D121" s="26" t="s">
         <v>182</v>
       </c>
       <c r="E121" s="8"/>
@@ -6142,9 +6080,9 @@
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:18">
       <c r="C122" s="8"/>
-      <c r="D122" s="27"/>
+      <c r="D122" s="26"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
@@ -6156,7 +6094,7 @@
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:18">
       <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
         <v>174</v>
@@ -6171,12 +6109,12 @@
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
     </row>
-    <row r="124" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D124" s="27" t="s">
+    <row r="124" spans="3:18">
+      <c r="D124" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:18">
       <c r="C126" s="13" t="s">
         <v>178</v>
       </c>
@@ -6196,7 +6134,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
     </row>
-    <row r="127" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:18">
       <c r="C127" s="8" t="s">
         <v>15</v>
       </c>
@@ -6216,7 +6154,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
     </row>
-    <row r="128" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:18">
       <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
         <v>13</v>
@@ -6236,7 +6174,7 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
     </row>
-    <row r="129" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:22">
       <c r="C129" s="8"/>
       <c r="D129" s="8" t="s">
         <v>14</v>
@@ -6256,7 +6194,7 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
     </row>
-    <row r="130" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:22">
       <c r="C130" s="8"/>
       <c r="D130" s="8" t="s">
         <v>50</v>
@@ -6276,9 +6214,9 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
     </row>
-    <row r="131" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:22">
       <c r="C131" s="8"/>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="26" t="s">
         <v>169</v>
       </c>
       <c r="E131" s="8"/>
@@ -6296,29 +6234,29 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
     </row>
-    <row r="132" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:22">
       <c r="C132" s="8"/>
-      <c r="D132" s="32" t="s">
+      <c r="D132" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="32"/>
-      <c r="J132" s="32"/>
-      <c r="K132" s="32"/>
-      <c r="L132" s="32"/>
-      <c r="M132" s="32"/>
-      <c r="N132" s="32"/>
-      <c r="O132" s="32"/>
-      <c r="P132" s="32"/>
-      <c r="Q132" s="32"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="31"/>
+      <c r="L132" s="31"/>
+      <c r="M132" s="31"/>
+      <c r="N132" s="31"/>
+      <c r="O132" s="31"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="31"/>
       <c r="R132" s="8"/>
     </row>
-    <row r="133" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:22">
       <c r="C133" s="8"/>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="26" t="s">
         <v>257</v>
       </c>
       <c r="E133" s="8"/>
@@ -6336,268 +6274,268 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
     </row>
-    <row r="135" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:22">
       <c r="C135" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="136" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:22">
       <c r="D136" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:22">
       <c r="D137" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:22">
       <c r="D138" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:22">
       <c r="D139" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:22">
       <c r="D140" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C142" s="42" t="s">
+    <row r="142" spans="3:22">
+      <c r="C142" s="41" t="s">
         <v>250</v>
       </c>
       <c r="V142" s="8"/>
     </row>
-    <row r="143" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:22">
       <c r="C143" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="144" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:22">
       <c r="C144" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:11">
       <c r="C145" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:11">
       <c r="C146" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C147" s="42" t="s">
+    <row r="147" spans="3:11">
+      <c r="C147" s="41" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D149" s="42"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="42"/>
-      <c r="G149" s="42"/>
-      <c r="H149" s="42"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="42"/>
-      <c r="K149" s="42"/>
-    </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C151" s="42" t="s">
+    <row r="149" spans="3:11">
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="41"/>
+    </row>
+    <row r="151" spans="3:11">
+      <c r="C151" s="41" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:11">
       <c r="C152" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="153" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:11">
       <c r="C153" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="154" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:11">
       <c r="C154" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:11">
       <c r="C155" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="156" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:11">
       <c r="C156" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="157" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:11">
       <c r="C157" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:11">
       <c r="C159" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:11">
       <c r="C160" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C161" s="43" t="s">
+    <row r="161" spans="3:15">
+      <c r="C161" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
-      <c r="J161" s="29"/>
-      <c r="K161" s="29"/>
-      <c r="L161" s="29"/>
-      <c r="M161" s="29"/>
-      <c r="N161" s="29"/>
-      <c r="O161" s="29"/>
-    </row>
-    <row r="162" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="28"/>
+      <c r="M161" s="28"/>
+      <c r="N161" s="28"/>
+      <c r="O161" s="28"/>
+    </row>
+    <row r="162" spans="3:15">
       <c r="D162" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="163" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:15">
       <c r="D163" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:15">
       <c r="D164" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:15">
       <c r="D165" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C167" s="26" t="s">
+    <row r="167" spans="3:15">
+      <c r="C167" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="D167" s="31"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="31"/>
-      <c r="H167" s="31"/>
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
-      <c r="K167" s="31"/>
-      <c r="L167" s="31"/>
-      <c r="M167" s="31"/>
-      <c r="N167" s="31"/>
-      <c r="O167" s="31"/>
-    </row>
-    <row r="168" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C168" s="31"/>
-      <c r="D168" s="26" t="s">
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="30"/>
+      <c r="M167" s="30"/>
+      <c r="N167" s="30"/>
+      <c r="O167" s="30"/>
+    </row>
+    <row r="168" spans="3:15">
+      <c r="C168" s="30"/>
+      <c r="D168" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="31"/>
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
-      <c r="K168" s="31"/>
-      <c r="L168" s="31"/>
-      <c r="M168" s="31"/>
-      <c r="N168" s="31"/>
-      <c r="O168" s="31"/>
-    </row>
-    <row r="169" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="30"/>
+      <c r="M168" s="30"/>
+      <c r="N168" s="30"/>
+      <c r="O168" s="30"/>
+    </row>
+    <row r="169" spans="3:15">
       <c r="D169" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="170" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:15">
       <c r="D170" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="172" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C172" s="42" t="s">
+    <row r="172" spans="3:15">
+      <c r="C172" s="41" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="173" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:15">
       <c r="C173" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:15">
       <c r="C174" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:15">
       <c r="C175" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C177" s="42" t="s">
+    <row r="177" spans="2:25">
+      <c r="C177" s="41" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="178" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:25">
       <c r="C178" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:25">
       <c r="C179" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C181" s="42" t="s">
+    <row r="181" spans="2:25">
+      <c r="C181" s="41" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:25">
       <c r="C182" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:25">
       <c r="C183" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="184" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:25">
       <c r="C184" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="185" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:25">
       <c r="C185" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C187" s="70"/>
-      <c r="D187" s="70"/>
-      <c r="E187" s="70"/>
-      <c r="F187" s="70"/>
+    <row r="187" spans="2:25">
+      <c r="C187" s="61"/>
+      <c r="D187" s="61"/>
+      <c r="E187" s="61"/>
+      <c r="F187" s="61"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
@@ -6614,33 +6552,33 @@
       <c r="T187" s="8"/>
       <c r="U187" s="8"/>
     </row>
-    <row r="188" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C188" s="69"/>
-      <c r="D188" s="69"/>
-      <c r="E188" s="70"/>
-      <c r="F188" s="70"/>
+    <row r="188" spans="2:25">
+      <c r="C188" s="62"/>
+      <c r="D188" s="62"/>
+      <c r="E188" s="61"/>
+      <c r="F188" s="61"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="70"/>
-      <c r="J188" s="70"/>
-      <c r="K188" s="70"/>
-      <c r="L188" s="70"/>
-      <c r="M188" s="70"/>
-      <c r="N188" s="70"/>
-      <c r="O188" s="70"/>
-      <c r="P188" s="70"/>
-      <c r="Q188" s="70"/>
-      <c r="R188" s="70"/>
-      <c r="S188" s="70"/>
-      <c r="T188" s="70"/>
-      <c r="U188" s="70"/>
-    </row>
-    <row r="189" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C189" s="74"/>
-      <c r="D189" s="75"/>
-      <c r="E189" s="76"/>
-      <c r="F189" s="76"/>
-      <c r="G189" s="76"/>
+      <c r="H188" s="61"/>
+      <c r="I188" s="61"/>
+      <c r="J188" s="61"/>
+      <c r="K188" s="61"/>
+      <c r="L188" s="61"/>
+      <c r="M188" s="61"/>
+      <c r="N188" s="61"/>
+      <c r="O188" s="61"/>
+      <c r="P188" s="61"/>
+      <c r="Q188" s="61"/>
+      <c r="R188" s="61"/>
+      <c r="S188" s="61"/>
+      <c r="T188" s="61"/>
+      <c r="U188" s="61"/>
+    </row>
+    <row r="189" spans="2:25" ht="17.25">
+      <c r="C189" s="63"/>
+      <c r="D189" s="64"/>
+      <c r="E189" s="65"/>
+      <c r="F189" s="65"/>
+      <c r="G189" s="65"/>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
@@ -6660,155 +6598,188 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B190" s="62"/>
-      <c r="C190" s="69"/>
-      <c r="D190" s="69"/>
-      <c r="E190" s="70"/>
-      <c r="F190" s="70"/>
-      <c r="G190" s="70"/>
+    <row r="190" spans="2:25">
+      <c r="B190" s="56"/>
+      <c r="C190" s="62"/>
+      <c r="D190" s="62"/>
+      <c r="E190" s="61"/>
+      <c r="F190" s="61"/>
+      <c r="G190" s="61"/>
       <c r="H190" s="8"/>
-      <c r="I190" s="70"/>
-      <c r="J190" s="70"/>
-      <c r="K190" s="70"/>
-      <c r="L190" s="70"/>
-      <c r="M190" s="70"/>
-      <c r="N190" s="70"/>
-      <c r="O190" s="70"/>
-      <c r="P190" s="70"/>
-      <c r="Q190" s="70"/>
-      <c r="R190" s="70"/>
-      <c r="S190" s="70"/>
-      <c r="T190" s="70"/>
-      <c r="U190" s="70"/>
-      <c r="V190" s="70"/>
-      <c r="W190" s="70"/>
-      <c r="X190" s="70"/>
-      <c r="Y190" s="70"/>
-    </row>
-    <row r="191" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B191" s="63"/>
-      <c r="C191" s="69"/>
-      <c r="D191" s="69"/>
-      <c r="E191" s="70"/>
-      <c r="F191" s="70"/>
-      <c r="G191" s="70"/>
+      <c r="I190" s="61"/>
+      <c r="J190" s="61"/>
+      <c r="K190" s="61"/>
+      <c r="L190" s="61"/>
+      <c r="M190" s="61"/>
+      <c r="N190" s="61"/>
+      <c r="O190" s="61"/>
+      <c r="P190" s="61"/>
+      <c r="Q190" s="61"/>
+      <c r="R190" s="61"/>
+      <c r="S190" s="61"/>
+      <c r="T190" s="61"/>
+      <c r="U190" s="61"/>
+      <c r="V190" s="61"/>
+      <c r="W190" s="61"/>
+      <c r="X190" s="61"/>
+      <c r="Y190" s="61"/>
+    </row>
+    <row r="191" spans="2:25">
+      <c r="B191" s="57"/>
+      <c r="C191" s="62"/>
+      <c r="D191" s="62"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="61"/>
+      <c r="G191" s="61"/>
       <c r="H191" s="8"/>
-      <c r="I191" s="68"/>
-      <c r="J191" s="68"/>
-      <c r="K191" s="68"/>
-      <c r="L191" s="68"/>
-      <c r="M191" s="68"/>
-      <c r="N191" s="68"/>
-      <c r="O191" s="68"/>
-      <c r="P191" s="68"/>
-      <c r="Q191" s="68"/>
-      <c r="R191" s="68"/>
-      <c r="S191" s="68"/>
-      <c r="T191" s="68"/>
-      <c r="U191" s="68"/>
-      <c r="V191" s="70"/>
-      <c r="W191" s="70"/>
-      <c r="X191" s="70"/>
-      <c r="Y191" s="70"/>
-    </row>
-    <row r="192" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B192" s="63"/>
-      <c r="C192" s="69"/>
-      <c r="D192" s="69"/>
-      <c r="E192" s="70"/>
-      <c r="F192" s="70"/>
-      <c r="G192" s="70"/>
+      <c r="I191" s="66"/>
+      <c r="J191" s="66"/>
+      <c r="K191" s="66"/>
+      <c r="L191" s="66"/>
+      <c r="M191" s="66"/>
+      <c r="N191" s="66"/>
+      <c r="O191" s="66"/>
+      <c r="P191" s="66"/>
+      <c r="Q191" s="66"/>
+      <c r="R191" s="66"/>
+      <c r="S191" s="66"/>
+      <c r="T191" s="66"/>
+      <c r="U191" s="66"/>
+      <c r="V191" s="61"/>
+      <c r="W191" s="61"/>
+      <c r="X191" s="61"/>
+      <c r="Y191" s="61"/>
+    </row>
+    <row r="192" spans="2:25">
+      <c r="B192" s="57"/>
+      <c r="C192" s="62"/>
+      <c r="D192" s="62"/>
+      <c r="E192" s="61"/>
+      <c r="F192" s="61"/>
+      <c r="G192" s="61"/>
       <c r="H192" s="8"/>
-      <c r="I192" s="68"/>
-      <c r="J192" s="68"/>
-      <c r="K192" s="68"/>
-      <c r="L192" s="68"/>
-      <c r="M192" s="68"/>
-      <c r="N192" s="68"/>
-      <c r="O192" s="68"/>
-      <c r="P192" s="68"/>
-      <c r="Q192" s="68"/>
-      <c r="R192" s="68"/>
-      <c r="S192" s="68"/>
-      <c r="T192" s="68"/>
-      <c r="U192" s="68"/>
-      <c r="V192" s="70"/>
-      <c r="W192" s="70"/>
-      <c r="X192" s="70"/>
-      <c r="Y192" s="70"/>
-    </row>
-    <row r="193" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B193" s="63"/>
-      <c r="C193" s="69"/>
-      <c r="D193" s="69"/>
-      <c r="E193" s="70"/>
-      <c r="F193" s="70"/>
-      <c r="G193" s="70"/>
+      <c r="I192" s="66"/>
+      <c r="J192" s="66"/>
+      <c r="K192" s="66"/>
+      <c r="L192" s="66"/>
+      <c r="M192" s="66"/>
+      <c r="N192" s="66"/>
+      <c r="O192" s="66"/>
+      <c r="P192" s="66"/>
+      <c r="Q192" s="66"/>
+      <c r="R192" s="66"/>
+      <c r="S192" s="66"/>
+      <c r="T192" s="66"/>
+      <c r="U192" s="66"/>
+      <c r="V192" s="61"/>
+      <c r="W192" s="61"/>
+      <c r="X192" s="61"/>
+      <c r="Y192" s="61"/>
+    </row>
+    <row r="193" spans="2:25">
+      <c r="B193" s="57"/>
+      <c r="C193" s="62"/>
+      <c r="D193" s="62"/>
+      <c r="E193" s="61"/>
+      <c r="F193" s="61"/>
+      <c r="G193" s="61"/>
       <c r="H193" s="8"/>
-      <c r="I193" s="26"/>
-      <c r="J193" s="26"/>
-      <c r="K193" s="68"/>
-      <c r="L193" s="68"/>
-      <c r="M193" s="68"/>
-      <c r="N193" s="68"/>
-      <c r="O193" s="68"/>
-      <c r="P193" s="68"/>
-      <c r="Q193" s="68"/>
-      <c r="R193" s="68"/>
-      <c r="S193" s="68"/>
-      <c r="T193" s="68"/>
-      <c r="U193" s="68"/>
-      <c r="V193" s="70"/>
-      <c r="W193" s="70"/>
-      <c r="X193" s="70"/>
-      <c r="Y193" s="70"/>
-    </row>
-    <row r="194" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B194" s="63"/>
-      <c r="C194" s="69"/>
-      <c r="D194" s="69"/>
-      <c r="E194" s="70"/>
-      <c r="F194" s="70"/>
-      <c r="G194" s="70"/>
+      <c r="I193" s="25"/>
+      <c r="J193" s="25"/>
+      <c r="K193" s="66"/>
+      <c r="L193" s="66"/>
+      <c r="M193" s="66"/>
+      <c r="N193" s="66"/>
+      <c r="O193" s="66"/>
+      <c r="P193" s="66"/>
+      <c r="Q193" s="66"/>
+      <c r="R193" s="66"/>
+      <c r="S193" s="66"/>
+      <c r="T193" s="66"/>
+      <c r="U193" s="66"/>
+      <c r="V193" s="61"/>
+      <c r="W193" s="61"/>
+      <c r="X193" s="61"/>
+      <c r="Y193" s="61"/>
+    </row>
+    <row r="194" spans="2:25">
+      <c r="B194" s="57"/>
+      <c r="C194" s="62"/>
+      <c r="D194" s="62"/>
+      <c r="E194" s="61"/>
+      <c r="F194" s="61"/>
+      <c r="G194" s="61"/>
       <c r="H194" s="8"/>
-      <c r="I194" s="26"/>
-      <c r="J194" s="26"/>
-      <c r="K194" s="68"/>
-      <c r="L194" s="68"/>
-      <c r="M194" s="68"/>
-      <c r="N194" s="68"/>
-      <c r="O194" s="68"/>
-      <c r="P194" s="68"/>
-      <c r="Q194" s="68"/>
-      <c r="R194" s="68"/>
-      <c r="S194" s="68"/>
-      <c r="T194" s="68"/>
-      <c r="U194" s="68"/>
-      <c r="V194" s="70"/>
-      <c r="W194" s="70"/>
-      <c r="X194" s="70"/>
-      <c r="Y194" s="70"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="25"/>
+      <c r="K194" s="66"/>
+      <c r="L194" s="66"/>
+      <c r="M194" s="66"/>
+      <c r="N194" s="66"/>
+      <c r="O194" s="66"/>
+      <c r="P194" s="66"/>
+      <c r="Q194" s="66"/>
+      <c r="R194" s="66"/>
+      <c r="S194" s="66"/>
+      <c r="T194" s="66"/>
+      <c r="U194" s="66"/>
+      <c r="V194" s="61"/>
+      <c r="W194" s="61"/>
+      <c r="X194" s="61"/>
+      <c r="Y194" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="P188:U188"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="E192:G192"/>
-    <mergeCell ref="E193:G193"/>
-    <mergeCell ref="E194:G194"/>
-    <mergeCell ref="J188:O188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="I190:J190"/>
-    <mergeCell ref="K190:U190"/>
-    <mergeCell ref="E189:G189"/>
-    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="AF72:AG72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AK72:BB72"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="AF77:AG77"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AK77:BB77"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="AF76:AG76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AK76:BB76"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X91:AB91"/>
+    <mergeCell ref="X92:AB92"/>
+    <mergeCell ref="X90:AB90"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="BC73:BC74"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="AK74:BB74"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="AF75:AG75"/>
+    <mergeCell ref="AD73:AE73"/>
+    <mergeCell ref="AF73:AG73"/>
+    <mergeCell ref="AI73:AJ74"/>
+    <mergeCell ref="AK73:BB73"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AK75:BB75"/>
+    <mergeCell ref="V191:Y191"/>
+    <mergeCell ref="V192:Y192"/>
+    <mergeCell ref="V193:Y193"/>
+    <mergeCell ref="V194:Y194"/>
+    <mergeCell ref="V190:Y190"/>
     <mergeCell ref="C191:D191"/>
     <mergeCell ref="I191:J191"/>
     <mergeCell ref="K191:U191"/>
@@ -6819,56 +6790,23 @@
     <mergeCell ref="K192:U192"/>
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="K193:U193"/>
-    <mergeCell ref="V191:Y191"/>
-    <mergeCell ref="V192:Y192"/>
-    <mergeCell ref="V193:Y193"/>
-    <mergeCell ref="V194:Y194"/>
-    <mergeCell ref="V190:Y190"/>
-    <mergeCell ref="BC73:BC74"/>
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="AF74:AG74"/>
-    <mergeCell ref="AK74:BB74"/>
-    <mergeCell ref="AD75:AE75"/>
-    <mergeCell ref="AF75:AG75"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X91:AB91"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="X90:AB90"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="AD72:AE72"/>
-    <mergeCell ref="AF72:AG72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AK72:BB72"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="AD73:AE73"/>
-    <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="AI73:AJ74"/>
-    <mergeCell ref="AK73:BB73"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="AF77:AG77"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AK77:BB77"/>
-    <mergeCell ref="AD76:AE76"/>
-    <mergeCell ref="AF76:AG76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AK76:BB76"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AK75:BB75"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="I190:J190"/>
+    <mergeCell ref="K190:U190"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="E190:G190"/>
+    <mergeCell ref="P188:U188"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="E192:G192"/>
+    <mergeCell ref="E193:G193"/>
+    <mergeCell ref="E194:G194"/>
+    <mergeCell ref="J188:O188"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="H188:I188"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6881,110 +6819,110 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X120"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:S21"/>
+    <sheetView showGridLines="0" topLeftCell="I81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="2:24">
+      <c r="B1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C3" s="42" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="C3" s="41" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C4" s="42" t="s">
+    <row r="4" spans="2:24">
+      <c r="C4" s="41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="6" spans="2:24" ht="17.25" thickTop="1">
       <c r="C6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="99" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="99" t="s">
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="101"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="84"/>
+    </row>
+    <row r="7" spans="2:24">
       <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="72" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="21"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="81"/>
+    </row>
+    <row r="8" spans="2:24">
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -7014,9 +6952,9 @@
       <c r="U8" s="67"/>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
-      <c r="X8" s="78"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X8" s="79"/>
+    </row>
+    <row r="9" spans="2:24">
       <c r="C9" s="20">
         <v>3</v>
       </c>
@@ -7046,9 +6984,9 @@
       <c r="U9" s="67"/>
       <c r="V9" s="67"/>
       <c r="W9" s="67"/>
-      <c r="X9" s="78"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X9" s="79"/>
+    </row>
+    <row r="10" spans="2:24">
       <c r="C10" s="20">
         <v>4</v>
       </c>
@@ -7078,252 +7016,252 @@
       <c r="U10" s="67"/>
       <c r="V10" s="67"/>
       <c r="W10" s="67"/>
-      <c r="X10" s="78"/>
-    </row>
-    <row r="11" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="96"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82" t="s">
+      <c r="X10" s="79"/>
+    </row>
+    <row r="11" spans="2:24" ht="17.25" thickBot="1">
+      <c r="C11" s="74"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="84"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="113"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C13" s="106"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="78"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C14" s="106"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="21"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C15" s="106"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="21"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C16" s="106"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="21"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C17" s="106"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="21"/>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C18" s="106"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="21"/>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C19" s="106"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="21"/>
-    </row>
-    <row r="20" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="21"/>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C21" s="49">
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="97"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="99"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="C13" s="75"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="96"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="C14" s="75"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="96"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="C15" s="75"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="96"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="C16" s="75"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="96"/>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="75"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="96"/>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18" s="75"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="96"/>
+    </row>
+    <row r="19" spans="3:24">
+      <c r="C19" s="75"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="96"/>
+    </row>
+    <row r="20" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="100"/>
+    </row>
+    <row r="21" spans="3:24">
+      <c r="C21" s="43">
         <v>5</v>
       </c>
       <c r="D21" s="77" t="s">
@@ -7346,15 +7284,15 @@
       <c r="Q21" s="77"/>
       <c r="R21" s="77"/>
       <c r="S21" s="77"/>
-      <c r="T21" s="67" t="s">
+      <c r="T21" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="78"/>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="98"/>
+    </row>
+    <row r="22" spans="3:24">
       <c r="C22" s="20">
         <v>6</v>
       </c>
@@ -7384,9 +7322,9 @@
       <c r="U22" s="67"/>
       <c r="V22" s="67"/>
       <c r="W22" s="67"/>
-      <c r="X22" s="78"/>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="X22" s="79"/>
+    </row>
+    <row r="23" spans="3:24">
       <c r="C23" s="20">
         <v>7</v>
       </c>
@@ -7395,384 +7333,384 @@
       </c>
       <c r="E23" s="67"/>
       <c r="F23" s="67"/>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="21"/>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C24" s="96"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="72" t="s">
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24" s="74"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="21"/>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C25" s="91"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="72" t="s">
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="81"/>
+    </row>
+    <row r="25" spans="3:24">
+      <c r="C25" s="75"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="21"/>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C26" s="91"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="72" t="s">
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="81"/>
+    </row>
+    <row r="26" spans="3:24">
+      <c r="C26" s="75"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="21"/>
-    </row>
-    <row r="27" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="91"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="79" t="s">
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="81"/>
+    </row>
+    <row r="27" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C27" s="75"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="67" t="s">
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="78"/>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="21"/>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C29" s="106"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="21"/>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C30" s="106"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="21"/>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C31" s="106"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="21"/>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C32" s="106"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="21"/>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C33" s="106"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="21"/>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C34" s="106"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="21"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C35" s="106"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="21"/>
-    </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C36" s="106"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="21"/>
-    </row>
-    <row r="37" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="108"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="21"/>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C38" s="49">
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="101"/>
+    </row>
+    <row r="28" spans="3:24">
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="99"/>
+    </row>
+    <row r="29" spans="3:24">
+      <c r="C29" s="75"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="96"/>
+    </row>
+    <row r="30" spans="3:24">
+      <c r="C30" s="75"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="96"/>
+    </row>
+    <row r="31" spans="3:24">
+      <c r="C31" s="75"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="96"/>
+    </row>
+    <row r="32" spans="3:24">
+      <c r="C32" s="75"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="96"/>
+    </row>
+    <row r="33" spans="3:24">
+      <c r="C33" s="75"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="96"/>
+    </row>
+    <row r="34" spans="3:24">
+      <c r="C34" s="75"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="96"/>
+    </row>
+    <row r="35" spans="3:24">
+      <c r="C35" s="75"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="96"/>
+    </row>
+    <row r="36" spans="3:24">
+      <c r="C36" s="75"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="96"/>
+    </row>
+    <row r="37" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="100"/>
+    </row>
+    <row r="38" spans="3:24">
+      <c r="C38" s="43">
         <v>8</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="77"/>
       <c r="F38" s="77"/>
       <c r="G38" s="77" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="H38" s="77"/>
       <c r="I38" s="77"/>
@@ -7786,25 +7724,21 @@
       <c r="Q38" s="77"/>
       <c r="R38" s="77"/>
       <c r="S38" s="77"/>
-      <c r="T38" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="78"/>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C39" s="20">
-        <v>9</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
+      <c r="T38" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="98"/>
+    </row>
+    <row r="39" spans="3:24">
+      <c r="C39" s="74"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
       <c r="G39" s="67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
@@ -7818,813 +7752,827 @@
       <c r="Q39" s="67"/>
       <c r="R39" s="67"/>
       <c r="S39" s="67"/>
-      <c r="T39" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="78"/>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C40" s="96"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="21"/>
-    </row>
-    <row r="41" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="91"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="79" t="s">
+      <c r="T39" s="68"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="81"/>
+    </row>
+    <row r="40" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C40" s="75"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="21"/>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C42" s="103"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
-      <c r="S42" s="105"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="21"/>
-    </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C43" s="106"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="21"/>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C44" s="106"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="107"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="21"/>
-    </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C45" s="106"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="21"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C46" s="106"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="107"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="21"/>
-    </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C47" s="106"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="21"/>
-    </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C48" s="106"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="107"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="21"/>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C49" s="106"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="107"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="21"/>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C50" s="106"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="107"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="21"/>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C51" s="106"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="107"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="21"/>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C52" s="106"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="67"/>
-      <c r="S52" s="107"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="21"/>
-    </row>
-    <row r="53" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="108"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="21"/>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C54" s="49">
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="97"/>
+    </row>
+    <row r="41" spans="3:24">
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="87"/>
+      <c r="X41" s="99"/>
+    </row>
+    <row r="42" spans="3:24">
+      <c r="C42" s="75"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="96"/>
+    </row>
+    <row r="43" spans="3:24">
+      <c r="C43" s="75"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="96"/>
+    </row>
+    <row r="44" spans="3:24">
+      <c r="C44" s="75"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="96"/>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45" s="75"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="96"/>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46" s="75"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="96"/>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47" s="75"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="96"/>
+    </row>
+    <row r="48" spans="3:24">
+      <c r="C48" s="75"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="96"/>
+    </row>
+    <row r="49" spans="3:24">
+      <c r="C49" s="75"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="96"/>
+    </row>
+    <row r="50" spans="3:24">
+      <c r="C50" s="75"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="96"/>
+    </row>
+    <row r="51" spans="3:24">
+      <c r="C51" s="75"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="96"/>
+    </row>
+    <row r="52" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C52" s="88"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="100"/>
+    </row>
+    <row r="53" spans="3:24">
+      <c r="C53" s="43">
+        <v>9</v>
+      </c>
+      <c r="D53" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="77"/>
+      <c r="R53" s="77"/>
+      <c r="S53" s="77"/>
+      <c r="T53" s="102"/>
+      <c r="U53" s="103"/>
+      <c r="V53" s="103"/>
+      <c r="W53" s="103"/>
+      <c r="X53" s="104"/>
+    </row>
+    <row r="54" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C54" s="74"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="78"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="97"/>
+    </row>
+    <row r="55" spans="3:24">
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="87"/>
+      <c r="V55" s="87"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="99"/>
+    </row>
+    <row r="56" spans="3:24">
+      <c r="C56" s="75"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="96"/>
+    </row>
+    <row r="57" spans="3:24">
+      <c r="C57" s="75"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="61"/>
+      <c r="T57" s="61"/>
+      <c r="U57" s="61"/>
+      <c r="V57" s="61"/>
+      <c r="W57" s="61"/>
+      <c r="X57" s="96"/>
+    </row>
+    <row r="58" spans="3:24">
+      <c r="C58" s="75"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="61"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="61"/>
+      <c r="U58" s="61"/>
+      <c r="V58" s="61"/>
+      <c r="W58" s="61"/>
+      <c r="X58" s="96"/>
+    </row>
+    <row r="59" spans="3:24">
+      <c r="C59" s="75"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="61"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="96"/>
+    </row>
+    <row r="60" spans="3:24">
+      <c r="C60" s="75"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="61"/>
+      <c r="U60" s="61"/>
+      <c r="V60" s="61"/>
+      <c r="W60" s="61"/>
+      <c r="X60" s="96"/>
+    </row>
+    <row r="61" spans="3:24">
+      <c r="C61" s="75"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="61"/>
+      <c r="U61" s="61"/>
+      <c r="V61" s="61"/>
+      <c r="W61" s="61"/>
+      <c r="X61" s="96"/>
+    </row>
+    <row r="62" spans="3:24">
+      <c r="C62" s="75"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="61"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61"/>
+      <c r="X62" s="96"/>
+    </row>
+    <row r="63" spans="3:24">
+      <c r="C63" s="75"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="61"/>
+      <c r="X63" s="96"/>
+    </row>
+    <row r="64" spans="3:24">
+      <c r="C64" s="75"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="61"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="61"/>
+      <c r="X64" s="96"/>
+    </row>
+    <row r="65" spans="3:24">
+      <c r="C65" s="75"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="96"/>
+    </row>
+    <row r="66" spans="3:24">
+      <c r="C66" s="75"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="96"/>
+    </row>
+    <row r="67" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C67" s="88"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
+      <c r="T67" s="89"/>
+      <c r="U67" s="89"/>
+      <c r="V67" s="89"/>
+      <c r="W67" s="89"/>
+      <c r="X67" s="100"/>
+    </row>
+    <row r="68" spans="3:24">
+      <c r="C68" s="43">
         <v>10</v>
       </c>
-      <c r="D54" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="21"/>
-    </row>
-    <row r="55" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="96"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="82"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="21"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C56" s="103"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="104"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="105"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="21"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C57" s="106"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="67"/>
-      <c r="S57" s="107"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="21"/>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C58" s="106"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="107"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="21"/>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C59" s="106"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="107"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="21"/>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C60" s="106"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="107"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="21"/>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C61" s="106"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="107"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="21"/>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C62" s="106"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="107"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="21"/>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C63" s="106"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="107"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="21"/>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C64" s="106"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="107"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="21"/>
-    </row>
-    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C65" s="106"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="107"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="21"/>
-    </row>
-    <row r="66" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C66" s="106"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="107"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="21"/>
-    </row>
-    <row r="67" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C67" s="106"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="P67" s="67"/>
-      <c r="Q67" s="67"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="107"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="21"/>
-    </row>
-    <row r="68" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="108"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="109"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
-      <c r="L68" s="109"/>
-      <c r="M68" s="109"/>
-      <c r="N68" s="109"/>
-      <c r="O68" s="109"/>
-      <c r="P68" s="109"/>
-      <c r="Q68" s="109"/>
-      <c r="R68" s="109"/>
-      <c r="S68" s="110"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="21"/>
-    </row>
-    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C69" s="49">
+      <c r="D68" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
+      <c r="T68" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="U68" s="106"/>
+      <c r="V68" s="106"/>
+      <c r="W68" s="106"/>
+      <c r="X68" s="107"/>
+    </row>
+    <row r="69" spans="3:24">
+      <c r="C69" s="108">
         <v>11</v>
       </c>
-      <c r="D69" s="77" t="s">
+      <c r="D69" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="78"/>
+      <c r="N69" s="78"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="78"/>
+      <c r="R69" s="78"/>
+      <c r="S69" s="78"/>
+      <c r="T69" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="U69" s="72"/>
+      <c r="V69" s="72"/>
+      <c r="W69" s="72"/>
+      <c r="X69" s="97"/>
+    </row>
+    <row r="70" spans="3:24">
+      <c r="C70" s="20">
+        <v>12</v>
+      </c>
+      <c r="D70" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="80"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="80"/>
+      <c r="R70" s="80"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="U70" s="80"/>
+      <c r="V70" s="80"/>
+      <c r="W70" s="80"/>
+      <c r="X70" s="81"/>
+    </row>
+    <row r="71" spans="3:24">
+      <c r="C71" s="43">
+        <v>13</v>
+      </c>
+      <c r="D71" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77" t="s">
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="77"/>
-      <c r="S69" s="77"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="21"/>
-    </row>
-    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C70" s="96"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="67" t="s">
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="80"/>
+      <c r="V71" s="80"/>
+      <c r="W71" s="80"/>
+      <c r="X71" s="81"/>
+    </row>
+    <row r="72" spans="3:24">
+      <c r="C72" s="74"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="67" t="s">
         <v>204</v>
-      </c>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="21"/>
-    </row>
-    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C71" s="91"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="80"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="80"/>
-      <c r="Q71" s="80"/>
-      <c r="R71" s="80"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="U71" s="83"/>
-      <c r="V71" s="83"/>
-      <c r="W71" s="83"/>
-      <c r="X71" s="84"/>
-    </row>
-    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C72" s="91"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="67" t="s">
-        <v>150</v>
       </c>
       <c r="H72" s="67"/>
       <c r="I72" s="67"/>
@@ -8638,1208 +8586,1206 @@
       <c r="Q72" s="67"/>
       <c r="R72" s="67"/>
       <c r="S72" s="67"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="21"/>
-    </row>
-    <row r="73" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="91"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="82" t="s">
+      <c r="T72" s="68"/>
+      <c r="U72" s="80"/>
+      <c r="V72" s="80"/>
+      <c r="W72" s="80"/>
+      <c r="X72" s="81"/>
+    </row>
+    <row r="73" spans="3:24">
+      <c r="C73" s="75"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="U73" s="80"/>
+      <c r="V73" s="80"/>
+      <c r="W73" s="80"/>
+      <c r="X73" s="81"/>
+    </row>
+    <row r="74" spans="3:24">
+      <c r="C74" s="75"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="67"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="67"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="80"/>
+      <c r="V74" s="80"/>
+      <c r="W74" s="80"/>
+      <c r="X74" s="81"/>
+    </row>
+    <row r="75" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C75" s="75"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="82"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="82"/>
-      <c r="P73" s="82"/>
-      <c r="Q73" s="82"/>
-      <c r="R73" s="82"/>
-      <c r="S73" s="82"/>
-      <c r="T73" s="44"/>
-      <c r="U73" s="45"/>
-      <c r="V73" s="45"/>
-      <c r="W73" s="45"/>
-      <c r="X73" s="47"/>
-    </row>
-    <row r="74" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C74" s="103"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="104"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="104"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="104"/>
-      <c r="N74" s="104"/>
-      <c r="O74" s="104"/>
-      <c r="P74" s="104"/>
-      <c r="Q74" s="104"/>
-      <c r="R74" s="104"/>
-      <c r="S74" s="105"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="21"/>
-    </row>
-    <row r="75" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C75" s="106"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="67"/>
-      <c r="O75" s="67"/>
-      <c r="P75" s="67"/>
-      <c r="Q75" s="67"/>
-      <c r="R75" s="67"/>
-      <c r="S75" s="107"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="21"/>
-    </row>
-    <row r="76" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C76" s="106"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67"/>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="67"/>
-      <c r="S76" s="107"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="21"/>
-    </row>
-    <row r="77" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C77" s="106"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="67"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="67"/>
-      <c r="N77" s="67"/>
-      <c r="O77" s="67"/>
-      <c r="P77" s="67"/>
-      <c r="Q77" s="67"/>
-      <c r="R77" s="67"/>
-      <c r="S77" s="107"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="21"/>
-    </row>
-    <row r="78" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C78" s="106"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="67"/>
-      <c r="O78" s="67"/>
-      <c r="P78" s="67"/>
-      <c r="Q78" s="67"/>
-      <c r="R78" s="67"/>
-      <c r="S78" s="107"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="21"/>
-    </row>
-    <row r="79" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C79" s="106"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="67"/>
-      <c r="O79" s="67"/>
-      <c r="P79" s="67"/>
-      <c r="Q79" s="67"/>
-      <c r="R79" s="67"/>
-      <c r="S79" s="107"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="21"/>
-    </row>
-    <row r="80" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C80" s="106"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="67"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="67"/>
-      <c r="N80" s="67"/>
-      <c r="O80" s="67"/>
-      <c r="P80" s="67"/>
-      <c r="Q80" s="67"/>
-      <c r="R80" s="67"/>
-      <c r="S80" s="107"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="21"/>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C81" s="106"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="67"/>
-      <c r="R81" s="67"/>
-      <c r="S81" s="107"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="21"/>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C82" s="106"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="107"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="21"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C83" s="106"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="107"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="21"/>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C84" s="106"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="107"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="21"/>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C85" s="106"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="67"/>
-      <c r="S85" s="107"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="21"/>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C86" s="106"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="67"/>
-      <c r="S86" s="107"/>
-      <c r="T86" s="46"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="21"/>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C87" s="106"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="67"/>
-      <c r="S87" s="107"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="21"/>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C88" s="106"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67"/>
-      <c r="M88" s="67"/>
-      <c r="N88" s="67"/>
-      <c r="O88" s="67"/>
-      <c r="P88" s="67"/>
-      <c r="Q88" s="67"/>
-      <c r="R88" s="67"/>
-      <c r="S88" s="107"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="21"/>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C89" s="106"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="67"/>
-      <c r="M89" s="67"/>
-      <c r="N89" s="67"/>
-      <c r="O89" s="67"/>
-      <c r="P89" s="67"/>
-      <c r="Q89" s="67"/>
-      <c r="R89" s="67"/>
-      <c r="S89" s="107"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="21"/>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C90" s="106"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="67"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="67"/>
-      <c r="R90" s="67"/>
-      <c r="S90" s="107"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="21"/>
-    </row>
-    <row r="91" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C91" s="108"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
-      <c r="G91" s="109"/>
-      <c r="H91" s="109"/>
-      <c r="I91" s="109"/>
-      <c r="J91" s="109"/>
-      <c r="K91" s="109"/>
-      <c r="L91" s="109"/>
-      <c r="M91" s="109"/>
-      <c r="N91" s="109"/>
-      <c r="O91" s="109"/>
-      <c r="P91" s="109"/>
-      <c r="Q91" s="109"/>
-      <c r="R91" s="109"/>
-      <c r="S91" s="110"/>
-      <c r="T91" s="46"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="21"/>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C92" s="49">
-        <v>12</v>
-      </c>
-      <c r="D92" s="77" t="s">
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="78"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="78"/>
+      <c r="S75" s="78"/>
+      <c r="T75" s="109"/>
+      <c r="U75" s="110"/>
+      <c r="V75" s="110"/>
+      <c r="W75" s="110"/>
+      <c r="X75" s="111"/>
+    </row>
+    <row r="76" spans="3:24">
+      <c r="C76" s="86"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="87"/>
+      <c r="L76" s="87"/>
+      <c r="M76" s="87"/>
+      <c r="N76" s="87"/>
+      <c r="O76" s="87"/>
+      <c r="P76" s="87"/>
+      <c r="Q76" s="87"/>
+      <c r="R76" s="87"/>
+      <c r="S76" s="87"/>
+      <c r="T76" s="87"/>
+      <c r="U76" s="87"/>
+      <c r="V76" s="87"/>
+      <c r="W76" s="87"/>
+      <c r="X76" s="99"/>
+    </row>
+    <row r="77" spans="3:24">
+      <c r="C77" s="75"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
+      <c r="S77" s="61"/>
+      <c r="T77" s="61"/>
+      <c r="U77" s="61"/>
+      <c r="V77" s="61"/>
+      <c r="W77" s="61"/>
+      <c r="X77" s="96"/>
+    </row>
+    <row r="78" spans="3:24">
+      <c r="C78" s="75"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="61"/>
+      <c r="X78" s="96"/>
+    </row>
+    <row r="79" spans="3:24">
+      <c r="C79" s="75"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="61"/>
+      <c r="S79" s="61"/>
+      <c r="T79" s="61"/>
+      <c r="U79" s="61"/>
+      <c r="V79" s="61"/>
+      <c r="W79" s="61"/>
+      <c r="X79" s="96"/>
+    </row>
+    <row r="80" spans="3:24">
+      <c r="C80" s="75"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
+      <c r="S80" s="61"/>
+      <c r="T80" s="61"/>
+      <c r="U80" s="61"/>
+      <c r="V80" s="61"/>
+      <c r="W80" s="61"/>
+      <c r="X80" s="96"/>
+    </row>
+    <row r="81" spans="3:24">
+      <c r="C81" s="75"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="61"/>
+      <c r="U81" s="61"/>
+      <c r="V81" s="61"/>
+      <c r="W81" s="61"/>
+      <c r="X81" s="96"/>
+    </row>
+    <row r="82" spans="3:24">
+      <c r="C82" s="75"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="61"/>
+      <c r="X82" s="96"/>
+    </row>
+    <row r="83" spans="3:24">
+      <c r="C83" s="75"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="61"/>
+      <c r="S83" s="61"/>
+      <c r="T83" s="61"/>
+      <c r="U83" s="61"/>
+      <c r="V83" s="61"/>
+      <c r="W83" s="61"/>
+      <c r="X83" s="96"/>
+    </row>
+    <row r="84" spans="3:24">
+      <c r="C84" s="75"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="61"/>
+      <c r="T84" s="61"/>
+      <c r="U84" s="61"/>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61"/>
+      <c r="X84" s="96"/>
+    </row>
+    <row r="85" spans="3:24">
+      <c r="C85" s="75"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
+      <c r="S85" s="61"/>
+      <c r="T85" s="61"/>
+      <c r="U85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="96"/>
+    </row>
+    <row r="86" spans="3:24">
+      <c r="C86" s="75"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
+      <c r="S86" s="61"/>
+      <c r="T86" s="61"/>
+      <c r="U86" s="61"/>
+      <c r="V86" s="61"/>
+      <c r="W86" s="61"/>
+      <c r="X86" s="96"/>
+    </row>
+    <row r="87" spans="3:24">
+      <c r="C87" s="75"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="61"/>
+      <c r="U87" s="61"/>
+      <c r="V87" s="61"/>
+      <c r="W87" s="61"/>
+      <c r="X87" s="96"/>
+    </row>
+    <row r="88" spans="3:24">
+      <c r="C88" s="75"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="61"/>
+      <c r="R88" s="61"/>
+      <c r="S88" s="61"/>
+      <c r="T88" s="61"/>
+      <c r="U88" s="61"/>
+      <c r="V88" s="61"/>
+      <c r="W88" s="61"/>
+      <c r="X88" s="96"/>
+    </row>
+    <row r="89" spans="3:24">
+      <c r="C89" s="75"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="61"/>
+      <c r="S89" s="61"/>
+      <c r="T89" s="61"/>
+      <c r="U89" s="61"/>
+      <c r="V89" s="61"/>
+      <c r="W89" s="61"/>
+      <c r="X89" s="96"/>
+    </row>
+    <row r="90" spans="3:24">
+      <c r="C90" s="75"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="61"/>
+      <c r="X90" s="96"/>
+    </row>
+    <row r="91" spans="3:24">
+      <c r="C91" s="75"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="61"/>
+      <c r="P91" s="61"/>
+      <c r="Q91" s="61"/>
+      <c r="R91" s="61"/>
+      <c r="S91" s="61"/>
+      <c r="T91" s="61"/>
+      <c r="U91" s="61"/>
+      <c r="V91" s="61"/>
+      <c r="W91" s="61"/>
+      <c r="X91" s="96"/>
+    </row>
+    <row r="92" spans="3:24">
+      <c r="C92" s="75"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="61"/>
+      <c r="P92" s="61"/>
+      <c r="Q92" s="61"/>
+      <c r="R92" s="61"/>
+      <c r="S92" s="61"/>
+      <c r="T92" s="61"/>
+      <c r="U92" s="61"/>
+      <c r="V92" s="61"/>
+      <c r="W92" s="61"/>
+      <c r="X92" s="96"/>
+    </row>
+    <row r="93" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C93" s="88"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="89"/>
+      <c r="I93" s="89"/>
+      <c r="J93" s="89"/>
+      <c r="K93" s="89"/>
+      <c r="L93" s="89"/>
+      <c r="M93" s="89"/>
+      <c r="N93" s="89"/>
+      <c r="O93" s="89"/>
+      <c r="P93" s="89"/>
+      <c r="Q93" s="89"/>
+      <c r="R93" s="89"/>
+      <c r="S93" s="89"/>
+      <c r="T93" s="89"/>
+      <c r="U93" s="89"/>
+      <c r="V93" s="89"/>
+      <c r="W93" s="89"/>
+      <c r="X93" s="100"/>
+    </row>
+    <row r="94" spans="3:24">
+      <c r="C94" s="43">
+        <v>14</v>
+      </c>
+      <c r="D94" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77" t="s">
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="H92" s="77"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-      <c r="N92" s="77"/>
-      <c r="O92" s="77"/>
-      <c r="P92" s="77"/>
-      <c r="Q92" s="77"/>
-      <c r="R92" s="77"/>
-      <c r="S92" s="77"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="21"/>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C93" s="96"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="81"/>
-      <c r="G93" s="67" t="s">
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="77"/>
+      <c r="N94" s="77"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="77"/>
+      <c r="Q94" s="77"/>
+      <c r="R94" s="77"/>
+      <c r="S94" s="77"/>
+      <c r="T94" s="102"/>
+      <c r="U94" s="103"/>
+      <c r="V94" s="103"/>
+      <c r="W94" s="103"/>
+      <c r="X94" s="104"/>
+    </row>
+    <row r="95" spans="3:24">
+      <c r="C95" s="74"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
-      <c r="L93" s="67"/>
-      <c r="M93" s="67"/>
-      <c r="N93" s="67"/>
-      <c r="O93" s="67"/>
-      <c r="P93" s="67"/>
-      <c r="Q93" s="67"/>
-      <c r="R93" s="67"/>
-      <c r="S93" s="67"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="21"/>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C94" s="91"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="97"/>
-      <c r="G94" s="67" t="s">
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="67"/>
+      <c r="R95" s="67"/>
+      <c r="S95" s="67"/>
+      <c r="T95" s="68"/>
+      <c r="U95" s="80"/>
+      <c r="V95" s="80"/>
+      <c r="W95" s="80"/>
+      <c r="X95" s="81"/>
+    </row>
+    <row r="96" spans="3:24">
+      <c r="C96" s="75"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="67"/>
-      <c r="K94" s="67"/>
-      <c r="L94" s="67"/>
-      <c r="M94" s="67"/>
-      <c r="N94" s="67"/>
-      <c r="O94" s="67"/>
-      <c r="P94" s="67"/>
-      <c r="Q94" s="67"/>
-      <c r="R94" s="67"/>
-      <c r="S94" s="67"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="21"/>
-    </row>
-    <row r="95" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C95" s="91"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="97"/>
-      <c r="G95" s="79" t="s">
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="67"/>
+      <c r="N96" s="67"/>
+      <c r="O96" s="67"/>
+      <c r="P96" s="67"/>
+      <c r="Q96" s="67"/>
+      <c r="R96" s="67"/>
+      <c r="S96" s="67"/>
+      <c r="T96" s="68"/>
+      <c r="U96" s="80"/>
+      <c r="V96" s="80"/>
+      <c r="W96" s="80"/>
+      <c r="X96" s="81"/>
+    </row>
+    <row r="97" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C97" s="75"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="H95" s="80"/>
-      <c r="I95" s="80"/>
-      <c r="J95" s="80"/>
-      <c r="K95" s="80"/>
-      <c r="L95" s="80"/>
-      <c r="M95" s="80"/>
-      <c r="N95" s="80"/>
-      <c r="O95" s="80"/>
-      <c r="P95" s="80"/>
-      <c r="Q95" s="80"/>
-      <c r="R95" s="80"/>
-      <c r="S95" s="81"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="21"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C96" s="88"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="89"/>
-      <c r="L96" s="89"/>
-      <c r="M96" s="89"/>
-      <c r="N96" s="89"/>
-      <c r="O96" s="89"/>
-      <c r="P96" s="89"/>
-      <c r="Q96" s="89"/>
-      <c r="R96" s="89"/>
-      <c r="S96" s="90"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="21"/>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C97" s="91"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
-      <c r="K97" s="70"/>
-      <c r="L97" s="70"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="70"/>
-      <c r="O97" s="70"/>
-      <c r="P97" s="70"/>
-      <c r="Q97" s="70"/>
-      <c r="R97" s="70"/>
-      <c r="S97" s="92"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="21"/>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C98" s="91"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
-      <c r="Q98" s="70"/>
-      <c r="R98" s="70"/>
-      <c r="S98" s="92"/>
-      <c r="T98" s="46"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="21"/>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C99" s="91"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="70"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="70"/>
-      <c r="O99" s="70"/>
-      <c r="P99" s="70"/>
-      <c r="Q99" s="70"/>
-      <c r="R99" s="70"/>
-      <c r="S99" s="92"/>
-      <c r="T99" s="46"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="21"/>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C100" s="91"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="70"/>
-      <c r="M100" s="70"/>
-      <c r="N100" s="70"/>
-      <c r="O100" s="70"/>
-      <c r="P100" s="70"/>
-      <c r="Q100" s="70"/>
-      <c r="R100" s="70"/>
-      <c r="S100" s="92"/>
-      <c r="T100" s="46"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="21"/>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C101" s="91"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="70"/>
-      <c r="L101" s="70"/>
-      <c r="M101" s="70"/>
-      <c r="N101" s="70"/>
-      <c r="O101" s="70"/>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="70"/>
-      <c r="R101" s="70"/>
-      <c r="S101" s="92"/>
-      <c r="T101" s="46"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="21"/>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C102" s="91"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="70"/>
-      <c r="K102" s="70"/>
-      <c r="L102" s="70"/>
-      <c r="M102" s="70"/>
-      <c r="N102" s="70"/>
-      <c r="O102" s="70"/>
-      <c r="P102" s="70"/>
-      <c r="Q102" s="70"/>
-      <c r="R102" s="70"/>
-      <c r="S102" s="92"/>
-      <c r="T102" s="46"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="21"/>
-    </row>
-    <row r="103" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C103" s="91"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="70"/>
-      <c r="K103" s="70"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="70"/>
-      <c r="N103" s="70"/>
-      <c r="O103" s="70"/>
-      <c r="P103" s="70"/>
-      <c r="Q103" s="70"/>
-      <c r="R103" s="70"/>
-      <c r="S103" s="92"/>
-      <c r="T103" s="46"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="21"/>
-    </row>
-    <row r="104" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C104" s="91"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70"/>
-      <c r="L104" s="70"/>
-      <c r="M104" s="70"/>
-      <c r="N104" s="70"/>
-      <c r="O104" s="70"/>
-      <c r="P104" s="70"/>
-      <c r="Q104" s="70"/>
-      <c r="R104" s="70"/>
-      <c r="S104" s="92"/>
-      <c r="T104" s="46"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="21"/>
-    </row>
-    <row r="105" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C105" s="91"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="70"/>
-      <c r="O105" s="70"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="70"/>
-      <c r="R105" s="70"/>
-      <c r="S105" s="92"/>
-      <c r="T105" s="46"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="21"/>
-    </row>
-    <row r="106" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C106" s="91"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="70"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="70"/>
-      <c r="O106" s="70"/>
-      <c r="P106" s="70"/>
-      <c r="Q106" s="70"/>
-      <c r="R106" s="70"/>
-      <c r="S106" s="92"/>
-      <c r="T106" s="46"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="21"/>
-    </row>
-    <row r="107" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C107" s="91"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
-      <c r="J107" s="70"/>
-      <c r="K107" s="70"/>
-      <c r="L107" s="70"/>
-      <c r="M107" s="70"/>
-      <c r="N107" s="70"/>
-      <c r="O107" s="70"/>
-      <c r="P107" s="70"/>
-      <c r="Q107" s="70"/>
-      <c r="R107" s="70"/>
-      <c r="S107" s="92"/>
-      <c r="T107" s="46"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="21"/>
-    </row>
-    <row r="108" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C108" s="91"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
-      <c r="I108" s="70"/>
-      <c r="J108" s="70"/>
-      <c r="K108" s="70"/>
-      <c r="L108" s="70"/>
-      <c r="M108" s="70"/>
-      <c r="N108" s="70"/>
-      <c r="O108" s="70"/>
-      <c r="P108" s="70"/>
-      <c r="Q108" s="70"/>
-      <c r="R108" s="70"/>
-      <c r="S108" s="92"/>
-      <c r="T108" s="46"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="21"/>
-    </row>
-    <row r="109" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C109" s="91"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="70"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="70"/>
-      <c r="O109" s="70"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="70"/>
-      <c r="R109" s="70"/>
-      <c r="S109" s="92"/>
-      <c r="T109" s="46"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="21"/>
-    </row>
-    <row r="110" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C110" s="91"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="70"/>
-      <c r="J110" s="70"/>
-      <c r="K110" s="70"/>
-      <c r="L110" s="70"/>
-      <c r="M110" s="70"/>
-      <c r="N110" s="70"/>
-      <c r="O110" s="70"/>
-      <c r="P110" s="70"/>
-      <c r="Q110" s="70"/>
-      <c r="R110" s="70"/>
-      <c r="S110" s="92"/>
-      <c r="T110" s="46"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="21"/>
-    </row>
-    <row r="111" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C111" s="91"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
-      <c r="J111" s="70"/>
-      <c r="K111" s="70"/>
-      <c r="L111" s="70"/>
-      <c r="M111" s="70"/>
-      <c r="N111" s="70"/>
-      <c r="O111" s="70"/>
-      <c r="P111" s="70"/>
-      <c r="Q111" s="70"/>
-      <c r="R111" s="70"/>
-      <c r="S111" s="92"/>
-      <c r="T111" s="46"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-      <c r="X111" s="21"/>
-    </row>
-    <row r="112" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C112" s="91"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="70"/>
-      <c r="J112" s="70"/>
-      <c r="K112" s="70"/>
-      <c r="L112" s="70"/>
-      <c r="M112" s="70"/>
-      <c r="N112" s="70"/>
-      <c r="O112" s="70"/>
-      <c r="P112" s="70"/>
-      <c r="Q112" s="70"/>
-      <c r="R112" s="70"/>
-      <c r="S112" s="92"/>
-      <c r="T112" s="46"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="21"/>
-    </row>
-    <row r="113" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C113" s="91"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
-      <c r="J113" s="70"/>
-      <c r="K113" s="70"/>
-      <c r="L113" s="70"/>
-      <c r="M113" s="70"/>
-      <c r="N113" s="70"/>
-      <c r="O113" s="70"/>
-      <c r="P113" s="70"/>
-      <c r="Q113" s="70"/>
-      <c r="R113" s="70"/>
-      <c r="S113" s="92"/>
-      <c r="T113" s="46"/>
-      <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="21"/>
-    </row>
-    <row r="114" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C114" s="91"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="70"/>
-      <c r="H114" s="70"/>
-      <c r="I114" s="70"/>
-      <c r="J114" s="70"/>
-      <c r="K114" s="70"/>
-      <c r="L114" s="70"/>
-      <c r="M114" s="70"/>
-      <c r="N114" s="70"/>
-      <c r="O114" s="70"/>
-      <c r="P114" s="70"/>
-      <c r="Q114" s="70"/>
-      <c r="R114" s="70"/>
-      <c r="S114" s="92"/>
-      <c r="T114" s="46"/>
-      <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="21"/>
-    </row>
-    <row r="115" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C115" s="91"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
-      <c r="J115" s="70"/>
-      <c r="K115" s="70"/>
-      <c r="L115" s="70"/>
-      <c r="M115" s="70"/>
-      <c r="N115" s="70"/>
-      <c r="O115" s="70"/>
-      <c r="P115" s="70"/>
-      <c r="Q115" s="70"/>
-      <c r="R115" s="70"/>
-      <c r="S115" s="92"/>
-      <c r="T115" s="46"/>
-      <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="X115" s="21"/>
-    </row>
-    <row r="116" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C116" s="91"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="70"/>
-      <c r="H116" s="70"/>
-      <c r="I116" s="70"/>
-      <c r="J116" s="70"/>
-      <c r="K116" s="70"/>
-      <c r="L116" s="70"/>
-      <c r="M116" s="70"/>
-      <c r="N116" s="70"/>
-      <c r="O116" s="70"/>
-      <c r="P116" s="70"/>
-      <c r="Q116" s="70"/>
-      <c r="R116" s="70"/>
-      <c r="S116" s="92"/>
-      <c r="T116" s="46"/>
-      <c r="U116" s="1"/>
-      <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
-      <c r="X116" s="21"/>
-    </row>
-    <row r="117" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C117" s="93"/>
-      <c r="D117" s="94"/>
-      <c r="E117" s="94"/>
-      <c r="F117" s="94"/>
-      <c r="G117" s="94"/>
-      <c r="H117" s="94"/>
-      <c r="I117" s="94"/>
-      <c r="J117" s="94"/>
-      <c r="K117" s="94"/>
-      <c r="L117" s="94"/>
-      <c r="M117" s="94"/>
-      <c r="N117" s="94"/>
-      <c r="O117" s="94"/>
-      <c r="P117" s="94"/>
-      <c r="Q117" s="94"/>
-      <c r="R117" s="94"/>
-      <c r="S117" s="95"/>
-      <c r="T117" s="46"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="21"/>
-    </row>
-    <row r="118" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C118" s="49">
-        <v>13</v>
-      </c>
-      <c r="D118" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="77"/>
-      <c r="L118" s="77"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="77"/>
-      <c r="P118" s="77"/>
-      <c r="Q118" s="77"/>
-      <c r="R118" s="77"/>
-      <c r="S118" s="77"/>
-      <c r="T118" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="U118" s="83"/>
-      <c r="V118" s="83"/>
-      <c r="W118" s="83"/>
-      <c r="X118" s="84"/>
-    </row>
-    <row r="119" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C119" s="48">
-        <v>14</v>
-      </c>
-      <c r="D119" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E119" s="98"/>
-      <c r="F119" s="98"/>
-      <c r="G119" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="H119" s="98"/>
-      <c r="I119" s="98"/>
-      <c r="J119" s="98"/>
-      <c r="K119" s="98"/>
-      <c r="L119" s="98"/>
-      <c r="M119" s="98"/>
-      <c r="N119" s="98"/>
-      <c r="O119" s="98"/>
-      <c r="P119" s="98"/>
-      <c r="Q119" s="98"/>
-      <c r="R119" s="98"/>
-      <c r="S119" s="98"/>
-      <c r="T119" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="U119" s="86"/>
-      <c r="V119" s="86"/>
-      <c r="W119" s="86"/>
-      <c r="X119" s="87"/>
-    </row>
-    <row r="120" spans="3:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="72"/>
+      <c r="O97" s="72"/>
+      <c r="P97" s="72"/>
+      <c r="Q97" s="72"/>
+      <c r="R97" s="72"/>
+      <c r="S97" s="73"/>
+      <c r="T97" s="71"/>
+      <c r="U97" s="72"/>
+      <c r="V97" s="72"/>
+      <c r="W97" s="72"/>
+      <c r="X97" s="97"/>
+    </row>
+    <row r="98" spans="3:24">
+      <c r="C98" s="86"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="87"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="87"/>
+      <c r="K98" s="87"/>
+      <c r="L98" s="87"/>
+      <c r="M98" s="87"/>
+      <c r="N98" s="87"/>
+      <c r="O98" s="87"/>
+      <c r="P98" s="87"/>
+      <c r="Q98" s="87"/>
+      <c r="R98" s="87"/>
+      <c r="S98" s="87"/>
+      <c r="T98" s="87"/>
+      <c r="U98" s="87"/>
+      <c r="V98" s="87"/>
+      <c r="W98" s="87"/>
+      <c r="X98" s="99"/>
+    </row>
+    <row r="99" spans="3:24">
+      <c r="C99" s="75"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="61"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="61"/>
+      <c r="P99" s="61"/>
+      <c r="Q99" s="61"/>
+      <c r="R99" s="61"/>
+      <c r="S99" s="61"/>
+      <c r="T99" s="61"/>
+      <c r="U99" s="61"/>
+      <c r="V99" s="61"/>
+      <c r="W99" s="61"/>
+      <c r="X99" s="96"/>
+    </row>
+    <row r="100" spans="3:24">
+      <c r="C100" s="75"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="61"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="61"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="61"/>
+      <c r="P100" s="61"/>
+      <c r="Q100" s="61"/>
+      <c r="R100" s="61"/>
+      <c r="S100" s="61"/>
+      <c r="T100" s="61"/>
+      <c r="U100" s="61"/>
+      <c r="V100" s="61"/>
+      <c r="W100" s="61"/>
+      <c r="X100" s="96"/>
+    </row>
+    <row r="101" spans="3:24">
+      <c r="C101" s="75"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="61"/>
+      <c r="P101" s="61"/>
+      <c r="Q101" s="61"/>
+      <c r="R101" s="61"/>
+      <c r="S101" s="61"/>
+      <c r="T101" s="61"/>
+      <c r="U101" s="61"/>
+      <c r="V101" s="61"/>
+      <c r="W101" s="61"/>
+      <c r="X101" s="96"/>
+    </row>
+    <row r="102" spans="3:24">
+      <c r="C102" s="75"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="61"/>
+      <c r="K102" s="61"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="61"/>
+      <c r="N102" s="61"/>
+      <c r="O102" s="61"/>
+      <c r="P102" s="61"/>
+      <c r="Q102" s="61"/>
+      <c r="R102" s="61"/>
+      <c r="S102" s="61"/>
+      <c r="T102" s="61"/>
+      <c r="U102" s="61"/>
+      <c r="V102" s="61"/>
+      <c r="W102" s="61"/>
+      <c r="X102" s="96"/>
+    </row>
+    <row r="103" spans="3:24">
+      <c r="C103" s="75"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="61"/>
+      <c r="N103" s="61"/>
+      <c r="O103" s="61"/>
+      <c r="P103" s="61"/>
+      <c r="Q103" s="61"/>
+      <c r="R103" s="61"/>
+      <c r="S103" s="61"/>
+      <c r="T103" s="61"/>
+      <c r="U103" s="61"/>
+      <c r="V103" s="61"/>
+      <c r="W103" s="61"/>
+      <c r="X103" s="96"/>
+    </row>
+    <row r="104" spans="3:24">
+      <c r="C104" s="75"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="61"/>
+      <c r="N104" s="61"/>
+      <c r="O104" s="61"/>
+      <c r="P104" s="61"/>
+      <c r="Q104" s="61"/>
+      <c r="R104" s="61"/>
+      <c r="S104" s="61"/>
+      <c r="T104" s="61"/>
+      <c r="U104" s="61"/>
+      <c r="V104" s="61"/>
+      <c r="W104" s="61"/>
+      <c r="X104" s="96"/>
+    </row>
+    <row r="105" spans="3:24">
+      <c r="C105" s="75"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="61"/>
+      <c r="N105" s="61"/>
+      <c r="O105" s="61"/>
+      <c r="P105" s="61"/>
+      <c r="Q105" s="61"/>
+      <c r="R105" s="61"/>
+      <c r="S105" s="61"/>
+      <c r="T105" s="61"/>
+      <c r="U105" s="61"/>
+      <c r="V105" s="61"/>
+      <c r="W105" s="61"/>
+      <c r="X105" s="96"/>
+    </row>
+    <row r="106" spans="3:24">
+      <c r="C106" s="75"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="61"/>
+      <c r="K106" s="61"/>
+      <c r="L106" s="61"/>
+      <c r="M106" s="61"/>
+      <c r="N106" s="61"/>
+      <c r="O106" s="61"/>
+      <c r="P106" s="61"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="61"/>
+      <c r="S106" s="61"/>
+      <c r="T106" s="61"/>
+      <c r="U106" s="61"/>
+      <c r="V106" s="61"/>
+      <c r="W106" s="61"/>
+      <c r="X106" s="96"/>
+    </row>
+    <row r="107" spans="3:24">
+      <c r="C107" s="75"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="61"/>
+      <c r="L107" s="61"/>
+      <c r="M107" s="61"/>
+      <c r="N107" s="61"/>
+      <c r="O107" s="61"/>
+      <c r="P107" s="61"/>
+      <c r="Q107" s="61"/>
+      <c r="R107" s="61"/>
+      <c r="S107" s="61"/>
+      <c r="T107" s="61"/>
+      <c r="U107" s="61"/>
+      <c r="V107" s="61"/>
+      <c r="W107" s="61"/>
+      <c r="X107" s="96"/>
+    </row>
+    <row r="108" spans="3:24">
+      <c r="C108" s="75"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="61"/>
+      <c r="R108" s="61"/>
+      <c r="S108" s="61"/>
+      <c r="T108" s="61"/>
+      <c r="U108" s="61"/>
+      <c r="V108" s="61"/>
+      <c r="W108" s="61"/>
+      <c r="X108" s="96"/>
+    </row>
+    <row r="109" spans="3:24">
+      <c r="C109" s="75"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="61"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="61"/>
+      <c r="N109" s="61"/>
+      <c r="O109" s="61"/>
+      <c r="P109" s="61"/>
+      <c r="Q109" s="61"/>
+      <c r="R109" s="61"/>
+      <c r="S109" s="61"/>
+      <c r="T109" s="61"/>
+      <c r="U109" s="61"/>
+      <c r="V109" s="61"/>
+      <c r="W109" s="61"/>
+      <c r="X109" s="96"/>
+    </row>
+    <row r="110" spans="3:24">
+      <c r="C110" s="75"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
+      <c r="N110" s="61"/>
+      <c r="O110" s="61"/>
+      <c r="P110" s="61"/>
+      <c r="Q110" s="61"/>
+      <c r="R110" s="61"/>
+      <c r="S110" s="61"/>
+      <c r="T110" s="61"/>
+      <c r="U110" s="61"/>
+      <c r="V110" s="61"/>
+      <c r="W110" s="61"/>
+      <c r="X110" s="96"/>
+    </row>
+    <row r="111" spans="3:24">
+      <c r="C111" s="75"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="61"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="61"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="61"/>
+      <c r="S111" s="61"/>
+      <c r="T111" s="61"/>
+      <c r="U111" s="61"/>
+      <c r="V111" s="61"/>
+      <c r="W111" s="61"/>
+      <c r="X111" s="96"/>
+    </row>
+    <row r="112" spans="3:24">
+      <c r="C112" s="75"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="61"/>
+      <c r="L112" s="61"/>
+      <c r="M112" s="61"/>
+      <c r="N112" s="61"/>
+      <c r="O112" s="61"/>
+      <c r="P112" s="61"/>
+      <c r="Q112" s="61"/>
+      <c r="R112" s="61"/>
+      <c r="S112" s="61"/>
+      <c r="T112" s="61"/>
+      <c r="U112" s="61"/>
+      <c r="V112" s="61"/>
+      <c r="W112" s="61"/>
+      <c r="X112" s="96"/>
+    </row>
+    <row r="113" spans="3:24">
+      <c r="C113" s="75"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
+      <c r="L113" s="61"/>
+      <c r="M113" s="61"/>
+      <c r="N113" s="61"/>
+      <c r="O113" s="61"/>
+      <c r="P113" s="61"/>
+      <c r="Q113" s="61"/>
+      <c r="R113" s="61"/>
+      <c r="S113" s="61"/>
+      <c r="T113" s="61"/>
+      <c r="U113" s="61"/>
+      <c r="V113" s="61"/>
+      <c r="W113" s="61"/>
+      <c r="X113" s="96"/>
+    </row>
+    <row r="114" spans="3:24">
+      <c r="C114" s="75"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="61"/>
+      <c r="O114" s="61"/>
+      <c r="P114" s="61"/>
+      <c r="Q114" s="61"/>
+      <c r="R114" s="61"/>
+      <c r="S114" s="61"/>
+      <c r="T114" s="61"/>
+      <c r="U114" s="61"/>
+      <c r="V114" s="61"/>
+      <c r="W114" s="61"/>
+      <c r="X114" s="96"/>
+    </row>
+    <row r="115" spans="3:24">
+      <c r="C115" s="75"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="61"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="61"/>
+      <c r="N115" s="61"/>
+      <c r="O115" s="61"/>
+      <c r="P115" s="61"/>
+      <c r="Q115" s="61"/>
+      <c r="R115" s="61"/>
+      <c r="S115" s="61"/>
+      <c r="T115" s="61"/>
+      <c r="U115" s="61"/>
+      <c r="V115" s="61"/>
+      <c r="W115" s="61"/>
+      <c r="X115" s="96"/>
+    </row>
+    <row r="116" spans="3:24">
+      <c r="C116" s="75"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="61"/>
+      <c r="H116" s="61"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="61"/>
+      <c r="L116" s="61"/>
+      <c r="M116" s="61"/>
+      <c r="N116" s="61"/>
+      <c r="O116" s="61"/>
+      <c r="P116" s="61"/>
+      <c r="Q116" s="61"/>
+      <c r="R116" s="61"/>
+      <c r="S116" s="61"/>
+      <c r="T116" s="61"/>
+      <c r="U116" s="61"/>
+      <c r="V116" s="61"/>
+      <c r="W116" s="61"/>
+      <c r="X116" s="96"/>
+    </row>
+    <row r="117" spans="3:24">
+      <c r="C117" s="75"/>
+      <c r="D117" s="61"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="61"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="61"/>
+      <c r="K117" s="61"/>
+      <c r="L117" s="61"/>
+      <c r="M117" s="61"/>
+      <c r="N117" s="61"/>
+      <c r="O117" s="61"/>
+      <c r="P117" s="61"/>
+      <c r="Q117" s="61"/>
+      <c r="R117" s="61"/>
+      <c r="S117" s="61"/>
+      <c r="T117" s="61"/>
+      <c r="U117" s="61"/>
+      <c r="V117" s="61"/>
+      <c r="W117" s="61"/>
+      <c r="X117" s="96"/>
+    </row>
+    <row r="118" spans="3:24">
+      <c r="C118" s="75"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="61"/>
+      <c r="J118" s="61"/>
+      <c r="K118" s="61"/>
+      <c r="L118" s="61"/>
+      <c r="M118" s="61"/>
+      <c r="N118" s="61"/>
+      <c r="O118" s="61"/>
+      <c r="P118" s="61"/>
+      <c r="Q118" s="61"/>
+      <c r="R118" s="61"/>
+      <c r="S118" s="61"/>
+      <c r="T118" s="61"/>
+      <c r="U118" s="61"/>
+      <c r="V118" s="61"/>
+      <c r="W118" s="61"/>
+      <c r="X118" s="96"/>
+    </row>
+    <row r="119" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C119" s="112"/>
+      <c r="D119" s="113"/>
+      <c r="E119" s="113"/>
+      <c r="F119" s="113"/>
+      <c r="G119" s="113"/>
+      <c r="H119" s="113"/>
+      <c r="I119" s="113"/>
+      <c r="J119" s="113"/>
+      <c r="K119" s="113"/>
+      <c r="L119" s="113"/>
+      <c r="M119" s="113"/>
+      <c r="N119" s="113"/>
+      <c r="O119" s="113"/>
+      <c r="P119" s="113"/>
+      <c r="Q119" s="113"/>
+      <c r="R119" s="113"/>
+      <c r="S119" s="113"/>
+      <c r="T119" s="113"/>
+      <c r="U119" s="113"/>
+      <c r="V119" s="113"/>
+      <c r="W119" s="113"/>
+      <c r="X119" s="114"/>
+    </row>
+    <row r="120" spans="3:24" ht="17.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="G71:S71"/>
-    <mergeCell ref="G40:S40"/>
-    <mergeCell ref="G41:S41"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="C56:S68"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:S54"/>
-    <mergeCell ref="G55:S55"/>
-    <mergeCell ref="C42:S53"/>
+  <mergeCells count="87">
+    <mergeCell ref="T95:X95"/>
+    <mergeCell ref="T96:X96"/>
+    <mergeCell ref="T97:X97"/>
+    <mergeCell ref="C98:X119"/>
+    <mergeCell ref="T71:X71"/>
+    <mergeCell ref="T72:X72"/>
+    <mergeCell ref="T74:X74"/>
+    <mergeCell ref="C76:X93"/>
+    <mergeCell ref="T94:X94"/>
+    <mergeCell ref="T70:X70"/>
+    <mergeCell ref="G70:S70"/>
+    <mergeCell ref="C12:X20"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="C28:X37"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="C41:X52"/>
+    <mergeCell ref="T53:X53"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="C55:X67"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:S38"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="G27:S27"/>
+    <mergeCell ref="G75:S75"/>
+    <mergeCell ref="G74:S74"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="T68:X68"/>
+    <mergeCell ref="T69:X69"/>
+    <mergeCell ref="G94:S94"/>
+    <mergeCell ref="G95:S95"/>
+    <mergeCell ref="G96:S96"/>
+    <mergeCell ref="G97:S97"/>
+    <mergeCell ref="C95:F97"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D69:F69"/>
     <mergeCell ref="G69:S69"/>
-    <mergeCell ref="G70:S70"/>
-    <mergeCell ref="G118:S118"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="C24:F27"/>
-    <mergeCell ref="G23:S23"/>
-    <mergeCell ref="G24:S24"/>
-    <mergeCell ref="G25:S25"/>
-    <mergeCell ref="G26:S26"/>
-    <mergeCell ref="G22:S22"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="C74:S91"/>
-    <mergeCell ref="C70:F73"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="C12:S20"/>
-    <mergeCell ref="G11:S11"/>
-    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T73:X73"/>
+    <mergeCell ref="D68:F68"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
@@ -9855,29 +9801,35 @@
     <mergeCell ref="G6:S6"/>
     <mergeCell ref="G10:S10"/>
     <mergeCell ref="G9:S9"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="G11:S11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G68:S68"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="C24:F27"/>
+    <mergeCell ref="G23:S23"/>
+    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="G25:S25"/>
+    <mergeCell ref="G26:S26"/>
+    <mergeCell ref="G22:S22"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C72:F75"/>
     <mergeCell ref="G73:S73"/>
+    <mergeCell ref="G39:S39"/>
+    <mergeCell ref="G40:S40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:S53"/>
+    <mergeCell ref="G54:S54"/>
+    <mergeCell ref="G71:S71"/>
     <mergeCell ref="G72:S72"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="T118:X118"/>
-    <mergeCell ref="T119:X119"/>
-    <mergeCell ref="G92:S92"/>
-    <mergeCell ref="G93:S93"/>
-    <mergeCell ref="G94:S94"/>
-    <mergeCell ref="C96:S117"/>
-    <mergeCell ref="G95:S95"/>
-    <mergeCell ref="C93:F95"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="G119:S119"/>
-    <mergeCell ref="T71:X71"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G38:S38"/>
-    <mergeCell ref="G39:S39"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="G27:S27"/>
-    <mergeCell ref="C28:S37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D70:F70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9890,13 +9842,13 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13">
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
         <v>61</v>
@@ -9920,7 +9872,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="15" t="s">
         <v>68</v>
       </c>
@@ -9951,7 +9903,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="15" t="s">
         <v>69</v>
       </c>
@@ -9980,7 +9932,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="15" t="s">
         <v>70</v>
       </c>
@@ -10011,214 +9963,223 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="K6" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="18">
         <v>22</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92"/>
       <c r="K8" s="8" t="s">
         <v>120</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="18">
         <v>23</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
       <c r="K9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="18">
         <v>24</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="K10" s="27" t="s">
-        <v>268</v>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="K10" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="18">
         <v>25</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="18">
         <v>26</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="18">
         <v>27</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="18">
         <v>28</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="119"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="18">
         <v>29</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="116"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="18">
         <v>30</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="18">
         <v>31</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="119"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="92"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="18">
         <v>1</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="18">
         <v>2</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="18">
         <v>3</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="92"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="18">
         <v>4</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92"/>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="18">
         <v>5</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="92"/>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="18">
         <v>6</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="18">
         <v>7</v>
       </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="18">
         <v>8</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
@@ -10229,15 +10190,6 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/타워 기획 .xlsx
+++ b/Design/타워 기획 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11587157-1387-4C1C-AFF8-DEE17424EBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F74B33C-3E60-4161-AF50-3783EF169FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1170" windowWidth="23880" windowHeight="15390" activeTab="4" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
+    <workbookView xWindow="1170" yWindow="810" windowWidth="23880" windowHeight="15390" activeTab="4" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="327">
   <si>
     <t>타워 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1286,14 +1286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 밖에 타워 설치됨, 2X2 타워 같은 경우 2칸만 걸치면 설치가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치 가능한 크기보다 큰 타워 설치 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타워를 설치할 때 그리드 위에 타워의 크기를 그리드 위에 표시한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1351,6 +1343,22 @@
   </si>
   <si>
     <t>22.9.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우클릭을 누르면 타워 선택이 바로 취소되지 않고 우측으로 90°씩 회전함, 4번 클릭하면 타워 선택이 취소됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 사거리 최초 진입시 데미지 전달 후 1초마다 데미지 추가 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 단계에서는 불이 보이지 않음, 스테이지가 시작되면 불을 뿜음, 끝나면 다시 꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장하는 타일이 맵의 오른쪽 방향일 경우 확장되지 않았음에도 경계에 크기가 큰 타워가 설치가 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2132,7 +2140,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2295,6 +2303,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2334,6 +2375,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,49 +2408,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2401,15 +2523,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
@@ -2418,99 +2531,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3100,6 +3120,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="rectole0000000000">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5460572-BE25-C486-CE85-B64FADEA33E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2790825" y="3552825"/>
+          <a:ext cx="1971675" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3109,13 +3190,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>41414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>488673</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>193340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3170,13 +3251,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>670891</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>115954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>582752</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>145772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3231,13 +3312,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>74544</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>207064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>169214</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3292,13 +3373,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>223631</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>64442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3353,13 +3434,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>69468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>364435</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>9712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3414,13 +3495,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>621195</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>192050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>208721</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>42653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3778,34 +3859,34 @@
       <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.75" style="9" customWidth="1"/>
     <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="I1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-    </row>
-    <row r="2" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+    </row>
+    <row r="2" spans="1:15" ht="17.25" thickTop="1">
       <c r="G2" t="s">
         <v>1</v>
       </c>
@@ -3817,7 +3898,7 @@
       <c r="M2" s="47"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3839,7 +3920,7 @@
       <c r="M3" s="42"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -3861,7 +3942,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -3883,7 +3964,7 @@
       <c r="M5" s="42"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>86</v>
       </c>
@@ -3905,7 +3986,7 @@
       <c r="M6" s="42"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>115</v>
       </c>
@@ -3927,17 +4008,17 @@
       <c r="M7" s="42"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="6" t="s">
         <v>137</v>
       </c>
@@ -3949,17 +4030,17 @@
       <c r="M8" s="42"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="6" t="s">
         <v>150</v>
       </c>
@@ -3971,7 +4052,7 @@
       <c r="M9" s="42"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>156</v>
       </c>
@@ -3993,7 +4074,7 @@
       <c r="M10" s="42"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>160</v>
       </c>
@@ -4015,7 +4096,7 @@
       <c r="M11" s="42"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="17.25" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>212</v>
       </c>
@@ -4037,7 +4118,7 @@
       <c r="M12" s="52"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="17.25" thickTop="1">
       <c r="A13" s="7" t="s">
         <v>228</v>
       </c>
@@ -4057,33 +4138,33 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9">
       <c r="I19" s="26"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:9">
       <c r="I24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:9">
       <c r="I25" s="26" t="s">
         <v>138</v>
       </c>
@@ -4105,21 +4186,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F532FDB2-D334-4368-8C60-9EB45443F42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F532FDB2-D334-4368-8C60-9EB45443F42D}">
   <dimension ref="A1:BC205"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A117" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A162" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
@@ -4144,7 +4225,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
@@ -4162,9 +4243,9 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="C6" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4180,9 +4261,9 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="17.25" thickBot="1">
       <c r="C7" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -4198,7 +4279,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="C8" s="8"/>
       <c r="D8" s="31"/>
       <c r="E8" s="32"/>
@@ -4214,7 +4295,7 @@
       <c r="O8" s="32"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="C9" s="13"/>
       <c r="D9" s="34"/>
       <c r="E9" s="8"/>
@@ -4230,7 +4311,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="C10" s="8"/>
       <c r="D10" s="34"/>
       <c r="E10" s="8"/>
@@ -4246,17 +4327,17 @@
       <c r="O10" s="8"/>
       <c r="P10" s="35"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="65" t="s">
+      <c r="R10" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="S10" s="65"/>
+      <c r="S10" s="76"/>
       <c r="T10" s="20"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="C11" s="8"/>
       <c r="D11" s="34"/>
       <c r="E11" s="8"/>
@@ -4272,21 +4353,21 @@
       <c r="O11" s="8"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="65" t="s">
+      <c r="R11" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65" t="s">
+      <c r="S11" s="76"/>
+      <c r="T11" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
       <c r="X11" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="C12" s="8"/>
       <c r="D12" s="34"/>
       <c r="E12" s="8"/>
@@ -4302,19 +4383,19 @@
       <c r="O12" s="8"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="65" t="b">
+      <c r="R12" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65" t="s">
+      <c r="S12" s="76"/>
+      <c r="T12" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="C13" s="8"/>
       <c r="D13" s="34"/>
       <c r="E13" s="8"/>
@@ -4330,19 +4411,19 @@
       <c r="O13" s="8"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="65" t="b">
+      <c r="R13" s="76" t="b">
         <v>0</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65" t="s">
+      <c r="S13" s="76"/>
+      <c r="T13" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="C14" s="8"/>
       <c r="D14" s="34"/>
       <c r="E14" s="8"/>
@@ -4365,7 +4446,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="C15" s="8"/>
       <c r="D15" s="34"/>
       <c r="E15" s="8"/>
@@ -4388,7 +4469,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="C16" s="8"/>
       <c r="D16" s="34"/>
       <c r="E16" s="8" t="s">
@@ -4415,7 +4496,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:23">
       <c r="C17" s="8"/>
       <c r="D17" s="34"/>
       <c r="E17" s="8"/>
@@ -4438,14 +4519,14 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:23">
       <c r="C18" s="8"/>
       <c r="D18" s="34"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -4463,14 +4544,14 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:23">
       <c r="C19" s="8"/>
       <c r="D19" s="34"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -4488,14 +4569,14 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:23">
       <c r="C20" s="8"/>
       <c r="D20" s="34"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -4513,7 +4594,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:23">
       <c r="C21" s="8"/>
       <c r="D21" s="34"/>
       <c r="E21" s="8"/>
@@ -4536,7 +4617,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:23">
       <c r="C22" s="8"/>
       <c r="D22" s="34"/>
       <c r="E22" s="8"/>
@@ -4559,7 +4640,7 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:23">
       <c r="C23" s="8"/>
       <c r="D23" s="34"/>
       <c r="E23" s="8"/>
@@ -4582,7 +4663,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:23">
       <c r="C24" s="8"/>
       <c r="D24" s="34"/>
       <c r="E24" s="8"/>
@@ -4605,7 +4686,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:23">
       <c r="C25" s="8"/>
       <c r="D25" s="34"/>
       <c r="E25" s="8"/>
@@ -4628,7 +4709,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:23">
       <c r="C26" s="8"/>
       <c r="D26" s="34"/>
       <c r="E26" s="8"/>
@@ -4651,7 +4732,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="3:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:23" ht="17.25" thickBot="1">
       <c r="C27" s="8"/>
       <c r="D27" s="36"/>
       <c r="E27" s="37"/>
@@ -4674,7 +4755,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:23">
       <c r="C28" s="8" t="s">
         <v>139</v>
       </c>
@@ -4699,7 +4780,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:23">
       <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
@@ -4724,9 +4805,9 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:23">
       <c r="C30" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -4749,7 +4830,7 @@
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:23">
       <c r="C32" s="13" t="s">
         <v>29</v>
       </c>
@@ -4774,7 +4855,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:23">
       <c r="C33" s="8" t="s">
         <v>32</v>
       </c>
@@ -4799,7 +4880,7 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:23">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -4816,17 +4897,17 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="65" t="s">
+      <c r="Q34" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="R34" s="65"/>
+      <c r="R34" s="76"/>
       <c r="S34" s="20"/>
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:23">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -4843,21 +4924,21 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="65" t="s">
+      <c r="Q35" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65" t="s">
+      <c r="R35" s="76"/>
+      <c r="S35" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
       <c r="W35" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:23">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -4874,19 +4955,19 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="65" t="b">
+      <c r="Q36" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65" t="s">
+      <c r="R36" s="76"/>
+      <c r="S36" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:23">
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -4901,21 +4982,21 @@
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="65" t="b">
+      <c r="Q37" s="76" t="b">
         <v>0</v>
       </c>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65" t="s">
+      <c r="R37" s="76"/>
+      <c r="S37" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
       <c r="W37" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:23">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -4938,7 +5019,7 @@
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:23">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -4963,7 +5044,7 @@
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:23">
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -4986,7 +5067,7 @@
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:23">
       <c r="C41" s="8" t="s">
         <v>2</v>
       </c>
@@ -5011,7 +5092,7 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:23">
       <c r="C42" s="8" t="s">
         <v>3</v>
       </c>
@@ -5038,7 +5119,7 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:23">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -5063,7 +5144,7 @@
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="3:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:23" ht="17.25" thickBot="1">
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -5088,7 +5169,7 @@
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:23">
       <c r="D45" s="31"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
@@ -5108,7 +5189,7 @@
       <c r="T45" s="32"/>
       <c r="U45" s="33"/>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:23">
       <c r="D46" s="34"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -5130,7 +5211,7 @@
       <c r="T46" s="8"/>
       <c r="U46" s="35"/>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:23">
       <c r="D47" s="34"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -5154,7 +5235,7 @@
       <c r="T47" s="8"/>
       <c r="U47" s="35"/>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:23">
       <c r="D48" s="34"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -5178,7 +5259,7 @@
       <c r="T48" s="8"/>
       <c r="U48" s="35"/>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:29">
       <c r="D49" s="34"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -5202,7 +5283,7 @@
       <c r="T49" s="8"/>
       <c r="U49" s="35"/>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:29">
       <c r="D50" s="34"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -5224,7 +5305,7 @@
       <c r="T50" s="8"/>
       <c r="U50" s="35"/>
     </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:29">
       <c r="D51" s="34"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -5250,7 +5331,7 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
     </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:29">
       <c r="D52" s="34"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -5271,7 +5352,7 @@
       <c r="U52" s="35"/>
       <c r="X52" s="8"/>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:29">
       <c r="D53" s="34"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -5292,7 +5373,7 @@
       <c r="U53" s="35"/>
       <c r="X53" s="8"/>
     </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:29">
       <c r="D54" s="34"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -5313,7 +5394,7 @@
       <c r="U54" s="35"/>
       <c r="X54" s="8"/>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:29">
       <c r="D55" s="34"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -5334,7 +5415,7 @@
       <c r="U55" s="35"/>
       <c r="X55" s="8"/>
     </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:29">
       <c r="D56" s="34"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -5362,7 +5443,7 @@
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:29" ht="17.25" thickBot="1">
       <c r="D57" s="36"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
@@ -5388,7 +5469,7 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:29">
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -5405,7 +5486,7 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:29">
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -5434,7 +5515,7 @@
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:29">
       <c r="C60" s="8" t="s">
         <v>12</v>
       </c>
@@ -5464,7 +5545,7 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:29">
       <c r="C61" s="8" t="s">
         <v>7</v>
       </c>
@@ -5490,12 +5571,12 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
     </row>
-    <row r="62" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:29" ht="17.25" thickBot="1">
       <c r="C62" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:29">
       <c r="D63" s="31"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
@@ -5514,7 +5595,7 @@
       <c r="S63" s="32"/>
       <c r="T63" s="33"/>
     </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:29">
       <c r="D64" s="34"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -5533,7 +5614,7 @@
       <c r="S64" s="8"/>
       <c r="T64" s="35"/>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:20">
       <c r="D65" s="34"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -5552,7 +5633,7 @@
       <c r="S65" s="8"/>
       <c r="T65" s="35"/>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:20">
       <c r="D66" s="34"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -5571,7 +5652,7 @@
       <c r="S66" s="8"/>
       <c r="T66" s="35"/>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:20">
       <c r="D67" s="34"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -5590,7 +5671,7 @@
       <c r="S67" s="8"/>
       <c r="T67" s="35"/>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:20">
       <c r="D68" s="34"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -5609,7 +5690,7 @@
       <c r="S68" s="8"/>
       <c r="T68" s="35"/>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:20">
       <c r="D69" s="34"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -5628,7 +5709,7 @@
       <c r="S69" s="8"/>
       <c r="T69" s="35"/>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:20">
       <c r="D70" s="34"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -5647,7 +5728,7 @@
       <c r="S70" s="8"/>
       <c r="T70" s="35"/>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:20">
       <c r="D71" s="34"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -5666,7 +5747,7 @@
       <c r="S71" s="8"/>
       <c r="T71" s="35"/>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:20">
       <c r="D72" s="34"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -5685,7 +5766,7 @@
       <c r="S72" s="8"/>
       <c r="T72" s="35"/>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:20">
       <c r="D73" s="34"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -5704,7 +5785,7 @@
       <c r="S73" s="8"/>
       <c r="T73" s="35"/>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:20">
       <c r="D74" s="34"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -5723,7 +5804,7 @@
       <c r="S74" s="8"/>
       <c r="T74" s="35"/>
     </row>
-    <row r="75" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:20" ht="17.25" thickBot="1">
       <c r="D75" s="36"/>
       <c r="E75" s="37" t="s">
         <v>167</v>
@@ -5746,17 +5827,17 @@
       <c r="S75" s="37"/>
       <c r="T75" s="38"/>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:20">
       <c r="C77" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:20">
       <c r="C78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:20">
       <c r="C80" s="8" t="s">
         <v>121</v>
       </c>
@@ -5776,7 +5857,7 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
     </row>
-    <row r="81" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:55">
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -5794,7 +5875,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
-    <row r="82" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:55">
       <c r="C82" t="s">
         <v>134</v>
       </c>
@@ -5802,196 +5883,196 @@
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:55">
       <c r="C83" t="s">
         <v>249</v>
       </c>
-      <c r="AD83" s="59"/>
-      <c r="AE83" s="59"/>
-      <c r="AF83" s="59"/>
-      <c r="AG83" s="59"/>
+      <c r="AD83" s="70"/>
+      <c r="AE83" s="70"/>
+      <c r="AF83" s="70"/>
+      <c r="AG83" s="70"/>
       <c r="AH83" s="8"/>
-      <c r="AI83" s="59"/>
-      <c r="AJ83" s="59"/>
-      <c r="AK83" s="59"/>
-      <c r="AL83" s="59"/>
-      <c r="AM83" s="59"/>
-      <c r="AN83" s="59"/>
-      <c r="AO83" s="59"/>
-      <c r="AP83" s="59"/>
-      <c r="AQ83" s="59"/>
-      <c r="AR83" s="59"/>
-      <c r="AS83" s="59"/>
-      <c r="AT83" s="59"/>
-      <c r="AU83" s="59"/>
-      <c r="AV83" s="59"/>
-      <c r="AW83" s="59"/>
-      <c r="AX83" s="59"/>
-      <c r="AY83" s="59"/>
-      <c r="AZ83" s="59"/>
-      <c r="BA83" s="59"/>
-      <c r="BB83" s="59"/>
+      <c r="AI83" s="70"/>
+      <c r="AJ83" s="70"/>
+      <c r="AK83" s="70"/>
+      <c r="AL83" s="70"/>
+      <c r="AM83" s="70"/>
+      <c r="AN83" s="70"/>
+      <c r="AO83" s="70"/>
+      <c r="AP83" s="70"/>
+      <c r="AQ83" s="70"/>
+      <c r="AR83" s="70"/>
+      <c r="AS83" s="70"/>
+      <c r="AT83" s="70"/>
+      <c r="AU83" s="70"/>
+      <c r="AV83" s="70"/>
+      <c r="AW83" s="70"/>
+      <c r="AX83" s="70"/>
+      <c r="AY83" s="70"/>
+      <c r="AZ83" s="70"/>
+      <c r="BA83" s="70"/>
+      <c r="BB83" s="70"/>
       <c r="BC83" s="54"/>
     </row>
-    <row r="84" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:55">
       <c r="C84" t="s">
         <v>250</v>
       </c>
-      <c r="AD84" s="60"/>
-      <c r="AE84" s="60"/>
-      <c r="AF84" s="59"/>
-      <c r="AG84" s="59"/>
+      <c r="AD84" s="71"/>
+      <c r="AE84" s="71"/>
+      <c r="AF84" s="70"/>
+      <c r="AG84" s="70"/>
       <c r="AH84" s="8"/>
-      <c r="AI84" s="64"/>
-      <c r="AJ84" s="64"/>
-      <c r="AK84" s="64"/>
-      <c r="AL84" s="64"/>
-      <c r="AM84" s="64"/>
-      <c r="AN84" s="64"/>
-      <c r="AO84" s="64"/>
-      <c r="AP84" s="64"/>
-      <c r="AQ84" s="64"/>
-      <c r="AR84" s="64"/>
-      <c r="AS84" s="64"/>
-      <c r="AT84" s="64"/>
-      <c r="AU84" s="64"/>
-      <c r="AV84" s="64"/>
-      <c r="AW84" s="64"/>
-      <c r="AX84" s="64"/>
-      <c r="AY84" s="64"/>
-      <c r="AZ84" s="64"/>
-      <c r="BA84" s="64"/>
-      <c r="BB84" s="64"/>
-      <c r="BC84" s="59"/>
-    </row>
-    <row r="85" spans="3:55" x14ac:dyDescent="0.3">
+      <c r="AI84" s="75"/>
+      <c r="AJ84" s="75"/>
+      <c r="AK84" s="75"/>
+      <c r="AL84" s="75"/>
+      <c r="AM84" s="75"/>
+      <c r="AN84" s="75"/>
+      <c r="AO84" s="75"/>
+      <c r="AP84" s="75"/>
+      <c r="AQ84" s="75"/>
+      <c r="AR84" s="75"/>
+      <c r="AS84" s="75"/>
+      <c r="AT84" s="75"/>
+      <c r="AU84" s="75"/>
+      <c r="AV84" s="75"/>
+      <c r="AW84" s="75"/>
+      <c r="AX84" s="75"/>
+      <c r="AY84" s="75"/>
+      <c r="AZ84" s="75"/>
+      <c r="BA84" s="75"/>
+      <c r="BB84" s="75"/>
+      <c r="BC84" s="70"/>
+    </row>
+    <row r="85" spans="3:55">
       <c r="C85" t="s">
         <v>251</v>
       </c>
-      <c r="AD85" s="60"/>
-      <c r="AE85" s="60"/>
-      <c r="AF85" s="59"/>
-      <c r="AG85" s="59"/>
+      <c r="AD85" s="71"/>
+      <c r="AE85" s="71"/>
+      <c r="AF85" s="70"/>
+      <c r="AG85" s="70"/>
       <c r="AH85" s="8"/>
-      <c r="AI85" s="64"/>
-      <c r="AJ85" s="64"/>
-      <c r="AK85" s="64"/>
-      <c r="AL85" s="64"/>
-      <c r="AM85" s="64"/>
-      <c r="AN85" s="64"/>
-      <c r="AO85" s="64"/>
-      <c r="AP85" s="64"/>
-      <c r="AQ85" s="64"/>
-      <c r="AR85" s="64"/>
-      <c r="AS85" s="64"/>
-      <c r="AT85" s="64"/>
-      <c r="AU85" s="64"/>
-      <c r="AV85" s="64"/>
-      <c r="AW85" s="64"/>
-      <c r="AX85" s="64"/>
-      <c r="AY85" s="64"/>
-      <c r="AZ85" s="64"/>
-      <c r="BA85" s="64"/>
-      <c r="BB85" s="64"/>
-      <c r="BC85" s="59"/>
-    </row>
-    <row r="86" spans="3:55" x14ac:dyDescent="0.3">
+      <c r="AI85" s="75"/>
+      <c r="AJ85" s="75"/>
+      <c r="AK85" s="75"/>
+      <c r="AL85" s="75"/>
+      <c r="AM85" s="75"/>
+      <c r="AN85" s="75"/>
+      <c r="AO85" s="75"/>
+      <c r="AP85" s="75"/>
+      <c r="AQ85" s="75"/>
+      <c r="AR85" s="75"/>
+      <c r="AS85" s="75"/>
+      <c r="AT85" s="75"/>
+      <c r="AU85" s="75"/>
+      <c r="AV85" s="75"/>
+      <c r="AW85" s="75"/>
+      <c r="AX85" s="75"/>
+      <c r="AY85" s="75"/>
+      <c r="AZ85" s="75"/>
+      <c r="BA85" s="75"/>
+      <c r="BB85" s="75"/>
+      <c r="BC85" s="70"/>
+    </row>
+    <row r="86" spans="3:55">
       <c r="C86" t="s">
         <v>252</v>
       </c>
-      <c r="AD86" s="60"/>
-      <c r="AE86" s="60"/>
-      <c r="AF86" s="59"/>
-      <c r="AG86" s="59"/>
+      <c r="AD86" s="71"/>
+      <c r="AE86" s="71"/>
+      <c r="AF86" s="70"/>
+      <c r="AG86" s="70"/>
       <c r="AH86" s="8"/>
-      <c r="AI86" s="64"/>
-      <c r="AJ86" s="64"/>
-      <c r="AK86" s="64"/>
-      <c r="AL86" s="64"/>
-      <c r="AM86" s="64"/>
-      <c r="AN86" s="64"/>
-      <c r="AO86" s="64"/>
-      <c r="AP86" s="64"/>
-      <c r="AQ86" s="64"/>
-      <c r="AR86" s="64"/>
-      <c r="AS86" s="64"/>
-      <c r="AT86" s="64"/>
-      <c r="AU86" s="64"/>
-      <c r="AV86" s="64"/>
-      <c r="AW86" s="64"/>
-      <c r="AX86" s="64"/>
-      <c r="AY86" s="64"/>
-      <c r="AZ86" s="64"/>
-      <c r="BA86" s="64"/>
-      <c r="BB86" s="64"/>
+      <c r="AI86" s="75"/>
+      <c r="AJ86" s="75"/>
+      <c r="AK86" s="75"/>
+      <c r="AL86" s="75"/>
+      <c r="AM86" s="75"/>
+      <c r="AN86" s="75"/>
+      <c r="AO86" s="75"/>
+      <c r="AP86" s="75"/>
+      <c r="AQ86" s="75"/>
+      <c r="AR86" s="75"/>
+      <c r="AS86" s="75"/>
+      <c r="AT86" s="75"/>
+      <c r="AU86" s="75"/>
+      <c r="AV86" s="75"/>
+      <c r="AW86" s="75"/>
+      <c r="AX86" s="75"/>
+      <c r="AY86" s="75"/>
+      <c r="AZ86" s="75"/>
+      <c r="BA86" s="75"/>
+      <c r="BB86" s="75"/>
       <c r="BC86" s="8"/>
     </row>
-    <row r="87" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:55">
       <c r="C87" t="s">
         <v>253</v>
       </c>
-      <c r="AD87" s="60"/>
-      <c r="AE87" s="60"/>
-      <c r="AF87" s="59"/>
-      <c r="AG87" s="59"/>
+      <c r="AD87" s="71"/>
+      <c r="AE87" s="71"/>
+      <c r="AF87" s="70"/>
+      <c r="AG87" s="70"/>
       <c r="AH87" s="8"/>
-      <c r="AI87" s="64"/>
-      <c r="AJ87" s="64"/>
-      <c r="AK87" s="64"/>
-      <c r="AL87" s="64"/>
-      <c r="AM87" s="64"/>
-      <c r="AN87" s="64"/>
-      <c r="AO87" s="64"/>
-      <c r="AP87" s="64"/>
-      <c r="AQ87" s="64"/>
-      <c r="AR87" s="64"/>
-      <c r="AS87" s="64"/>
-      <c r="AT87" s="64"/>
-      <c r="AU87" s="64"/>
-      <c r="AV87" s="64"/>
-      <c r="AW87" s="64"/>
-      <c r="AX87" s="64"/>
-      <c r="AY87" s="64"/>
-      <c r="AZ87" s="64"/>
-      <c r="BA87" s="64"/>
-      <c r="BB87" s="64"/>
+      <c r="AI87" s="75"/>
+      <c r="AJ87" s="75"/>
+      <c r="AK87" s="75"/>
+      <c r="AL87" s="75"/>
+      <c r="AM87" s="75"/>
+      <c r="AN87" s="75"/>
+      <c r="AO87" s="75"/>
+      <c r="AP87" s="75"/>
+      <c r="AQ87" s="75"/>
+      <c r="AR87" s="75"/>
+      <c r="AS87" s="75"/>
+      <c r="AT87" s="75"/>
+      <c r="AU87" s="75"/>
+      <c r="AV87" s="75"/>
+      <c r="AW87" s="75"/>
+      <c r="AX87" s="75"/>
+      <c r="AY87" s="75"/>
+      <c r="AZ87" s="75"/>
+      <c r="BA87" s="75"/>
+      <c r="BB87" s="75"/>
       <c r="BC87" s="8"/>
     </row>
-    <row r="88" spans="3:55" x14ac:dyDescent="0.3">
-      <c r="AD88" s="60"/>
-      <c r="AE88" s="60"/>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
+    <row r="88" spans="3:55">
+      <c r="AD88" s="71"/>
+      <c r="AE88" s="71"/>
+      <c r="AF88" s="70"/>
+      <c r="AG88" s="70"/>
       <c r="AH88" s="8"/>
-      <c r="AI88" s="64"/>
-      <c r="AJ88" s="64"/>
-      <c r="AK88" s="68"/>
-      <c r="AL88" s="68"/>
-      <c r="AM88" s="68"/>
-      <c r="AN88" s="68"/>
-      <c r="AO88" s="68"/>
-      <c r="AP88" s="68"/>
-      <c r="AQ88" s="68"/>
-      <c r="AR88" s="68"/>
-      <c r="AS88" s="68"/>
-      <c r="AT88" s="68"/>
-      <c r="AU88" s="68"/>
-      <c r="AV88" s="68"/>
-      <c r="AW88" s="68"/>
-      <c r="AX88" s="68"/>
-      <c r="AY88" s="68"/>
-      <c r="AZ88" s="68"/>
-      <c r="BA88" s="68"/>
-      <c r="BB88" s="68"/>
+      <c r="AI88" s="75"/>
+      <c r="AJ88" s="75"/>
+      <c r="AK88" s="79"/>
+      <c r="AL88" s="79"/>
+      <c r="AM88" s="79"/>
+      <c r="AN88" s="79"/>
+      <c r="AO88" s="79"/>
+      <c r="AP88" s="79"/>
+      <c r="AQ88" s="79"/>
+      <c r="AR88" s="79"/>
+      <c r="AS88" s="79"/>
+      <c r="AT88" s="79"/>
+      <c r="AU88" s="79"/>
+      <c r="AV88" s="79"/>
+      <c r="AW88" s="79"/>
+      <c r="AX88" s="79"/>
+      <c r="AY88" s="79"/>
+      <c r="AZ88" s="79"/>
+      <c r="BA88" s="79"/>
+      <c r="BB88" s="79"/>
       <c r="BC88" s="8"/>
     </row>
-    <row r="89" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:55">
       <c r="C89" s="25" t="s">
         <v>122</v>
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:55">
       <c r="C90" s="25" t="s">
         <v>123</v>
       </c>
@@ -6009,7 +6090,7 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
     </row>
-    <row r="91" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:55">
       <c r="D91" t="s">
         <v>124</v>
       </c>
@@ -6017,7 +6098,7 @@
       <c r="P91" s="24"/>
       <c r="Q91" s="24"/>
     </row>
-    <row r="92" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:55">
       <c r="D92" t="s">
         <v>11</v>
       </c>
@@ -6026,7 +6107,7 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
     </row>
-    <row r="93" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:55">
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -6039,7 +6120,7 @@
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:55">
       <c r="C94" s="8" t="s">
         <v>50</v>
       </c>
@@ -6058,7 +6139,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
     </row>
-    <row r="95" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:55">
       <c r="C95" s="8"/>
       <c r="D95" s="8" t="s">
         <v>51</v>
@@ -6077,7 +6158,7 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
     </row>
-    <row r="96" spans="3:55" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:55">
       <c r="C96" s="8"/>
       <c r="D96" s="8" t="s">
         <v>52</v>
@@ -6096,7 +6177,7 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:29">
       <c r="C97" s="8"/>
       <c r="D97" s="8" t="s">
         <v>53</v>
@@ -6115,7 +6196,7 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
     </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:29">
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
         <v>54</v>
@@ -6134,8 +6215,8 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
     </row>
-    <row r="99" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:29" ht="17.25" thickBot="1"/>
+    <row r="100" spans="3:29">
       <c r="C100" s="8" t="s">
         <v>133</v>
       </c>
@@ -6151,12 +6232,12 @@
       <c r="R100" s="32"/>
       <c r="S100" s="32"/>
       <c r="T100" s="33"/>
-      <c r="V100" s="66" t="s">
+      <c r="V100" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="W100" s="67"/>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="W100" s="78"/>
+    </row>
+    <row r="101" spans="3:29">
       <c r="D101" t="s">
         <v>154</v>
       </c>
@@ -6170,22 +6251,22 @@
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
       <c r="T101" s="35"/>
-      <c r="V101" s="65" t="s">
+      <c r="V101" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="W101" s="65"/>
-      <c r="X101" s="65" t="s">
+      <c r="W101" s="76"/>
+      <c r="X101" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="Y101" s="65"/>
-      <c r="Z101" s="65"/>
-      <c r="AA101" s="65"/>
-      <c r="AB101" s="65"/>
+      <c r="Y101" s="76"/>
+      <c r="Z101" s="76"/>
+      <c r="AA101" s="76"/>
+      <c r="AB101" s="76"/>
       <c r="AC101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:29">
       <c r="D102" t="s">
         <v>112</v>
       </c>
@@ -6201,20 +6282,20 @@
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
       <c r="T102" s="35"/>
-      <c r="V102" s="65" t="b">
+      <c r="V102" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="W102" s="65"/>
-      <c r="X102" s="65" t="s">
+      <c r="W102" s="76"/>
+      <c r="X102" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="Y102" s="65"/>
-      <c r="Z102" s="65"/>
-      <c r="AA102" s="65"/>
-      <c r="AB102" s="65"/>
+      <c r="Y102" s="76"/>
+      <c r="Z102" s="76"/>
+      <c r="AA102" s="76"/>
+      <c r="AB102" s="76"/>
       <c r="AC102" s="1"/>
     </row>
-    <row r="103" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:29">
       <c r="D103" t="s">
         <v>132</v>
       </c>
@@ -6230,22 +6311,22 @@
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
       <c r="T103" s="35"/>
-      <c r="V103" s="65" t="b">
+      <c r="V103" s="76" t="b">
         <v>0</v>
       </c>
-      <c r="W103" s="65"/>
-      <c r="X103" s="65" t="s">
+      <c r="W103" s="76"/>
+      <c r="X103" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="Y103" s="65"/>
-      <c r="Z103" s="65"/>
-      <c r="AA103" s="65"/>
-      <c r="AB103" s="65"/>
+      <c r="Y103" s="76"/>
+      <c r="Z103" s="76"/>
+      <c r="AA103" s="76"/>
+      <c r="AB103" s="76"/>
       <c r="AC103" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:29">
       <c r="K104" s="34"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -6259,7 +6340,7 @@
       <c r="S104" s="8"/>
       <c r="T104" s="35"/>
     </row>
-    <row r="105" spans="3:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:29" ht="17.25" thickBot="1">
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
       <c r="M105" s="37"/>
@@ -6271,7 +6352,7 @@
       <c r="S105" s="37"/>
       <c r="T105" s="38"/>
     </row>
-    <row r="107" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:29">
       <c r="C107" s="39" t="s">
         <v>105</v>
       </c>
@@ -6288,7 +6369,7 @@
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
     </row>
-    <row r="108" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:29">
       <c r="C108" s="8"/>
       <c r="D108" s="8" t="s">
         <v>169</v>
@@ -6305,7 +6386,7 @@
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
     </row>
-    <row r="109" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:29">
       <c r="C109" s="8"/>
       <c r="D109" s="8" t="s">
         <v>56</v>
@@ -6322,7 +6403,7 @@
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
     </row>
-    <row r="110" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:29">
       <c r="C110" s="8"/>
       <c r="D110" s="8" t="s">
         <v>57</v>
@@ -6339,7 +6420,7 @@
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
     </row>
-    <row r="111" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:29">
       <c r="C111" s="8"/>
       <c r="D111" s="8" t="s">
         <v>58</v>
@@ -6356,7 +6437,7 @@
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
     </row>
-    <row r="112" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:29">
       <c r="C112" s="8"/>
       <c r="D112" s="8" t="s">
         <v>59</v>
@@ -6373,7 +6454,7 @@
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
     </row>
-    <row r="113" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:17">
       <c r="C113" s="8"/>
       <c r="D113" s="8" t="s">
         <v>140</v>
@@ -6390,7 +6471,7 @@
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
     </row>
-    <row r="115" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:17">
       <c r="C115" s="8" t="s">
         <v>131</v>
       </c>
@@ -6408,7 +6489,7 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
     </row>
-    <row r="116" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:17">
       <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
         <v>170</v>
@@ -6420,7 +6501,7 @@
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
     </row>
-    <row r="117" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:17" ht="17.25" thickBot="1">
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -6430,7 +6511,7 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:17">
       <c r="C118" s="8"/>
       <c r="D118" s="31" t="s">
         <v>45</v>
@@ -6442,7 +6523,7 @@
       <c r="I118" s="32"/>
       <c r="J118" s="33"/>
     </row>
-    <row r="119" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:17">
       <c r="C119" s="8"/>
       <c r="D119" s="34"/>
       <c r="E119" s="8"/>
@@ -6452,7 +6533,7 @@
       <c r="I119" s="8"/>
       <c r="J119" s="35"/>
     </row>
-    <row r="120" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:17">
       <c r="C120" s="8"/>
       <c r="D120" s="34"/>
       <c r="E120" s="8"/>
@@ -6464,7 +6545,7 @@
       <c r="I120" s="8"/>
       <c r="J120" s="35"/>
     </row>
-    <row r="121" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:17">
       <c r="C121" s="8"/>
       <c r="D121" s="34"/>
       <c r="E121" s="8"/>
@@ -6476,7 +6557,7 @@
       <c r="I121" s="8"/>
       <c r="J121" s="35"/>
     </row>
-    <row r="122" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:17">
       <c r="C122" s="8"/>
       <c r="D122" s="34"/>
       <c r="E122" s="8"/>
@@ -6488,7 +6569,7 @@
       <c r="I122" s="8"/>
       <c r="J122" s="35"/>
     </row>
-    <row r="123" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:17">
       <c r="C123" s="8"/>
       <c r="D123" s="34"/>
       <c r="E123" s="8"/>
@@ -6498,7 +6579,7 @@
       <c r="I123" s="8"/>
       <c r="J123" s="35"/>
     </row>
-    <row r="124" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:17" ht="17.25" thickBot="1">
       <c r="C124" s="8"/>
       <c r="D124" s="36"/>
       <c r="E124" s="37"/>
@@ -6508,7 +6589,7 @@
       <c r="I124" s="37"/>
       <c r="J124" s="38"/>
     </row>
-    <row r="125" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:17">
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -6518,7 +6599,7 @@
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:17">
       <c r="C126" s="8" t="s">
         <v>171</v>
       </c>
@@ -6535,7 +6616,7 @@
       <c r="N126" s="8"/>
       <c r="Q126" s="8"/>
     </row>
-    <row r="127" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:17">
       <c r="C127" s="8" t="s">
         <v>55</v>
       </c>
@@ -6552,7 +6633,7 @@
       <c r="N127" s="8"/>
       <c r="Q127" s="8"/>
     </row>
-    <row r="128" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:17">
       <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
         <v>84</v>
@@ -6569,7 +6650,7 @@
       <c r="N128" s="8"/>
       <c r="Q128" s="8"/>
     </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:18">
       <c r="C129" s="8"/>
       <c r="D129" s="8" t="s">
         <v>177</v>
@@ -6586,7 +6667,7 @@
       <c r="N129" s="8"/>
       <c r="Q129" s="8"/>
     </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:18">
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -6600,7 +6681,7 @@
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
     </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:18">
       <c r="C131" s="8"/>
       <c r="D131" s="8" t="s">
         <v>85</v>
@@ -6616,7 +6697,7 @@
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
     </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:18">
       <c r="C132" s="8"/>
       <c r="D132" s="25" t="s">
         <v>176</v>
@@ -6632,7 +6713,7 @@
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
     </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:18">
       <c r="C133" s="8"/>
       <c r="D133" s="25"/>
       <c r="E133" s="8"/>
@@ -6646,7 +6727,7 @@
       <c r="M133" s="8"/>
       <c r="N133" s="8"/>
     </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:18">
       <c r="C134" s="8"/>
       <c r="D134" s="8" t="s">
         <v>168</v>
@@ -6661,12 +6742,12 @@
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
     </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:18">
       <c r="D135" s="25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:18">
       <c r="C137" s="13" t="s">
         <v>172</v>
       </c>
@@ -6686,7 +6767,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:18">
       <c r="C138" s="8" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6787,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
     </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:18">
       <c r="C139" s="8"/>
       <c r="D139" s="8" t="s">
         <v>13</v>
@@ -6726,7 +6807,7 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
     </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:18">
       <c r="C140" s="8"/>
       <c r="D140" s="8" t="s">
         <v>14</v>
@@ -6746,7 +6827,7 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
     </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:18">
       <c r="C141" s="8"/>
       <c r="D141" s="8" t="s">
         <v>49</v>
@@ -6766,7 +6847,7 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
     </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:18">
       <c r="C142" s="8"/>
       <c r="D142" s="25" t="s">
         <v>163</v>
@@ -6786,7 +6867,7 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
     </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:18">
       <c r="C143" s="8"/>
       <c r="D143" s="30" t="s">
         <v>48</v>
@@ -6806,7 +6887,7 @@
       <c r="Q143" s="30"/>
       <c r="R143" s="8"/>
     </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:18">
       <c r="C144" s="8"/>
       <c r="D144" s="25" t="s">
         <v>248</v>
@@ -6826,68 +6907,68 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
     </row>
-    <row r="146" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:22">
       <c r="C146" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:22">
       <c r="D147" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:22">
       <c r="D148" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:22">
       <c r="D149" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:22">
       <c r="D150" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="151" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:22">
       <c r="D151" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:22">
       <c r="C153" s="40" t="s">
         <v>241</v>
       </c>
       <c r="V153" s="8"/>
     </row>
-    <row r="154" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:22">
       <c r="C154" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="155" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:22">
       <c r="C155" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="156" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:22">
       <c r="C156" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="157" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:22">
       <c r="C157" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="158" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:22">
       <c r="C158" s="40" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:22">
       <c r="D160" s="40"/>
       <c r="E160" s="40"/>
       <c r="F160" s="40"/>
@@ -6897,52 +6978,52 @@
       <c r="J160" s="40"/>
       <c r="K160" s="40"/>
     </row>
-    <row r="162" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:15">
       <c r="C162" s="40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="163" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:15">
       <c r="C163" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="164" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:15">
       <c r="C164" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="165" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:15">
       <c r="C165" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="166" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:15">
       <c r="C166" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:15">
       <c r="C167" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="168" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:15">
       <c r="C168" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="170" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:15">
       <c r="C170" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:15">
       <c r="C171" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:15">
       <c r="C172" s="41" t="s">
         <v>187</v>
       </c>
@@ -6959,27 +7040,27 @@
       <c r="N172" s="27"/>
       <c r="O172" s="27"/>
     </row>
-    <row r="173" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:15">
       <c r="D173" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="174" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:15">
       <c r="D174" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:15">
       <c r="D175" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="176" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:15">
       <c r="D176" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="178" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:15">
       <c r="C178" s="24" t="s">
         <v>189</v>
       </c>
@@ -6996,7 +7077,7 @@
       <c r="N178" s="29"/>
       <c r="O178" s="29"/>
     </row>
-    <row r="179" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:15">
       <c r="C179" s="29"/>
       <c r="D179" s="24" t="s">
         <v>190</v>
@@ -7013,81 +7094,81 @@
       <c r="N179" s="29"/>
       <c r="O179" s="29"/>
     </row>
-    <row r="180" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:15">
       <c r="D180" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:15">
       <c r="D181" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="183" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:15">
       <c r="C183" s="40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:15">
       <c r="C184" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="185" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:15">
       <c r="C185" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="186" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:15">
       <c r="C186" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="188" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:15">
       <c r="C188" s="40" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:15">
       <c r="C189" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="190" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:15">
       <c r="C190" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="192" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:15">
       <c r="C192" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="193" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:25">
       <c r="C193" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="194" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:25">
       <c r="C194" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="195" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:25">
       <c r="C195" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="196" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:25">
       <c r="C196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C198" s="59"/>
-      <c r="D198" s="59"/>
-      <c r="E198" s="59"/>
-      <c r="F198" s="59"/>
+    <row r="198" spans="2:25">
+      <c r="C198" s="70"/>
+      <c r="D198" s="70"/>
+      <c r="E198" s="70"/>
+      <c r="F198" s="70"/>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -7104,33 +7185,33 @@
       <c r="T198" s="8"/>
       <c r="U198" s="8"/>
     </row>
-    <row r="199" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="59"/>
+    <row r="199" spans="2:25">
+      <c r="C199" s="71"/>
+      <c r="D199" s="71"/>
+      <c r="E199" s="70"/>
+      <c r="F199" s="70"/>
       <c r="G199" s="8"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="59"/>
-      <c r="J199" s="59"/>
-      <c r="K199" s="59"/>
-      <c r="L199" s="59"/>
-      <c r="M199" s="59"/>
-      <c r="N199" s="59"/>
-      <c r="O199" s="59"/>
-      <c r="P199" s="59"/>
-      <c r="Q199" s="59"/>
-      <c r="R199" s="59"/>
-      <c r="S199" s="59"/>
-      <c r="T199" s="59"/>
-      <c r="U199" s="59"/>
-    </row>
-    <row r="200" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C200" s="61"/>
-      <c r="D200" s="62"/>
-      <c r="E200" s="63"/>
-      <c r="F200" s="63"/>
-      <c r="G200" s="63"/>
+      <c r="H199" s="70"/>
+      <c r="I199" s="70"/>
+      <c r="J199" s="70"/>
+      <c r="K199" s="70"/>
+      <c r="L199" s="70"/>
+      <c r="M199" s="70"/>
+      <c r="N199" s="70"/>
+      <c r="O199" s="70"/>
+      <c r="P199" s="70"/>
+      <c r="Q199" s="70"/>
+      <c r="R199" s="70"/>
+      <c r="S199" s="70"/>
+      <c r="T199" s="70"/>
+      <c r="U199" s="70"/>
+    </row>
+    <row r="200" spans="2:25" ht="17.25">
+      <c r="C200" s="72"/>
+      <c r="D200" s="73"/>
+      <c r="E200" s="74"/>
+      <c r="F200" s="74"/>
+      <c r="G200" s="74"/>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
@@ -7150,135 +7231,135 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:25">
       <c r="B201" s="54"/>
-      <c r="C201" s="60"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
+      <c r="C201" s="71"/>
+      <c r="D201" s="71"/>
+      <c r="E201" s="70"/>
+      <c r="F201" s="70"/>
+      <c r="G201" s="70"/>
       <c r="H201" s="8"/>
-      <c r="I201" s="59"/>
-      <c r="J201" s="59"/>
-      <c r="K201" s="59"/>
-      <c r="L201" s="59"/>
-      <c r="M201" s="59"/>
-      <c r="N201" s="59"/>
-      <c r="O201" s="59"/>
-      <c r="P201" s="59"/>
-      <c r="Q201" s="59"/>
-      <c r="R201" s="59"/>
-      <c r="S201" s="59"/>
-      <c r="T201" s="59"/>
-      <c r="U201" s="59"/>
-      <c r="V201" s="59"/>
-      <c r="W201" s="59"/>
-      <c r="X201" s="59"/>
-      <c r="Y201" s="59"/>
-    </row>
-    <row r="202" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="I201" s="70"/>
+      <c r="J201" s="70"/>
+      <c r="K201" s="70"/>
+      <c r="L201" s="70"/>
+      <c r="M201" s="70"/>
+      <c r="N201" s="70"/>
+      <c r="O201" s="70"/>
+      <c r="P201" s="70"/>
+      <c r="Q201" s="70"/>
+      <c r="R201" s="70"/>
+      <c r="S201" s="70"/>
+      <c r="T201" s="70"/>
+      <c r="U201" s="70"/>
+      <c r="V201" s="70"/>
+      <c r="W201" s="70"/>
+      <c r="X201" s="70"/>
+      <c r="Y201" s="70"/>
+    </row>
+    <row r="202" spans="2:25">
       <c r="B202" s="55"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="60"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="59"/>
+      <c r="C202" s="71"/>
+      <c r="D202" s="71"/>
+      <c r="E202" s="70"/>
+      <c r="F202" s="70"/>
+      <c r="G202" s="70"/>
       <c r="H202" s="8"/>
-      <c r="I202" s="64"/>
-      <c r="J202" s="64"/>
-      <c r="K202" s="64"/>
-      <c r="L202" s="64"/>
-      <c r="M202" s="64"/>
-      <c r="N202" s="64"/>
-      <c r="O202" s="64"/>
-      <c r="P202" s="64"/>
-      <c r="Q202" s="64"/>
-      <c r="R202" s="64"/>
-      <c r="S202" s="64"/>
-      <c r="T202" s="64"/>
-      <c r="U202" s="64"/>
-      <c r="V202" s="59"/>
-      <c r="W202" s="59"/>
-      <c r="X202" s="59"/>
-      <c r="Y202" s="59"/>
-    </row>
-    <row r="203" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="I202" s="75"/>
+      <c r="J202" s="75"/>
+      <c r="K202" s="75"/>
+      <c r="L202" s="75"/>
+      <c r="M202" s="75"/>
+      <c r="N202" s="75"/>
+      <c r="O202" s="75"/>
+      <c r="P202" s="75"/>
+      <c r="Q202" s="75"/>
+      <c r="R202" s="75"/>
+      <c r="S202" s="75"/>
+      <c r="T202" s="75"/>
+      <c r="U202" s="75"/>
+      <c r="V202" s="70"/>
+      <c r="W202" s="70"/>
+      <c r="X202" s="70"/>
+      <c r="Y202" s="70"/>
+    </row>
+    <row r="203" spans="2:25">
       <c r="B203" s="55"/>
-      <c r="C203" s="60"/>
-      <c r="D203" s="60"/>
-      <c r="E203" s="59"/>
-      <c r="F203" s="59"/>
-      <c r="G203" s="59"/>
+      <c r="C203" s="71"/>
+      <c r="D203" s="71"/>
+      <c r="E203" s="70"/>
+      <c r="F203" s="70"/>
+      <c r="G203" s="70"/>
       <c r="H203" s="8"/>
-      <c r="I203" s="64"/>
-      <c r="J203" s="64"/>
-      <c r="K203" s="64"/>
-      <c r="L203" s="64"/>
-      <c r="M203" s="64"/>
-      <c r="N203" s="64"/>
-      <c r="O203" s="64"/>
-      <c r="P203" s="64"/>
-      <c r="Q203" s="64"/>
-      <c r="R203" s="64"/>
-      <c r="S203" s="64"/>
-      <c r="T203" s="64"/>
-      <c r="U203" s="64"/>
-      <c r="V203" s="59"/>
-      <c r="W203" s="59"/>
-      <c r="X203" s="59"/>
-      <c r="Y203" s="59"/>
-    </row>
-    <row r="204" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="I203" s="75"/>
+      <c r="J203" s="75"/>
+      <c r="K203" s="75"/>
+      <c r="L203" s="75"/>
+      <c r="M203" s="75"/>
+      <c r="N203" s="75"/>
+      <c r="O203" s="75"/>
+      <c r="P203" s="75"/>
+      <c r="Q203" s="75"/>
+      <c r="R203" s="75"/>
+      <c r="S203" s="75"/>
+      <c r="T203" s="75"/>
+      <c r="U203" s="75"/>
+      <c r="V203" s="70"/>
+      <c r="W203" s="70"/>
+      <c r="X203" s="70"/>
+      <c r="Y203" s="70"/>
+    </row>
+    <row r="204" spans="2:25">
       <c r="B204" s="55"/>
-      <c r="C204" s="60"/>
-      <c r="D204" s="60"/>
-      <c r="E204" s="59"/>
-      <c r="F204" s="59"/>
-      <c r="G204" s="59"/>
+      <c r="C204" s="71"/>
+      <c r="D204" s="71"/>
+      <c r="E204" s="70"/>
+      <c r="F204" s="70"/>
+      <c r="G204" s="70"/>
       <c r="H204" s="8"/>
       <c r="I204" s="24"/>
       <c r="J204" s="24"/>
-      <c r="K204" s="64"/>
-      <c r="L204" s="64"/>
-      <c r="M204" s="64"/>
-      <c r="N204" s="64"/>
-      <c r="O204" s="64"/>
-      <c r="P204" s="64"/>
-      <c r="Q204" s="64"/>
-      <c r="R204" s="64"/>
-      <c r="S204" s="64"/>
-      <c r="T204" s="64"/>
-      <c r="U204" s="64"/>
-      <c r="V204" s="59"/>
-      <c r="W204" s="59"/>
-      <c r="X204" s="59"/>
-      <c r="Y204" s="59"/>
-    </row>
-    <row r="205" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="K204" s="75"/>
+      <c r="L204" s="75"/>
+      <c r="M204" s="75"/>
+      <c r="N204" s="75"/>
+      <c r="O204" s="75"/>
+      <c r="P204" s="75"/>
+      <c r="Q204" s="75"/>
+      <c r="R204" s="75"/>
+      <c r="S204" s="75"/>
+      <c r="T204" s="75"/>
+      <c r="U204" s="75"/>
+      <c r="V204" s="70"/>
+      <c r="W204" s="70"/>
+      <c r="X204" s="70"/>
+      <c r="Y204" s="70"/>
+    </row>
+    <row r="205" spans="2:25">
       <c r="B205" s="55"/>
-      <c r="C205" s="60"/>
-      <c r="D205" s="60"/>
-      <c r="E205" s="59"/>
-      <c r="F205" s="59"/>
-      <c r="G205" s="59"/>
+      <c r="C205" s="71"/>
+      <c r="D205" s="71"/>
+      <c r="E205" s="70"/>
+      <c r="F205" s="70"/>
+      <c r="G205" s="70"/>
       <c r="H205" s="8"/>
       <c r="I205" s="24"/>
       <c r="J205" s="24"/>
-      <c r="K205" s="64"/>
-      <c r="L205" s="64"/>
-      <c r="M205" s="64"/>
-      <c r="N205" s="64"/>
-      <c r="O205" s="64"/>
-      <c r="P205" s="64"/>
-      <c r="Q205" s="64"/>
-      <c r="R205" s="64"/>
-      <c r="S205" s="64"/>
-      <c r="T205" s="64"/>
-      <c r="U205" s="64"/>
-      <c r="V205" s="59"/>
-      <c r="W205" s="59"/>
-      <c r="X205" s="59"/>
-      <c r="Y205" s="59"/>
+      <c r="K205" s="75"/>
+      <c r="L205" s="75"/>
+      <c r="M205" s="75"/>
+      <c r="N205" s="75"/>
+      <c r="O205" s="75"/>
+      <c r="P205" s="75"/>
+      <c r="Q205" s="75"/>
+      <c r="R205" s="75"/>
+      <c r="S205" s="75"/>
+      <c r="T205" s="75"/>
+      <c r="U205" s="75"/>
+      <c r="V205" s="70"/>
+      <c r="W205" s="70"/>
+      <c r="X205" s="70"/>
+      <c r="Y205" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -7363,2970 +7444,3060 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20A1A27-3316-4D18-AB48-BA4F7348B7EF}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:X120"/>
+  <dimension ref="B1:X123"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="2:24">
+      <c r="B1" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+    </row>
+    <row r="3" spans="2:24">
       <c r="C3" s="40" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24">
       <c r="C4" s="40" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="6" spans="2:24" ht="17.25" thickTop="1">
       <c r="C6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="76" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="76" t="s">
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="81"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C7" s="110">
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="111"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="C7" s="59">
         <v>1</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="101" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="112"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C8" s="110">
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="98"/>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="C8" s="59">
         <v>2</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="113"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C9" s="110">
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="85"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="C9" s="59">
         <v>3</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104" t="s">
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="113"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C10" s="110">
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="85"/>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="C10" s="59">
         <v>4</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104" t="s">
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="113"/>
-    </row>
-    <row r="11" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="105" t="s">
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="85"/>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="114"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="84"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C13" s="72"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="85"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C14" s="72"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="85"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C15" s="72"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="85"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="85"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C17" s="72"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="85"/>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C18" s="72"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="85"/>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C19" s="72"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="85"/>
-    </row>
-    <row r="20" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="88"/>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C21" s="111">
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="101"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="66"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="66"/>
+    </row>
+    <row r="14" spans="2:24" ht="17.25" thickBot="1">
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="66"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="104"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="C16" s="89"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="105"/>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="89"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="105"/>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18" s="89"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="105"/>
+    </row>
+    <row r="19" spans="3:24">
+      <c r="C19" s="89"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="105"/>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="C20" s="89"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="105"/>
+    </row>
+    <row r="21" spans="3:24">
+      <c r="C21" s="89"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="105"/>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="C22" s="89"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="105"/>
+    </row>
+    <row r="23" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="108"/>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24" s="60">
         <v>5</v>
       </c>
-      <c r="D21" s="106" t="s">
+      <c r="D24" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="115"/>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C22" s="110">
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="100"/>
+    </row>
+    <row r="25" spans="3:24">
+      <c r="C25" s="59">
         <v>6</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D25" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104" t="s">
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="113"/>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C23" s="110">
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="85"/>
+    </row>
+    <row r="26" spans="3:24">
+      <c r="C26" s="59">
         <v>7</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D26" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="101" t="s">
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="101" t="s">
-        <v>318</v>
-      </c>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="112"/>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="101" t="s">
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="91" t="s">
+        <v>316</v>
+      </c>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="98"/>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="112"/>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C25" s="72"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="101" t="s">
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="98"/>
+    </row>
+    <row r="28" spans="3:24">
+      <c r="C28" s="89"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="112"/>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C26" s="72"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="101" t="s">
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="98"/>
+    </row>
+    <row r="29" spans="3:24">
+      <c r="C29" s="89"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="112"/>
-    </row>
-    <row r="27" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="72"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="107" t="s">
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="98"/>
+    </row>
+    <row r="30" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C30" s="89"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="105" t="s">
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="116"/>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="84"/>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C29" s="72"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="85"/>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C30" s="72"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="85"/>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C31" s="72"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="85"/>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C32" s="72"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="85"/>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C33" s="72"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="85"/>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C34" s="72"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="85"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C35" s="72"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="85"/>
-    </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C36" s="72"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="85"/>
-    </row>
-    <row r="37" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="86"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="88"/>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C38" s="111">
-        <v>8</v>
-      </c>
-      <c r="D38" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106" t="s">
-        <v>208</v>
-      </c>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="106" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="106"/>
-      <c r="V38" s="106"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="115"/>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C39" s="69"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="94"/>
+    </row>
+    <row r="31" spans="3:24">
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="104"/>
+    </row>
+    <row r="32" spans="3:24">
+      <c r="C32" s="89"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="105"/>
+    </row>
+    <row r="33" spans="3:24">
+      <c r="C33" s="89"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="105"/>
+    </row>
+    <row r="34" spans="3:24">
+      <c r="C34" s="89"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="105"/>
+    </row>
+    <row r="35" spans="3:24">
+      <c r="C35" s="89"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="105"/>
+    </row>
+    <row r="36" spans="3:24">
+      <c r="C36" s="89"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="105"/>
+    </row>
+    <row r="37" spans="3:24">
+      <c r="C37" s="89"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="105"/>
+    </row>
+    <row r="38" spans="3:24">
+      <c r="C38" s="89"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="105"/>
+    </row>
+    <row r="39" spans="3:24">
+      <c r="C39" s="89"/>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="104" t="s">
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="105"/>
+    </row>
+    <row r="40" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C40" s="106"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="108"/>
+    </row>
+    <row r="41" spans="3:24">
+      <c r="C41" s="60">
+        <v>8</v>
+      </c>
+      <c r="D41" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="U41" s="99"/>
+      <c r="V41" s="99"/>
+      <c r="W41" s="99"/>
+      <c r="X41" s="100"/>
+    </row>
+    <row r="42" spans="3:24">
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="102"/>
-      <c r="V39" s="102"/>
-      <c r="W39" s="102"/>
-      <c r="X39" s="112"/>
-    </row>
-    <row r="40" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="72"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="107" t="s">
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="98"/>
+    </row>
+    <row r="43" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C43" s="89"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="114"/>
-    </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="83"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="83"/>
-      <c r="W41" s="83"/>
-      <c r="X41" s="84"/>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C42" s="72"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="85"/>
-    </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C43" s="72"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="85"/>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C44" s="72"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="85"/>
-    </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C45" s="72"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="85"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C46" s="72"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="85"/>
-    </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C47" s="72"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="85"/>
-    </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C48" s="72"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="59"/>
-      <c r="V48" s="59"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="85"/>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C49" s="72"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="85"/>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C50" s="72"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="85"/>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C51" s="72"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="85"/>
-    </row>
-    <row r="52" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="87"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="87"/>
-      <c r="U52" s="87"/>
-      <c r="V52" s="87"/>
-      <c r="W52" s="87"/>
-      <c r="X52" s="88"/>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C53" s="111">
-        <v>9</v>
-      </c>
-      <c r="D53" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="106"/>
-      <c r="S53" s="106"/>
-      <c r="T53" s="129" t="s">
-        <v>317</v>
-      </c>
-      <c r="U53" s="130"/>
-      <c r="V53" s="130"/>
-      <c r="W53" s="130"/>
-      <c r="X53" s="131"/>
-    </row>
-    <row r="54" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="69"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="96"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="101"/>
+    </row>
+    <row r="44" spans="3:24">
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="103"/>
+      <c r="U44" s="103"/>
+      <c r="V44" s="103"/>
+      <c r="W44" s="103"/>
+      <c r="X44" s="104"/>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45" s="89"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="105"/>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46" s="89"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="70"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="105"/>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47" s="89"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="70"/>
+      <c r="U47" s="70"/>
+      <c r="V47" s="70"/>
+      <c r="W47" s="70"/>
+      <c r="X47" s="105"/>
+    </row>
+    <row r="48" spans="3:24">
+      <c r="C48" s="89"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="105"/>
+    </row>
+    <row r="49" spans="3:24">
+      <c r="C49" s="89"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="70"/>
+      <c r="U49" s="70"/>
+      <c r="V49" s="70"/>
+      <c r="W49" s="70"/>
+      <c r="X49" s="105"/>
+    </row>
+    <row r="50" spans="3:24">
+      <c r="C50" s="89"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+      <c r="T50" s="70"/>
+      <c r="U50" s="70"/>
+      <c r="V50" s="70"/>
+      <c r="W50" s="70"/>
+      <c r="X50" s="105"/>
+    </row>
+    <row r="51" spans="3:24">
+      <c r="C51" s="89"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70"/>
+      <c r="T51" s="70"/>
+      <c r="U51" s="70"/>
+      <c r="V51" s="70"/>
+      <c r="W51" s="70"/>
+      <c r="X51" s="105"/>
+    </row>
+    <row r="52" spans="3:24">
+      <c r="C52" s="89"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="105"/>
+    </row>
+    <row r="53" spans="3:24">
+      <c r="C53" s="89"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="105"/>
+    </row>
+    <row r="54" spans="3:24">
+      <c r="C54" s="89"/>
       <c r="D54" s="70"/>
       <c r="E54" s="70"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
-      <c r="S54" s="105"/>
-      <c r="T54" s="74"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
       <c r="U54" s="70"/>
       <c r="V54" s="70"/>
       <c r="W54" s="70"/>
-      <c r="X54" s="79"/>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="83"/>
-      <c r="W55" s="83"/>
-      <c r="X55" s="84"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C56" s="72"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="85"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C57" s="72"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="85"/>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C58" s="72"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="59"/>
-      <c r="U58" s="59"/>
-      <c r="V58" s="59"/>
-      <c r="W58" s="59"/>
-      <c r="X58" s="85"/>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C59" s="72"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="85"/>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C60" s="72"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="59"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="59"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="85"/>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C61" s="72"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="85"/>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C62" s="72"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="85"/>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C63" s="72"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="85"/>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C64" s="72"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="85"/>
-    </row>
-    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C65" s="72"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="85"/>
-    </row>
-    <row r="66" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C66" s="72"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="85"/>
-    </row>
-    <row r="67" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="87"/>
-      <c r="K67" s="87"/>
-      <c r="L67" s="87"/>
-      <c r="M67" s="87"/>
-      <c r="N67" s="87"/>
-      <c r="O67" s="87"/>
-      <c r="P67" s="87"/>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="87"/>
-      <c r="S67" s="87"/>
-      <c r="T67" s="87"/>
-      <c r="U67" s="87"/>
-      <c r="V67" s="87"/>
-      <c r="W67" s="87"/>
-      <c r="X67" s="88"/>
-    </row>
-    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C68" s="111">
+      <c r="X54" s="105"/>
+    </row>
+    <row r="55" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C55" s="106"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="107"/>
+      <c r="T55" s="107"/>
+      <c r="U55" s="107"/>
+      <c r="V55" s="107"/>
+      <c r="W55" s="107"/>
+      <c r="X55" s="108"/>
+    </row>
+    <row r="56" spans="3:24">
+      <c r="C56" s="60">
+        <v>9</v>
+      </c>
+      <c r="D56" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="113" t="s">
+        <v>315</v>
+      </c>
+      <c r="U56" s="114"/>
+      <c r="V56" s="114"/>
+      <c r="W56" s="114"/>
+      <c r="X56" s="115"/>
+    </row>
+    <row r="57" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C57" s="86"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="116"/>
+      <c r="U57" s="87"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
+      <c r="X57" s="117"/>
+    </row>
+    <row r="58" spans="3:24">
+      <c r="C58" s="102"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="103"/>
+      <c r="N58" s="103"/>
+      <c r="O58" s="103"/>
+      <c r="P58" s="103"/>
+      <c r="Q58" s="103"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="103"/>
+      <c r="T58" s="103"/>
+      <c r="U58" s="103"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
+      <c r="X58" s="104"/>
+    </row>
+    <row r="59" spans="3:24">
+      <c r="C59" s="89"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="70"/>
+      <c r="X59" s="105"/>
+    </row>
+    <row r="60" spans="3:24">
+      <c r="C60" s="89"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="105"/>
+    </row>
+    <row r="61" spans="3:24">
+      <c r="C61" s="89"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="70"/>
+      <c r="X61" s="105"/>
+    </row>
+    <row r="62" spans="3:24">
+      <c r="C62" s="89"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="105"/>
+    </row>
+    <row r="63" spans="3:24">
+      <c r="C63" s="89"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="105"/>
+    </row>
+    <row r="64" spans="3:24">
+      <c r="C64" s="89"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="70"/>
+      <c r="X64" s="105"/>
+    </row>
+    <row r="65" spans="3:24">
+      <c r="C65" s="89"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
+      <c r="S65" s="70"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="70"/>
+      <c r="V65" s="70"/>
+      <c r="W65" s="70"/>
+      <c r="X65" s="105"/>
+    </row>
+    <row r="66" spans="3:24">
+      <c r="C66" s="89"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="70"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70"/>
+      <c r="R66" s="70"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="70"/>
+      <c r="U66" s="70"/>
+      <c r="V66" s="70"/>
+      <c r="W66" s="70"/>
+      <c r="X66" s="105"/>
+    </row>
+    <row r="67" spans="3:24">
+      <c r="C67" s="89"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="70"/>
+      <c r="S67" s="70"/>
+      <c r="T67" s="70"/>
+      <c r="U67" s="70"/>
+      <c r="V67" s="70"/>
+      <c r="W67" s="70"/>
+      <c r="X67" s="105"/>
+    </row>
+    <row r="68" spans="3:24">
+      <c r="C68" s="89"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="70"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="70"/>
+      <c r="W68" s="70"/>
+      <c r="X68" s="105"/>
+    </row>
+    <row r="69" spans="3:24">
+      <c r="C69" s="89"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
+      <c r="N69" s="70"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="70"/>
+      <c r="X69" s="105"/>
+    </row>
+    <row r="70" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C70" s="106"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="107"/>
+      <c r="L70" s="107"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="107"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="107"/>
+      <c r="R70" s="107"/>
+      <c r="S70" s="107"/>
+      <c r="T70" s="107"/>
+      <c r="U70" s="107"/>
+      <c r="V70" s="107"/>
+      <c r="W70" s="107"/>
+      <c r="X70" s="108"/>
+    </row>
+    <row r="71" spans="3:24">
+      <c r="C71" s="60">
         <v>10</v>
       </c>
-      <c r="D68" s="106" t="s">
+      <c r="D71" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="106" t="s">
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="H68" s="106"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="106"/>
-      <c r="L68" s="106"/>
-      <c r="M68" s="106"/>
-      <c r="N68" s="106"/>
-      <c r="O68" s="106"/>
-      <c r="P68" s="106"/>
-      <c r="Q68" s="106"/>
-      <c r="R68" s="106"/>
-      <c r="S68" s="106"/>
-      <c r="T68" s="118" t="s">
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="99"/>
+      <c r="O71" s="99"/>
+      <c r="P71" s="99"/>
+      <c r="Q71" s="99"/>
+      <c r="R71" s="99"/>
+      <c r="S71" s="99"/>
+      <c r="T71" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="U68" s="119"/>
-      <c r="V68" s="119"/>
-      <c r="W68" s="119"/>
-      <c r="X68" s="120"/>
-    </row>
-    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C69" s="117">
+      <c r="U71" s="121"/>
+      <c r="V71" s="121"/>
+      <c r="W71" s="121"/>
+      <c r="X71" s="122"/>
+    </row>
+    <row r="72" spans="3:24">
+      <c r="C72" s="61">
         <v>11</v>
       </c>
-      <c r="D69" s="105" t="s">
+      <c r="D72" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105" t="s">
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="105"/>
-      <c r="L69" s="105"/>
-      <c r="M69" s="105"/>
-      <c r="N69" s="105"/>
-      <c r="O69" s="105"/>
-      <c r="P69" s="105"/>
-      <c r="Q69" s="105"/>
-      <c r="R69" s="105"/>
-      <c r="S69" s="105"/>
-      <c r="T69" s="107" t="s">
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="83"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="83"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="83"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
+      <c r="T72" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="U69" s="108"/>
-      <c r="V69" s="108"/>
-      <c r="W69" s="108"/>
-      <c r="X69" s="114"/>
-    </row>
-    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C70" s="124">
+      <c r="U72" s="96"/>
+      <c r="V72" s="96"/>
+      <c r="W72" s="96"/>
+      <c r="X72" s="101"/>
+    </row>
+    <row r="73" spans="3:24">
+      <c r="C73" s="65">
         <v>12</v>
       </c>
-      <c r="D70" s="125" t="s">
+      <c r="D73" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="126"/>
-      <c r="F70" s="127"/>
-      <c r="G70" s="125" t="s">
+      <c r="E73" s="81"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
-      <c r="M70" s="126"/>
-      <c r="N70" s="126"/>
-      <c r="O70" s="126"/>
-      <c r="P70" s="126"/>
-      <c r="Q70" s="126"/>
-      <c r="R70" s="126"/>
-      <c r="S70" s="127"/>
-      <c r="T70" s="125" t="s">
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="81"/>
+      <c r="O73" s="81"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="81"/>
+      <c r="S73" s="82"/>
+      <c r="T73" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="U70" s="126"/>
-      <c r="V70" s="126"/>
-      <c r="W70" s="126"/>
-      <c r="X70" s="128"/>
-    </row>
-    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C71" s="111">
+      <c r="U73" s="81"/>
+      <c r="V73" s="81"/>
+      <c r="W73" s="81"/>
+      <c r="X73" s="123"/>
+    </row>
+    <row r="74" spans="3:24">
+      <c r="C74" s="60">
         <v>12</v>
       </c>
-      <c r="D71" s="106" t="s">
+      <c r="D74" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="106"/>
-      <c r="F71" s="106"/>
-      <c r="G71" s="106" t="s">
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="H71" s="106"/>
-      <c r="I71" s="106"/>
-      <c r="J71" s="106"/>
-      <c r="K71" s="106"/>
-      <c r="L71" s="106"/>
-      <c r="M71" s="106"/>
-      <c r="N71" s="106"/>
-      <c r="O71" s="106"/>
-      <c r="P71" s="106"/>
-      <c r="Q71" s="106"/>
-      <c r="R71" s="106"/>
-      <c r="S71" s="106"/>
-      <c r="T71" s="101"/>
-      <c r="U71" s="102"/>
-      <c r="V71" s="102"/>
-      <c r="W71" s="102"/>
-      <c r="X71" s="112"/>
-    </row>
-    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C72" s="69"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="104" t="s">
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99"/>
+      <c r="N74" s="99"/>
+      <c r="O74" s="99"/>
+      <c r="P74" s="99"/>
+      <c r="Q74" s="99"/>
+      <c r="R74" s="99"/>
+      <c r="S74" s="99"/>
+      <c r="T74" s="91"/>
+      <c r="U74" s="92"/>
+      <c r="V74" s="92"/>
+      <c r="W74" s="92"/>
+      <c r="X74" s="98"/>
+    </row>
+    <row r="75" spans="3:24">
+      <c r="C75" s="86"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="H72" s="104"/>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
-      <c r="L72" s="104"/>
-      <c r="M72" s="104"/>
-      <c r="N72" s="104"/>
-      <c r="O72" s="104"/>
-      <c r="P72" s="104"/>
-      <c r="Q72" s="104"/>
-      <c r="R72" s="104"/>
-      <c r="S72" s="104"/>
-      <c r="T72" s="101"/>
-      <c r="U72" s="102"/>
-      <c r="V72" s="102"/>
-      <c r="W72" s="102"/>
-      <c r="X72" s="112"/>
-    </row>
-    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C73" s="72"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="107" t="s">
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="S75" s="84"/>
+      <c r="T75" s="91"/>
+      <c r="U75" s="92"/>
+      <c r="V75" s="92"/>
+      <c r="W75" s="92"/>
+      <c r="X75" s="98"/>
+    </row>
+    <row r="76" spans="3:24">
+      <c r="C76" s="89"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="H73" s="108"/>
-      <c r="I73" s="108"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="108"/>
-      <c r="L73" s="108"/>
-      <c r="M73" s="108"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="108"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="109"/>
-      <c r="T73" s="101" t="s">
+      <c r="H76" s="96"/>
+      <c r="I76" s="96"/>
+      <c r="J76" s="96"/>
+      <c r="K76" s="96"/>
+      <c r="L76" s="96"/>
+      <c r="M76" s="96"/>
+      <c r="N76" s="96"/>
+      <c r="O76" s="96"/>
+      <c r="P76" s="96"/>
+      <c r="Q76" s="96"/>
+      <c r="R76" s="96"/>
+      <c r="S76" s="97"/>
+      <c r="T76" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="U73" s="102"/>
-      <c r="V73" s="102"/>
-      <c r="W73" s="102"/>
-      <c r="X73" s="112"/>
-    </row>
-    <row r="74" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C74" s="72"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="104" t="s">
+      <c r="U76" s="92"/>
+      <c r="V76" s="92"/>
+      <c r="W76" s="92"/>
+      <c r="X76" s="98"/>
+    </row>
+    <row r="77" spans="3:24">
+      <c r="C77" s="89"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="104"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="104"/>
-      <c r="N74" s="104"/>
-      <c r="O74" s="104"/>
-      <c r="P74" s="104"/>
-      <c r="Q74" s="104"/>
-      <c r="R74" s="104"/>
-      <c r="S74" s="104"/>
-      <c r="T74" s="101"/>
-      <c r="U74" s="102"/>
-      <c r="V74" s="102"/>
-      <c r="W74" s="102"/>
-      <c r="X74" s="112"/>
-    </row>
-    <row r="75" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="72"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="105" t="s">
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="84"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="84"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="84"/>
+      <c r="Q77" s="84"/>
+      <c r="R77" s="84"/>
+      <c r="S77" s="84"/>
+      <c r="T77" s="91"/>
+      <c r="U77" s="92"/>
+      <c r="V77" s="92"/>
+      <c r="W77" s="92"/>
+      <c r="X77" s="98"/>
+    </row>
+    <row r="78" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C78" s="89"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="H75" s="105"/>
-      <c r="I75" s="105"/>
-      <c r="J75" s="105"/>
-      <c r="K75" s="105"/>
-      <c r="L75" s="105"/>
-      <c r="M75" s="105"/>
-      <c r="N75" s="105"/>
-      <c r="O75" s="105"/>
-      <c r="P75" s="105"/>
-      <c r="Q75" s="105"/>
-      <c r="R75" s="105"/>
-      <c r="S75" s="105"/>
-      <c r="T75" s="121"/>
-      <c r="U75" s="122"/>
-      <c r="V75" s="122"/>
-      <c r="W75" s="122"/>
-      <c r="X75" s="123"/>
-    </row>
-    <row r="76" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C76" s="82"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83"/>
-      <c r="Q76" s="83"/>
-      <c r="R76" s="83"/>
-      <c r="S76" s="83"/>
-      <c r="T76" s="83"/>
-      <c r="U76" s="83"/>
-      <c r="V76" s="83"/>
-      <c r="W76" s="83"/>
-      <c r="X76" s="84"/>
-    </row>
-    <row r="77" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C77" s="72"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="59"/>
-      <c r="T77" s="59"/>
-      <c r="U77" s="59"/>
-      <c r="V77" s="59"/>
-      <c r="W77" s="59"/>
-      <c r="X77" s="85"/>
-    </row>
-    <row r="78" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C78" s="72"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="59"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="59"/>
-      <c r="S78" s="59"/>
-      <c r="T78" s="59"/>
-      <c r="U78" s="59"/>
-      <c r="V78" s="59"/>
-      <c r="W78" s="59"/>
-      <c r="X78" s="85"/>
-    </row>
-    <row r="79" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C79" s="72"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="59"/>
-      <c r="S79" s="59"/>
-      <c r="T79" s="59"/>
-      <c r="U79" s="59"/>
-      <c r="V79" s="59"/>
-      <c r="W79" s="59"/>
-      <c r="X79" s="85"/>
-    </row>
-    <row r="80" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C80" s="72"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-      <c r="S80" s="59"/>
-      <c r="T80" s="59"/>
-      <c r="U80" s="59"/>
-      <c r="V80" s="59"/>
-      <c r="W80" s="59"/>
-      <c r="X80" s="85"/>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C81" s="72"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="59"/>
-      <c r="T81" s="59"/>
-      <c r="U81" s="59"/>
-      <c r="V81" s="59"/>
-      <c r="W81" s="59"/>
-      <c r="X81" s="85"/>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C82" s="72"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
-      <c r="S82" s="59"/>
-      <c r="T82" s="59"/>
-      <c r="U82" s="59"/>
-      <c r="V82" s="59"/>
-      <c r="W82" s="59"/>
-      <c r="X82" s="85"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C83" s="72"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="59"/>
-      <c r="U83" s="59"/>
-      <c r="V83" s="59"/>
-      <c r="W83" s="59"/>
-      <c r="X83" s="85"/>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C84" s="72"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
-      <c r="X84" s="85"/>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C85" s="72"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
-      <c r="X85" s="85"/>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C86" s="72"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="59"/>
-      <c r="V86" s="59"/>
-      <c r="W86" s="59"/>
-      <c r="X86" s="85"/>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C87" s="72"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="59"/>
-      <c r="S87" s="59"/>
-      <c r="T87" s="59"/>
-      <c r="U87" s="59"/>
-      <c r="V87" s="59"/>
-      <c r="W87" s="59"/>
-      <c r="X87" s="85"/>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C88" s="72"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="85"/>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C89" s="72"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="59"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="59"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="59"/>
-      <c r="S89" s="59"/>
-      <c r="T89" s="59"/>
-      <c r="U89" s="59"/>
-      <c r="V89" s="59"/>
-      <c r="W89" s="59"/>
-      <c r="X89" s="85"/>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C90" s="72"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
-      <c r="N90" s="59"/>
-      <c r="O90" s="59"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="59"/>
-      <c r="S90" s="59"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="59"/>
-      <c r="V90" s="59"/>
-      <c r="W90" s="59"/>
-      <c r="X90" s="85"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C91" s="72"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="59"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="59"/>
-      <c r="S91" s="59"/>
-      <c r="T91" s="59"/>
-      <c r="U91" s="59"/>
-      <c r="V91" s="59"/>
-      <c r="W91" s="59"/>
-      <c r="X91" s="85"/>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C92" s="72"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="59"/>
-      <c r="S92" s="59"/>
-      <c r="T92" s="59"/>
-      <c r="U92" s="59"/>
-      <c r="V92" s="59"/>
-      <c r="W92" s="59"/>
-      <c r="X92" s="85"/>
-    </row>
-    <row r="93" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C93" s="86"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="87"/>
-      <c r="I93" s="87"/>
-      <c r="J93" s="87"/>
-      <c r="K93" s="87"/>
-      <c r="L93" s="87"/>
-      <c r="M93" s="87"/>
-      <c r="N93" s="87"/>
-      <c r="O93" s="87"/>
-      <c r="P93" s="87"/>
-      <c r="Q93" s="87"/>
-      <c r="R93" s="87"/>
-      <c r="S93" s="87"/>
-      <c r="T93" s="87"/>
-      <c r="U93" s="87"/>
-      <c r="V93" s="87"/>
-      <c r="W93" s="87"/>
-      <c r="X93" s="88"/>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C94" s="111">
-        <v>13</v>
-      </c>
-      <c r="D94" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="E94" s="106"/>
-      <c r="F94" s="106"/>
-      <c r="G94" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="H94" s="106"/>
-      <c r="I94" s="106"/>
-      <c r="J94" s="106"/>
-      <c r="K94" s="106"/>
-      <c r="L94" s="106"/>
-      <c r="M94" s="106"/>
-      <c r="N94" s="106"/>
-      <c r="O94" s="106"/>
-      <c r="P94" s="106"/>
-      <c r="Q94" s="106"/>
-      <c r="R94" s="106"/>
-      <c r="S94" s="106"/>
-      <c r="T94" s="89"/>
-      <c r="U94" s="90"/>
-      <c r="V94" s="90"/>
-      <c r="W94" s="90"/>
-      <c r="X94" s="91"/>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C95" s="69"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="83"/>
+      <c r="M78" s="83"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="83"/>
+      <c r="P78" s="83"/>
+      <c r="Q78" s="83"/>
+      <c r="R78" s="83"/>
+      <c r="S78" s="83"/>
+      <c r="T78" s="62"/>
+      <c r="U78" s="63"/>
+      <c r="V78" s="63"/>
+      <c r="W78" s="63"/>
+      <c r="X78" s="64"/>
+    </row>
+    <row r="79" spans="3:24">
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="103"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="103"/>
+      <c r="L79" s="103"/>
+      <c r="M79" s="103"/>
+      <c r="N79" s="103"/>
+      <c r="O79" s="103"/>
+      <c r="P79" s="103"/>
+      <c r="Q79" s="103"/>
+      <c r="R79" s="103"/>
+      <c r="S79" s="103"/>
+      <c r="T79" s="103"/>
+      <c r="U79" s="103"/>
+      <c r="V79" s="103"/>
+      <c r="W79" s="103"/>
+      <c r="X79" s="104"/>
+    </row>
+    <row r="80" spans="3:24">
+      <c r="C80" s="89"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="70"/>
+      <c r="R80" s="70"/>
+      <c r="S80" s="70"/>
+      <c r="T80" s="70"/>
+      <c r="U80" s="70"/>
+      <c r="V80" s="70"/>
+      <c r="W80" s="70"/>
+      <c r="X80" s="105"/>
+    </row>
+    <row r="81" spans="3:24">
+      <c r="C81" s="89"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="70"/>
+      <c r="L81" s="70"/>
+      <c r="M81" s="70"/>
+      <c r="N81" s="70"/>
+      <c r="O81" s="70"/>
+      <c r="P81" s="70"/>
+      <c r="Q81" s="70"/>
+      <c r="R81" s="70"/>
+      <c r="S81" s="70"/>
+      <c r="T81" s="70"/>
+      <c r="U81" s="70"/>
+      <c r="V81" s="70"/>
+      <c r="W81" s="70"/>
+      <c r="X81" s="105"/>
+    </row>
+    <row r="82" spans="3:24">
+      <c r="C82" s="89"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="70"/>
+      <c r="L82" s="70"/>
+      <c r="M82" s="70"/>
+      <c r="N82" s="70"/>
+      <c r="O82" s="70"/>
+      <c r="P82" s="70"/>
+      <c r="Q82" s="70"/>
+      <c r="R82" s="70"/>
+      <c r="S82" s="70"/>
+      <c r="T82" s="70"/>
+      <c r="U82" s="70"/>
+      <c r="V82" s="70"/>
+      <c r="W82" s="70"/>
+      <c r="X82" s="105"/>
+    </row>
+    <row r="83" spans="3:24">
+      <c r="C83" s="89"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="70"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="70"/>
+      <c r="M83" s="70"/>
+      <c r="N83" s="70"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="70"/>
+      <c r="Q83" s="70"/>
+      <c r="R83" s="70"/>
+      <c r="S83" s="70"/>
+      <c r="T83" s="70"/>
+      <c r="U83" s="70"/>
+      <c r="V83" s="70"/>
+      <c r="W83" s="70"/>
+      <c r="X83" s="105"/>
+    </row>
+    <row r="84" spans="3:24">
+      <c r="C84" s="89"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
+      <c r="N84" s="70"/>
+      <c r="O84" s="70"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="70"/>
+      <c r="R84" s="70"/>
+      <c r="S84" s="70"/>
+      <c r="T84" s="70"/>
+      <c r="U84" s="70"/>
+      <c r="V84" s="70"/>
+      <c r="W84" s="70"/>
+      <c r="X84" s="105"/>
+    </row>
+    <row r="85" spans="3:24">
+      <c r="C85" s="89"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
+      <c r="N85" s="70"/>
+      <c r="O85" s="70"/>
+      <c r="P85" s="70"/>
+      <c r="Q85" s="70"/>
+      <c r="R85" s="70"/>
+      <c r="S85" s="70"/>
+      <c r="T85" s="70"/>
+      <c r="U85" s="70"/>
+      <c r="V85" s="70"/>
+      <c r="W85" s="70"/>
+      <c r="X85" s="105"/>
+    </row>
+    <row r="86" spans="3:24">
+      <c r="C86" s="89"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="70"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="70"/>
+      <c r="L86" s="70"/>
+      <c r="M86" s="70"/>
+      <c r="N86" s="70"/>
+      <c r="O86" s="70"/>
+      <c r="P86" s="70"/>
+      <c r="Q86" s="70"/>
+      <c r="R86" s="70"/>
+      <c r="S86" s="70"/>
+      <c r="T86" s="70"/>
+      <c r="U86" s="70"/>
+      <c r="V86" s="70"/>
+      <c r="W86" s="70"/>
+      <c r="X86" s="105"/>
+    </row>
+    <row r="87" spans="3:24">
+      <c r="C87" s="89"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="70"/>
+      <c r="S87" s="70"/>
+      <c r="T87" s="70"/>
+      <c r="U87" s="70"/>
+      <c r="V87" s="70"/>
+      <c r="W87" s="70"/>
+      <c r="X87" s="105"/>
+    </row>
+    <row r="88" spans="3:24">
+      <c r="C88" s="89"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="70"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="70"/>
+      <c r="U88" s="70"/>
+      <c r="V88" s="70"/>
+      <c r="W88" s="70"/>
+      <c r="X88" s="105"/>
+    </row>
+    <row r="89" spans="3:24">
+      <c r="C89" s="89"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="105"/>
+    </row>
+    <row r="90" spans="3:24">
+      <c r="C90" s="89"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+      <c r="N90" s="70"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="70"/>
+      <c r="R90" s="70"/>
+      <c r="S90" s="70"/>
+      <c r="T90" s="70"/>
+      <c r="U90" s="70"/>
+      <c r="V90" s="70"/>
+      <c r="W90" s="70"/>
+      <c r="X90" s="105"/>
+    </row>
+    <row r="91" spans="3:24">
+      <c r="C91" s="89"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
+      <c r="R91" s="70"/>
+      <c r="S91" s="70"/>
+      <c r="T91" s="70"/>
+      <c r="U91" s="70"/>
+      <c r="V91" s="70"/>
+      <c r="W91" s="70"/>
+      <c r="X91" s="105"/>
+    </row>
+    <row r="92" spans="3:24">
+      <c r="C92" s="89"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
+      <c r="N92" s="70"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="70"/>
+      <c r="Q92" s="70"/>
+      <c r="R92" s="70"/>
+      <c r="S92" s="70"/>
+      <c r="T92" s="70"/>
+      <c r="U92" s="70"/>
+      <c r="V92" s="70"/>
+      <c r="W92" s="70"/>
+      <c r="X92" s="105"/>
+    </row>
+    <row r="93" spans="3:24">
+      <c r="C93" s="89"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="70"/>
+      <c r="M93" s="70"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="70"/>
+      <c r="Q93" s="70"/>
+      <c r="R93" s="70"/>
+      <c r="S93" s="70"/>
+      <c r="T93" s="70"/>
+      <c r="U93" s="70"/>
+      <c r="V93" s="70"/>
+      <c r="W93" s="70"/>
+      <c r="X93" s="105"/>
+    </row>
+    <row r="94" spans="3:24">
+      <c r="C94" s="89"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="70"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="70"/>
+      <c r="L94" s="70"/>
+      <c r="M94" s="70"/>
+      <c r="N94" s="70"/>
+      <c r="O94" s="70"/>
+      <c r="P94" s="70"/>
+      <c r="Q94" s="70"/>
+      <c r="R94" s="70"/>
+      <c r="S94" s="70"/>
+      <c r="T94" s="70"/>
+      <c r="U94" s="70"/>
+      <c r="V94" s="70"/>
+      <c r="W94" s="70"/>
+      <c r="X94" s="105"/>
+    </row>
+    <row r="95" spans="3:24">
+      <c r="C95" s="89"/>
       <c r="D95" s="70"/>
       <c r="E95" s="70"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="104" t="s">
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
+      <c r="J95" s="70"/>
+      <c r="K95" s="70"/>
+      <c r="L95" s="70"/>
+      <c r="M95" s="70"/>
+      <c r="N95" s="70"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="70"/>
+      <c r="R95" s="70"/>
+      <c r="S95" s="70"/>
+      <c r="T95" s="70"/>
+      <c r="U95" s="70"/>
+      <c r="V95" s="70"/>
+      <c r="W95" s="70"/>
+      <c r="X95" s="105"/>
+    </row>
+    <row r="96" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C96" s="106"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="107"/>
+      <c r="G96" s="107"/>
+      <c r="H96" s="107"/>
+      <c r="I96" s="107"/>
+      <c r="J96" s="107"/>
+      <c r="K96" s="107"/>
+      <c r="L96" s="107"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="107"/>
+      <c r="O96" s="107"/>
+      <c r="P96" s="107"/>
+      <c r="Q96" s="107"/>
+      <c r="R96" s="107"/>
+      <c r="S96" s="107"/>
+      <c r="T96" s="107"/>
+      <c r="U96" s="107"/>
+      <c r="V96" s="107"/>
+      <c r="W96" s="107"/>
+      <c r="X96" s="108"/>
+    </row>
+    <row r="97" spans="3:24">
+      <c r="C97" s="60">
+        <v>13</v>
+      </c>
+      <c r="D97" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="99"/>
+      <c r="K97" s="99"/>
+      <c r="L97" s="99"/>
+      <c r="M97" s="99"/>
+      <c r="N97" s="99"/>
+      <c r="O97" s="99"/>
+      <c r="P97" s="99"/>
+      <c r="Q97" s="99"/>
+      <c r="R97" s="99"/>
+      <c r="S97" s="99"/>
+      <c r="T97" s="127"/>
+      <c r="U97" s="128"/>
+      <c r="V97" s="128"/>
+      <c r="W97" s="128"/>
+      <c r="X97" s="129"/>
+    </row>
+    <row r="98" spans="3:24">
+      <c r="C98" s="86"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="H95" s="104"/>
-      <c r="I95" s="104"/>
-      <c r="J95" s="104"/>
-      <c r="K95" s="104"/>
-      <c r="L95" s="104"/>
-      <c r="M95" s="104"/>
-      <c r="N95" s="104"/>
-      <c r="O95" s="104"/>
-      <c r="P95" s="104"/>
-      <c r="Q95" s="104"/>
-      <c r="R95" s="104"/>
-      <c r="S95" s="104"/>
-      <c r="T95" s="66"/>
-      <c r="U95" s="75"/>
-      <c r="V95" s="75"/>
-      <c r="W95" s="75"/>
-      <c r="X95" s="80"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C96" s="72"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="104" t="s">
+      <c r="H98" s="84"/>
+      <c r="I98" s="84"/>
+      <c r="J98" s="84"/>
+      <c r="K98" s="84"/>
+      <c r="L98" s="84"/>
+      <c r="M98" s="84"/>
+      <c r="N98" s="84"/>
+      <c r="O98" s="84"/>
+      <c r="P98" s="84"/>
+      <c r="Q98" s="84"/>
+      <c r="R98" s="84"/>
+      <c r="S98" s="84"/>
+      <c r="T98" s="77"/>
+      <c r="U98" s="118"/>
+      <c r="V98" s="118"/>
+      <c r="W98" s="118"/>
+      <c r="X98" s="119"/>
+    </row>
+    <row r="99" spans="3:24">
+      <c r="C99" s="89"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="H96" s="104"/>
-      <c r="I96" s="104"/>
-      <c r="J96" s="104"/>
-      <c r="K96" s="104"/>
-      <c r="L96" s="104"/>
-      <c r="M96" s="104"/>
-      <c r="N96" s="104"/>
-      <c r="O96" s="104"/>
-      <c r="P96" s="104"/>
-      <c r="Q96" s="104"/>
-      <c r="R96" s="104"/>
-      <c r="S96" s="104"/>
-      <c r="T96" s="66"/>
-      <c r="U96" s="75"/>
-      <c r="V96" s="75"/>
-      <c r="W96" s="75"/>
-      <c r="X96" s="80"/>
-    </row>
-    <row r="97" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C97" s="72"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="107" t="s">
+      <c r="H99" s="84"/>
+      <c r="I99" s="84"/>
+      <c r="J99" s="84"/>
+      <c r="K99" s="84"/>
+      <c r="L99" s="84"/>
+      <c r="M99" s="84"/>
+      <c r="N99" s="84"/>
+      <c r="O99" s="84"/>
+      <c r="P99" s="84"/>
+      <c r="Q99" s="84"/>
+      <c r="R99" s="84"/>
+      <c r="S99" s="84"/>
+      <c r="T99" s="77"/>
+      <c r="U99" s="118"/>
+      <c r="V99" s="118"/>
+      <c r="W99" s="118"/>
+      <c r="X99" s="119"/>
+    </row>
+    <row r="100" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C100" s="89"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H97" s="108"/>
-      <c r="I97" s="108"/>
-      <c r="J97" s="108"/>
-      <c r="K97" s="108"/>
-      <c r="L97" s="108"/>
-      <c r="M97" s="108"/>
-      <c r="N97" s="108"/>
-      <c r="O97" s="108"/>
-      <c r="P97" s="108"/>
-      <c r="Q97" s="108"/>
-      <c r="R97" s="108"/>
-      <c r="S97" s="109"/>
-      <c r="T97" s="74"/>
-      <c r="U97" s="70"/>
-      <c r="V97" s="70"/>
-      <c r="W97" s="70"/>
-      <c r="X97" s="79"/>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C98" s="82"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="83"/>
-      <c r="J98" s="83"/>
-      <c r="K98" s="83"/>
-      <c r="L98" s="83"/>
-      <c r="M98" s="83"/>
-      <c r="N98" s="83"/>
-      <c r="O98" s="83"/>
-      <c r="P98" s="83"/>
-      <c r="Q98" s="83"/>
-      <c r="R98" s="83"/>
-      <c r="S98" s="83"/>
-      <c r="T98" s="83"/>
-      <c r="U98" s="83"/>
-      <c r="V98" s="83"/>
-      <c r="W98" s="83"/>
-      <c r="X98" s="84"/>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C99" s="72"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="59"/>
-      <c r="S99" s="59"/>
-      <c r="T99" s="59"/>
-      <c r="U99" s="59"/>
-      <c r="V99" s="59"/>
-      <c r="W99" s="59"/>
-      <c r="X99" s="85"/>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C100" s="72"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="59"/>
-      <c r="O100" s="59"/>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="59"/>
-      <c r="R100" s="59"/>
-      <c r="S100" s="59"/>
-      <c r="T100" s="59"/>
-      <c r="U100" s="59"/>
-      <c r="V100" s="59"/>
-      <c r="W100" s="59"/>
-      <c r="X100" s="85"/>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C101" s="72"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="59"/>
-      <c r="N101" s="59"/>
-      <c r="O101" s="59"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="59"/>
-      <c r="R101" s="59"/>
-      <c r="S101" s="59"/>
-      <c r="T101" s="59"/>
-      <c r="U101" s="59"/>
-      <c r="V101" s="59"/>
-      <c r="W101" s="59"/>
-      <c r="X101" s="85"/>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C102" s="72"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="59"/>
-      <c r="S102" s="59"/>
-      <c r="T102" s="59"/>
-      <c r="U102" s="59"/>
-      <c r="V102" s="59"/>
-      <c r="W102" s="59"/>
-      <c r="X102" s="85"/>
-    </row>
-    <row r="103" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C103" s="72"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="59"/>
-      <c r="N103" s="59"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="59"/>
-      <c r="S103" s="59"/>
-      <c r="T103" s="59"/>
-      <c r="U103" s="59"/>
-      <c r="V103" s="59"/>
-      <c r="W103" s="59"/>
-      <c r="X103" s="85"/>
-    </row>
-    <row r="104" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C104" s="72"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="59"/>
-      <c r="M104" s="59"/>
-      <c r="N104" s="59"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="59"/>
-      <c r="S104" s="59"/>
-      <c r="T104" s="59"/>
-      <c r="U104" s="59"/>
-      <c r="V104" s="59"/>
-      <c r="W104" s="59"/>
-      <c r="X104" s="85"/>
-    </row>
-    <row r="105" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C105" s="72"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="59"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="59"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="59"/>
-      <c r="S105" s="59"/>
-      <c r="T105" s="59"/>
-      <c r="U105" s="59"/>
-      <c r="V105" s="59"/>
-      <c r="W105" s="59"/>
-      <c r="X105" s="85"/>
-    </row>
-    <row r="106" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C106" s="72"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="59"/>
-      <c r="S106" s="59"/>
-      <c r="T106" s="59"/>
-      <c r="U106" s="59"/>
-      <c r="V106" s="59"/>
-      <c r="W106" s="59"/>
-      <c r="X106" s="85"/>
-    </row>
-    <row r="107" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C107" s="72"/>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="59"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="59"/>
-      <c r="S107" s="59"/>
-      <c r="T107" s="59"/>
-      <c r="U107" s="59"/>
-      <c r="V107" s="59"/>
-      <c r="W107" s="59"/>
-      <c r="X107" s="85"/>
-    </row>
-    <row r="108" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C108" s="72"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-      <c r="J108" s="59"/>
-      <c r="K108" s="59"/>
-      <c r="L108" s="59"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="59"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="59"/>
-      <c r="S108" s="59"/>
-      <c r="T108" s="59"/>
-      <c r="U108" s="59"/>
-      <c r="V108" s="59"/>
-      <c r="W108" s="59"/>
-      <c r="X108" s="85"/>
-    </row>
-    <row r="109" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C109" s="72"/>
-      <c r="D109" s="59"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59"/>
-      <c r="K109" s="59"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="59"/>
-      <c r="N109" s="59"/>
-      <c r="O109" s="59"/>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="59"/>
-      <c r="S109" s="59"/>
-      <c r="T109" s="59"/>
-      <c r="U109" s="59"/>
-      <c r="V109" s="59"/>
-      <c r="W109" s="59"/>
-      <c r="X109" s="85"/>
-    </row>
-    <row r="110" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C110" s="72"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
-      <c r="I110" s="59"/>
-      <c r="J110" s="59"/>
-      <c r="K110" s="59"/>
-      <c r="L110" s="59"/>
-      <c r="M110" s="59"/>
-      <c r="N110" s="59"/>
-      <c r="O110" s="59"/>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="59"/>
-      <c r="R110" s="59"/>
-      <c r="S110" s="59"/>
-      <c r="T110" s="59"/>
-      <c r="U110" s="59"/>
-      <c r="V110" s="59"/>
-      <c r="W110" s="59"/>
-      <c r="X110" s="85"/>
-    </row>
-    <row r="111" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C111" s="72"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="59"/>
-      <c r="L111" s="59"/>
-      <c r="M111" s="59"/>
-      <c r="N111" s="59"/>
-      <c r="O111" s="59"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="59"/>
-      <c r="R111" s="59"/>
-      <c r="S111" s="59"/>
-      <c r="T111" s="59"/>
-      <c r="U111" s="59"/>
-      <c r="V111" s="59"/>
-      <c r="W111" s="59"/>
-      <c r="X111" s="85"/>
-    </row>
-    <row r="112" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C112" s="72"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
-      <c r="I112" s="59"/>
-      <c r="J112" s="59"/>
-      <c r="K112" s="59"/>
-      <c r="L112" s="59"/>
-      <c r="M112" s="59"/>
-      <c r="N112" s="59"/>
-      <c r="O112" s="59"/>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="59"/>
-      <c r="R112" s="59"/>
-      <c r="S112" s="59"/>
-      <c r="T112" s="59"/>
-      <c r="U112" s="59"/>
-      <c r="V112" s="59"/>
-      <c r="W112" s="59"/>
-      <c r="X112" s="85"/>
-    </row>
-    <row r="113" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C113" s="72"/>
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="59"/>
-      <c r="I113" s="59"/>
-      <c r="J113" s="59"/>
-      <c r="K113" s="59"/>
-      <c r="L113" s="59"/>
-      <c r="M113" s="59"/>
-      <c r="N113" s="59"/>
-      <c r="O113" s="59"/>
-      <c r="P113" s="59"/>
-      <c r="Q113" s="59"/>
-      <c r="R113" s="59"/>
-      <c r="S113" s="59"/>
-      <c r="T113" s="59"/>
-      <c r="U113" s="59"/>
-      <c r="V113" s="59"/>
-      <c r="W113" s="59"/>
-      <c r="X113" s="85"/>
-    </row>
-    <row r="114" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C114" s="72"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
-      <c r="N114" s="59"/>
-      <c r="O114" s="59"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="59"/>
-      <c r="R114" s="59"/>
-      <c r="S114" s="59"/>
-      <c r="T114" s="59"/>
-      <c r="U114" s="59"/>
-      <c r="V114" s="59"/>
-      <c r="W114" s="59"/>
-      <c r="X114" s="85"/>
-    </row>
-    <row r="115" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C115" s="72"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59"/>
-      <c r="H115" s="59"/>
-      <c r="I115" s="59"/>
-      <c r="J115" s="59"/>
-      <c r="K115" s="59"/>
-      <c r="L115" s="59"/>
-      <c r="M115" s="59"/>
-      <c r="N115" s="59"/>
-      <c r="O115" s="59"/>
-      <c r="P115" s="59"/>
-      <c r="Q115" s="59"/>
-      <c r="R115" s="59"/>
-      <c r="S115" s="59"/>
-      <c r="T115" s="59"/>
-      <c r="U115" s="59"/>
-      <c r="V115" s="59"/>
-      <c r="W115" s="59"/>
-      <c r="X115" s="85"/>
-    </row>
-    <row r="116" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C116" s="72"/>
-      <c r="D116" s="59"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="59"/>
-      <c r="I116" s="59"/>
-      <c r="J116" s="59"/>
-      <c r="K116" s="59"/>
-      <c r="L116" s="59"/>
-      <c r="M116" s="59"/>
-      <c r="N116" s="59"/>
-      <c r="O116" s="59"/>
-      <c r="P116" s="59"/>
-      <c r="Q116" s="59"/>
-      <c r="R116" s="59"/>
-      <c r="S116" s="59"/>
-      <c r="T116" s="59"/>
-      <c r="U116" s="59"/>
-      <c r="V116" s="59"/>
-      <c r="W116" s="59"/>
-      <c r="X116" s="85"/>
-    </row>
-    <row r="117" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C117" s="72"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
-      <c r="L117" s="59"/>
-      <c r="M117" s="59"/>
-      <c r="N117" s="59"/>
-      <c r="O117" s="59"/>
-      <c r="P117" s="59"/>
-      <c r="Q117" s="59"/>
-      <c r="R117" s="59"/>
-      <c r="S117" s="59"/>
-      <c r="T117" s="59"/>
-      <c r="U117" s="59"/>
-      <c r="V117" s="59"/>
-      <c r="W117" s="59"/>
-      <c r="X117" s="85"/>
-    </row>
-    <row r="118" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C118" s="72"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="59"/>
-      <c r="I118" s="59"/>
-      <c r="J118" s="59"/>
-      <c r="K118" s="59"/>
-      <c r="L118" s="59"/>
-      <c r="M118" s="59"/>
-      <c r="N118" s="59"/>
-      <c r="O118" s="59"/>
-      <c r="P118" s="59"/>
-      <c r="Q118" s="59"/>
-      <c r="R118" s="59"/>
-      <c r="S118" s="59"/>
-      <c r="T118" s="59"/>
-      <c r="U118" s="59"/>
-      <c r="V118" s="59"/>
-      <c r="W118" s="59"/>
-      <c r="X118" s="85"/>
-    </row>
-    <row r="119" spans="3:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C119" s="92"/>
-      <c r="D119" s="93"/>
-      <c r="E119" s="93"/>
-      <c r="F119" s="93"/>
-      <c r="G119" s="93"/>
-      <c r="H119" s="93"/>
-      <c r="I119" s="93"/>
-      <c r="J119" s="93"/>
-      <c r="K119" s="93"/>
-      <c r="L119" s="93"/>
-      <c r="M119" s="93"/>
-      <c r="N119" s="93"/>
-      <c r="O119" s="93"/>
-      <c r="P119" s="93"/>
-      <c r="Q119" s="93"/>
-      <c r="R119" s="93"/>
-      <c r="S119" s="93"/>
-      <c r="T119" s="93"/>
-      <c r="U119" s="93"/>
-      <c r="V119" s="93"/>
-      <c r="W119" s="93"/>
-      <c r="X119" s="94"/>
-    </row>
-    <row r="120" spans="3:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+      <c r="J100" s="96"/>
+      <c r="K100" s="96"/>
+      <c r="L100" s="96"/>
+      <c r="M100" s="96"/>
+      <c r="N100" s="96"/>
+      <c r="O100" s="96"/>
+      <c r="P100" s="96"/>
+      <c r="Q100" s="96"/>
+      <c r="R100" s="96"/>
+      <c r="S100" s="97"/>
+      <c r="T100" s="116"/>
+      <c r="U100" s="87"/>
+      <c r="V100" s="87"/>
+      <c r="W100" s="87"/>
+      <c r="X100" s="117"/>
+    </row>
+    <row r="101" spans="3:24">
+      <c r="C101" s="102"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="103"/>
+      <c r="M101" s="103"/>
+      <c r="N101" s="103"/>
+      <c r="O101" s="103"/>
+      <c r="P101" s="103"/>
+      <c r="Q101" s="103"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="103"/>
+      <c r="T101" s="103"/>
+      <c r="U101" s="103"/>
+      <c r="V101" s="103"/>
+      <c r="W101" s="103"/>
+      <c r="X101" s="104"/>
+    </row>
+    <row r="102" spans="3:24">
+      <c r="C102" s="89"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="70"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="70"/>
+      <c r="N102" s="70"/>
+      <c r="O102" s="70"/>
+      <c r="P102" s="70"/>
+      <c r="Q102" s="70"/>
+      <c r="R102" s="70"/>
+      <c r="S102" s="70"/>
+      <c r="T102" s="70"/>
+      <c r="U102" s="70"/>
+      <c r="V102" s="70"/>
+      <c r="W102" s="70"/>
+      <c r="X102" s="105"/>
+    </row>
+    <row r="103" spans="3:24">
+      <c r="C103" s="89"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="70"/>
+      <c r="M103" s="70"/>
+      <c r="N103" s="70"/>
+      <c r="O103" s="70"/>
+      <c r="P103" s="70"/>
+      <c r="Q103" s="70"/>
+      <c r="R103" s="70"/>
+      <c r="S103" s="70"/>
+      <c r="T103" s="70"/>
+      <c r="U103" s="70"/>
+      <c r="V103" s="70"/>
+      <c r="W103" s="70"/>
+      <c r="X103" s="105"/>
+    </row>
+    <row r="104" spans="3:24">
+      <c r="C104" s="89"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="70"/>
+      <c r="L104" s="70"/>
+      <c r="M104" s="70"/>
+      <c r="N104" s="70"/>
+      <c r="O104" s="70"/>
+      <c r="P104" s="70"/>
+      <c r="Q104" s="70"/>
+      <c r="R104" s="70"/>
+      <c r="S104" s="70"/>
+      <c r="T104" s="70"/>
+      <c r="U104" s="70"/>
+      <c r="V104" s="70"/>
+      <c r="W104" s="70"/>
+      <c r="X104" s="105"/>
+    </row>
+    <row r="105" spans="3:24">
+      <c r="C105" s="89"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="70"/>
+      <c r="N105" s="70"/>
+      <c r="O105" s="70"/>
+      <c r="P105" s="70"/>
+      <c r="Q105" s="70"/>
+      <c r="R105" s="70"/>
+      <c r="S105" s="70"/>
+      <c r="T105" s="70"/>
+      <c r="U105" s="70"/>
+      <c r="V105" s="70"/>
+      <c r="W105" s="70"/>
+      <c r="X105" s="105"/>
+    </row>
+    <row r="106" spans="3:24">
+      <c r="C106" s="89"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="70"/>
+      <c r="J106" s="70"/>
+      <c r="K106" s="70"/>
+      <c r="L106" s="70"/>
+      <c r="M106" s="70"/>
+      <c r="N106" s="70"/>
+      <c r="O106" s="70"/>
+      <c r="P106" s="70"/>
+      <c r="Q106" s="70"/>
+      <c r="R106" s="70"/>
+      <c r="S106" s="70"/>
+      <c r="T106" s="70"/>
+      <c r="U106" s="70"/>
+      <c r="V106" s="70"/>
+      <c r="W106" s="70"/>
+      <c r="X106" s="105"/>
+    </row>
+    <row r="107" spans="3:24">
+      <c r="C107" s="89"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="70"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="70"/>
+      <c r="L107" s="70"/>
+      <c r="M107" s="70"/>
+      <c r="N107" s="70"/>
+      <c r="O107" s="70"/>
+      <c r="P107" s="70"/>
+      <c r="Q107" s="70"/>
+      <c r="R107" s="70"/>
+      <c r="S107" s="70"/>
+      <c r="T107" s="70"/>
+      <c r="U107" s="70"/>
+      <c r="V107" s="70"/>
+      <c r="W107" s="70"/>
+      <c r="X107" s="105"/>
+    </row>
+    <row r="108" spans="3:24">
+      <c r="C108" s="89"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="70"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="70"/>
+      <c r="N108" s="70"/>
+      <c r="O108" s="70"/>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="70"/>
+      <c r="R108" s="70"/>
+      <c r="S108" s="70"/>
+      <c r="T108" s="70"/>
+      <c r="U108" s="70"/>
+      <c r="V108" s="70"/>
+      <c r="W108" s="70"/>
+      <c r="X108" s="105"/>
+    </row>
+    <row r="109" spans="3:24">
+      <c r="C109" s="89"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="70"/>
+      <c r="N109" s="70"/>
+      <c r="O109" s="70"/>
+      <c r="P109" s="70"/>
+      <c r="Q109" s="70"/>
+      <c r="R109" s="70"/>
+      <c r="S109" s="70"/>
+      <c r="T109" s="70"/>
+      <c r="U109" s="70"/>
+      <c r="V109" s="70"/>
+      <c r="W109" s="70"/>
+      <c r="X109" s="105"/>
+    </row>
+    <row r="110" spans="3:24">
+      <c r="C110" s="89"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="70"/>
+      <c r="L110" s="70"/>
+      <c r="M110" s="70"/>
+      <c r="N110" s="70"/>
+      <c r="O110" s="70"/>
+      <c r="P110" s="70"/>
+      <c r="Q110" s="70"/>
+      <c r="R110" s="70"/>
+      <c r="S110" s="70"/>
+      <c r="T110" s="70"/>
+      <c r="U110" s="70"/>
+      <c r="V110" s="70"/>
+      <c r="W110" s="70"/>
+      <c r="X110" s="105"/>
+    </row>
+    <row r="111" spans="3:24">
+      <c r="C111" s="89"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="70"/>
+      <c r="M111" s="70"/>
+      <c r="N111" s="70"/>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70"/>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="70"/>
+      <c r="S111" s="70"/>
+      <c r="T111" s="70"/>
+      <c r="U111" s="70"/>
+      <c r="V111" s="70"/>
+      <c r="W111" s="70"/>
+      <c r="X111" s="105"/>
+    </row>
+    <row r="112" spans="3:24">
+      <c r="C112" s="89"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="70"/>
+      <c r="N112" s="70"/>
+      <c r="O112" s="70"/>
+      <c r="P112" s="70"/>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="70"/>
+      <c r="S112" s="70"/>
+      <c r="T112" s="70"/>
+      <c r="U112" s="70"/>
+      <c r="V112" s="70"/>
+      <c r="W112" s="70"/>
+      <c r="X112" s="105"/>
+    </row>
+    <row r="113" spans="3:24">
+      <c r="C113" s="89"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="70"/>
+      <c r="N113" s="70"/>
+      <c r="O113" s="70"/>
+      <c r="P113" s="70"/>
+      <c r="Q113" s="70"/>
+      <c r="R113" s="70"/>
+      <c r="S113" s="70"/>
+      <c r="T113" s="70"/>
+      <c r="U113" s="70"/>
+      <c r="V113" s="70"/>
+      <c r="W113" s="70"/>
+      <c r="X113" s="105"/>
+    </row>
+    <row r="114" spans="3:24">
+      <c r="C114" s="89"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="70"/>
+      <c r="J114" s="70"/>
+      <c r="K114" s="70"/>
+      <c r="L114" s="70"/>
+      <c r="M114" s="70"/>
+      <c r="N114" s="70"/>
+      <c r="O114" s="70"/>
+      <c r="P114" s="70"/>
+      <c r="Q114" s="70"/>
+      <c r="R114" s="70"/>
+      <c r="S114" s="70"/>
+      <c r="T114" s="70"/>
+      <c r="U114" s="70"/>
+      <c r="V114" s="70"/>
+      <c r="W114" s="70"/>
+      <c r="X114" s="105"/>
+    </row>
+    <row r="115" spans="3:24">
+      <c r="C115" s="89"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
+      <c r="K115" s="70"/>
+      <c r="L115" s="70"/>
+      <c r="M115" s="70"/>
+      <c r="N115" s="70"/>
+      <c r="O115" s="70"/>
+      <c r="P115" s="70"/>
+      <c r="Q115" s="70"/>
+      <c r="R115" s="70"/>
+      <c r="S115" s="70"/>
+      <c r="T115" s="70"/>
+      <c r="U115" s="70"/>
+      <c r="V115" s="70"/>
+      <c r="W115" s="70"/>
+      <c r="X115" s="105"/>
+    </row>
+    <row r="116" spans="3:24">
+      <c r="C116" s="89"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="70"/>
+      <c r="L116" s="70"/>
+      <c r="M116" s="70"/>
+      <c r="N116" s="70"/>
+      <c r="O116" s="70"/>
+      <c r="P116" s="70"/>
+      <c r="Q116" s="70"/>
+      <c r="R116" s="70"/>
+      <c r="S116" s="70"/>
+      <c r="T116" s="70"/>
+      <c r="U116" s="70"/>
+      <c r="V116" s="70"/>
+      <c r="W116" s="70"/>
+      <c r="X116" s="105"/>
+    </row>
+    <row r="117" spans="3:24">
+      <c r="C117" s="89"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
+      <c r="J117" s="70"/>
+      <c r="K117" s="70"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="70"/>
+      <c r="N117" s="70"/>
+      <c r="O117" s="70"/>
+      <c r="P117" s="70"/>
+      <c r="Q117" s="70"/>
+      <c r="R117" s="70"/>
+      <c r="S117" s="70"/>
+      <c r="T117" s="70"/>
+      <c r="U117" s="70"/>
+      <c r="V117" s="70"/>
+      <c r="W117" s="70"/>
+      <c r="X117" s="105"/>
+    </row>
+    <row r="118" spans="3:24">
+      <c r="C118" s="89"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
+      <c r="K118" s="70"/>
+      <c r="L118" s="70"/>
+      <c r="M118" s="70"/>
+      <c r="N118" s="70"/>
+      <c r="O118" s="70"/>
+      <c r="P118" s="70"/>
+      <c r="Q118" s="70"/>
+      <c r="R118" s="70"/>
+      <c r="S118" s="70"/>
+      <c r="T118" s="70"/>
+      <c r="U118" s="70"/>
+      <c r="V118" s="70"/>
+      <c r="W118" s="70"/>
+      <c r="X118" s="105"/>
+    </row>
+    <row r="119" spans="3:24">
+      <c r="C119" s="89"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="70"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="70"/>
+      <c r="J119" s="70"/>
+      <c r="K119" s="70"/>
+      <c r="L119" s="70"/>
+      <c r="M119" s="70"/>
+      <c r="N119" s="70"/>
+      <c r="O119" s="70"/>
+      <c r="P119" s="70"/>
+      <c r="Q119" s="70"/>
+      <c r="R119" s="70"/>
+      <c r="S119" s="70"/>
+      <c r="T119" s="70"/>
+      <c r="U119" s="70"/>
+      <c r="V119" s="70"/>
+      <c r="W119" s="70"/>
+      <c r="X119" s="105"/>
+    </row>
+    <row r="120" spans="3:24">
+      <c r="C120" s="89"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+      <c r="N120" s="70"/>
+      <c r="O120" s="70"/>
+      <c r="P120" s="70"/>
+      <c r="Q120" s="70"/>
+      <c r="R120" s="70"/>
+      <c r="S120" s="70"/>
+      <c r="T120" s="70"/>
+      <c r="U120" s="70"/>
+      <c r="V120" s="70"/>
+      <c r="W120" s="70"/>
+      <c r="X120" s="105"/>
+    </row>
+    <row r="121" spans="3:24">
+      <c r="C121" s="89"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="70"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
+      <c r="J121" s="70"/>
+      <c r="K121" s="70"/>
+      <c r="L121" s="70"/>
+      <c r="M121" s="70"/>
+      <c r="N121" s="70"/>
+      <c r="O121" s="70"/>
+      <c r="P121" s="70"/>
+      <c r="Q121" s="70"/>
+      <c r="R121" s="70"/>
+      <c r="S121" s="70"/>
+      <c r="T121" s="70"/>
+      <c r="U121" s="70"/>
+      <c r="V121" s="70"/>
+      <c r="W121" s="70"/>
+      <c r="X121" s="105"/>
+    </row>
+    <row r="122" spans="3:24" ht="17.25" thickBot="1">
+      <c r="C122" s="124"/>
+      <c r="D122" s="125"/>
+      <c r="E122" s="125"/>
+      <c r="F122" s="125"/>
+      <c r="G122" s="125"/>
+      <c r="H122" s="125"/>
+      <c r="I122" s="125"/>
+      <c r="J122" s="125"/>
+      <c r="K122" s="125"/>
+      <c r="L122" s="125"/>
+      <c r="M122" s="125"/>
+      <c r="N122" s="125"/>
+      <c r="O122" s="125"/>
+      <c r="P122" s="125"/>
+      <c r="Q122" s="125"/>
+      <c r="R122" s="125"/>
+      <c r="S122" s="125"/>
+      <c r="T122" s="125"/>
+      <c r="U122" s="125"/>
+      <c r="V122" s="125"/>
+      <c r="W122" s="125"/>
+      <c r="X122" s="126"/>
+    </row>
+    <row r="123" spans="3:24" ht="17.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="90">
+    <mergeCell ref="T100:X100"/>
+    <mergeCell ref="C101:X122"/>
+    <mergeCell ref="T74:X74"/>
+    <mergeCell ref="T75:X75"/>
+    <mergeCell ref="T77:X77"/>
+    <mergeCell ref="C79:X96"/>
     <mergeCell ref="T97:X97"/>
-    <mergeCell ref="C98:X119"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G97:S97"/>
+    <mergeCell ref="G98:S98"/>
+    <mergeCell ref="G99:S99"/>
+    <mergeCell ref="G100:S100"/>
+    <mergeCell ref="C98:F100"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G74:S74"/>
+    <mergeCell ref="G75:S75"/>
+    <mergeCell ref="T57:X57"/>
+    <mergeCell ref="C58:X70"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="T98:X98"/>
+    <mergeCell ref="T99:X99"/>
     <mergeCell ref="T71:X71"/>
     <mergeCell ref="T72:X72"/>
-    <mergeCell ref="T74:X74"/>
-    <mergeCell ref="C76:X93"/>
-    <mergeCell ref="T94:X94"/>
+    <mergeCell ref="G71:S71"/>
+    <mergeCell ref="T73:X73"/>
+    <mergeCell ref="G73:S73"/>
+    <mergeCell ref="T76:X76"/>
     <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G94:S94"/>
-    <mergeCell ref="G95:S95"/>
-    <mergeCell ref="G96:S96"/>
-    <mergeCell ref="G97:S97"/>
-    <mergeCell ref="C95:F97"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="C55:X67"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="T95:X95"/>
-    <mergeCell ref="T96:X96"/>
-    <mergeCell ref="C28:X37"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="C41:X52"/>
-    <mergeCell ref="T53:X53"/>
-    <mergeCell ref="T68:X68"/>
-    <mergeCell ref="T69:X69"/>
-    <mergeCell ref="G68:S68"/>
-    <mergeCell ref="T70:X70"/>
-    <mergeCell ref="G70:S70"/>
-    <mergeCell ref="T73:X73"/>
-    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="C75:F78"/>
+    <mergeCell ref="G76:S76"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="G57:S57"/>
+    <mergeCell ref="C31:X40"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="C44:X55"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="G41:S41"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="G42:S42"/>
+    <mergeCell ref="G43:S43"/>
+    <mergeCell ref="C42:F43"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:S56"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
@@ -10339,50 +10510,40 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G8:S8"/>
     <mergeCell ref="G7:S7"/>
-    <mergeCell ref="G38:S38"/>
-    <mergeCell ref="T38:X38"/>
     <mergeCell ref="G6:S6"/>
     <mergeCell ref="G10:S10"/>
     <mergeCell ref="G9:S9"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="G24:S24"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="G11:S11"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:X20"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="C24:F27"/>
-    <mergeCell ref="G23:S23"/>
-    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="C15:X23"/>
+    <mergeCell ref="G12:S12"/>
+    <mergeCell ref="G13:S13"/>
+    <mergeCell ref="G14:S14"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G26:S26"/>
+    <mergeCell ref="G27:S27"/>
+    <mergeCell ref="G28:S28"/>
+    <mergeCell ref="G29:S29"/>
     <mergeCell ref="G25:S25"/>
-    <mergeCell ref="G26:S26"/>
-    <mergeCell ref="G22:S22"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:S30"/>
+    <mergeCell ref="T26:X26"/>
     <mergeCell ref="T27:X27"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G27:S27"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="C72:F75"/>
-    <mergeCell ref="G73:S73"/>
-    <mergeCell ref="G39:S39"/>
-    <mergeCell ref="G40:S40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:S53"/>
-    <mergeCell ref="G54:S54"/>
-    <mergeCell ref="G71:S71"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D72:F72"/>
     <mergeCell ref="G72:S72"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:S69"/>
-    <mergeCell ref="G75:S75"/>
-    <mergeCell ref="G74:S74"/>
+    <mergeCell ref="G78:S78"/>
+    <mergeCell ref="G77:S77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10399,9 +10560,9 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13">
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
         <v>60</v>
@@ -10425,7 +10586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="15" t="s">
         <v>67</v>
       </c>
@@ -10456,7 +10617,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="15" t="s">
         <v>68</v>
       </c>
@@ -10485,7 +10646,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="15" t="s">
         <v>69</v>
       </c>
@@ -10516,211 +10677,211 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="K6" s="8" t="s">
         <v>257</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="132"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="18">
         <v>22</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="132"/>
       <c r="K8" s="8" t="s">
         <v>119</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="18">
         <v>23</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
       <c r="K9" s="8" t="s">
         <v>256</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="18">
         <v>24</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
       <c r="K10" s="25" t="s">
         <v>258</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="18">
         <v>25</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="18">
         <v>26</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="18">
         <v>27</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="18">
         <v>28</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="18">
         <v>29</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="18">
         <v>30</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="18">
         <v>31</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="18">
         <v>1</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="18">
         <v>2</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="18">
         <v>3</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="18">
         <v>4</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="18">
         <v>5</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="18">
         <v>6</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="18">
         <v>7</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="18">
         <v>8</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -10751,306 +10912,301 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFB524C-06A8-436D-A5A7-E2E1C546900B}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="C17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="B47" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
         <v>265</v>
       </c>
     </row>
